--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81DBE57-2E0B-492A-8B39-306C57ECFDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445782DA-C67E-4DAD-8034-FCD084A94EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -309,8 +309,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="m\-d"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="m\-d"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -617,11 +617,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="31" applyFont="1"/>
@@ -636,7 +636,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -687,9 +687,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,9 +727,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,26 +762,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,26 +797,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1991,43 +1957,43 @@
       </c>
       <c r="D2">
         <f>'Commercial Vehicles'!B11</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>'Commercial Vehicles'!C11</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'Commercial Vehicles'!D11</f>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>'Commercial Vehicles'!E11</f>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>'Commercial Vehicles'!F11</f>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>'Commercial Vehicles'!G11</f>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>'Commercial Vehicles'!H11</f>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'Commercial Vehicles'!I11</f>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>'Commercial Vehicles'!J11</f>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>'Commercial Vehicles'!K11</f>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2381,43 +2347,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2581,43 +2547,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2803,43 +2769,43 @@
       </c>
       <c r="D2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3193,43 +3159,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3393,43 +3359,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -6619,8 +6585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6732,94 +6698,94 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>2435.88</v>
+        <v>1646.4981124797289</v>
       </c>
       <c r="C3">
-        <v>1697.08</v>
+        <v>1368.5857570401329</v>
       </c>
       <c r="D3">
-        <v>4080.17</v>
+        <v>983.6971469156598</v>
       </c>
       <c r="E3">
-        <v>4003.43</v>
+        <v>654.32041202251673</v>
       </c>
       <c r="F3">
-        <v>4411.1099999999997</v>
+        <v>219.25443921462275</v>
       </c>
       <c r="G3">
-        <v>4229.13</v>
+        <v>29.671981569503362</v>
       </c>
       <c r="H3">
-        <v>4091.16</v>
+        <v>29.671981569503377</v>
       </c>
       <c r="I3">
-        <v>4099.26</v>
+        <v>29.671981569503377</v>
       </c>
       <c r="J3">
-        <v>4126.1899999999996</v>
+        <v>29.67198156950337</v>
       </c>
       <c r="K3">
-        <v>4359.2299999999996</v>
+        <v>29.671981569503377</v>
       </c>
       <c r="L3">
-        <v>4582.37</v>
+        <v>29.67198156950338</v>
       </c>
       <c r="M3">
-        <v>4625.5</v>
+        <v>29.662930818658605</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>29.657500368151737</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>29.657500368151744</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>20.04560297100296</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>14.278464532713683</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>14.278464532713679</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>14.278464532713679</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>14.278464532713675</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>14.278464532713675</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>14.278464532713679</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>14.278464532713674</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>14.278464532713679</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>14.278464532713683</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>14.278464532713679</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>14.278464532713683</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>14.278464532713679</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>14.278464532713679</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>10.395692420306119</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>8.066029152861578</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -6827,91 +6793,91 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>6652.72</v>
+        <v>6652.7185168992282</v>
       </c>
       <c r="C4">
-        <v>3617.05</v>
+        <v>3617.050692978903</v>
       </c>
       <c r="D4">
-        <v>4080.17</v>
+        <v>1422.8620974282658</v>
       </c>
       <c r="E4">
-        <v>4003.43</v>
+        <v>838.46462929681411</v>
       </c>
       <c r="F4">
-        <v>4411.1099999999997</v>
+        <v>421.08837128836086</v>
       </c>
       <c r="G4">
-        <v>4229.13</v>
+        <v>300.52351835174784</v>
       </c>
       <c r="H4">
-        <v>4091.16</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="I4">
-        <v>4099.26</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="J4">
-        <v>4126.1899999999996</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="K4">
-        <v>4359.2299999999996</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="L4">
-        <v>4582.37</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="M4">
-        <v>4625.5</v>
+        <v>245.24790619147615</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>149.54513499056355</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>58.275878749437524</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>11.623644285733851</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.981156610891051</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.9811566108910506</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.9811566108910506</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.1179337290841438</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -7608,27 +7574,27 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C36" s="5">
-        <f>SUMPRODUCT(E14:E27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <f t="shared" ref="C36:H36" si="1">SUMPRODUCT(E14:E27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
         <v>600.15334597875574</v>
       </c>
       <c r="D36" s="5">
-        <f>SUMPRODUCT(F14:F27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <f t="shared" si="1"/>
         <v>576.45146813353574</v>
       </c>
       <c r="E36" s="5">
-        <f>SUMPRODUCT(G14:G27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <f t="shared" si="1"/>
         <v>576.45146813353574</v>
       </c>
       <c r="F36" s="5">
-        <f>SUMPRODUCT(H14:H27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <f t="shared" si="1"/>
         <v>568.32511001517457</v>
       </c>
       <c r="G36" s="5">
-        <f>SUMPRODUCT(I14:I27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <f t="shared" si="1"/>
         <v>568.32511001517457</v>
       </c>
       <c r="H36" s="5">
-        <f>SUMPRODUCT(J14:J27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <f t="shared" si="1"/>
         <v>568.32511001517457</v>
       </c>
       <c r="I36" s="5">
@@ -7636,95 +7602,95 @@
         <v>568.32511001517457</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ref="J36:AF36" si="1">I36</f>
+        <f t="shared" ref="J36:AF36" si="2">I36</f>
         <v>568.32511001517457</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Y36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Z36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AA36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AB36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AC36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AD36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AE36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AF36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568.32511001517457</v>
       </c>
     </row>
@@ -7835,123 +7801,123 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5">
         <f>B3+C36</f>
-        <v>3036.0333459787557</v>
+        <v>2246.6514584584847</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" ref="D40:AF40" si="2">C3+D36</f>
-        <v>2273.5314681335358</v>
+        <f t="shared" ref="D40:AF40" si="3">C3+D36</f>
+        <v>1945.0372251736685</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="2"/>
-        <v>4656.6214681335359</v>
+        <f t="shared" si="3"/>
+        <v>1560.1486150491955</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="2"/>
-        <v>4571.7551100151741</v>
+        <f t="shared" si="3"/>
+        <v>1222.6455220376913</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="2"/>
-        <v>4979.4351100151744</v>
+        <f t="shared" si="3"/>
+        <v>787.57954922979729</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="2"/>
-        <v>4797.4551100151748</v>
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="2"/>
-        <v>4659.4851100151745</v>
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="2"/>
-        <v>4667.5851100151749</v>
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="2"/>
-        <v>4694.5151100151743</v>
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="2"/>
-        <v>4927.5551100151743</v>
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="2"/>
-        <v>5150.6951100151746</v>
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="2"/>
-        <v>5193.8251100151747</v>
+        <f t="shared" si="3"/>
+        <v>597.98804083383322</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>597.98261038332635</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>597.98261038332635</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>588.37071298617752</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="X40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="Y40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="Z40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="AB40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
       </c>
       <c r="AE40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>578.72080243548066</v>
       </c>
       <c r="AF40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="3"/>
+        <v>576.39113916803615</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -7960,122 +7926,122 @@
       </c>
       <c r="C41" s="5">
         <f>B4+C36</f>
-        <v>7252.8733459787563</v>
+        <v>7252.8718628779843</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" ref="D41:AF41" si="3">C4+D36</f>
-        <v>4193.501468133536</v>
+        <f t="shared" ref="D41:AF41" si="4">C4+D36</f>
+        <v>4193.5021611124384</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="3"/>
-        <v>4656.6214681335359</v>
+        <f t="shared" si="4"/>
+        <v>1999.3135655618016</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="3"/>
-        <v>4571.7551100151741</v>
+        <f t="shared" si="4"/>
+        <v>1406.7897393119888</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="3"/>
-        <v>4979.4351100151744</v>
+        <f t="shared" si="4"/>
+        <v>989.41348130353549</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="3"/>
-        <v>4797.4551100151748</v>
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="3"/>
-        <v>4659.4851100151745</v>
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="3"/>
-        <v>4667.5851100151749</v>
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="3"/>
-        <v>4694.5151100151743</v>
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="3"/>
-        <v>4927.5551100151743</v>
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="3"/>
-        <v>5150.6951100151746</v>
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="3"/>
-        <v>5193.8251100151747</v>
+        <f t="shared" si="4"/>
+        <v>813.57301620665066</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>717.87024500573807</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>626.60098876461211</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>579.94875430090838</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="X41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="Z41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="AB41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
       </c>
       <c r="AE41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
+        <f t="shared" si="4"/>
+        <v>569.44304374425872</v>
       </c>
       <c r="AF41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
     </row>
@@ -8107,7 +8073,7 @@
   <dimension ref="A1:AL776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8249,7 +8215,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="35">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -8293,7 +8259,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="35">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -8378,7 +8344,7 @@
       </c>
       <c r="B7" s="27">
         <f>B4*$B$16*$B$14</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
@@ -8387,7 +8353,7 @@
       </c>
       <c r="B8" s="27">
         <f>B4*B14</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
@@ -8432,43 +8398,43 @@
       </c>
       <c r="B11" s="36">
         <f>C36</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="C11" s="36">
         <f t="shared" ref="C11:K11" si="0">D36</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="D11" s="36">
         <f t="shared" si="0"/>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="0"/>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="0"/>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="0"/>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" si="0"/>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="I11" s="36">
         <f t="shared" si="0"/>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="K11" s="36">
         <f t="shared" si="0"/>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8573,7 +8539,7 @@
       </c>
       <c r="D23" s="27">
         <f>B5*B14</f>
-        <v>5887.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
@@ -8588,7 +8554,7 @@
       </c>
       <c r="D24" s="27">
         <f>D23</f>
-        <v>5887.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
@@ -8603,7 +8569,7 @@
       </c>
       <c r="D25" s="27">
         <f>B4*B14</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -9102,120 +9068,120 @@
         <v>74</v>
       </c>
       <c r="B36" s="27">
-        <f>SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
-        <v>10134.948146095066</v>
+        <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
+        <v>0</v>
       </c>
       <c r="C36" s="27">
-        <f>SUMPRODUCT(C32:C34,$D$23:$D$25)/SUM(C32:C34)</f>
-        <v>10121.162702145082</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D36" s="27">
-        <f>SUMPRODUCT(D32:D34,$D$23:$D$25)/SUM(D32:D34)</f>
-        <v>10059.772494365814</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E36" s="27">
-        <f>SUMPRODUCT(E32:E34,$D$23:$D$25)/SUM(E32:E34)</f>
-        <v>10050.763799597085</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F36" s="27">
-        <f>SUMPRODUCT(F32:F34,$D$23:$D$25)/SUM(F32:F34)</f>
-        <v>10127.428607069427</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G36" s="27">
-        <f>SUMPRODUCT(G32:G34,$D$23:$D$25)/SUM(G32:G34)</f>
-        <v>10269.11524721545</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H36" s="27">
-        <f>SUMPRODUCT(H32:H34,$D$23:$D$25)/SUM(H32:H34)</f>
-        <v>10350.781370900584</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I36" s="27">
-        <f>SUMPRODUCT(I32:I34,$D$23:$D$25)/SUM(I32:I34)</f>
-        <v>10353.674088089921</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J36" s="27">
-        <f>SUMPRODUCT(J32:J34,$D$23:$D$25)/SUM(J32:J34)</f>
-        <v>10294.239800360298</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K36" s="27">
-        <f>SUMPRODUCT(K32:K34,$D$23:$D$25)/SUM(K32:K34)</f>
-        <v>10251.903689786537</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L36" s="27">
-        <f>SUMPRODUCT(L32:L34,$D$23:$D$25)/SUM(L32:L34)</f>
-        <v>10279.777009851599</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M36" s="27">
-        <f>SUMPRODUCT(M32:M34,$D$23:$D$25)/SUM(M32:M34)</f>
-        <v>10325.709491436844</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N36" s="27">
-        <f>SUMPRODUCT(N32:N34,$D$23:$D$25)/SUM(N32:N34)</f>
-        <v>10344.230833049938</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O36" s="27">
-        <f>SUMPRODUCT(O32:O34,$D$23:$D$25)/SUM(O32:O34)</f>
-        <v>10359.12748221428</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P36" s="27">
-        <f>SUMPRODUCT(P32:P34,$D$23:$D$25)/SUM(P32:P34)</f>
-        <v>10371.638430973771</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q36" s="27">
-        <f>SUMPRODUCT(Q32:Q34,$D$23:$D$25)/SUM(Q32:Q34)</f>
-        <v>10380.548547191598</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R36" s="27">
-        <f>SUMPRODUCT(R32:R34,$D$23:$D$25)/SUM(R32:R34)</f>
-        <v>10382.950508948947</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S36" s="27">
-        <f>SUMPRODUCT(S32:S34,$D$23:$D$25)/SUM(S32:S34)</f>
-        <v>10380.927010758403</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T36" s="27">
-        <f>SUMPRODUCT(T32:T34,$D$23:$D$25)/SUM(T32:T34)</f>
-        <v>10398.663134138134</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U36" s="27">
-        <f>SUMPRODUCT(U32:U34,$D$23:$D$25)/SUM(U32:U34)</f>
-        <v>10422.653431517481</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V36" s="27">
-        <f>SUMPRODUCT(V32:V34,$D$23:$D$25)/SUM(V32:V34)</f>
-        <v>10434.319910781423</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W36" s="27">
-        <f>SUMPRODUCT(W32:W34,$D$23:$D$25)/SUM(W32:W34)</f>
-        <v>10455.739600691937</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X36" s="27">
-        <f>SUMPRODUCT(X32:X34,$D$23:$D$25)/SUM(X32:X34)</f>
-        <v>10432.932814907192</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y36" s="27">
-        <f>SUMPRODUCT(Y32:Y34,$D$23:$D$25)/SUM(Y32:Y34)</f>
-        <v>10374.231186923143</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z36" s="27">
-        <f>SUMPRODUCT(Z32:Z34,$D$23:$D$25)/SUM(Z32:Z34)</f>
-        <v>10332.172107247137</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA36" s="27">
-        <f>SUMPRODUCT(AA32:AA34,$D$23:$D$25)/SUM(AA32:AA34)</f>
-        <v>10324.781329795693</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB36" s="27">
-        <f>SUMPRODUCT(AB32:AB34,$D$23:$D$25)/SUM(AB32:AB34)</f>
-        <v>10326.315629830769</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC36" s="27">
-        <f>SUMPRODUCT(AC32:AC34,$D$23:$D$25)/SUM(AC32:AC34)</f>
-        <v>10310.34979051626</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD36" s="27">
-        <f>SUMPRODUCT(AD32:AD34,$D$23:$D$25)/SUM(AD32:AD34)</f>
-        <v>9558.932689351499</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -10099,123 +10065,123 @@
       </c>
       <c r="B2" s="19">
         <f>'Passenger Vehicle Calculations'!C40</f>
-        <v>3036.0333459787557</v>
+        <v>2246.6514584584847</v>
       </c>
       <c r="C2" s="19">
         <f>'Passenger Vehicle Calculations'!D40</f>
-        <v>2273.5314681335358</v>
+        <v>1945.0372251736685</v>
       </c>
       <c r="D2" s="19">
         <f>'Passenger Vehicle Calculations'!E40</f>
-        <v>4656.6214681335359</v>
+        <v>1560.1486150491955</v>
       </c>
       <c r="E2" s="19">
         <f>'Passenger Vehicle Calculations'!F40</f>
-        <v>4571.7551100151741</v>
+        <v>1222.6455220376913</v>
       </c>
       <c r="F2" s="19">
         <f>'Passenger Vehicle Calculations'!G40</f>
-        <v>4979.4351100151744</v>
+        <v>787.57954922979729</v>
       </c>
       <c r="G2" s="19">
         <f>'Passenger Vehicle Calculations'!H40</f>
-        <v>4797.4551100151748</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="H2" s="19">
         <f>'Passenger Vehicle Calculations'!I40</f>
-        <v>4659.4851100151745</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="I2" s="19">
         <f>'Passenger Vehicle Calculations'!J40</f>
-        <v>4667.5851100151749</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="J2" s="19">
         <f>'Passenger Vehicle Calculations'!K40</f>
-        <v>4694.5151100151743</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="K2" s="19">
         <f>'Passenger Vehicle Calculations'!L40</f>
-        <v>4927.5551100151743</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="L2" s="19">
         <f>'Passenger Vehicle Calculations'!M40</f>
-        <v>5150.6951100151746</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="M2" s="19">
         <f>'Passenger Vehicle Calculations'!N40</f>
-        <v>5193.8251100151747</v>
+        <v>597.98804083383322</v>
       </c>
       <c r="N2" s="19">
         <f>'Passenger Vehicle Calculations'!O40</f>
-        <v>568.32511001517457</v>
+        <v>597.98261038332635</v>
       </c>
       <c r="O2" s="19">
         <f>'Passenger Vehicle Calculations'!P40</f>
-        <v>568.32511001517457</v>
+        <v>597.98261038332635</v>
       </c>
       <c r="P2" s="19">
         <f>'Passenger Vehicle Calculations'!Q40</f>
-        <v>568.32511001517457</v>
+        <v>588.37071298617752</v>
       </c>
       <c r="Q2" s="19">
         <f>'Passenger Vehicle Calculations'!R40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="R2" s="19">
         <f>'Passenger Vehicle Calculations'!S40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="S2" s="19">
         <f>'Passenger Vehicle Calculations'!T40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="T2" s="19">
         <f>'Passenger Vehicle Calculations'!U40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="U2" s="19">
         <f>'Passenger Vehicle Calculations'!V40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="V2" s="19">
         <f>'Passenger Vehicle Calculations'!W40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="W2" s="19">
         <f>'Passenger Vehicle Calculations'!X40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="X2" s="19">
         <f>'Passenger Vehicle Calculations'!Y40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="Y2" s="19">
         <f>'Passenger Vehicle Calculations'!Z40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="Z2" s="19">
         <f>'Passenger Vehicle Calculations'!AA40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AA2" s="19">
         <f>'Passenger Vehicle Calculations'!AB40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AB2" s="19">
         <f>'Passenger Vehicle Calculations'!AC40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AC2" s="19">
         <f>'Passenger Vehicle Calculations'!AD40</f>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AD2" s="19">
         <f>'Passenger Vehicle Calculations'!AE40</f>
-        <v>568.32511001517457</v>
+        <v>578.72080243548066</v>
       </c>
       <c r="AE2" s="19">
         <f>'Passenger Vehicle Calculations'!AF40</f>
-        <v>568.32511001517457</v>
+        <v>576.39113916803615</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -10509,119 +10475,119 @@
       </c>
       <c r="B6" s="19">
         <f>'Passenger Vehicle Calculations'!C41</f>
-        <v>7252.8733459787563</v>
+        <v>7252.8718628779843</v>
       </c>
       <c r="C6" s="19">
         <f>'Passenger Vehicle Calculations'!D41</f>
-        <v>4193.501468133536</v>
+        <v>4193.5021611124384</v>
       </c>
       <c r="D6" s="19">
         <f>'Passenger Vehicle Calculations'!E41</f>
-        <v>4656.6214681335359</v>
+        <v>1999.3135655618016</v>
       </c>
       <c r="E6" s="19">
         <f>'Passenger Vehicle Calculations'!F41</f>
-        <v>4571.7551100151741</v>
+        <v>1406.7897393119888</v>
       </c>
       <c r="F6" s="19">
         <f>'Passenger Vehicle Calculations'!G41</f>
-        <v>4979.4351100151744</v>
+        <v>989.41348130353549</v>
       </c>
       <c r="G6" s="19">
         <f>'Passenger Vehicle Calculations'!H41</f>
-        <v>4797.4551100151748</v>
+        <v>868.84862836692241</v>
       </c>
       <c r="H6" s="19">
         <f>'Passenger Vehicle Calculations'!I41</f>
-        <v>4659.4851100151745</v>
+        <v>868.84862836692241</v>
       </c>
       <c r="I6" s="19">
         <f>'Passenger Vehicle Calculations'!J41</f>
-        <v>4667.5851100151749</v>
+        <v>868.84862836692241</v>
       </c>
       <c r="J6" s="19">
         <f>'Passenger Vehicle Calculations'!K41</f>
-        <v>4694.5151100151743</v>
+        <v>868.84862836692241</v>
       </c>
       <c r="K6" s="19">
         <f>'Passenger Vehicle Calculations'!L41</f>
-        <v>4927.5551100151743</v>
+        <v>868.84862836692241</v>
       </c>
       <c r="L6" s="19">
         <f>'Passenger Vehicle Calculations'!M41</f>
-        <v>5150.6951100151746</v>
+        <v>868.84862836692241</v>
       </c>
       <c r="M6" s="19">
         <f>'Passenger Vehicle Calculations'!N41</f>
-        <v>5193.8251100151747</v>
+        <v>813.57301620665066</v>
       </c>
       <c r="N6" s="19">
         <f>'Passenger Vehicle Calculations'!O41</f>
-        <v>568.32511001517457</v>
+        <v>717.87024500573807</v>
       </c>
       <c r="O6" s="19">
         <f>'Passenger Vehicle Calculations'!P41</f>
-        <v>568.32511001517457</v>
+        <v>626.60098876461211</v>
       </c>
       <c r="P6" s="19">
         <f>'Passenger Vehicle Calculations'!Q41</f>
-        <v>568.32511001517457</v>
+        <v>579.94875430090838</v>
       </c>
       <c r="Q6" s="19">
         <f>'Passenger Vehicle Calculations'!R41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="R6" s="19">
         <f>'Passenger Vehicle Calculations'!S41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="S6" s="19">
         <f>'Passenger Vehicle Calculations'!T41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="T6" s="19">
         <f>'Passenger Vehicle Calculations'!U41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="U6" s="19">
         <f>'Passenger Vehicle Calculations'!V41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="V6" s="19">
         <f>'Passenger Vehicle Calculations'!W41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="W6" s="19">
         <f>'Passenger Vehicle Calculations'!X41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="X6" s="19">
         <f>'Passenger Vehicle Calculations'!Y41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="Y6" s="19">
         <f>'Passenger Vehicle Calculations'!Z41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="Z6" s="19">
         <f>'Passenger Vehicle Calculations'!AA41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="AA6" s="19">
         <f>'Passenger Vehicle Calculations'!AB41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="AB6" s="19">
         <f>'Passenger Vehicle Calculations'!AC41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="AC6" s="19">
         <f>'Passenger Vehicle Calculations'!AD41</f>
-        <v>568.32511001517457</v>
+        <v>571.30626662606562</v>
       </c>
       <c r="AD6" s="19">
         <f>'Passenger Vehicle Calculations'!AE41</f>
-        <v>568.32511001517457</v>
+        <v>569.44304374425872</v>
       </c>
       <c r="AE6" s="19">
         <f>'Passenger Vehicle Calculations'!AF41</f>
@@ -10735,115 +10701,115 @@
       </c>
       <c r="D8" s="19">
         <f>D2</f>
-        <v>4656.6214681335359</v>
+        <v>1560.1486150491955</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>4571.7551100151741</v>
+        <v>1222.6455220376913</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>4979.4351100151744</v>
+        <v>787.57954922979729</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>4797.4551100151748</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>4659.4851100151745</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>4667.5851100151749</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>4694.5151100151743</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>4927.5551100151743</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>5150.6951100151746</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>5193.8251100151747</v>
+        <v>597.98804083383322</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>597.98261038332635</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>597.98261038332635</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>588.37071298617752</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="S8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="T8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="U8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="V8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="W8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="X8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="Y8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="Z8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AA8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AB8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AC8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AD8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>578.72080243548066</v>
       </c>
       <c r="AE8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>576.39113916803615</v>
       </c>
     </row>
   </sheetData>
@@ -10975,43 +10941,43 @@
       </c>
       <c r="D2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -11365,43 +11331,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -11565,43 +11531,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81DBE57-2E0B-492A-8B39-306C57ECFDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D670C6-7E61-42B5-9A27-DB763317D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
   <si>
     <t>Sources:</t>
   </si>
@@ -299,6 +299,12 @@
   <si>
     <t>AEO 2023</t>
   </si>
+  <si>
+    <t>values from original IRA analysis</t>
+  </si>
+  <si>
+    <t>values assuming a 75% cut in our original analysis to represent FEOC restrictions</t>
+  </si>
 </sst>
 </file>
 
@@ -309,8 +315,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="m\-d"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="m\-d"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -579,7 +585,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,11 +623,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="31" applyFont="1"/>
@@ -636,7 +642,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -687,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,9 +734,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,26 +769,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,26 +804,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1013,17 +986,17 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,37 +1004,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
@@ -1081,12 +1054,12 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1154,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1466,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1835,7 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1879,12 +1852,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1979,7 +1952,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2084,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2179,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2274,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2691,12 +2664,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2991,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3086,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3181,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3381,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3502,12 +3475,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3575,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3792,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3982,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4077,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4172,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4283,12 +4256,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4383,7 +4356,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4478,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4573,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4668,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4763,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4858,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4953,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5064,12 +5037,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5164,7 +5137,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5259,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5354,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5544,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5639,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5734,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5845,12 +5818,12 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5945,7 +5918,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6040,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6135,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6230,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6325,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6420,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6515,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6617,670 +6590,784 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B3">
         <v>2021</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2023</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>2024</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2025</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2026</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>2027</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>2028</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>2029</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>2030</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>2031</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>2032</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>2033</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>2034</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>2035</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>2036</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>2037</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>2038</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>2039</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>2040</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>2041</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>2042</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>2043</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>2044</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>2045</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>2046</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>2047</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>2048</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>2049</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2435.88</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1697.08</v>
       </c>
-      <c r="D3">
+      <c r="D4">
+        <f>D9*0.25</f>
+        <v>1020.0425</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:M4" si="0">E9*0.25</f>
+        <v>1000.8575</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1102.7774999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1057.2825</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1022.79</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1024.8150000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1031.5474999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1089.8074999999999</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1145.5925</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1156.375</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>6652.72</v>
+      </c>
+      <c r="C5">
+        <v>3617.05</v>
+      </c>
+      <c r="D5">
+        <f>D10*0.25</f>
+        <v>1020.0425</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:M5" si="1">E10*0.25</f>
+        <v>1000.8575</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1102.7774999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1057.2825</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1022.79</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1024.8150000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1031.5474999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1089.8074999999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1145.5925</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1156.375</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8">
+        <v>2024</v>
+      </c>
+      <c r="F8">
+        <v>2025</v>
+      </c>
+      <c r="G8">
+        <v>2026</v>
+      </c>
+      <c r="H8">
+        <v>2027</v>
+      </c>
+      <c r="I8">
+        <v>2028</v>
+      </c>
+      <c r="J8">
+        <v>2029</v>
+      </c>
+      <c r="K8">
+        <v>2030</v>
+      </c>
+      <c r="L8">
+        <v>2031</v>
+      </c>
+      <c r="M8">
+        <v>2032</v>
+      </c>
+      <c r="N8">
+        <v>2033</v>
+      </c>
+      <c r="O8">
+        <v>2034</v>
+      </c>
+      <c r="P8">
+        <v>2035</v>
+      </c>
+      <c r="Q8">
+        <v>2036</v>
+      </c>
+      <c r="R8">
+        <v>2037</v>
+      </c>
+      <c r="S8">
+        <v>2038</v>
+      </c>
+      <c r="T8">
+        <v>2039</v>
+      </c>
+      <c r="U8">
+        <v>2040</v>
+      </c>
+      <c r="V8">
+        <v>2041</v>
+      </c>
+      <c r="W8">
+        <v>2042</v>
+      </c>
+      <c r="X8">
+        <v>2043</v>
+      </c>
+      <c r="Y8">
+        <v>2044</v>
+      </c>
+      <c r="Z8">
+        <v>2045</v>
+      </c>
+      <c r="AA8">
+        <v>2046</v>
+      </c>
+      <c r="AB8">
+        <v>2047</v>
+      </c>
+      <c r="AC8">
+        <v>2048</v>
+      </c>
+      <c r="AD8">
+        <v>2049</v>
+      </c>
+      <c r="AE8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>2435.88</v>
+      </c>
+      <c r="C9">
+        <v>1697.08</v>
+      </c>
+      <c r="D9">
         <v>4080.17</v>
       </c>
-      <c r="E3">
+      <c r="E9">
         <v>4003.43</v>
       </c>
-      <c r="F3">
+      <c r="F9">
         <v>4411.1099999999997</v>
       </c>
-      <c r="G3">
+      <c r="G9">
         <v>4229.13</v>
       </c>
-      <c r="H3">
+      <c r="H9">
         <v>4091.16</v>
       </c>
-      <c r="I3">
+      <c r="I9">
         <v>4099.26</v>
       </c>
-      <c r="J3">
+      <c r="J9">
         <v>4126.1899999999996</v>
       </c>
-      <c r="K3">
+      <c r="K9">
         <v>4359.2299999999996</v>
       </c>
-      <c r="L3">
+      <c r="L9">
         <v>4582.37</v>
       </c>
-      <c r="M3">
+      <c r="M9">
         <v>4625.5</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>6652.72</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>3617.05</v>
       </c>
-      <c r="D4">
+      <c r="D10">
         <v>4080.17</v>
       </c>
-      <c r="E4">
+      <c r="E10">
         <v>4003.43</v>
       </c>
-      <c r="F4">
+      <c r="F10">
         <v>4411.1099999999997</v>
       </c>
-      <c r="G4">
+      <c r="G10">
         <v>4229.13</v>
       </c>
-      <c r="H4">
+      <c r="H10">
         <v>4091.16</v>
       </c>
-      <c r="I4">
+      <c r="I10">
         <v>4099.26</v>
       </c>
-      <c r="J4">
+      <c r="J10">
         <v>4126.1899999999996</v>
       </c>
-      <c r="K4">
+      <c r="K10">
         <v>4359.2299999999996</v>
       </c>
-      <c r="L4">
+      <c r="L10">
         <v>4582.37</v>
       </c>
-      <c r="M4">
+      <c r="M10">
         <v>4625.5</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D19" s="8">
         <v>2020</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" ref="E13:J13" si="0">D13+1</f>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19:J19" si="2">D19+1</f>
         <v>2021</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
+      <c r="H19" s="8">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
+      <c r="I19" s="8">
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="J13" s="8">
-        <f t="shared" si="0"/>
+      <c r="J19" s="8">
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B20" s="8">
         <v>5.6849999999999996</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4750</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4750</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2400</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2400</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2400</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="8">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="H15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="I15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="R15" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8">
-        <v>28.64</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="8">
-        <v>39.35</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J19" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8">
-        <v>4.665</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="J20" s="14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="8">
+        <v>4750</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4750</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>1.341</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="E21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="F21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="G21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="H21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="I21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="J21" s="8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2250</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="R21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8">
-        <v>6.0380000000000003</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>23</v>
@@ -7307,76 +7394,85 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J23" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
-        <v>8.8849999999999998</v>
+        <v>28.64</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="8">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J24" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8">
-        <v>4.1760000000000002</v>
+        <v>39.35</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
@@ -7403,700 +7499,892 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
-        <v>0.624</v>
+        <v>4.665</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1.341</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J28" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="8">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="8">
         <v>4000</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E32" s="8">
         <v>4000</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F32" s="8">
         <v>4000</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G32" s="8">
         <v>4000</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H32" s="8">
         <v>4000</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I32" s="8">
         <v>4000</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J32" s="8">
         <v>4000</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="8">
-        <f>B28-SUM(B14:B26)</f>
+      <c r="B33" s="8">
+        <f>B34-SUM(B20:B32)</f>
         <v>210.304</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B34" s="8">
         <v>329.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B32">
+      <c r="B38">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C41">
         <v>2021</v>
       </c>
-      <c r="D35">
+      <c r="D41">
         <v>2022</v>
       </c>
-      <c r="E35">
+      <c r="E41">
         <v>2023</v>
       </c>
-      <c r="F35">
+      <c r="F41">
         <v>2024</v>
       </c>
-      <c r="G35">
+      <c r="G41">
         <v>2025</v>
       </c>
-      <c r="H35">
+      <c r="H41">
         <v>2026</v>
       </c>
-      <c r="I35">
+      <c r="I41">
         <v>2027</v>
       </c>
-      <c r="J35">
+      <c r="J41">
         <v>2028</v>
       </c>
-      <c r="K35">
+      <c r="K41">
         <v>2029</v>
       </c>
-      <c r="L35">
+      <c r="L41">
         <v>2030</v>
       </c>
-      <c r="M35">
+      <c r="M41">
         <v>2031</v>
       </c>
-      <c r="N35">
+      <c r="N41">
         <v>2032</v>
       </c>
-      <c r="O35">
+      <c r="O41">
         <v>2033</v>
       </c>
-      <c r="P35">
+      <c r="P41">
         <v>2034</v>
       </c>
-      <c r="Q35">
+      <c r="Q41">
         <v>2035</v>
       </c>
-      <c r="R35">
+      <c r="R41">
         <v>2036</v>
       </c>
-      <c r="S35">
+      <c r="S41">
         <v>2037</v>
       </c>
-      <c r="T35">
+      <c r="T41">
         <v>2038</v>
       </c>
-      <c r="U35">
+      <c r="U41">
         <v>2039</v>
       </c>
-      <c r="V35">
+      <c r="V41">
         <v>2040</v>
       </c>
-      <c r="W35">
+      <c r="W41">
         <v>2041</v>
       </c>
-      <c r="X35">
+      <c r="X41">
         <v>2042</v>
       </c>
-      <c r="Y35">
+      <c r="Y41">
         <v>2043</v>
       </c>
-      <c r="Z35">
+      <c r="Z41">
         <v>2044</v>
       </c>
-      <c r="AA35">
+      <c r="AA41">
         <v>2045</v>
       </c>
-      <c r="AB35">
+      <c r="AB41">
         <v>2046</v>
       </c>
-      <c r="AC35">
+      <c r="AC41">
         <v>2047</v>
       </c>
-      <c r="AD35">
+      <c r="AD41">
         <v>2048</v>
       </c>
-      <c r="AE35">
+      <c r="AE41">
         <v>2049</v>
       </c>
-      <c r="AF35">
+      <c r="AF41">
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C36" s="5">
-        <f>SUMPRODUCT(E14:E27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C42" s="5">
+        <f t="shared" ref="C42:H42" si="3">SUMPRODUCT(E20:E33,$B$20:$B$33)/SUM($B$20:$B$33)*$B$38</f>
         <v>600.15334597875574</v>
       </c>
-      <c r="D36" s="5">
-        <f>SUMPRODUCT(F14:F27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+      <c r="D42" s="5">
+        <f t="shared" si="3"/>
         <v>576.45146813353574</v>
       </c>
-      <c r="E36" s="5">
-        <f>SUMPRODUCT(G14:G27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+      <c r="E42" s="5">
+        <f t="shared" si="3"/>
         <v>576.45146813353574</v>
       </c>
-      <c r="F36" s="5">
-        <f>SUMPRODUCT(H14:H27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="G36" s="5">
-        <f>SUMPRODUCT(I14:I27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="H36" s="5">
-        <f>SUMPRODUCT(J14:J27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="I36" s="5">
-        <f>H36</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" ref="J36:AF36" si="1">I36</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="M36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>2021</v>
-      </c>
-      <c r="D39">
-        <v>2022</v>
-      </c>
-      <c r="E39">
-        <v>2023</v>
-      </c>
-      <c r="F39">
-        <v>2024</v>
-      </c>
-      <c r="G39">
-        <v>2025</v>
-      </c>
-      <c r="H39">
-        <v>2026</v>
-      </c>
-      <c r="I39">
-        <v>2027</v>
-      </c>
-      <c r="J39">
-        <v>2028</v>
-      </c>
-      <c r="K39">
-        <v>2029</v>
-      </c>
-      <c r="L39">
-        <v>2030</v>
-      </c>
-      <c r="M39">
-        <v>2031</v>
-      </c>
-      <c r="N39">
-        <v>2032</v>
-      </c>
-      <c r="O39">
-        <v>2033</v>
-      </c>
-      <c r="P39">
-        <v>2034</v>
-      </c>
-      <c r="Q39">
-        <v>2035</v>
-      </c>
-      <c r="R39">
-        <v>2036</v>
-      </c>
-      <c r="S39">
-        <v>2037</v>
-      </c>
-      <c r="T39">
-        <v>2038</v>
-      </c>
-      <c r="U39">
-        <v>2039</v>
-      </c>
-      <c r="V39">
-        <v>2040</v>
-      </c>
-      <c r="W39">
-        <v>2041</v>
-      </c>
-      <c r="X39">
-        <v>2042</v>
-      </c>
-      <c r="Y39">
-        <v>2043</v>
-      </c>
-      <c r="Z39">
-        <v>2044</v>
-      </c>
-      <c r="AA39">
-        <v>2045</v>
-      </c>
-      <c r="AB39">
-        <v>2046</v>
-      </c>
-      <c r="AC39">
-        <v>2047</v>
-      </c>
-      <c r="AD39">
-        <v>2048</v>
-      </c>
-      <c r="AE39">
-        <v>2049</v>
-      </c>
-      <c r="AF39">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
-        <f>B3+C36</f>
-        <v>3036.0333459787557</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" ref="D40:AF40" si="2">C3+D36</f>
-        <v>2273.5314681335358</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="2"/>
-        <v>4656.6214681335359</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="2"/>
-        <v>4571.7551100151741</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="2"/>
-        <v>4979.4351100151744</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="2"/>
-        <v>4797.4551100151748</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="2"/>
-        <v>4659.4851100151745</v>
-      </c>
-      <c r="J40" s="5">
-        <f t="shared" si="2"/>
-        <v>4667.5851100151749</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="2"/>
-        <v>4694.5151100151743</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="2"/>
-        <v>4927.5551100151743</v>
-      </c>
-      <c r="M40" s="5">
-        <f t="shared" si="2"/>
-        <v>5150.6951100151746</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" si="2"/>
-        <v>5193.8251100151747</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="5">
-        <f>B4+C36</f>
-        <v>7252.8733459787563</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" ref="D41:AF41" si="3">C4+D36</f>
-        <v>4193.501468133536</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" si="3"/>
-        <v>4656.6214681335359</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="3"/>
-        <v>4571.7551100151741</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="3"/>
-        <v>4979.4351100151744</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="3"/>
-        <v>4797.4551100151748</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="3"/>
-        <v>4659.4851100151745</v>
-      </c>
-      <c r="J41" s="5">
-        <f t="shared" si="3"/>
-        <v>4667.5851100151749</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" si="3"/>
-        <v>4694.5151100151743</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="3"/>
-        <v>4927.5551100151743</v>
-      </c>
-      <c r="M41" s="5">
-        <f t="shared" si="3"/>
-        <v>5150.6951100151746</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="3"/>
-        <v>5193.8251100151747</v>
-      </c>
-      <c r="O41" s="5">
+      <c r="F42" s="5">
         <f t="shared" si="3"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="P41" s="5">
+      <c r="G42" s="5">
         <f t="shared" si="3"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="H42" s="5">
         <f t="shared" si="3"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="R41" s="5">
-        <f t="shared" si="3"/>
+      <c r="I42" s="5">
+        <f>H42</f>
         <v>568.32511001517457</v>
       </c>
-      <c r="S41" s="5">
-        <f t="shared" si="3"/>
+      <c r="J42" s="5">
+        <f t="shared" ref="J42:AF42" si="4">I42</f>
         <v>568.32511001517457</v>
       </c>
-      <c r="T41" s="5">
-        <f t="shared" si="3"/>
+      <c r="K42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="U41" s="5">
-        <f t="shared" si="3"/>
+      <c r="L42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="V41" s="5">
-        <f t="shared" si="3"/>
+      <c r="M42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="W41" s="5">
-        <f t="shared" si="3"/>
+      <c r="N42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="X41" s="5">
-        <f t="shared" si="3"/>
+      <c r="O42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="Y41" s="5">
-        <f t="shared" si="3"/>
+      <c r="P42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="Z41" s="5">
-        <f t="shared" si="3"/>
+      <c r="Q42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="AA41" s="5">
-        <f t="shared" si="3"/>
+      <c r="R42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="AB41" s="5">
-        <f t="shared" si="3"/>
+      <c r="S42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="AC41" s="5">
-        <f t="shared" si="3"/>
+      <c r="T42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="AD41" s="5">
-        <f t="shared" si="3"/>
+      <c r="U42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="AE41" s="5">
-        <f t="shared" si="3"/>
+      <c r="V42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="AF41" s="5">
-        <f t="shared" si="3"/>
+      <c r="W42" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="16"/>
+      <c r="X42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF42" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>2021</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45">
+        <v>2024</v>
+      </c>
+      <c r="G45">
+        <v>2025</v>
+      </c>
+      <c r="H45">
+        <v>2026</v>
+      </c>
+      <c r="I45">
+        <v>2027</v>
+      </c>
+      <c r="J45">
+        <v>2028</v>
+      </c>
+      <c r="K45">
+        <v>2029</v>
+      </c>
+      <c r="L45">
+        <v>2030</v>
+      </c>
+      <c r="M45">
+        <v>2031</v>
+      </c>
+      <c r="N45">
+        <v>2032</v>
+      </c>
+      <c r="O45">
+        <v>2033</v>
+      </c>
+      <c r="P45">
+        <v>2034</v>
+      </c>
+      <c r="Q45">
+        <v>2035</v>
+      </c>
+      <c r="R45">
+        <v>2036</v>
+      </c>
+      <c r="S45">
+        <v>2037</v>
+      </c>
+      <c r="T45">
+        <v>2038</v>
+      </c>
+      <c r="U45">
+        <v>2039</v>
+      </c>
+      <c r="V45">
+        <v>2040</v>
+      </c>
+      <c r="W45">
+        <v>2041</v>
+      </c>
+      <c r="X45">
+        <v>2042</v>
+      </c>
+      <c r="Y45">
+        <v>2043</v>
+      </c>
+      <c r="Z45">
+        <v>2044</v>
+      </c>
+      <c r="AA45">
+        <v>2045</v>
+      </c>
+      <c r="AB45">
+        <v>2046</v>
+      </c>
+      <c r="AC45">
+        <v>2047</v>
+      </c>
+      <c r="AD45">
+        <v>2048</v>
+      </c>
+      <c r="AE45">
+        <v>2049</v>
+      </c>
+      <c r="AF45">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5">
+        <f t="shared" ref="C46:AF46" si="5">B4+C42</f>
+        <v>3036.0333459787557</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="5"/>
+        <v>2273.5314681335358</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="5"/>
+        <v>1596.4939681335359</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="5"/>
+        <v>1569.1826100151745</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="5"/>
+        <v>1671.1026100151744</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="5"/>
+        <v>1625.6076100151745</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="5"/>
+        <v>1591.1151100151747</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="5"/>
+        <v>1593.1401100151747</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="5"/>
+        <v>1599.8726100151744</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="5"/>
+        <v>1658.1326100151746</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="5"/>
+        <v>1713.9176100151744</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="5"/>
+        <v>1724.7001100151747</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF46" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" ref="C47:AF47" si="6">B5+C42</f>
+        <v>7252.8733459787563</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="6"/>
+        <v>4193.501468133536</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="6"/>
+        <v>1596.4939681335359</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="6"/>
+        <v>1569.1826100151745</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="6"/>
+        <v>1671.1026100151744</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="6"/>
+        <v>1625.6076100151745</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="6"/>
+        <v>1591.1151100151747</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="6"/>
+        <v>1593.1401100151747</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="6"/>
+        <v>1599.8726100151744</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="6"/>
+        <v>1658.1326100151746</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="6"/>
+        <v>1713.9176100151744</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="6"/>
+        <v>1724.7001100151747</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF47" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
-    <hyperlink ref="R15" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
+    <hyperlink ref="R21" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8110,17 +8398,17 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="23" customWidth="1"/>
-    <col min="5" max="38" width="7.5703125" style="23" customWidth="1"/>
-    <col min="39" max="16384" width="12.5703125" style="23"/>
+    <col min="1" max="1" width="51.81640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="23" customWidth="1"/>
+    <col min="5" max="38" width="7.54296875" style="23" customWidth="1"/>
+    <col min="39" max="16384" width="12.54296875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -8162,7 +8450,7 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
     </row>
-    <row r="2" spans="1:38" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>75</v>
       </c>
@@ -8204,7 +8492,7 @@
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -8244,7 +8532,7 @@
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>76</v>
       </c>
@@ -8288,7 +8576,7 @@
       <c r="AK4" s="25"/>
       <c r="AL4" s="25"/>
     </row>
-    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
@@ -8332,7 +8620,7 @@
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -8372,7 +8660,7 @@
       <c r="AK6" s="25"/>
       <c r="AL6" s="25"/>
     </row>
-    <row r="7" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>78</v>
       </c>
@@ -8381,7 +8669,7 @@
         <v>27004</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>79</v>
       </c>
@@ -8390,11 +8678,11 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23">
         <v>2023</v>
       </c>
@@ -8426,7 +8714,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>80</v>
       </c>
@@ -8471,7 +8759,7 @@
         <v>10279.777009851599</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>54</v>
       </c>
@@ -8513,7 +8801,7 @@
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
     </row>
-    <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>55</v>
       </c>
@@ -8521,10 +8809,10 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
     </row>
-    <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>56</v>
       </c>
@@ -8532,22 +8820,22 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:33" ht="39" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>59</v>
       </c>
@@ -8561,7 +8849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>62</v>
       </c>
@@ -8576,7 +8864,7 @@
         <v>5887.5</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>65</v>
       </c>
@@ -8591,7 +8879,7 @@
         <v>5887.5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>67</v>
       </c>
@@ -8606,13 +8894,13 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>82</v>
       </c>
@@ -8649,7 +8937,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -8684,7 +8972,7 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>70</v>
       </c>
@@ -8721,7 +9009,7 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>83</v>
       </c>
@@ -8815,7 +9103,7 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="30"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>71</v>
       </c>
@@ -8909,7 +9197,7 @@
       <c r="AE32" s="34"/>
       <c r="AF32" s="30"/>
     </row>
-    <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>72</v>
       </c>
@@ -9003,7 +9291,7 @@
       <c r="AE33" s="34"/>
       <c r="AF33" s="30"/>
     </row>
-    <row r="34" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>73</v>
       </c>
@@ -9097,867 +9385,867 @@
       <c r="AE34" s="34"/>
       <c r="AF34" s="30"/>
     </row>
-    <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="27">
-        <f>SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
+        <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
         <v>10134.948146095066</v>
       </c>
       <c r="C36" s="27">
-        <f>SUMPRODUCT(C32:C34,$D$23:$D$25)/SUM(C32:C34)</f>
+        <f t="shared" si="1"/>
         <v>10121.162702145082</v>
       </c>
       <c r="D36" s="27">
-        <f>SUMPRODUCT(D32:D34,$D$23:$D$25)/SUM(D32:D34)</f>
+        <f t="shared" si="1"/>
         <v>10059.772494365814</v>
       </c>
       <c r="E36" s="27">
-        <f>SUMPRODUCT(E32:E34,$D$23:$D$25)/SUM(E32:E34)</f>
+        <f t="shared" si="1"/>
         <v>10050.763799597085</v>
       </c>
       <c r="F36" s="27">
-        <f>SUMPRODUCT(F32:F34,$D$23:$D$25)/SUM(F32:F34)</f>
+        <f t="shared" si="1"/>
         <v>10127.428607069427</v>
       </c>
       <c r="G36" s="27">
-        <f>SUMPRODUCT(G32:G34,$D$23:$D$25)/SUM(G32:G34)</f>
+        <f t="shared" si="1"/>
         <v>10269.11524721545</v>
       </c>
       <c r="H36" s="27">
-        <f>SUMPRODUCT(H32:H34,$D$23:$D$25)/SUM(H32:H34)</f>
+        <f t="shared" si="1"/>
         <v>10350.781370900584</v>
       </c>
       <c r="I36" s="27">
-        <f>SUMPRODUCT(I32:I34,$D$23:$D$25)/SUM(I32:I34)</f>
+        <f t="shared" si="1"/>
         <v>10353.674088089921</v>
       </c>
       <c r="J36" s="27">
-        <f>SUMPRODUCT(J32:J34,$D$23:$D$25)/SUM(J32:J34)</f>
+        <f t="shared" si="1"/>
         <v>10294.239800360298</v>
       </c>
       <c r="K36" s="27">
-        <f>SUMPRODUCT(K32:K34,$D$23:$D$25)/SUM(K32:K34)</f>
+        <f t="shared" si="1"/>
         <v>10251.903689786537</v>
       </c>
       <c r="L36" s="27">
-        <f>SUMPRODUCT(L32:L34,$D$23:$D$25)/SUM(L32:L34)</f>
+        <f t="shared" si="1"/>
         <v>10279.777009851599</v>
       </c>
       <c r="M36" s="27">
-        <f>SUMPRODUCT(M32:M34,$D$23:$D$25)/SUM(M32:M34)</f>
+        <f t="shared" si="1"/>
         <v>10325.709491436844</v>
       </c>
       <c r="N36" s="27">
-        <f>SUMPRODUCT(N32:N34,$D$23:$D$25)/SUM(N32:N34)</f>
+        <f t="shared" si="1"/>
         <v>10344.230833049938</v>
       </c>
       <c r="O36" s="27">
-        <f>SUMPRODUCT(O32:O34,$D$23:$D$25)/SUM(O32:O34)</f>
+        <f t="shared" si="1"/>
         <v>10359.12748221428</v>
       </c>
       <c r="P36" s="27">
-        <f>SUMPRODUCT(P32:P34,$D$23:$D$25)/SUM(P32:P34)</f>
+        <f t="shared" si="1"/>
         <v>10371.638430973771</v>
       </c>
       <c r="Q36" s="27">
-        <f>SUMPRODUCT(Q32:Q34,$D$23:$D$25)/SUM(Q32:Q34)</f>
+        <f t="shared" si="1"/>
         <v>10380.548547191598</v>
       </c>
       <c r="R36" s="27">
-        <f>SUMPRODUCT(R32:R34,$D$23:$D$25)/SUM(R32:R34)</f>
+        <f t="shared" si="1"/>
         <v>10382.950508948947</v>
       </c>
       <c r="S36" s="27">
-        <f>SUMPRODUCT(S32:S34,$D$23:$D$25)/SUM(S32:S34)</f>
+        <f t="shared" si="1"/>
         <v>10380.927010758403</v>
       </c>
       <c r="T36" s="27">
-        <f>SUMPRODUCT(T32:T34,$D$23:$D$25)/SUM(T32:T34)</f>
+        <f t="shared" si="1"/>
         <v>10398.663134138134</v>
       </c>
       <c r="U36" s="27">
-        <f>SUMPRODUCT(U32:U34,$D$23:$D$25)/SUM(U32:U34)</f>
+        <f t="shared" si="1"/>
         <v>10422.653431517481</v>
       </c>
       <c r="V36" s="27">
-        <f>SUMPRODUCT(V32:V34,$D$23:$D$25)/SUM(V32:V34)</f>
+        <f t="shared" si="1"/>
         <v>10434.319910781423</v>
       </c>
       <c r="W36" s="27">
-        <f>SUMPRODUCT(W32:W34,$D$23:$D$25)/SUM(W32:W34)</f>
+        <f t="shared" si="1"/>
         <v>10455.739600691937</v>
       </c>
       <c r="X36" s="27">
-        <f>SUMPRODUCT(X32:X34,$D$23:$D$25)/SUM(X32:X34)</f>
+        <f t="shared" si="1"/>
         <v>10432.932814907192</v>
       </c>
       <c r="Y36" s="27">
-        <f>SUMPRODUCT(Y32:Y34,$D$23:$D$25)/SUM(Y32:Y34)</f>
+        <f t="shared" si="1"/>
         <v>10374.231186923143</v>
       </c>
       <c r="Z36" s="27">
-        <f>SUMPRODUCT(Z32:Z34,$D$23:$D$25)/SUM(Z32:Z34)</f>
+        <f t="shared" si="1"/>
         <v>10332.172107247137</v>
       </c>
       <c r="AA36" s="27">
-        <f>SUMPRODUCT(AA32:AA34,$D$23:$D$25)/SUM(AA32:AA34)</f>
+        <f t="shared" si="1"/>
         <v>10324.781329795693</v>
       </c>
       <c r="AB36" s="27">
-        <f>SUMPRODUCT(AB32:AB34,$D$23:$D$25)/SUM(AB32:AB34)</f>
+        <f t="shared" si="1"/>
         <v>10326.315629830769</v>
       </c>
       <c r="AC36" s="27">
-        <f>SUMPRODUCT(AC32:AC34,$D$23:$D$25)/SUM(AC32:AC34)</f>
+        <f t="shared" si="1"/>
         <v>10310.34979051626</v>
       </c>
       <c r="AD36" s="27">
-        <f>SUMPRODUCT(AD32:AD34,$D$23:$D$25)/SUM(AD32:AD34)</f>
+        <f t="shared" si="1"/>
         <v>9558.932689351499</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="13" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9975,7 +10263,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9989,16 +10277,16 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AE8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -10093,132 +10381,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19">
-        <f>'Passenger Vehicle Calculations'!C40</f>
+        <f>'Passenger Vehicle Calculations'!C46</f>
         <v>3036.0333459787557</v>
       </c>
       <c r="C2" s="19">
-        <f>'Passenger Vehicle Calculations'!D40</f>
+        <f>'Passenger Vehicle Calculations'!D46</f>
         <v>2273.5314681335358</v>
       </c>
       <c r="D2" s="19">
-        <f>'Passenger Vehicle Calculations'!E40</f>
-        <v>4656.6214681335359</v>
+        <f>'Passenger Vehicle Calculations'!E46</f>
+        <v>1596.4939681335359</v>
       </c>
       <c r="E2" s="19">
-        <f>'Passenger Vehicle Calculations'!F40</f>
-        <v>4571.7551100151741</v>
+        <f>'Passenger Vehicle Calculations'!F46</f>
+        <v>1569.1826100151745</v>
       </c>
       <c r="F2" s="19">
-        <f>'Passenger Vehicle Calculations'!G40</f>
-        <v>4979.4351100151744</v>
+        <f>'Passenger Vehicle Calculations'!G46</f>
+        <v>1671.1026100151744</v>
       </c>
       <c r="G2" s="19">
-        <f>'Passenger Vehicle Calculations'!H40</f>
-        <v>4797.4551100151748</v>
+        <f>'Passenger Vehicle Calculations'!H46</f>
+        <v>1625.6076100151745</v>
       </c>
       <c r="H2" s="19">
-        <f>'Passenger Vehicle Calculations'!I40</f>
-        <v>4659.4851100151745</v>
+        <f>'Passenger Vehicle Calculations'!I46</f>
+        <v>1591.1151100151747</v>
       </c>
       <c r="I2" s="19">
-        <f>'Passenger Vehicle Calculations'!J40</f>
-        <v>4667.5851100151749</v>
+        <f>'Passenger Vehicle Calculations'!J46</f>
+        <v>1593.1401100151747</v>
       </c>
       <c r="J2" s="19">
-        <f>'Passenger Vehicle Calculations'!K40</f>
-        <v>4694.5151100151743</v>
+        <f>'Passenger Vehicle Calculations'!K46</f>
+        <v>1599.8726100151744</v>
       </c>
       <c r="K2" s="19">
-        <f>'Passenger Vehicle Calculations'!L40</f>
-        <v>4927.5551100151743</v>
+        <f>'Passenger Vehicle Calculations'!L46</f>
+        <v>1658.1326100151746</v>
       </c>
       <c r="L2" s="19">
-        <f>'Passenger Vehicle Calculations'!M40</f>
-        <v>5150.6951100151746</v>
+        <f>'Passenger Vehicle Calculations'!M46</f>
+        <v>1713.9176100151744</v>
       </c>
       <c r="M2" s="19">
-        <f>'Passenger Vehicle Calculations'!N40</f>
-        <v>5193.8251100151747</v>
+        <f>'Passenger Vehicle Calculations'!N46</f>
+        <v>1724.7001100151747</v>
       </c>
       <c r="N2" s="19">
-        <f>'Passenger Vehicle Calculations'!O40</f>
+        <f>'Passenger Vehicle Calculations'!O46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="O2" s="19">
-        <f>'Passenger Vehicle Calculations'!P40</f>
+        <f>'Passenger Vehicle Calculations'!P46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="P2" s="19">
-        <f>'Passenger Vehicle Calculations'!Q40</f>
+        <f>'Passenger Vehicle Calculations'!Q46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="Q2" s="19">
-        <f>'Passenger Vehicle Calculations'!R40</f>
+        <f>'Passenger Vehicle Calculations'!R46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="R2" s="19">
-        <f>'Passenger Vehicle Calculations'!S40</f>
+        <f>'Passenger Vehicle Calculations'!S46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="S2" s="19">
-        <f>'Passenger Vehicle Calculations'!T40</f>
+        <f>'Passenger Vehicle Calculations'!T46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="T2" s="19">
-        <f>'Passenger Vehicle Calculations'!U40</f>
+        <f>'Passenger Vehicle Calculations'!U46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="U2" s="19">
-        <f>'Passenger Vehicle Calculations'!V40</f>
+        <f>'Passenger Vehicle Calculations'!V46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="V2" s="19">
-        <f>'Passenger Vehicle Calculations'!W40</f>
+        <f>'Passenger Vehicle Calculations'!W46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="W2" s="19">
-        <f>'Passenger Vehicle Calculations'!X40</f>
+        <f>'Passenger Vehicle Calculations'!X46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="X2" s="19">
-        <f>'Passenger Vehicle Calculations'!Y40</f>
+        <f>'Passenger Vehicle Calculations'!Y46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="Y2" s="19">
-        <f>'Passenger Vehicle Calculations'!Z40</f>
+        <f>'Passenger Vehicle Calculations'!Z46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="Z2" s="19">
-        <f>'Passenger Vehicle Calculations'!AA40</f>
+        <f>'Passenger Vehicle Calculations'!AA46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AA2" s="19">
-        <f>'Passenger Vehicle Calculations'!AB40</f>
+        <f>'Passenger Vehicle Calculations'!AB46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AB2" s="19">
-        <f>'Passenger Vehicle Calculations'!AC40</f>
+        <f>'Passenger Vehicle Calculations'!AC46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AC2" s="19">
-        <f>'Passenger Vehicle Calculations'!AD40</f>
+        <f>'Passenger Vehicle Calculations'!AD46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AD2" s="19">
-        <f>'Passenger Vehicle Calculations'!AE40</f>
+        <f>'Passenger Vehicle Calculations'!AE46</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AE2" s="19">
-        <f>'Passenger Vehicle Calculations'!AF40</f>
+        <f>'Passenger Vehicle Calculations'!AF46</f>
         <v>568.32511001517457</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10408,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10503,132 +10791,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19">
-        <f>'Passenger Vehicle Calculations'!C41</f>
+        <f>'Passenger Vehicle Calculations'!C47</f>
         <v>7252.8733459787563</v>
       </c>
       <c r="C6" s="19">
-        <f>'Passenger Vehicle Calculations'!D41</f>
+        <f>'Passenger Vehicle Calculations'!D47</f>
         <v>4193.501468133536</v>
       </c>
       <c r="D6" s="19">
-        <f>'Passenger Vehicle Calculations'!E41</f>
-        <v>4656.6214681335359</v>
+        <f>'Passenger Vehicle Calculations'!E47</f>
+        <v>1596.4939681335359</v>
       </c>
       <c r="E6" s="19">
-        <f>'Passenger Vehicle Calculations'!F41</f>
-        <v>4571.7551100151741</v>
+        <f>'Passenger Vehicle Calculations'!F47</f>
+        <v>1569.1826100151745</v>
       </c>
       <c r="F6" s="19">
-        <f>'Passenger Vehicle Calculations'!G41</f>
-        <v>4979.4351100151744</v>
+        <f>'Passenger Vehicle Calculations'!G47</f>
+        <v>1671.1026100151744</v>
       </c>
       <c r="G6" s="19">
-        <f>'Passenger Vehicle Calculations'!H41</f>
-        <v>4797.4551100151748</v>
+        <f>'Passenger Vehicle Calculations'!H47</f>
+        <v>1625.6076100151745</v>
       </c>
       <c r="H6" s="19">
-        <f>'Passenger Vehicle Calculations'!I41</f>
-        <v>4659.4851100151745</v>
+        <f>'Passenger Vehicle Calculations'!I47</f>
+        <v>1591.1151100151747</v>
       </c>
       <c r="I6" s="19">
-        <f>'Passenger Vehicle Calculations'!J41</f>
-        <v>4667.5851100151749</v>
+        <f>'Passenger Vehicle Calculations'!J47</f>
+        <v>1593.1401100151747</v>
       </c>
       <c r="J6" s="19">
-        <f>'Passenger Vehicle Calculations'!K41</f>
-        <v>4694.5151100151743</v>
+        <f>'Passenger Vehicle Calculations'!K47</f>
+        <v>1599.8726100151744</v>
       </c>
       <c r="K6" s="19">
-        <f>'Passenger Vehicle Calculations'!L41</f>
-        <v>4927.5551100151743</v>
+        <f>'Passenger Vehicle Calculations'!L47</f>
+        <v>1658.1326100151746</v>
       </c>
       <c r="L6" s="19">
-        <f>'Passenger Vehicle Calculations'!M41</f>
-        <v>5150.6951100151746</v>
+        <f>'Passenger Vehicle Calculations'!M47</f>
+        <v>1713.9176100151744</v>
       </c>
       <c r="M6" s="19">
-        <f>'Passenger Vehicle Calculations'!N41</f>
-        <v>5193.8251100151747</v>
+        <f>'Passenger Vehicle Calculations'!N47</f>
+        <v>1724.7001100151747</v>
       </c>
       <c r="N6" s="19">
-        <f>'Passenger Vehicle Calculations'!O41</f>
+        <f>'Passenger Vehicle Calculations'!O47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="O6" s="19">
-        <f>'Passenger Vehicle Calculations'!P41</f>
+        <f>'Passenger Vehicle Calculations'!P47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="P6" s="19">
-        <f>'Passenger Vehicle Calculations'!Q41</f>
+        <f>'Passenger Vehicle Calculations'!Q47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="Q6" s="19">
-        <f>'Passenger Vehicle Calculations'!R41</f>
+        <f>'Passenger Vehicle Calculations'!R47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="R6" s="19">
-        <f>'Passenger Vehicle Calculations'!S41</f>
+        <f>'Passenger Vehicle Calculations'!S47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="S6" s="19">
-        <f>'Passenger Vehicle Calculations'!T41</f>
+        <f>'Passenger Vehicle Calculations'!T47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="T6" s="19">
-        <f>'Passenger Vehicle Calculations'!U41</f>
+        <f>'Passenger Vehicle Calculations'!U47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="U6" s="19">
-        <f>'Passenger Vehicle Calculations'!V41</f>
+        <f>'Passenger Vehicle Calculations'!V47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="V6" s="19">
-        <f>'Passenger Vehicle Calculations'!W41</f>
+        <f>'Passenger Vehicle Calculations'!W47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="W6" s="19">
-        <f>'Passenger Vehicle Calculations'!X41</f>
+        <f>'Passenger Vehicle Calculations'!X47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="X6" s="19">
-        <f>'Passenger Vehicle Calculations'!Y41</f>
+        <f>'Passenger Vehicle Calculations'!Y47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="Y6" s="19">
-        <f>'Passenger Vehicle Calculations'!Z41</f>
+        <f>'Passenger Vehicle Calculations'!Z47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="Z6" s="19">
-        <f>'Passenger Vehicle Calculations'!AA41</f>
+        <f>'Passenger Vehicle Calculations'!AA47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AA6" s="19">
-        <f>'Passenger Vehicle Calculations'!AB41</f>
+        <f>'Passenger Vehicle Calculations'!AB47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AB6" s="19">
-        <f>'Passenger Vehicle Calculations'!AC41</f>
+        <f>'Passenger Vehicle Calculations'!AC47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AC6" s="19">
-        <f>'Passenger Vehicle Calculations'!AD41</f>
+        <f>'Passenger Vehicle Calculations'!AD47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AD6" s="19">
-        <f>'Passenger Vehicle Calculations'!AE41</f>
+        <f>'Passenger Vehicle Calculations'!AE47</f>
         <v>568.32511001517457</v>
       </c>
       <c r="AE6" s="19">
-        <f>'Passenger Vehicle Calculations'!AF41</f>
+        <f>'Passenger Vehicle Calculations'!AF47</f>
         <v>568.32511001517457</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10723,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10735,43 +11023,43 @@
       </c>
       <c r="D8" s="19">
         <f>D2</f>
-        <v>4656.6214681335359</v>
+        <v>1596.4939681335359</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>4571.7551100151741</v>
+        <v>1569.1826100151745</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>4979.4351100151744</v>
+        <v>1671.1026100151744</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>4797.4551100151748</v>
+        <v>1625.6076100151745</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>4659.4851100151745</v>
+        <v>1591.1151100151747</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>4667.5851100151749</v>
+        <v>1593.1401100151747</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>4694.5151100151743</v>
+        <v>1599.8726100151744</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>4927.5551100151743</v>
+        <v>1658.1326100151746</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>5150.6951100151746</v>
+        <v>1713.9176100151744</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>5193.8251100151747</v>
+        <v>1724.7001100151747</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="0"/>
@@ -10863,12 +11151,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -10963,7 +11251,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11068,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11163,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11258,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11353,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11458,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11553,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11674,12 +11962,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11774,7 +12062,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11869,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11964,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12059,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12154,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12249,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12344,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12455,12 +12743,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12555,7 +12843,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12650,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12745,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12840,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12935,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13030,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13125,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13236,12 +13524,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13336,7 +13624,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13431,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13526,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13621,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13716,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13811,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13906,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D670C6-7E61-42B5-9A27-DB763317D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA6C5A-A488-4546-90F0-F5782A95BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="730" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
   <si>
     <t>Sources:</t>
   </si>
@@ -303,7 +303,13 @@
     <t>values from original IRA analysis</t>
   </si>
   <si>
-    <t>values assuming a 75% cut in our original analysis to represent FEOC restrictions</t>
+    <t>values assuming a 56% cut in our original analysis to represent FEOC restrictions</t>
+  </si>
+  <si>
+    <t>Foreign Entities of Concern Multiplier</t>
+  </si>
+  <si>
+    <t>BloombergNEF, MarkLines, Department of Energy</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,7 +649,6 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -691,6 +696,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474705</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A770E37F-B482-C48F-69E5-AB265CCAA341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1841501"/>
+          <a:ext cx="6532605" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,7 +1037,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,6 +1076,16 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
@@ -1040,6 +1104,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6593,7 +6658,7 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D4" sqref="D4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6609,7 +6674,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6716,44 +6781,44 @@
         <v>1697.08</v>
       </c>
       <c r="D4">
-        <f>D9*0.25</f>
-        <v>1020.0425</v>
+        <f>D9*(1-0.56)</f>
+        <v>1795.2747999999999</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:M4" si="0">E9*0.25</f>
-        <v>1000.8575</v>
+        <f t="shared" ref="E4:M4" si="0">E9*(1-0.56)</f>
+        <v>1761.5091999999997</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1102.7774999999999</v>
+        <v>1940.8883999999996</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1057.2825</v>
+        <v>1860.8171999999997</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1022.79</v>
+        <v>1800.1103999999998</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1024.8150000000001</v>
+        <v>1803.6743999999999</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1031.5474999999999</v>
+        <v>1815.5235999999995</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1089.8074999999999</v>
+        <v>1918.0611999999996</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>1145.5925</v>
+        <v>2016.2427999999998</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>1156.375</v>
+        <v>2035.2199999999998</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6821,44 +6886,44 @@
         <v>3617.05</v>
       </c>
       <c r="D5">
-        <f>D10*0.25</f>
-        <v>1020.0425</v>
+        <f>D10*(1-0.56)</f>
+        <v>1795.2747999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:M5" si="1">E10*0.25</f>
-        <v>1000.8575</v>
+        <f t="shared" ref="E5:M5" si="1">E10*(1-0.56)</f>
+        <v>1761.5091999999997</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1102.7774999999999</v>
+        <v>1940.8883999999996</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1057.2825</v>
+        <v>1860.8171999999997</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>1022.79</v>
+        <v>1800.1103999999998</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>1024.8150000000001</v>
+        <v>1803.6743999999999</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>1031.5474999999999</v>
+        <v>1815.5235999999995</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>1089.8074999999999</v>
+        <v>1918.0611999999996</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1145.5925</v>
+        <v>2016.2427999999998</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>1156.375</v>
+        <v>2035.2199999999998</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -8131,43 +8196,43 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" si="5"/>
-        <v>1596.4939681335359</v>
+        <v>2371.7262681335355</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="5"/>
-        <v>1569.1826100151745</v>
+        <v>2329.8343100151742</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="5"/>
-        <v>1671.1026100151744</v>
+        <v>2509.2135100151741</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="5"/>
-        <v>1625.6076100151745</v>
+        <v>2429.1423100151742</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="5"/>
-        <v>1591.1151100151747</v>
+        <v>2368.4355100151743</v>
       </c>
       <c r="J46" s="5">
         <f t="shared" si="5"/>
-        <v>1593.1401100151747</v>
+        <v>2371.9995100151746</v>
       </c>
       <c r="K46" s="5">
         <f t="shared" si="5"/>
-        <v>1599.8726100151744</v>
+        <v>2383.8487100151742</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="5"/>
-        <v>1658.1326100151746</v>
+        <v>2486.3863100151743</v>
       </c>
       <c r="M46" s="5">
         <f t="shared" si="5"/>
-        <v>1713.9176100151744</v>
+        <v>2584.5679100151742</v>
       </c>
       <c r="N46" s="5">
         <f t="shared" si="5"/>
-        <v>1724.7001100151747</v>
+        <v>2603.5451100151745</v>
       </c>
       <c r="O46" s="5">
         <f t="shared" si="5"/>
@@ -8256,43 +8321,43 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="6"/>
-        <v>1596.4939681335359</v>
+        <v>2371.7262681335355</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="6"/>
-        <v>1569.1826100151745</v>
+        <v>2329.8343100151742</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" si="6"/>
-        <v>1671.1026100151744</v>
+        <v>2509.2135100151741</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="6"/>
-        <v>1625.6076100151745</v>
+        <v>2429.1423100151742</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="6"/>
-        <v>1591.1151100151747</v>
+        <v>2368.4355100151743</v>
       </c>
       <c r="J47" s="5">
         <f t="shared" si="6"/>
-        <v>1593.1401100151747</v>
+        <v>2371.9995100151746</v>
       </c>
       <c r="K47" s="5">
         <f t="shared" si="6"/>
-        <v>1599.8726100151744</v>
+        <v>2383.8487100151742</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="6"/>
-        <v>1658.1326100151746</v>
+        <v>2486.3863100151743</v>
       </c>
       <c r="M47" s="5">
         <f t="shared" si="6"/>
-        <v>1713.9176100151744</v>
+        <v>2584.5679100151742</v>
       </c>
       <c r="N47" s="5">
         <f t="shared" si="6"/>
-        <v>1724.7001100151747</v>
+        <v>2603.5451100151745</v>
       </c>
       <c r="O47" s="5">
         <f t="shared" si="6"/>
@@ -10395,43 +10460,43 @@
       </c>
       <c r="D2" s="19">
         <f>'Passenger Vehicle Calculations'!E46</f>
-        <v>1596.4939681335359</v>
+        <v>2371.7262681335355</v>
       </c>
       <c r="E2" s="19">
         <f>'Passenger Vehicle Calculations'!F46</f>
-        <v>1569.1826100151745</v>
+        <v>2329.8343100151742</v>
       </c>
       <c r="F2" s="19">
         <f>'Passenger Vehicle Calculations'!G46</f>
-        <v>1671.1026100151744</v>
+        <v>2509.2135100151741</v>
       </c>
       <c r="G2" s="19">
         <f>'Passenger Vehicle Calculations'!H46</f>
-        <v>1625.6076100151745</v>
+        <v>2429.1423100151742</v>
       </c>
       <c r="H2" s="19">
         <f>'Passenger Vehicle Calculations'!I46</f>
-        <v>1591.1151100151747</v>
+        <v>2368.4355100151743</v>
       </c>
       <c r="I2" s="19">
         <f>'Passenger Vehicle Calculations'!J46</f>
-        <v>1593.1401100151747</v>
+        <v>2371.9995100151746</v>
       </c>
       <c r="J2" s="19">
         <f>'Passenger Vehicle Calculations'!K46</f>
-        <v>1599.8726100151744</v>
+        <v>2383.8487100151742</v>
       </c>
       <c r="K2" s="19">
         <f>'Passenger Vehicle Calculations'!L46</f>
-        <v>1658.1326100151746</v>
+        <v>2486.3863100151743</v>
       </c>
       <c r="L2" s="19">
         <f>'Passenger Vehicle Calculations'!M46</f>
-        <v>1713.9176100151744</v>
+        <v>2584.5679100151742</v>
       </c>
       <c r="M2" s="19">
         <f>'Passenger Vehicle Calculations'!N46</f>
-        <v>1724.7001100151747</v>
+        <v>2603.5451100151745</v>
       </c>
       <c r="N2" s="19">
         <f>'Passenger Vehicle Calculations'!O46</f>
@@ -10805,43 +10870,43 @@
       </c>
       <c r="D6" s="19">
         <f>'Passenger Vehicle Calculations'!E47</f>
-        <v>1596.4939681335359</v>
+        <v>2371.7262681335355</v>
       </c>
       <c r="E6" s="19">
         <f>'Passenger Vehicle Calculations'!F47</f>
-        <v>1569.1826100151745</v>
+        <v>2329.8343100151742</v>
       </c>
       <c r="F6" s="19">
         <f>'Passenger Vehicle Calculations'!G47</f>
-        <v>1671.1026100151744</v>
+        <v>2509.2135100151741</v>
       </c>
       <c r="G6" s="19">
         <f>'Passenger Vehicle Calculations'!H47</f>
-        <v>1625.6076100151745</v>
+        <v>2429.1423100151742</v>
       </c>
       <c r="H6" s="19">
         <f>'Passenger Vehicle Calculations'!I47</f>
-        <v>1591.1151100151747</v>
+        <v>2368.4355100151743</v>
       </c>
       <c r="I6" s="19">
         <f>'Passenger Vehicle Calculations'!J47</f>
-        <v>1593.1401100151747</v>
+        <v>2371.9995100151746</v>
       </c>
       <c r="J6" s="19">
         <f>'Passenger Vehicle Calculations'!K47</f>
-        <v>1599.8726100151744</v>
+        <v>2383.8487100151742</v>
       </c>
       <c r="K6" s="19">
         <f>'Passenger Vehicle Calculations'!L47</f>
-        <v>1658.1326100151746</v>
+        <v>2486.3863100151743</v>
       </c>
       <c r="L6" s="19">
         <f>'Passenger Vehicle Calculations'!M47</f>
-        <v>1713.9176100151744</v>
+        <v>2584.5679100151742</v>
       </c>
       <c r="M6" s="19">
         <f>'Passenger Vehicle Calculations'!N47</f>
-        <v>1724.7001100151747</v>
+        <v>2603.5451100151745</v>
       </c>
       <c r="N6" s="19">
         <f>'Passenger Vehicle Calculations'!O47</f>
@@ -11023,43 +11088,43 @@
       </c>
       <c r="D8" s="19">
         <f>D2</f>
-        <v>1596.4939681335359</v>
+        <v>2371.7262681335355</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>1569.1826100151745</v>
+        <v>2329.8343100151742</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>1671.1026100151744</v>
+        <v>2509.2135100151741</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>1625.6076100151745</v>
+        <v>2429.1423100151742</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>1591.1151100151747</v>
+        <v>2368.4355100151743</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>1593.1401100151747</v>
+        <v>2371.9995100151746</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>1599.8726100151744</v>
+        <v>2383.8487100151742</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>1658.1326100151746</v>
+        <v>2486.3863100151743</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>1713.9176100151744</v>
+        <v>2584.5679100151742</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>1724.7001100151747</v>
+        <v>2603.5451100151745</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="0"/>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA6C5A-A488-4546-90F0-F5782A95BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B291C5C-0D68-4026-BF5B-12E51E7484B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="730" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -303,13 +303,13 @@
     <t>values from original IRA analysis</t>
   </si>
   <si>
-    <t>values assuming a 56% cut in our original analysis to represent FEOC restrictions</t>
-  </si>
-  <si>
     <t>Foreign Entities of Concern Multiplier</t>
   </si>
   <si>
     <t>BloombergNEF, MarkLines, Department of Energy</t>
+  </si>
+  <si>
+    <t>We assume a 56% cut in our original analysis to represent FEOC restrictions for the year 2024, based on BNEF data. We assume more restrictive guidance starting in 2025 will reduce the credit amount by 75%.</t>
   </si>
 </sst>
 </file>
@@ -1078,12 +1078,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -6657,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:M5"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -6789,36 +6789,36 @@
         <v>1761.5091999999997</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1940.8883999999996</v>
+        <f>F9*(1-0.75)</f>
+        <v>1102.7774999999999</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1860.8171999999997</v>
+        <f t="shared" ref="G4:M4" si="1">G9*(1-0.75)</f>
+        <v>1057.2825</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1800.1103999999998</v>
+        <f t="shared" si="1"/>
+        <v>1022.79</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>1803.6743999999999</v>
+        <f t="shared" si="1"/>
+        <v>1024.8150000000001</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1815.5235999999995</v>
+        <f t="shared" si="1"/>
+        <v>1031.5474999999999</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>1918.0611999999996</v>
+        <f t="shared" si="1"/>
+        <v>1089.8074999999999</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>2016.2427999999998</v>
+        <f t="shared" si="1"/>
+        <v>1145.5925</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>2035.2199999999998</v>
+        <f t="shared" si="1"/>
+        <v>1156.375</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6890,40 +6890,40 @@
         <v>1795.2747999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:M5" si="1">E10*(1-0.56)</f>
+        <f t="shared" ref="E5:M5" si="2">E10*(1-0.56)</f>
         <v>1761.5091999999997</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1940.8883999999996</v>
+        <f>F10*(1-0.75)</f>
+        <v>1102.7774999999999</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>1860.8171999999997</v>
+        <f t="shared" ref="G5:M5" si="3">G10*(1-0.75)</f>
+        <v>1057.2825</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>1800.1103999999998</v>
+        <f t="shared" si="3"/>
+        <v>1022.79</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>1803.6743999999999</v>
+        <f t="shared" si="3"/>
+        <v>1024.8150000000001</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>1815.5235999999995</v>
+        <f t="shared" si="3"/>
+        <v>1031.5474999999999</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1918.0611999999996</v>
+        <f t="shared" si="3"/>
+        <v>1089.8074999999999</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>2016.2427999999998</v>
+        <f t="shared" si="3"/>
+        <v>1145.5925</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>2035.2199999999998</v>
+        <f t="shared" si="3"/>
+        <v>1156.375</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -7332,27 +7332,27 @@
         <v>2020</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" ref="E19:J19" si="2">D19+1</f>
+        <f t="shared" ref="E19:J19" si="4">D19+1</f>
         <v>2021</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2023</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2024</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2026</v>
       </c>
     </row>
@@ -7961,27 +7961,27 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C42" s="5">
-        <f t="shared" ref="C42:H42" si="3">SUMPRODUCT(E20:E33,$B$20:$B$33)/SUM($B$20:$B$33)*$B$38</f>
+        <f t="shared" ref="C42:H42" si="5">SUMPRODUCT(E20:E33,$B$20:$B$33)/SUM($B$20:$B$33)*$B$38</f>
         <v>600.15334597875574</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>576.45146813353574</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>576.45146813353574</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>568.32511001517457</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>568.32511001517457</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>568.32511001517457</v>
       </c>
       <c r="I42" s="5">
@@ -7989,95 +7989,95 @@
         <v>568.32511001517457</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" ref="J42:AF42" si="4">I42</f>
+        <f t="shared" ref="J42:AF42" si="6">I42</f>
         <v>568.32511001517457</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AB42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AF42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>568.32511001517457</v>
       </c>
     </row>
@@ -8187,123 +8187,123 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:AF46" si="5">B4+C42</f>
+        <f t="shared" ref="C46:AF46" si="7">B4+C42</f>
         <v>3036.0333459787557</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2273.5314681335358</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2371.7262681335355</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2329.8343100151742</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="5"/>
-        <v>2509.2135100151741</v>
+        <f t="shared" si="7"/>
+        <v>1671.1026100151744</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="5"/>
-        <v>2429.1423100151742</v>
+        <f t="shared" si="7"/>
+        <v>1625.6076100151745</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="5"/>
-        <v>2368.4355100151743</v>
+        <f t="shared" si="7"/>
+        <v>1591.1151100151747</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="5"/>
-        <v>2371.9995100151746</v>
+        <f t="shared" si="7"/>
+        <v>1593.1401100151747</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="5"/>
-        <v>2383.8487100151742</v>
+        <f t="shared" si="7"/>
+        <v>1599.8726100151744</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="5"/>
-        <v>2486.3863100151743</v>
+        <f t="shared" si="7"/>
+        <v>1658.1326100151746</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="5"/>
-        <v>2584.5679100151742</v>
+        <f t="shared" si="7"/>
+        <v>1713.9176100151744</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="5"/>
-        <v>2603.5451100151745</v>
+        <f t="shared" si="7"/>
+        <v>1724.7001100151747</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AE46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AF46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>568.32511001517457</v>
       </c>
     </row>
@@ -8312,123 +8312,123 @@
         <v>46</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" ref="C47:AF47" si="6">B5+C42</f>
+        <f t="shared" ref="C47:AF47" si="8">B5+C42</f>
         <v>7252.8733459787563</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4193.501468133536</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2371.7262681335355</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2329.8343100151742</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="6"/>
-        <v>2509.2135100151741</v>
+        <f t="shared" si="8"/>
+        <v>1671.1026100151744</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="6"/>
-        <v>2429.1423100151742</v>
+        <f t="shared" si="8"/>
+        <v>1625.6076100151745</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="6"/>
-        <v>2368.4355100151743</v>
+        <f t="shared" si="8"/>
+        <v>1591.1151100151747</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="6"/>
-        <v>2371.9995100151746</v>
+        <f t="shared" si="8"/>
+        <v>1593.1401100151747</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="6"/>
-        <v>2383.8487100151742</v>
+        <f t="shared" si="8"/>
+        <v>1599.8726100151744</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="6"/>
-        <v>2486.3863100151743</v>
+        <f t="shared" si="8"/>
+        <v>1658.1326100151746</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="6"/>
-        <v>2584.5679100151742</v>
+        <f t="shared" si="8"/>
+        <v>1713.9176100151744</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="6"/>
-        <v>2603.5451100151745</v>
+        <f t="shared" si="8"/>
+        <v>1724.7001100151747</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="X47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Y47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="Z47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AB47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AD47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AE47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
       <c r="AF47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>568.32511001517457</v>
       </c>
     </row>
@@ -10468,35 +10468,35 @@
       </c>
       <c r="F2" s="19">
         <f>'Passenger Vehicle Calculations'!G46</f>
-        <v>2509.2135100151741</v>
+        <v>1671.1026100151744</v>
       </c>
       <c r="G2" s="19">
         <f>'Passenger Vehicle Calculations'!H46</f>
-        <v>2429.1423100151742</v>
+        <v>1625.6076100151745</v>
       </c>
       <c r="H2" s="19">
         <f>'Passenger Vehicle Calculations'!I46</f>
-        <v>2368.4355100151743</v>
+        <v>1591.1151100151747</v>
       </c>
       <c r="I2" s="19">
         <f>'Passenger Vehicle Calculations'!J46</f>
-        <v>2371.9995100151746</v>
+        <v>1593.1401100151747</v>
       </c>
       <c r="J2" s="19">
         <f>'Passenger Vehicle Calculations'!K46</f>
-        <v>2383.8487100151742</v>
+        <v>1599.8726100151744</v>
       </c>
       <c r="K2" s="19">
         <f>'Passenger Vehicle Calculations'!L46</f>
-        <v>2486.3863100151743</v>
+        <v>1658.1326100151746</v>
       </c>
       <c r="L2" s="19">
         <f>'Passenger Vehicle Calculations'!M46</f>
-        <v>2584.5679100151742</v>
+        <v>1713.9176100151744</v>
       </c>
       <c r="M2" s="19">
         <f>'Passenger Vehicle Calculations'!N46</f>
-        <v>2603.5451100151745</v>
+        <v>1724.7001100151747</v>
       </c>
       <c r="N2" s="19">
         <f>'Passenger Vehicle Calculations'!O46</f>
@@ -10878,35 +10878,35 @@
       </c>
       <c r="F6" s="19">
         <f>'Passenger Vehicle Calculations'!G47</f>
-        <v>2509.2135100151741</v>
+        <v>1671.1026100151744</v>
       </c>
       <c r="G6" s="19">
         <f>'Passenger Vehicle Calculations'!H47</f>
-        <v>2429.1423100151742</v>
+        <v>1625.6076100151745</v>
       </c>
       <c r="H6" s="19">
         <f>'Passenger Vehicle Calculations'!I47</f>
-        <v>2368.4355100151743</v>
+        <v>1591.1151100151747</v>
       </c>
       <c r="I6" s="19">
         <f>'Passenger Vehicle Calculations'!J47</f>
-        <v>2371.9995100151746</v>
+        <v>1593.1401100151747</v>
       </c>
       <c r="J6" s="19">
         <f>'Passenger Vehicle Calculations'!K47</f>
-        <v>2383.8487100151742</v>
+        <v>1599.8726100151744</v>
       </c>
       <c r="K6" s="19">
         <f>'Passenger Vehicle Calculations'!L47</f>
-        <v>2486.3863100151743</v>
+        <v>1658.1326100151746</v>
       </c>
       <c r="L6" s="19">
         <f>'Passenger Vehicle Calculations'!M47</f>
-        <v>2584.5679100151742</v>
+        <v>1713.9176100151744</v>
       </c>
       <c r="M6" s="19">
         <f>'Passenger Vehicle Calculations'!N47</f>
-        <v>2603.5451100151745</v>
+        <v>1724.7001100151747</v>
       </c>
       <c r="N6" s="19">
         <f>'Passenger Vehicle Calculations'!O47</f>
@@ -11096,35 +11096,35 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>2509.2135100151741</v>
+        <v>1671.1026100151744</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>2429.1423100151742</v>
+        <v>1625.6076100151745</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>2368.4355100151743</v>
+        <v>1591.1151100151747</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>2371.9995100151746</v>
+        <v>1593.1401100151747</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>2383.8487100151742</v>
+        <v>1599.8726100151744</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>2486.3863100151743</v>
+        <v>1658.1326100151746</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>2584.5679100151742</v>
+        <v>1713.9176100151744</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>2603.5451100151745</v>
+        <v>1724.7001100151747</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="0"/>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B291C5C-0D68-4026-BF5B-12E51E7484B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445782DA-C67E-4DAD-8034-FCD084A94EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>Sources:</t>
   </si>
@@ -298,18 +298,6 @@
   </si>
   <si>
     <t>AEO 2023</t>
-  </si>
-  <si>
-    <t>values from original IRA analysis</t>
-  </si>
-  <si>
-    <t>Foreign Entities of Concern Multiplier</t>
-  </si>
-  <si>
-    <t>BloombergNEF, MarkLines, Department of Energy</t>
-  </si>
-  <si>
-    <t>We assume a 56% cut in our original analysis to represent FEOC restrictions for the year 2024, based on BNEF data. We assume more restrictive guidance starting in 2025 will reduce the credit amount by 75%.</t>
   </si>
 </sst>
 </file>
@@ -698,55 +686,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>474705</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A770E37F-B482-C48F-69E5-AB265CCAA341}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1841501"/>
-          <a:ext cx="6532605" cy="4648200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1036,21 +975,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.26953125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,53 +997,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1119,12 +1047,12 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1147,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +1828,7 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1917,12 +1845,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +1945,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2029,43 +1957,43 @@
       </c>
       <c r="D2">
         <f>'Commercial Vehicles'!B11</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>'Commercial Vehicles'!C11</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'Commercial Vehicles'!D11</f>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>'Commercial Vehicles'!E11</f>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>'Commercial Vehicles'!F11</f>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>'Commercial Vehicles'!G11</f>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>'Commercial Vehicles'!H11</f>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'Commercial Vehicles'!I11</f>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>'Commercial Vehicles'!J11</f>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>'Commercial Vehicles'!K11</f>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2122,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2217,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2407,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2419,43 +2347,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2512,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2607,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2619,43 +2547,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2729,12 +2657,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +2757,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2841,43 +2769,43 @@
       </c>
       <c r="D2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2934,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3029,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3124,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3219,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3231,43 +3159,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3324,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3419,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3431,43 +3359,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -3540,12 +3468,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3640,7 +3568,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3735,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3830,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4020,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4115,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4210,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4321,12 +4249,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4421,7 +4349,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4516,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4611,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4706,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4801,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4896,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4991,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5102,12 +5030,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5202,7 +5130,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5297,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5487,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5582,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5677,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5772,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5883,12 +5811,12 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5983,7 +5911,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6078,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6173,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6268,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6553,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6655,784 +6583,670 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2021</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <v>2024</v>
+      </c>
+      <c r="F2">
+        <v>2025</v>
+      </c>
+      <c r="G2">
+        <v>2026</v>
+      </c>
+      <c r="H2">
+        <v>2027</v>
+      </c>
+      <c r="I2">
+        <v>2028</v>
+      </c>
+      <c r="J2">
+        <v>2029</v>
+      </c>
+      <c r="K2">
+        <v>2030</v>
+      </c>
+      <c r="L2">
+        <v>2031</v>
+      </c>
+      <c r="M2">
+        <v>2032</v>
+      </c>
+      <c r="N2">
+        <v>2033</v>
+      </c>
+      <c r="O2">
+        <v>2034</v>
+      </c>
+      <c r="P2">
+        <v>2035</v>
+      </c>
+      <c r="Q2">
+        <v>2036</v>
+      </c>
+      <c r="R2">
+        <v>2037</v>
+      </c>
+      <c r="S2">
+        <v>2038</v>
+      </c>
+      <c r="T2">
+        <v>2039</v>
+      </c>
+      <c r="U2">
+        <v>2040</v>
+      </c>
+      <c r="V2">
+        <v>2041</v>
+      </c>
+      <c r="W2">
+        <v>2042</v>
+      </c>
+      <c r="X2">
+        <v>2043</v>
+      </c>
+      <c r="Y2">
+        <v>2044</v>
+      </c>
+      <c r="Z2">
+        <v>2045</v>
+      </c>
+      <c r="AA2">
+        <v>2046</v>
+      </c>
+      <c r="AB2">
+        <v>2047</v>
+      </c>
+      <c r="AC2">
+        <v>2048</v>
+      </c>
+      <c r="AD2">
+        <v>2049</v>
+      </c>
+      <c r="AE2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B3">
+        <v>1646.4981124797289</v>
+      </c>
+      <c r="C3">
+        <v>1368.5857570401329</v>
+      </c>
+      <c r="D3">
+        <v>983.6971469156598</v>
+      </c>
+      <c r="E3">
+        <v>654.32041202251673</v>
+      </c>
+      <c r="F3">
+        <v>219.25443921462275</v>
+      </c>
+      <c r="G3">
+        <v>29.671981569503362</v>
+      </c>
+      <c r="H3">
+        <v>29.671981569503377</v>
+      </c>
+      <c r="I3">
+        <v>29.671981569503377</v>
+      </c>
+      <c r="J3">
+        <v>29.67198156950337</v>
+      </c>
+      <c r="K3">
+        <v>29.671981569503377</v>
+      </c>
+      <c r="L3">
+        <v>29.67198156950338</v>
+      </c>
+      <c r="M3">
+        <v>29.662930818658605</v>
+      </c>
+      <c r="N3">
+        <v>29.657500368151737</v>
+      </c>
+      <c r="O3">
+        <v>29.657500368151744</v>
+      </c>
+      <c r="P3">
+        <v>20.04560297100296</v>
+      </c>
+      <c r="Q3">
+        <v>14.278464532713683</v>
+      </c>
+      <c r="R3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="S3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="T3">
+        <v>14.278464532713675</v>
+      </c>
+      <c r="U3">
+        <v>14.278464532713675</v>
+      </c>
+      <c r="V3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="W3">
+        <v>14.278464532713674</v>
+      </c>
+      <c r="X3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="Y3">
+        <v>14.278464532713683</v>
+      </c>
+      <c r="Z3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="AA3">
+        <v>14.278464532713683</v>
+      </c>
+      <c r="AB3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="AC3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="AD3">
+        <v>10.395692420306119</v>
+      </c>
+      <c r="AE3">
+        <v>8.066029152861578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>6652.7185168992282</v>
+      </c>
+      <c r="C4">
+        <v>3617.050692978903</v>
+      </c>
+      <c r="D4">
+        <v>1422.8620974282658</v>
+      </c>
+      <c r="E4">
+        <v>838.46462929681411</v>
+      </c>
+      <c r="F4">
+        <v>421.08837128836086</v>
+      </c>
+      <c r="G4">
+        <v>300.52351835174784</v>
+      </c>
+      <c r="H4">
+        <v>300.52351835174778</v>
+      </c>
+      <c r="I4">
+        <v>300.52351835174778</v>
+      </c>
+      <c r="J4">
+        <v>300.52351835174778</v>
+      </c>
+      <c r="K4">
+        <v>300.52351835174778</v>
+      </c>
+      <c r="L4">
+        <v>300.52351835174778</v>
+      </c>
+      <c r="M4">
+        <v>245.24790619147615</v>
+      </c>
+      <c r="N4">
+        <v>149.54513499056355</v>
+      </c>
+      <c r="O4">
+        <v>58.275878749437524</v>
+      </c>
+      <c r="P4">
+        <v>11.623644285733851</v>
+      </c>
+      <c r="Q4">
+        <v>2.9811566108910497</v>
+      </c>
+      <c r="R4">
+        <v>2.9811566108910501</v>
+      </c>
+      <c r="S4">
+        <v>2.981156610891051</v>
+      </c>
+      <c r="T4">
+        <v>2.9811566108910506</v>
+      </c>
+      <c r="U4">
+        <v>2.9811566108910497</v>
+      </c>
+      <c r="V4">
+        <v>2.9811566108910506</v>
+      </c>
+      <c r="W4">
+        <v>2.9811566108910497</v>
+      </c>
+      <c r="X4">
+        <v>2.9811566108910501</v>
+      </c>
+      <c r="Y4">
+        <v>2.9811566108910501</v>
+      </c>
+      <c r="Z4">
+        <v>2.9811566108910497</v>
+      </c>
+      <c r="AA4">
+        <v>2.9811566108910501</v>
+      </c>
+      <c r="AB4">
+        <v>2.9811566108910501</v>
+      </c>
+      <c r="AC4">
+        <v>2.9811566108910501</v>
+      </c>
+      <c r="AD4">
+        <v>1.1179337290841438</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:J13" si="0">D13+1</f>
         <v>2021</v>
       </c>
-      <c r="C3">
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="D3">
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="E3">
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="F3">
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="G3">
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="H3">
-        <v>2027</v>
-      </c>
-      <c r="I3">
-        <v>2028</v>
-      </c>
-      <c r="J3">
-        <v>2029</v>
-      </c>
-      <c r="K3">
-        <v>2030</v>
-      </c>
-      <c r="L3">
-        <v>2031</v>
-      </c>
-      <c r="M3">
-        <v>2032</v>
-      </c>
-      <c r="N3">
-        <v>2033</v>
-      </c>
-      <c r="O3">
-        <v>2034</v>
-      </c>
-      <c r="P3">
-        <v>2035</v>
-      </c>
-      <c r="Q3">
-        <v>2036</v>
-      </c>
-      <c r="R3">
-        <v>2037</v>
-      </c>
-      <c r="S3">
-        <v>2038</v>
-      </c>
-      <c r="T3">
-        <v>2039</v>
-      </c>
-      <c r="U3">
-        <v>2040</v>
-      </c>
-      <c r="V3">
-        <v>2041</v>
-      </c>
-      <c r="W3">
-        <v>2042</v>
-      </c>
-      <c r="X3">
-        <v>2043</v>
-      </c>
-      <c r="Y3">
-        <v>2044</v>
-      </c>
-      <c r="Z3">
-        <v>2045</v>
-      </c>
-      <c r="AA3">
-        <v>2046</v>
-      </c>
-      <c r="AB3">
-        <v>2047</v>
-      </c>
-      <c r="AC3">
-        <v>2048</v>
-      </c>
-      <c r="AD3">
-        <v>2049</v>
-      </c>
-      <c r="AE3">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>2435.88</v>
-      </c>
-      <c r="C4">
-        <v>1697.08</v>
-      </c>
-      <c r="D4">
-        <f>D9*(1-0.56)</f>
-        <v>1795.2747999999999</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:M4" si="0">E9*(1-0.56)</f>
-        <v>1761.5091999999997</v>
-      </c>
-      <c r="F4">
-        <f>F9*(1-0.75)</f>
-        <v>1102.7774999999999</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:M4" si="1">G9*(1-0.75)</f>
-        <v>1057.2825</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>1022.79</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>1024.8150000000001</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>1031.5474999999999</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>1089.8074999999999</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>1145.5925</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>1156.375</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>6652.72</v>
-      </c>
-      <c r="C5">
-        <v>3617.05</v>
-      </c>
-      <c r="D5">
-        <f>D10*(1-0.56)</f>
-        <v>1795.2747999999999</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:M5" si="2">E10*(1-0.56)</f>
-        <v>1761.5091999999997</v>
-      </c>
-      <c r="F5">
-        <f>F10*(1-0.75)</f>
-        <v>1102.7774999999999</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:M5" si="3">G10*(1-0.75)</f>
-        <v>1057.2825</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>1022.79</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>1024.8150000000001</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>1031.5474999999999</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>1089.8074999999999</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>1145.5925</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>1156.375</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8">
-        <v>2022</v>
-      </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
-      <c r="E8">
-        <v>2024</v>
-      </c>
-      <c r="F8">
-        <v>2025</v>
-      </c>
-      <c r="G8">
-        <v>2026</v>
-      </c>
-      <c r="H8">
-        <v>2027</v>
-      </c>
-      <c r="I8">
-        <v>2028</v>
-      </c>
-      <c r="J8">
-        <v>2029</v>
-      </c>
-      <c r="K8">
-        <v>2030</v>
-      </c>
-      <c r="L8">
-        <v>2031</v>
-      </c>
-      <c r="M8">
-        <v>2032</v>
-      </c>
-      <c r="N8">
-        <v>2033</v>
-      </c>
-      <c r="O8">
-        <v>2034</v>
-      </c>
-      <c r="P8">
-        <v>2035</v>
-      </c>
-      <c r="Q8">
-        <v>2036</v>
-      </c>
-      <c r="R8">
-        <v>2037</v>
-      </c>
-      <c r="S8">
-        <v>2038</v>
-      </c>
-      <c r="T8">
-        <v>2039</v>
-      </c>
-      <c r="U8">
-        <v>2040</v>
-      </c>
-      <c r="V8">
-        <v>2041</v>
-      </c>
-      <c r="W8">
-        <v>2042</v>
-      </c>
-      <c r="X8">
-        <v>2043</v>
-      </c>
-      <c r="Y8">
-        <v>2044</v>
-      </c>
-      <c r="Z8">
-        <v>2045</v>
-      </c>
-      <c r="AA8">
-        <v>2046</v>
-      </c>
-      <c r="AB8">
-        <v>2047</v>
-      </c>
-      <c r="AC8">
-        <v>2048</v>
-      </c>
-      <c r="AD8">
-        <v>2049</v>
-      </c>
-      <c r="AE8">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>2435.88</v>
-      </c>
-      <c r="C9">
-        <v>1697.08</v>
-      </c>
-      <c r="D9">
-        <v>4080.17</v>
-      </c>
-      <c r="E9">
-        <v>4003.43</v>
-      </c>
-      <c r="F9">
-        <v>4411.1099999999997</v>
-      </c>
-      <c r="G9">
-        <v>4229.13</v>
-      </c>
-      <c r="H9">
-        <v>4091.16</v>
-      </c>
-      <c r="I9">
-        <v>4099.26</v>
-      </c>
-      <c r="J9">
-        <v>4126.1899999999996</v>
-      </c>
-      <c r="K9">
-        <v>4359.2299999999996</v>
-      </c>
-      <c r="L9">
-        <v>4582.37</v>
-      </c>
-      <c r="M9">
-        <v>4625.5</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>6652.72</v>
-      </c>
-      <c r="C10">
-        <v>3617.05</v>
-      </c>
-      <c r="D10">
-        <v>4080.17</v>
-      </c>
-      <c r="E10">
-        <v>4003.43</v>
-      </c>
-      <c r="F10">
-        <v>4411.1099999999997</v>
-      </c>
-      <c r="G10">
-        <v>4229.13</v>
-      </c>
-      <c r="H10">
-        <v>4091.16</v>
-      </c>
-      <c r="I10">
-        <v>4099.26</v>
-      </c>
-      <c r="J10">
-        <v>4126.1899999999996</v>
-      </c>
-      <c r="K10">
-        <v>4359.2299999999996</v>
-      </c>
-      <c r="L10">
-        <v>4582.37</v>
-      </c>
-      <c r="M10">
-        <v>4625.5</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4750</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4750</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2400</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2400</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="R15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>28.64</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="8">
+        <v>39.35</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" s="8">
-        <v>2020</v>
+        <v>2500</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" ref="E19:J19" si="4">D19+1</f>
-        <v>2021</v>
+        <v>2500</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2500</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="4"/>
-        <v>2023</v>
+        <v>2500</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="4"/>
-        <v>2024</v>
+        <v>2500</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="4"/>
-        <v>2025</v>
+        <v>2500</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="4"/>
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8">
-        <v>5.6849999999999996</v>
+        <v>4.665</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8">
-        <v>4750</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4750</v>
-      </c>
-      <c r="F20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="J20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B21" s="8">
-        <v>3.5710000000000002</v>
+        <v>1.341</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="8">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="8">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="F21" s="8">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="8">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="8">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="8">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="J21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="R21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B22" s="8">
-        <v>0.96799999999999997</v>
+        <v>6.0380000000000003</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>23</v>
@@ -7459,85 +7273,76 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B23" s="8">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C23" s="10" t="s">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="I23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B24" s="8">
-        <v>28.64</v>
+        <v>8.8849999999999998</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="8">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F24" s="8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="13"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" s="8">
-        <v>39.35</v>
+        <v>4.1760000000000002</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
@@ -7564,892 +7369,700 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B26" s="8">
-        <v>4.665</v>
+        <v>0.624</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="F26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="H26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="I26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="J26" s="14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I26" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J26" s="8">
+        <v>4000</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B27" s="8">
-        <v>1.341</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>23</v>
-      </c>
+        <f>B28-SUM(B14:B26)</f>
+        <v>210.304</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E27" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B28" s="8">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J28" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="8">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J29" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="8">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J30" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="8">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0.624</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="I32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="J32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="8">
-        <f>B34-SUM(B20:B32)</f>
-        <v>210.304</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8">
         <v>329.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2021</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>2024</v>
+      </c>
+      <c r="G35">
+        <v>2025</v>
+      </c>
+      <c r="H35">
+        <v>2026</v>
+      </c>
+      <c r="I35">
+        <v>2027</v>
+      </c>
+      <c r="J35">
+        <v>2028</v>
+      </c>
+      <c r="K35">
+        <v>2029</v>
+      </c>
+      <c r="L35">
+        <v>2030</v>
+      </c>
+      <c r="M35">
+        <v>2031</v>
+      </c>
+      <c r="N35">
+        <v>2032</v>
+      </c>
+      <c r="O35">
+        <v>2033</v>
+      </c>
+      <c r="P35">
+        <v>2034</v>
+      </c>
+      <c r="Q35">
+        <v>2035</v>
+      </c>
+      <c r="R35">
+        <v>2036</v>
+      </c>
+      <c r="S35">
+        <v>2037</v>
+      </c>
+      <c r="T35">
+        <v>2038</v>
+      </c>
+      <c r="U35">
+        <v>2039</v>
+      </c>
+      <c r="V35">
+        <v>2040</v>
+      </c>
+      <c r="W35">
+        <v>2041</v>
+      </c>
+      <c r="X35">
+        <v>2042</v>
+      </c>
+      <c r="Y35">
+        <v>2043</v>
+      </c>
+      <c r="Z35">
+        <v>2044</v>
+      </c>
+      <c r="AA35">
+        <v>2045</v>
+      </c>
+      <c r="AB35">
+        <v>2046</v>
+      </c>
+      <c r="AC35">
+        <v>2047</v>
+      </c>
+      <c r="AD35">
+        <v>2048</v>
+      </c>
+      <c r="AE35">
+        <v>2049</v>
+      </c>
+      <c r="AF35">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C36" s="5">
+        <f t="shared" ref="C36:H36" si="1">SUMPRODUCT(E14:E27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <v>600.15334597875574</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>576.45146813353574</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>576.45146813353574</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="1"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="1"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="1"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="I36" s="5">
+        <f>H36</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" ref="J36:AF36" si="2">I36</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2021</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
+      </c>
+      <c r="F39">
+        <v>2024</v>
+      </c>
+      <c r="G39">
+        <v>2025</v>
+      </c>
+      <c r="H39">
+        <v>2026</v>
+      </c>
+      <c r="I39">
+        <v>2027</v>
+      </c>
+      <c r="J39">
+        <v>2028</v>
+      </c>
+      <c r="K39">
+        <v>2029</v>
+      </c>
+      <c r="L39">
+        <v>2030</v>
+      </c>
+      <c r="M39">
+        <v>2031</v>
+      </c>
+      <c r="N39">
+        <v>2032</v>
+      </c>
+      <c r="O39">
+        <v>2033</v>
+      </c>
+      <c r="P39">
+        <v>2034</v>
+      </c>
+      <c r="Q39">
+        <v>2035</v>
+      </c>
+      <c r="R39">
+        <v>2036</v>
+      </c>
+      <c r="S39">
+        <v>2037</v>
+      </c>
+      <c r="T39">
+        <v>2038</v>
+      </c>
+      <c r="U39">
+        <v>2039</v>
+      </c>
+      <c r="V39">
+        <v>2040</v>
+      </c>
+      <c r="W39">
+        <v>2041</v>
+      </c>
+      <c r="X39">
+        <v>2042</v>
+      </c>
+      <c r="Y39">
+        <v>2043</v>
+      </c>
+      <c r="Z39">
+        <v>2044</v>
+      </c>
+      <c r="AA39">
+        <v>2045</v>
+      </c>
+      <c r="AB39">
+        <v>2046</v>
+      </c>
+      <c r="AC39">
+        <v>2047</v>
+      </c>
+      <c r="AD39">
+        <v>2048</v>
+      </c>
+      <c r="AE39">
+        <v>2049</v>
+      </c>
+      <c r="AF39">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C41">
-        <v>2021</v>
-      </c>
-      <c r="D41">
-        <v>2022</v>
-      </c>
-      <c r="E41">
-        <v>2023</v>
-      </c>
-      <c r="F41">
-        <v>2024</v>
-      </c>
-      <c r="G41">
-        <v>2025</v>
-      </c>
-      <c r="H41">
-        <v>2026</v>
-      </c>
-      <c r="I41">
-        <v>2027</v>
-      </c>
-      <c r="J41">
-        <v>2028</v>
-      </c>
-      <c r="K41">
-        <v>2029</v>
-      </c>
-      <c r="L41">
-        <v>2030</v>
-      </c>
-      <c r="M41">
-        <v>2031</v>
-      </c>
-      <c r="N41">
-        <v>2032</v>
-      </c>
-      <c r="O41">
-        <v>2033</v>
-      </c>
-      <c r="P41">
-        <v>2034</v>
-      </c>
-      <c r="Q41">
-        <v>2035</v>
-      </c>
-      <c r="R41">
-        <v>2036</v>
-      </c>
-      <c r="S41">
-        <v>2037</v>
-      </c>
-      <c r="T41">
-        <v>2038</v>
-      </c>
-      <c r="U41">
-        <v>2039</v>
-      </c>
-      <c r="V41">
-        <v>2040</v>
-      </c>
-      <c r="W41">
-        <v>2041</v>
-      </c>
-      <c r="X41">
-        <v>2042</v>
-      </c>
-      <c r="Y41">
-        <v>2043</v>
-      </c>
-      <c r="Z41">
-        <v>2044</v>
-      </c>
-      <c r="AA41">
-        <v>2045</v>
-      </c>
-      <c r="AB41">
-        <v>2046</v>
-      </c>
-      <c r="AC41">
-        <v>2047</v>
-      </c>
-      <c r="AD41">
-        <v>2048</v>
-      </c>
-      <c r="AE41">
-        <v>2049</v>
-      </c>
-      <c r="AF41">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C42" s="5">
-        <f t="shared" ref="C42:H42" si="5">SUMPRODUCT(E20:E33,$B$20:$B$33)/SUM($B$20:$B$33)*$B$38</f>
-        <v>600.15334597875574</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="5"/>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" si="5"/>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5">
+        <f>B3+C36</f>
+        <v>2246.6514584584847</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" ref="D40:AF40" si="3">C3+D36</f>
+        <v>1945.0372251736685</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="3"/>
+        <v>1560.1486150491955</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="3"/>
+        <v>1222.6455220376913</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="3"/>
+        <v>787.57954922979729</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.98804083383322</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.98261038332635</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.98261038332635</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="3"/>
+        <v>588.37071298617752</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="X40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AB40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AC40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AD40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AE40" s="5">
+        <f t="shared" si="3"/>
+        <v>578.72080243548066</v>
+      </c>
+      <c r="AF40" s="5">
+        <f t="shared" si="3"/>
+        <v>576.39113916803615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="5">
+        <f>B4+C36</f>
+        <v>7252.8718628779843</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:AF41" si="4">C4+D36</f>
+        <v>4193.5021611124384</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="4"/>
+        <v>1999.3135655618016</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="4"/>
+        <v>1406.7897393119888</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="4"/>
+        <v>989.41348130353549</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="4"/>
+        <v>813.57301620665066</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="4"/>
+        <v>717.87024500573807</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="4"/>
+        <v>626.60098876461211</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="4"/>
+        <v>579.94875430090838</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="X41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AA41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AB41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AC41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AD41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AE41" s="5">
+        <f t="shared" si="4"/>
+        <v>569.44304374425872</v>
+      </c>
+      <c r="AF41" s="5">
+        <f t="shared" si="4"/>
         <v>568.32511001517457</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="I42" s="5">
-        <f>H42</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" ref="J42:AF42" si="6">I42</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="M42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="N42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C45">
-        <v>2021</v>
-      </c>
-      <c r="D45">
-        <v>2022</v>
-      </c>
-      <c r="E45">
-        <v>2023</v>
-      </c>
-      <c r="F45">
-        <v>2024</v>
-      </c>
-      <c r="G45">
-        <v>2025</v>
-      </c>
-      <c r="H45">
-        <v>2026</v>
-      </c>
-      <c r="I45">
-        <v>2027</v>
-      </c>
-      <c r="J45">
-        <v>2028</v>
-      </c>
-      <c r="K45">
-        <v>2029</v>
-      </c>
-      <c r="L45">
-        <v>2030</v>
-      </c>
-      <c r="M45">
-        <v>2031</v>
-      </c>
-      <c r="N45">
-        <v>2032</v>
-      </c>
-      <c r="O45">
-        <v>2033</v>
-      </c>
-      <c r="P45">
-        <v>2034</v>
-      </c>
-      <c r="Q45">
-        <v>2035</v>
-      </c>
-      <c r="R45">
-        <v>2036</v>
-      </c>
-      <c r="S45">
-        <v>2037</v>
-      </c>
-      <c r="T45">
-        <v>2038</v>
-      </c>
-      <c r="U45">
-        <v>2039</v>
-      </c>
-      <c r="V45">
-        <v>2040</v>
-      </c>
-      <c r="W45">
-        <v>2041</v>
-      </c>
-      <c r="X45">
-        <v>2042</v>
-      </c>
-      <c r="Y45">
-        <v>2043</v>
-      </c>
-      <c r="Z45">
-        <v>2044</v>
-      </c>
-      <c r="AA45">
-        <v>2045</v>
-      </c>
-      <c r="AB45">
-        <v>2046</v>
-      </c>
-      <c r="AC45">
-        <v>2047</v>
-      </c>
-      <c r="AD45">
-        <v>2048</v>
-      </c>
-      <c r="AE45">
-        <v>2049</v>
-      </c>
-      <c r="AF45">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <f t="shared" ref="C46:AF46" si="7">B4+C42</f>
-        <v>3036.0333459787557</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="7"/>
-        <v>2273.5314681335358</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" si="7"/>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="7"/>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="shared" si="7"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="7"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="7"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="7"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="7"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="7"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="M46" s="5">
-        <f t="shared" si="7"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="7"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" ref="C47:AF47" si="8">B5+C42</f>
-        <v>7252.8733459787563</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="8"/>
-        <v>4193.501468133536</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="8"/>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="8"/>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="shared" si="8"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="8"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="8"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="J47" s="5">
-        <f t="shared" si="8"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="8"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="8"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="M47" s="5">
-        <f t="shared" si="8"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" si="8"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="16"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
-    <hyperlink ref="R21" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
+    <hyperlink ref="R15" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8460,20 +8073,20 @@
   <dimension ref="A1:AL776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="23" customWidth="1"/>
-    <col min="5" max="38" width="7.54296875" style="23" customWidth="1"/>
-    <col min="39" max="16384" width="12.54296875" style="23"/>
+    <col min="1" max="1" width="51.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="23" customWidth="1"/>
+    <col min="5" max="38" width="7.5703125" style="23" customWidth="1"/>
+    <col min="39" max="16384" width="12.5703125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -8515,7 +8128,7 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
     </row>
-    <row r="2" spans="1:38" ht="104.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>75</v>
       </c>
@@ -8557,7 +8170,7 @@
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
     </row>
-    <row r="3" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -8597,12 +8210,12 @@
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
     </row>
-    <row r="4" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="35">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -8641,12 +8254,12 @@
       <c r="AK4" s="25"/>
       <c r="AL4" s="25"/>
     </row>
-    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="35">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -8685,7 +8298,7 @@
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -8725,29 +8338,29 @@
       <c r="AK6" s="25"/>
       <c r="AL6" s="25"/>
     </row>
-    <row r="7" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="27">
         <f>B4*$B$16*$B$14</f>
-        <v>27004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="27">
         <f>B4*B14</f>
-        <v>31400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23">
         <v>2023</v>
       </c>
@@ -8779,52 +8392,52 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="36">
         <f>C36</f>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="C11" s="36">
         <f t="shared" ref="C11:K11" si="0">D36</f>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="D11" s="36">
         <f t="shared" si="0"/>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="E11" s="36">
         <f t="shared" si="0"/>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="0"/>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" si="0"/>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" si="0"/>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="I11" s="36">
         <f t="shared" si="0"/>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="K11" s="36">
         <f t="shared" si="0"/>
-        <v>10279.777009851599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>54</v>
       </c>
@@ -8866,7 +8479,7 @@
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
     </row>
-    <row r="14" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>55</v>
       </c>
@@ -8874,10 +8487,10 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
     </row>
-    <row r="16" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>56</v>
       </c>
@@ -8885,22 +8498,22 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:33" ht="39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>59</v>
       </c>
@@ -8914,7 +8527,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>62</v>
       </c>
@@ -8926,10 +8539,10 @@
       </c>
       <c r="D23" s="27">
         <f>B5*B14</f>
-        <v>5887.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>65</v>
       </c>
@@ -8941,10 +8554,10 @@
       </c>
       <c r="D24" s="27">
         <f>D23</f>
-        <v>5887.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>67</v>
       </c>
@@ -8956,16 +8569,16 @@
       </c>
       <c r="D25" s="27">
         <f>B4*B14</f>
-        <v>31400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>82</v>
       </c>
@@ -9002,7 +8615,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
     </row>
-    <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9037,7 +8650,7 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
     </row>
-    <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>70</v>
       </c>
@@ -9074,7 +8687,7 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
     </row>
-    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>83</v>
       </c>
@@ -9168,7 +8781,7 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="30"/>
     </row>
-    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
         <v>71</v>
       </c>
@@ -9262,7 +8875,7 @@
       <c r="AE32" s="34"/>
       <c r="AF32" s="30"/>
     </row>
-    <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
         <v>72</v>
       </c>
@@ -9356,7 +8969,7 @@
       <c r="AE33" s="34"/>
       <c r="AF33" s="30"/>
     </row>
-    <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
         <v>73</v>
       </c>
@@ -9450,867 +9063,867 @@
       <c r="AE34" s="34"/>
       <c r="AF34" s="30"/>
     </row>
-    <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="27">
         <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
-        <v>10134.948146095066</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27">
         <f t="shared" si="1"/>
-        <v>10121.162702145082</v>
+        <v>0</v>
       </c>
       <c r="D36" s="27">
         <f t="shared" si="1"/>
-        <v>10059.772494365814</v>
+        <v>0</v>
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>10050.763799597085</v>
+        <v>0</v>
       </c>
       <c r="F36" s="27">
         <f t="shared" si="1"/>
-        <v>10127.428607069427</v>
+        <v>0</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>10269.11524721545</v>
+        <v>0</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="1"/>
-        <v>10350.781370900584</v>
+        <v>0</v>
       </c>
       <c r="I36" s="27">
         <f t="shared" si="1"/>
-        <v>10353.674088089921</v>
+        <v>0</v>
       </c>
       <c r="J36" s="27">
         <f t="shared" si="1"/>
-        <v>10294.239800360298</v>
+        <v>0</v>
       </c>
       <c r="K36" s="27">
         <f t="shared" si="1"/>
-        <v>10251.903689786537</v>
+        <v>0</v>
       </c>
       <c r="L36" s="27">
         <f t="shared" si="1"/>
-        <v>10279.777009851599</v>
+        <v>0</v>
       </c>
       <c r="M36" s="27">
         <f t="shared" si="1"/>
-        <v>10325.709491436844</v>
+        <v>0</v>
       </c>
       <c r="N36" s="27">
         <f t="shared" si="1"/>
-        <v>10344.230833049938</v>
+        <v>0</v>
       </c>
       <c r="O36" s="27">
         <f t="shared" si="1"/>
-        <v>10359.12748221428</v>
+        <v>0</v>
       </c>
       <c r="P36" s="27">
         <f t="shared" si="1"/>
-        <v>10371.638430973771</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="27">
         <f t="shared" si="1"/>
-        <v>10380.548547191598</v>
+        <v>0</v>
       </c>
       <c r="R36" s="27">
         <f t="shared" si="1"/>
-        <v>10382.950508948947</v>
+        <v>0</v>
       </c>
       <c r="S36" s="27">
         <f t="shared" si="1"/>
-        <v>10380.927010758403</v>
+        <v>0</v>
       </c>
       <c r="T36" s="27">
         <f t="shared" si="1"/>
-        <v>10398.663134138134</v>
+        <v>0</v>
       </c>
       <c r="U36" s="27">
         <f t="shared" si="1"/>
-        <v>10422.653431517481</v>
+        <v>0</v>
       </c>
       <c r="V36" s="27">
         <f t="shared" si="1"/>
-        <v>10434.319910781423</v>
+        <v>0</v>
       </c>
       <c r="W36" s="27">
         <f t="shared" si="1"/>
-        <v>10455.739600691937</v>
+        <v>0</v>
       </c>
       <c r="X36" s="27">
         <f t="shared" si="1"/>
-        <v>10432.932814907192</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="27">
         <f t="shared" si="1"/>
-        <v>10374.231186923143</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="27">
         <f t="shared" si="1"/>
-        <v>10332.172107247137</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="27">
         <f t="shared" si="1"/>
-        <v>10324.781329795693</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="27">
         <f t="shared" si="1"/>
-        <v>10326.315629830769</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="27">
         <f t="shared" si="1"/>
-        <v>10310.34979051626</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="27">
         <f t="shared" si="1"/>
-        <v>9558.932689351499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="13" x14ac:dyDescent="0.3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10328,7 +9941,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10342,16 +9955,16 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8:AE8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -10446,132 +10059,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19">
-        <f>'Passenger Vehicle Calculations'!C46</f>
-        <v>3036.0333459787557</v>
+        <f>'Passenger Vehicle Calculations'!C40</f>
+        <v>2246.6514584584847</v>
       </c>
       <c r="C2" s="19">
-        <f>'Passenger Vehicle Calculations'!D46</f>
-        <v>2273.5314681335358</v>
+        <f>'Passenger Vehicle Calculations'!D40</f>
+        <v>1945.0372251736685</v>
       </c>
       <c r="D2" s="19">
-        <f>'Passenger Vehicle Calculations'!E46</f>
-        <v>2371.7262681335355</v>
+        <f>'Passenger Vehicle Calculations'!E40</f>
+        <v>1560.1486150491955</v>
       </c>
       <c r="E2" s="19">
-        <f>'Passenger Vehicle Calculations'!F46</f>
-        <v>2329.8343100151742</v>
+        <f>'Passenger Vehicle Calculations'!F40</f>
+        <v>1222.6455220376913</v>
       </c>
       <c r="F2" s="19">
-        <f>'Passenger Vehicle Calculations'!G46</f>
-        <v>1671.1026100151744</v>
+        <f>'Passenger Vehicle Calculations'!G40</f>
+        <v>787.57954922979729</v>
       </c>
       <c r="G2" s="19">
-        <f>'Passenger Vehicle Calculations'!H46</f>
-        <v>1625.6076100151745</v>
+        <f>'Passenger Vehicle Calculations'!H40</f>
+        <v>597.99709158467795</v>
       </c>
       <c r="H2" s="19">
-        <f>'Passenger Vehicle Calculations'!I46</f>
-        <v>1591.1151100151747</v>
+        <f>'Passenger Vehicle Calculations'!I40</f>
+        <v>597.99709158467795</v>
       </c>
       <c r="I2" s="19">
-        <f>'Passenger Vehicle Calculations'!J46</f>
-        <v>1593.1401100151747</v>
+        <f>'Passenger Vehicle Calculations'!J40</f>
+        <v>597.99709158467795</v>
       </c>
       <c r="J2" s="19">
-        <f>'Passenger Vehicle Calculations'!K46</f>
-        <v>1599.8726100151744</v>
+        <f>'Passenger Vehicle Calculations'!K40</f>
+        <v>597.99709158467795</v>
       </c>
       <c r="K2" s="19">
-        <f>'Passenger Vehicle Calculations'!L46</f>
-        <v>1658.1326100151746</v>
+        <f>'Passenger Vehicle Calculations'!L40</f>
+        <v>597.99709158467795</v>
       </c>
       <c r="L2" s="19">
-        <f>'Passenger Vehicle Calculations'!M46</f>
-        <v>1713.9176100151744</v>
+        <f>'Passenger Vehicle Calculations'!M40</f>
+        <v>597.99709158467795</v>
       </c>
       <c r="M2" s="19">
-        <f>'Passenger Vehicle Calculations'!N46</f>
-        <v>1724.7001100151747</v>
+        <f>'Passenger Vehicle Calculations'!N40</f>
+        <v>597.98804083383322</v>
       </c>
       <c r="N2" s="19">
-        <f>'Passenger Vehicle Calculations'!O46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!O40</f>
+        <v>597.98261038332635</v>
       </c>
       <c r="O2" s="19">
-        <f>'Passenger Vehicle Calculations'!P46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!P40</f>
+        <v>597.98261038332635</v>
       </c>
       <c r="P2" s="19">
-        <f>'Passenger Vehicle Calculations'!Q46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Q40</f>
+        <v>588.37071298617752</v>
       </c>
       <c r="Q2" s="19">
-        <f>'Passenger Vehicle Calculations'!R46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!R40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="R2" s="19">
-        <f>'Passenger Vehicle Calculations'!S46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!S40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="S2" s="19">
-        <f>'Passenger Vehicle Calculations'!T46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!T40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="T2" s="19">
-        <f>'Passenger Vehicle Calculations'!U46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!U40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="U2" s="19">
-        <f>'Passenger Vehicle Calculations'!V46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!V40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="V2" s="19">
-        <f>'Passenger Vehicle Calculations'!W46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!W40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="W2" s="19">
-        <f>'Passenger Vehicle Calculations'!X46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!X40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="X2" s="19">
-        <f>'Passenger Vehicle Calculations'!Y46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Y40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="Y2" s="19">
-        <f>'Passenger Vehicle Calculations'!Z46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Z40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="Z2" s="19">
-        <f>'Passenger Vehicle Calculations'!AA46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AA40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="AA2" s="19">
-        <f>'Passenger Vehicle Calculations'!AB46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AB40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="AB2" s="19">
-        <f>'Passenger Vehicle Calculations'!AC46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AC40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="AC2" s="19">
-        <f>'Passenger Vehicle Calculations'!AD46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AD40</f>
+        <v>582.60357454788823</v>
       </c>
       <c r="AD2" s="19">
-        <f>'Passenger Vehicle Calculations'!AE46</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AE40</f>
+        <v>578.72080243548066</v>
       </c>
       <c r="AE2" s="19">
-        <f>'Passenger Vehicle Calculations'!AF46</f>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+        <f>'Passenger Vehicle Calculations'!AF40</f>
+        <v>576.39113916803615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10666,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10761,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10856,132 +10469,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19">
-        <f>'Passenger Vehicle Calculations'!C47</f>
-        <v>7252.8733459787563</v>
+        <f>'Passenger Vehicle Calculations'!C41</f>
+        <v>7252.8718628779843</v>
       </c>
       <c r="C6" s="19">
-        <f>'Passenger Vehicle Calculations'!D47</f>
-        <v>4193.501468133536</v>
+        <f>'Passenger Vehicle Calculations'!D41</f>
+        <v>4193.5021611124384</v>
       </c>
       <c r="D6" s="19">
-        <f>'Passenger Vehicle Calculations'!E47</f>
-        <v>2371.7262681335355</v>
+        <f>'Passenger Vehicle Calculations'!E41</f>
+        <v>1999.3135655618016</v>
       </c>
       <c r="E6" s="19">
-        <f>'Passenger Vehicle Calculations'!F47</f>
-        <v>2329.8343100151742</v>
+        <f>'Passenger Vehicle Calculations'!F41</f>
+        <v>1406.7897393119888</v>
       </c>
       <c r="F6" s="19">
-        <f>'Passenger Vehicle Calculations'!G47</f>
-        <v>1671.1026100151744</v>
+        <f>'Passenger Vehicle Calculations'!G41</f>
+        <v>989.41348130353549</v>
       </c>
       <c r="G6" s="19">
-        <f>'Passenger Vehicle Calculations'!H47</f>
-        <v>1625.6076100151745</v>
+        <f>'Passenger Vehicle Calculations'!H41</f>
+        <v>868.84862836692241</v>
       </c>
       <c r="H6" s="19">
-        <f>'Passenger Vehicle Calculations'!I47</f>
-        <v>1591.1151100151747</v>
+        <f>'Passenger Vehicle Calculations'!I41</f>
+        <v>868.84862836692241</v>
       </c>
       <c r="I6" s="19">
-        <f>'Passenger Vehicle Calculations'!J47</f>
-        <v>1593.1401100151747</v>
+        <f>'Passenger Vehicle Calculations'!J41</f>
+        <v>868.84862836692241</v>
       </c>
       <c r="J6" s="19">
-        <f>'Passenger Vehicle Calculations'!K47</f>
-        <v>1599.8726100151744</v>
+        <f>'Passenger Vehicle Calculations'!K41</f>
+        <v>868.84862836692241</v>
       </c>
       <c r="K6" s="19">
-        <f>'Passenger Vehicle Calculations'!L47</f>
-        <v>1658.1326100151746</v>
+        <f>'Passenger Vehicle Calculations'!L41</f>
+        <v>868.84862836692241</v>
       </c>
       <c r="L6" s="19">
-        <f>'Passenger Vehicle Calculations'!M47</f>
-        <v>1713.9176100151744</v>
+        <f>'Passenger Vehicle Calculations'!M41</f>
+        <v>868.84862836692241</v>
       </c>
       <c r="M6" s="19">
-        <f>'Passenger Vehicle Calculations'!N47</f>
-        <v>1724.7001100151747</v>
+        <f>'Passenger Vehicle Calculations'!N41</f>
+        <v>813.57301620665066</v>
       </c>
       <c r="N6" s="19">
-        <f>'Passenger Vehicle Calculations'!O47</f>
+        <f>'Passenger Vehicle Calculations'!O41</f>
+        <v>717.87024500573807</v>
+      </c>
+      <c r="O6" s="19">
+        <f>'Passenger Vehicle Calculations'!P41</f>
+        <v>626.60098876461211</v>
+      </c>
+      <c r="P6" s="19">
+        <f>'Passenger Vehicle Calculations'!Q41</f>
+        <v>579.94875430090838</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>'Passenger Vehicle Calculations'!R41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="R6" s="19">
+        <f>'Passenger Vehicle Calculations'!S41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="S6" s="19">
+        <f>'Passenger Vehicle Calculations'!T41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="T6" s="19">
+        <f>'Passenger Vehicle Calculations'!U41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="U6" s="19">
+        <f>'Passenger Vehicle Calculations'!V41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="V6" s="19">
+        <f>'Passenger Vehicle Calculations'!W41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="W6" s="19">
+        <f>'Passenger Vehicle Calculations'!X41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="X6" s="19">
+        <f>'Passenger Vehicle Calculations'!Y41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Y6" s="19">
+        <f>'Passenger Vehicle Calculations'!Z41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Z6" s="19">
+        <f>'Passenger Vehicle Calculations'!AA41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AA6" s="19">
+        <f>'Passenger Vehicle Calculations'!AB41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AB6" s="19">
+        <f>'Passenger Vehicle Calculations'!AC41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AC6" s="19">
+        <f>'Passenger Vehicle Calculations'!AD41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AD6" s="19">
+        <f>'Passenger Vehicle Calculations'!AE41</f>
+        <v>569.44304374425872</v>
+      </c>
+      <c r="AE6" s="19">
+        <f>'Passenger Vehicle Calculations'!AF41</f>
         <v>568.32511001517457</v>
       </c>
-      <c r="O6" s="19">
-        <f>'Passenger Vehicle Calculations'!P47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P6" s="19">
-        <f>'Passenger Vehicle Calculations'!Q47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>'Passenger Vehicle Calculations'!R47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R6" s="19">
-        <f>'Passenger Vehicle Calculations'!S47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S6" s="19">
-        <f>'Passenger Vehicle Calculations'!T47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T6" s="19">
-        <f>'Passenger Vehicle Calculations'!U47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U6" s="19">
-        <f>'Passenger Vehicle Calculations'!V47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V6" s="19">
-        <f>'Passenger Vehicle Calculations'!W47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W6" s="19">
-        <f>'Passenger Vehicle Calculations'!X47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X6" s="19">
-        <f>'Passenger Vehicle Calculations'!Y47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y6" s="19">
-        <f>'Passenger Vehicle Calculations'!Z47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z6" s="19">
-        <f>'Passenger Vehicle Calculations'!AA47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA6" s="19">
-        <f>'Passenger Vehicle Calculations'!AB47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB6" s="19">
-        <f>'Passenger Vehicle Calculations'!AC47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC6" s="19">
-        <f>'Passenger Vehicle Calculations'!AD47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD6" s="19">
-        <f>'Passenger Vehicle Calculations'!AE47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE6" s="19">
-        <f>'Passenger Vehicle Calculations'!AF47</f>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11076,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11088,115 +10701,115 @@
       </c>
       <c r="D8" s="19">
         <f>D2</f>
-        <v>2371.7262681335355</v>
+        <v>1560.1486150491955</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>2329.8343100151742</v>
+        <v>1222.6455220376913</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>1671.1026100151744</v>
+        <v>787.57954922979729</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>1625.6076100151745</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>1591.1151100151747</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>1593.1401100151747</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>1599.8726100151744</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>1658.1326100151746</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>1713.9176100151744</v>
+        <v>597.99709158467795</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>1724.7001100151747</v>
+        <v>597.98804083383322</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>597.98261038332635</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>597.98261038332635</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>588.37071298617752</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="S8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="T8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="U8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="V8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="W8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="X8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="Y8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="Z8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AA8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AB8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AC8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>582.60357454788823</v>
       </c>
       <c r="AD8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>578.72080243548066</v>
       </c>
       <c r="AE8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>576.39113916803615</v>
       </c>
     </row>
   </sheetData>
@@ -11216,12 +10829,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11316,7 +10929,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11328,43 +10941,43 @@
       </c>
       <c r="D2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -11421,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11516,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11611,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11706,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11718,43 +11331,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -11811,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11906,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11918,43 +11531,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -12027,12 +11640,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12127,7 +11740,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12222,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12317,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12412,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12507,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12602,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12697,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12808,12 +12421,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12908,7 +12521,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13003,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13098,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13193,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13288,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13383,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13478,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13589,12 +13202,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13689,7 +13302,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13784,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13879,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13974,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14069,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14164,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14259,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B291C5C-0D68-4026-BF5B-12E51E7484B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB5F82D-4199-462E-956F-98B9574200DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58740" yWindow="1140" windowWidth="23910" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,8 +45,107 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Daniel O'Brien</author>
+    <author>tc={94EC4F1A-4D24-4F44-A34B-386F9FB62127}</author>
+    <author>tc={9DBAEA6F-524D-4D30-93F7-3DE2900676A6}</author>
+  </authors>
+  <commentList>
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{DFD8252E-7E14-48C3-89C2-2C7A608E1296}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel O'Brien:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Where data is available, we take the total ev subsidy spend and divide by the total sales of EVs in the state</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{DC8CC06D-E747-4DF6-BAB3-83E7FCB980AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel O'Brien:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BEV standard rebate reduced to 1500 on 1/1/25
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="1" shapeId="0" xr:uid="{94EC4F1A-4D24-4F44-A34B-386F9FB62127}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adjust weighting for PA - only first 500 people get it</t>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="2" shapeId="0" xr:uid="{9DBAEA6F-524D-4D30-93F7-3DE2900676A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adjust weighting for PA - only first 500 people get it</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
   <si>
     <t>Sources:</t>
   </si>
@@ -87,16 +186,10 @@
     <t>It also omits states that do not offer a rebate but do exempt EVs from sales, use, or excise taxes.</t>
   </si>
   <si>
-    <t>State Rebates + Tax Credits Updated 8/11/2021</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
     <t>https://www.energysage.com/electric-vehicles/costs-and-benefits-evs/ev-tax-credits/</t>
-  </si>
-  <si>
-    <t>Rebates</t>
   </si>
   <si>
     <t>https://www.tesla.com/support/incentives</t>
@@ -120,9 +213,6 @@
     <t>LDV</t>
   </si>
   <si>
-    <t>Note: average of cars and truck subsidies, which are different</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -133,9 +223,6 @@
   </si>
   <si>
     <t>NY</t>
-  </si>
-  <si>
-    <t>Subsidy goes up to 2000 based on battery</t>
   </si>
   <si>
     <t>TX</t>
@@ -166,9 +253,6 @@
   </si>
   <si>
     <t>VT</t>
-  </si>
-  <si>
-    <t>Note: Up to 4000</t>
   </si>
   <si>
     <t>Rest of country</t>
@@ -311,20 +395,154 @@
   <si>
     <t>We assume a 56% cut in our original analysis to represent FEOC restrictions for the year 2024, based on BNEF data. We assume more restrictive guidance starting in 2025 will reduce the credit amount by 75%.</t>
   </si>
+  <si>
+    <t>Future Inflation Assumption</t>
+  </si>
+  <si>
+    <t>US average share of EVs leased vs purchased</t>
+  </si>
+  <si>
+    <t>https://www.experian.com/blogs/ask-experian/electric-vehicle-trends/</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>https://tax.colorado.gov/sites/tax/files/documents/ITT_Innovative_Motor_Vehicle_Credit_Feb_2024.pdf</t>
+  </si>
+  <si>
+    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Rebate-Stats</t>
+  </si>
+  <si>
+    <t>https://cleanvehiclerebate.org/en/rebate-statistics</t>
+  </si>
+  <si>
+    <t>Note: value was previously 1500 but after digging I don’t believe LA has ever had a state tax credit</t>
+  </si>
+  <si>
+    <t>suspended all ev rebate programs starting in 2024</t>
+  </si>
+  <si>
+    <t>no longer funds program</t>
+  </si>
+  <si>
+    <t>Note; renewed on annual basis, only for first 500</t>
+  </si>
+  <si>
+    <t>up to 4k if low income</t>
+  </si>
+  <si>
+    <t>up to 3.2k if low income</t>
+  </si>
+  <si>
+    <t>From BLS CPI tables</t>
+  </si>
+  <si>
+    <t>Inflation adjuster</t>
+  </si>
+  <si>
+    <t>2012............................................................................. .</t>
+  </si>
+  <si>
+    <t>2013............................................................................. .</t>
+  </si>
+  <si>
+    <t>2014............................................................................. .</t>
+  </si>
+  <si>
+    <t>2015............................................................................. .</t>
+  </si>
+  <si>
+    <t>2016............................................................................. .</t>
+  </si>
+  <si>
+    <t>2017............................................................................. .</t>
+  </si>
+  <si>
+    <t>2018............................................................................. .</t>
+  </si>
+  <si>
+    <t>2019............................................................................. .</t>
+  </si>
+  <si>
+    <t>2020............................................................................. .</t>
+  </si>
+  <si>
+    <t>2021............................................................................. .</t>
+  </si>
+  <si>
+    <t>2022............................................................................. .</t>
+  </si>
+  <si>
+    <t>2023............................................................................. .</t>
+  </si>
+  <si>
+    <t>2024............................................................................. .</t>
+  </si>
+  <si>
+    <t>assumed fwd inflation</t>
+  </si>
+  <si>
+    <t>Inflation Historical Data and Assumptions</t>
+  </si>
+  <si>
+    <t>PHEV Subsidies</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>PHEV</t>
+  </si>
+  <si>
+    <t>State Rebates + Tax Credits Updated 1/30/25</t>
+  </si>
+  <si>
+    <t>https://data.delaware.gov/Energy-and-Environment/State-Rebates-for-Alternative-Fuel-Vehicles/8z8z-di7f/explore</t>
+  </si>
+  <si>
+    <t>BEV Subsidies</t>
+  </si>
+  <si>
+    <t>https://www.energy.ca.gov/data-reports/energy-almanac/zero-emission-vehicle-and-infrastructure-statistics-collection/new-zev</t>
+  </si>
+  <si>
+    <t>data 1</t>
+  </si>
+  <si>
+    <t>data 2</t>
+  </si>
+  <si>
+    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Map-of-EV-Registrations</t>
+  </si>
+  <si>
+    <t>https://portal.ct.gov/ceq/ar-23-gold/2023-ceq-annual-report-ebook/personal-impact---waste-diversion/transportation</t>
+  </si>
+  <si>
+    <t>https://evrebate.oregon.gov/rebate-statistics</t>
+  </si>
+  <si>
+    <t>https://www.oregon.gov/energy/Data-and-Reports/Pages/Oregon-Electric-Vehicle-Dashboard.aspx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="m\-d"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +668,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +699,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -591,7 +846,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,7 +862,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -629,11 +883,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="31" applyFont="1"/>
@@ -648,7 +902,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="31" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="31" applyFill="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -708,10 +973,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>474705</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4826000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -734,8 +999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1841501"/>
-          <a:ext cx="6532605" cy="4648200"/>
+          <a:off x="609600" y="1809751"/>
+          <a:ext cx="4829175" cy="3377467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,6 +1010,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Olivia Ashmoore" id="{157D1DBA-3E37-421C-B718-F98423D1625B}" userId="S::olivia@energyinnovation.org::75aa6550-3462-4480-900f-0bd2e542e876" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,12 +1303,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D31" dT="2025-01-24T19:38:54.68" personId="{157D1DBA-3E37-421C-B718-F98423D1625B}" id="{94EC4F1A-4D24-4F44-A34B-386F9FB62127}">
+    <text>Adjust weighting for PA - only first 500 people get it</text>
+  </threadedComment>
+  <threadedComment ref="D51" dT="2025-01-24T19:38:54.68" personId="{157D1DBA-3E37-421C-B718-F98423D1625B}" id="{9DBAEA6F-524D-4D30-93F7-3DE2900676A6}">
+    <text>Adjust weighting for PA - only first 500 people get it</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,13 +1336,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
+      <c r="B3" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1070,20 +1352,20 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>85</v>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1100,6 +1382,16 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="36">
+        <v>0.03</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6654,11 +6946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
+  <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6670,12 +6962,12 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -6772,7 +7064,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>2435.88</v>
@@ -6785,7 +7077,7 @@
         <v>1795.2747999999999</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:M4" si="0">E9*(1-0.56)</f>
+        <f t="shared" ref="E4" si="0">E9*(1-0.56)</f>
         <v>1761.5091999999997</v>
       </c>
       <c r="F4">
@@ -6877,7 +7169,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>6652.72</v>
@@ -6890,7 +7182,7 @@
         <v>1795.2747999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:M5" si="2">E10*(1-0.56)</f>
+        <f t="shared" ref="E5" si="2">E10*(1-0.56)</f>
         <v>1761.5091999999997</v>
       </c>
       <c r="F5">
@@ -6985,7 +7277,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -7082,7 +7374,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>2435.88</v>
@@ -7177,7 +7469,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>6652.72</v>
@@ -7290,43 +7582,43 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
+      <c r="A17" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D19" s="8">
         <v>2020</v>
@@ -7355,156 +7647,198 @@
         <f t="shared" si="4"/>
         <v>2026</v>
       </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="37">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="38">
+        <f>2000*D76+4000*(1-D76)</f>
+        <v>3506.6</v>
+      </c>
+      <c r="E20" s="38">
+        <f>1500*E76+2500*(1-E76)</f>
+        <v>2190.8000000000002</v>
+      </c>
+      <c r="F20" s="38">
+        <f>1500*F76+2500*(1-F76)</f>
+        <v>2359</v>
+      </c>
+      <c r="G20" s="38">
+        <f>0.5*(1500*G76+2500*(1-G76))+0.5*(5000)</f>
+        <v>3641.35</v>
+      </c>
+      <c r="H20" s="38">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="38">
+        <v>3500</v>
+      </c>
+      <c r="J20" s="38">
+        <f>I20</f>
+        <v>3500</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8">
-        <v>5.6849999999999996</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B21" s="37">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="38">
+        <f>613500/(7880-5480)</f>
+        <v>255.625</v>
+      </c>
+      <c r="E21" s="38">
+        <f>1079750/(12513-7880)</f>
+        <v>233.05633498812864</v>
+      </c>
+      <c r="F21" s="38">
+        <f>1468250/(18509-12513)</f>
+        <v>244.87158105403603</v>
+      </c>
+      <c r="G21" s="38">
+        <f>7744000/(27709-18509)</f>
+        <v>841.73913043478262</v>
+      </c>
+      <c r="H21" s="38">
+        <f>11982750/(27146*27709/44313)</f>
+        <v>705.92888732943345</v>
+      </c>
+      <c r="I21" s="38">
+        <f>H21*1500/2250</f>
+        <v>470.61925821962228</v>
+      </c>
+      <c r="J21" s="38">
+        <f>I21</f>
+        <v>470.61925821962228</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="D20" s="8">
-        <v>4750</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4750</v>
-      </c>
-      <c r="F20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="J20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="G21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="I21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="J21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="R21" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8">
         <v>0.96799999999999997</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="8">
+        <v>21</v>
+      </c>
+      <c r="D22" s="42">
+        <f>852000/311</f>
+        <v>2739.5498392282957</v>
+      </c>
+      <c r="E22" s="42">
+        <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="42">
+        <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="42">
+        <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="42">
+        <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="42">
+        <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="42">
+        <f>2500</f>
         <v>2500</v>
       </c>
-      <c r="J22" s="8">
-        <v>2500</v>
+      <c r="K22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="8">
         <v>8.3800000000000008</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="I23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="11">
-        <v>2000</v>
+        <v>21</v>
+      </c>
+      <c r="D23" s="42">
+        <f>17436700/10692</f>
+        <v>1630.8174335952115</v>
+      </c>
+      <c r="E23" s="42">
+        <f>18953100/20836</f>
+        <v>909.63236705701672</v>
+      </c>
+      <c r="F23" s="42">
+        <f>16215000/28241</f>
+        <v>574.16522077830109</v>
+      </c>
+      <c r="G23" s="42">
+        <f>26945500/48746</f>
+        <v>552.77356090756166</v>
+      </c>
+      <c r="H23" s="42">
+        <f>19221500/54664</f>
+        <v>351.62995755890529</v>
+      </c>
+      <c r="I23" s="42">
+        <f>H23</f>
+        <v>351.62995755890529</v>
+      </c>
+      <c r="J23" s="42">
+        <f>I23</f>
+        <v>351.62995755890529</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="8">
         <v>28.64</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="8">
         <v>2500</v>
@@ -7528,83 +7862,100 @@
         <v>0</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="8">
         <v>39.35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E25" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F25" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2500</v>
+        <v>21</v>
+      </c>
+      <c r="D25" s="42">
+        <f>80255483/(100377+5569)</f>
+        <v>757.51310101372394</v>
+      </c>
+      <c r="E25" s="42">
+        <f>103494583/(152400+7866)</f>
+        <v>645.76755518949744</v>
+      </c>
+      <c r="F25" s="42">
+        <f>88529166/(256315+5761)</f>
+        <v>337.79959248462279</v>
+      </c>
+      <c r="G25" s="42">
+        <f>310602850/(371002+3666)</f>
+        <v>829.00821527325525</v>
       </c>
       <c r="H25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
-        <v>2500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="8">
         <v>4.665</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="F26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="H26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="I26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="J26" s="14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="8">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7">
         <v>1.341</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>23</v>
+      <c r="C27" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
@@ -7622,30 +7973,34 @@
         <v>2000</v>
       </c>
       <c r="I27" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>2000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="8">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>23</v>
+      <c r="A28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5.7169999999999996</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>2500</v>
@@ -7654,21 +8009,24 @@
         <v>2500</v>
       </c>
       <c r="I28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J28" s="8">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="8">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>23</v>
+      <c r="A29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D29" s="8">
         <v>2500</v>
@@ -7680,770 +8038,2337 @@
         <v>2500</v>
       </c>
       <c r="G29" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I29" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J29" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="8">
         <v>2500</v>
       </c>
-      <c r="H29" s="8">
+      <c r="E30" s="8">
         <v>2500</v>
       </c>
-      <c r="I29" s="8">
+      <c r="F30" s="8">
         <v>2500</v>
       </c>
-      <c r="J29" s="8">
+      <c r="G30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J30" s="8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="7">
+        <f>500/10^6</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J31" s="8">
+        <v>3000</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="42">
+        <f>9294500/3753</f>
+        <v>2476.5520916600053</v>
+      </c>
+      <c r="E34" s="42">
+        <f>14303500/7764</f>
+        <v>1842.284904688305</v>
+      </c>
+      <c r="F34" s="42">
+        <f>19442500/12379</f>
+        <v>1570.6034413118991</v>
+      </c>
+      <c r="G34" s="42">
+        <f>13295000/19790</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="H34" s="42">
+        <f>G34</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="I34" s="42">
+        <f>H34</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="J34" s="42">
+        <f>I34</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="K34" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="43">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="43">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="43">
+        <v>2200</v>
+      </c>
+      <c r="G35" s="43">
+        <v>2200</v>
+      </c>
+      <c r="H35" s="43">
+        <v>2200</v>
+      </c>
+      <c r="I35" s="43">
+        <v>2200</v>
+      </c>
+      <c r="J35" s="43">
+        <v>2200</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="8">
+        <f>B37-SUM(B20:B35)</f>
+        <v>203.49250000000001</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="8">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ref="E39" si="5">D39+1</f>
+        <v>2021</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" ref="F39" si="6">E39+1</f>
+        <v>2022</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" ref="G39" si="7">F39+1</f>
+        <v>2023</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" ref="H39" si="8">G39+1</f>
+        <v>2024</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" ref="I39" si="9">H39+1</f>
+        <v>2025</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" ref="J39" si="10">I39+1</f>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="37">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="38">
+        <f>D20</f>
+        <v>3506.6</v>
+      </c>
+      <c r="E40" s="38">
+        <f t="shared" ref="E40:J40" si="11">E20</f>
+        <v>2190.8000000000002</v>
+      </c>
+      <c r="F40" s="38">
+        <f t="shared" si="11"/>
+        <v>2359</v>
+      </c>
+      <c r="G40" s="38">
+        <f t="shared" si="11"/>
+        <v>3641.35</v>
+      </c>
+      <c r="H40" s="38">
+        <f t="shared" si="11"/>
+        <v>5000</v>
+      </c>
+      <c r="I40" s="38">
+        <f t="shared" si="11"/>
+        <v>3500</v>
+      </c>
+      <c r="J40" s="38">
+        <f t="shared" si="11"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="37">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="38">
+        <f>128000/255</f>
+        <v>501.96078431372547</v>
+      </c>
+      <c r="E41" s="38">
+        <f>537750/(8827-5893)</f>
+        <v>183.28220858895705</v>
+      </c>
+      <c r="F41" s="38">
+        <f>412000/(11615-8827)</f>
+        <v>147.77618364418939</v>
+      </c>
+      <c r="G41" s="38">
+        <f>512500/(16517-11615)</f>
+        <v>104.54916360669115</v>
+      </c>
+      <c r="H41" s="38">
+        <f>685000/(27146*16517/44313)</f>
+        <v>67.69938302941182</v>
+      </c>
+      <c r="I41" s="38">
+        <f>H41</f>
+        <v>67.69938302941182</v>
+      </c>
+      <c r="J41" s="38">
+        <f t="shared" ref="J41" si="12">I41</f>
+        <v>67.69938302941182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="42">
+        <f>104500/97</f>
+        <v>1077.319587628866</v>
+      </c>
+      <c r="E42" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="42">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="42">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="8">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="42">
+        <f>4684500/6464</f>
+        <v>724.7060643564356</v>
+      </c>
+      <c r="E43" s="42">
+        <f>9996000/14360</f>
+        <v>696.10027855153203</v>
+      </c>
+      <c r="F43" s="42">
+        <f>5049700/14312</f>
+        <v>352.82979318054777</v>
+      </c>
+      <c r="G43" s="42">
+        <f>8627000/30164</f>
+        <v>286.00318260177693</v>
+      </c>
+      <c r="H43" s="42">
+        <f>7694000/35557</f>
+        <v>216.38495936102595</v>
+      </c>
+      <c r="I43" s="42">
+        <f>H43</f>
+        <v>216.38495936102595</v>
+      </c>
+      <c r="J43" s="42">
+        <f>I43</f>
+        <v>216.38495936102595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="8">
+        <v>28.64</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="8">
         <v>2500</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="8">
+        <v>39.35</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="42">
+        <f>12007419/38153</f>
+        <v>314.71755825229997</v>
+      </c>
+      <c r="E45" s="42">
+        <f>10067604/53090</f>
+        <v>189.6327745338105</v>
+      </c>
+      <c r="F45" s="42">
+        <f>3681500/(43689)</f>
+        <v>84.266062395568682</v>
+      </c>
+      <c r="G45" s="42">
+        <f>8757316/(63496)</f>
+        <v>137.9191760110873</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="8">
+        <v>4.665</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1.341</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H47" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="7">
+        <v>5.7169999999999996</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H48" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="7">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G49" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H49" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I49" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J49" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="7">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E50" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G50" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H50" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I50" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J50" s="8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="7">
+        <f>500/10^6</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H51" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I51" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J51" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J52" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="7">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H53" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I53" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J53" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="8">
+        <f>1843000/1494</f>
+        <v>1233.6010709504685</v>
+      </c>
+      <c r="E54" s="8">
+        <f>4828500/4476</f>
+        <v>1078.7533512064342</v>
+      </c>
+      <c r="F54" s="8">
+        <f>5495500/4897</f>
+        <v>1122.217684296508</v>
+      </c>
+      <c r="G54" s="42">
+        <f>2876000/6464</f>
+        <v>444.92574257425741</v>
+      </c>
+      <c r="H54" s="42">
+        <f>G54</f>
+        <v>444.92574257425741</v>
+      </c>
+      <c r="I54" s="42">
+        <f>H54</f>
+        <v>444.92574257425741</v>
+      </c>
+      <c r="J54" s="42">
+        <f>I54</f>
+        <v>444.92574257425741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="43">
+        <v>2200</v>
+      </c>
+      <c r="E55" s="43">
+        <v>2200</v>
+      </c>
+      <c r="F55" s="43">
+        <v>2200</v>
+      </c>
+      <c r="G55" s="43">
+        <v>2200</v>
+      </c>
+      <c r="H55" s="43">
+        <v>2200</v>
+      </c>
+      <c r="I55" s="43">
+        <v>2200</v>
+      </c>
+      <c r="J55" s="43">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="8">
+        <f>B57-SUM(B40:B55)</f>
+        <v>203.49250000000001</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8">
+        <v>0</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="8">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J30" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="B57" s="8">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="8">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="22">
+        <v>0.88711067149387013</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>2020</v>
+      </c>
+      <c r="D64">
+        <v>2021</v>
+      </c>
+      <c r="E64">
+        <v>2022</v>
+      </c>
+      <c r="F64">
+        <v>2023</v>
+      </c>
+      <c r="G64">
+        <v>2024</v>
+      </c>
+      <c r="H64">
+        <v>2025</v>
+      </c>
+      <c r="I64">
+        <v>2026</v>
+      </c>
+      <c r="J64">
+        <v>2027</v>
+      </c>
+      <c r="K64">
+        <v>2028</v>
+      </c>
+      <c r="L64">
+        <v>2029</v>
+      </c>
+      <c r="M64">
+        <v>2030</v>
+      </c>
+      <c r="N64">
+        <v>2031</v>
+      </c>
+      <c r="O64">
+        <v>2032</v>
+      </c>
+      <c r="P64">
+        <v>2033</v>
+      </c>
+      <c r="Q64">
+        <v>2034</v>
+      </c>
+      <c r="R64">
+        <v>2035</v>
+      </c>
+      <c r="S64">
+        <v>2036</v>
+      </c>
+      <c r="T64">
+        <v>2037</v>
+      </c>
+      <c r="U64">
+        <v>2038</v>
+      </c>
+      <c r="V64">
+        <v>2039</v>
+      </c>
+      <c r="W64">
+        <v>2040</v>
+      </c>
+      <c r="X64">
+        <v>2041</v>
+      </c>
+      <c r="Y64">
+        <v>2042</v>
+      </c>
+      <c r="Z64">
+        <v>2043</v>
+      </c>
+      <c r="AA64">
+        <v>2044</v>
+      </c>
+      <c r="AB64">
+        <v>2045</v>
+      </c>
+      <c r="AC64">
+        <v>2046</v>
+      </c>
+      <c r="AD64">
+        <v>2047</v>
+      </c>
+      <c r="AE64">
+        <v>2048</v>
+      </c>
+      <c r="AF64">
+        <v>2049</v>
+      </c>
+      <c r="AG64">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" ref="C65:I65" si="13">SUMPRODUCT(D20:D36,$B$20:$B$36)/SUM($B$20:$B$36)*K$79</f>
+        <v>546.58540370871401</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="13"/>
+        <v>284.24236864339406</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="13"/>
+        <v>231.21682138187734</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="13"/>
+        <v>334.13793520947195</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="13"/>
+        <v>264.43888586266991</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="13"/>
+        <v>199.92712908586196</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" si="13"/>
+        <v>194.10400882122519</v>
+      </c>
+      <c r="J65" s="5">
+        <f>I65*R$79/Q$79</f>
+        <v>188.4504940011895</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" ref="K65:R65" si="14">J65*S$79/R$79</f>
+        <v>182.96164466134903</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="shared" si="14"/>
+        <v>177.63266471975632</v>
+      </c>
+      <c r="M65" s="5">
+        <f t="shared" si="14"/>
+        <v>172.45889778617118</v>
+      </c>
+      <c r="N65" s="5">
+        <f t="shared" si="14"/>
+        <v>167.43582309337009</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="14"/>
+        <v>162.55905154696123</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" si="14"/>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="Q65" s="5">
+        <f t="shared" si="14"/>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="R65" s="5">
+        <f t="shared" si="14"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="S65" s="5">
+        <f t="shared" ref="S65:AG65" si="15">R65</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="T65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="U65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="V65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="W65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="X65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Y65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Z65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AA65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AB65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AC65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AD65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AE65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AF65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AG65" s="5">
+        <f t="shared" si="15"/>
+        <v>148.76456017556194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="5">
+        <f>SUMPRODUCT(D40:D56,$B$40:$B$56)/SUM($B$40:$B$56)*K$79</f>
+        <v>463.29350546214374</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" ref="D66:I66" si="16">SUMPRODUCT(E40:E56,$B$40:$B$56)/SUM($B$40:$B$56)*L$79</f>
+        <v>221.09557242733794</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="16"/>
+        <v>194.30618610622579</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="16"/>
+        <v>255.3303083708262</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="16"/>
+        <v>251.52892263302851</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="16"/>
+        <v>189.20535092319807</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="16"/>
+        <v>183.69451545941558</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" ref="J66:R66" si="17">I66*R$79/Q$79</f>
+        <v>178.34418976642291</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" si="17"/>
+        <v>173.14969880235233</v>
+      </c>
+      <c r="L66" s="5">
+        <f t="shared" si="17"/>
+        <v>168.10650369160422</v>
+      </c>
+      <c r="M66" s="5">
+        <f t="shared" si="17"/>
+        <v>163.21019775883906</v>
+      </c>
+      <c r="N66" s="5">
+        <f t="shared" si="17"/>
+        <v>158.45650267848453</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="17"/>
+        <v>153.8412647363927</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="17"/>
+        <v>149.36045120038131</v>
+      </c>
+      <c r="Q66" s="5">
+        <f t="shared" si="17"/>
+        <v>145.01014679648668</v>
+      </c>
+      <c r="R66" s="5">
+        <f t="shared" si="17"/>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="S66" s="5">
+        <f t="shared" ref="S66" si="18">R66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="T66" s="5">
+        <f t="shared" ref="T66" si="19">S66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="U66" s="5">
+        <f t="shared" ref="U66" si="20">T66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="V66" s="5">
+        <f t="shared" ref="V66" si="21">U66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="W66" s="5">
+        <f t="shared" ref="W66" si="22">V66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="X66" s="5">
+        <f t="shared" ref="X66" si="23">W66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="Y66" s="5">
+        <f t="shared" ref="Y66" si="24">X66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="Z66" s="5">
+        <f t="shared" ref="Z66" si="25">Y66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="AA66" s="5">
+        <f t="shared" ref="AA66" si="26">Z66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="AB66" s="5">
+        <f t="shared" ref="AB66" si="27">AA66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="AC66" s="5">
+        <f t="shared" ref="AC66" si="28">AB66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="AD66" s="5">
+        <f t="shared" ref="AD66" si="29">AC66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="AE66" s="5">
+        <f t="shared" ref="AE66" si="30">AD66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="AF66" s="5">
+        <f t="shared" ref="AF66" si="31">AE66</f>
+        <v>140.78655028785116</v>
+      </c>
+      <c r="AG66" s="5">
+        <f t="shared" ref="AG66" si="32">AF66</f>
+        <v>140.78655028785116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="8">
-        <v>0.624</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="I32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="J32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="K32" s="8" t="s">
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>2021</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+      <c r="E68">
+        <v>2023</v>
+      </c>
+      <c r="F68">
+        <v>2024</v>
+      </c>
+      <c r="G68">
+        <v>2025</v>
+      </c>
+      <c r="H68">
+        <v>2026</v>
+      </c>
+      <c r="I68">
+        <v>2027</v>
+      </c>
+      <c r="J68">
+        <v>2028</v>
+      </c>
+      <c r="K68">
+        <v>2029</v>
+      </c>
+      <c r="L68">
+        <v>2030</v>
+      </c>
+      <c r="M68">
+        <v>2031</v>
+      </c>
+      <c r="N68">
+        <v>2032</v>
+      </c>
+      <c r="O68">
+        <v>2033</v>
+      </c>
+      <c r="P68">
+        <v>2034</v>
+      </c>
+      <c r="Q68">
+        <v>2035</v>
+      </c>
+      <c r="R68">
+        <v>2036</v>
+      </c>
+      <c r="S68">
+        <v>2037</v>
+      </c>
+      <c r="T68">
+        <v>2038</v>
+      </c>
+      <c r="U68">
+        <v>2039</v>
+      </c>
+      <c r="V68">
+        <v>2040</v>
+      </c>
+      <c r="W68">
+        <v>2041</v>
+      </c>
+      <c r="X68">
+        <v>2042</v>
+      </c>
+      <c r="Y68">
+        <v>2043</v>
+      </c>
+      <c r="Z68">
+        <v>2044</v>
+      </c>
+      <c r="AA68">
+        <v>2045</v>
+      </c>
+      <c r="AB68">
+        <v>2046</v>
+      </c>
+      <c r="AC68">
+        <v>2047</v>
+      </c>
+      <c r="AD68">
+        <v>2048</v>
+      </c>
+      <c r="AE68">
+        <v>2049</v>
+      </c>
+      <c r="AF68">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5">
+        <f t="shared" ref="C69:AF69" si="33">B4+D65</f>
+        <v>2720.1223686433941</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="33"/>
+        <v>1928.2968213818772</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="33"/>
+        <v>2129.412735209472</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="33"/>
+        <v>2025.9480858626696</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="33"/>
+        <v>1302.7046290858618</v>
+      </c>
+      <c r="H69" s="5">
+        <f t="shared" si="33"/>
+        <v>1251.3865088212251</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="33"/>
+        <v>1211.2404940011895</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="33"/>
+        <v>1207.7766446613491</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" si="33"/>
+        <v>1209.1801647197562</v>
+      </c>
+      <c r="L69" s="5">
+        <f t="shared" si="33"/>
+        <v>1262.2663977861712</v>
+      </c>
+      <c r="M69" s="5">
+        <f t="shared" si="33"/>
+        <v>1313.0283230933701</v>
+      </c>
+      <c r="N69" s="5">
+        <f t="shared" si="33"/>
+        <v>1318.9340515469612</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="33"/>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="33"/>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="Q69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="S69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="T69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="U69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="V69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="W69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="X69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Y69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Z69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AA69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AB69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AC69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AD69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AE69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AF69" s="5">
+        <f t="shared" si="33"/>
+        <v>148.76456017556194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8">
-        <f>B34-SUM(B20:B32)</f>
-        <v>210.304</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8">
-        <v>329.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C41">
+      <c r="C70" s="5">
+        <f t="shared" ref="C70:AF70" si="34">B5+D65</f>
+        <v>6936.9623686433943</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="34"/>
+        <v>3848.2668213818774</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="34"/>
+        <v>2129.412735209472</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="34"/>
+        <v>2025.9480858626696</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="34"/>
+        <v>1302.7046290858618</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="34"/>
+        <v>1251.3865088212251</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="34"/>
+        <v>1211.2404940011895</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="34"/>
+        <v>1207.7766446613491</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="34"/>
+        <v>1209.1801647197562</v>
+      </c>
+      <c r="L70" s="5">
+        <f t="shared" si="34"/>
+        <v>1262.2663977861712</v>
+      </c>
+      <c r="M70" s="5">
+        <f t="shared" si="34"/>
+        <v>1313.0283230933701</v>
+      </c>
+      <c r="N70" s="5">
+        <f t="shared" si="34"/>
+        <v>1318.9340515469612</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="34"/>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="P70" s="5">
+        <f t="shared" si="34"/>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="Q70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="S70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="T70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="U70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="V70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="W70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="X70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Y70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Z70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AA70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AB70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AC70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AD70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AE70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AF70" s="5">
+        <f t="shared" si="34"/>
+        <v>148.76456017556194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D73" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D74" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D75" s="22">
+        <v>2020</v>
+      </c>
+      <c r="E75" s="22">
         <v>2021</v>
       </c>
-      <c r="D41">
+      <c r="F75" s="22">
         <v>2022</v>
       </c>
-      <c r="E41">
+      <c r="G75" s="22">
         <v>2023</v>
       </c>
-      <c r="F41">
+      <c r="H75" s="22">
         <v>2024</v>
       </c>
-      <c r="G41">
+      <c r="I75" s="22">
         <v>2025</v>
       </c>
-      <c r="H41">
+      <c r="J75" s="22">
         <v>2026</v>
       </c>
-      <c r="I41">
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="D76" s="39">
+        <v>0.2467</v>
+      </c>
+      <c r="E76" s="39">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="F76" s="39">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G76" s="39">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="H76" s="39">
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="I76" s="40">
+        <f>H76</f>
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="J76" s="41">
+        <f>I76</f>
+        <v>0.46560000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22">
+        <v>2012</v>
+      </c>
+      <c r="D78" s="22">
+        <v>2013</v>
+      </c>
+      <c r="E78" s="22">
+        <v>2014</v>
+      </c>
+      <c r="F78" s="22">
+        <v>2015</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2016</v>
+      </c>
+      <c r="H78" s="22">
+        <v>2017</v>
+      </c>
+      <c r="I78" s="22">
+        <v>2018</v>
+      </c>
+      <c r="J78" s="22">
+        <v>2019</v>
+      </c>
+      <c r="K78" s="22">
+        <v>2020</v>
+      </c>
+      <c r="L78" s="22">
+        <v>2021</v>
+      </c>
+      <c r="M78" s="22">
+        <v>2022</v>
+      </c>
+      <c r="N78" s="22">
+        <v>2023</v>
+      </c>
+      <c r="O78" s="22">
+        <v>2024</v>
+      </c>
+      <c r="P78" s="22">
+        <v>2025</v>
+      </c>
+      <c r="Q78" s="22">
+        <v>2026</v>
+      </c>
+      <c r="R78" s="22">
         <v>2027</v>
       </c>
-      <c r="J41">
+      <c r="S78" s="22">
         <v>2028</v>
       </c>
-      <c r="K41">
+      <c r="T78" s="22">
         <v>2029</v>
       </c>
-      <c r="L41">
+      <c r="U78" s="22">
         <v>2030</v>
       </c>
-      <c r="M41">
+      <c r="V78" s="22">
         <v>2031</v>
       </c>
-      <c r="N41">
+      <c r="W78" s="22">
         <v>2032</v>
       </c>
-      <c r="O41">
+      <c r="X78" s="22">
         <v>2033</v>
       </c>
-      <c r="P41">
+      <c r="Y78" s="22">
         <v>2034</v>
       </c>
-      <c r="Q41">
+      <c r="Z78" s="22">
         <v>2035</v>
       </c>
-      <c r="R41">
-        <v>2036</v>
-      </c>
-      <c r="S41">
-        <v>2037</v>
-      </c>
-      <c r="T41">
-        <v>2038</v>
-      </c>
-      <c r="U41">
-        <v>2039</v>
-      </c>
-      <c r="V41">
-        <v>2040</v>
-      </c>
-      <c r="W41">
-        <v>2041</v>
-      </c>
-      <c r="X41">
-        <v>2042</v>
-      </c>
-      <c r="Y41">
-        <v>2043</v>
-      </c>
-      <c r="Z41">
-        <v>2044</v>
-      </c>
-      <c r="AA41">
-        <v>2045</v>
-      </c>
-      <c r="AB41">
-        <v>2046</v>
-      </c>
-      <c r="AC41">
-        <v>2047</v>
-      </c>
-      <c r="AD41">
-        <v>2048</v>
-      </c>
-      <c r="AE41">
-        <v>2049</v>
-      </c>
-      <c r="AF41">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C42" s="5">
-        <f t="shared" ref="C42:H42" si="5">SUMPRODUCT(E20:E33,$B$20:$B$33)/SUM($B$20:$B$33)*$B$38</f>
-        <v>600.15334597875574</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="5"/>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" si="5"/>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="I42" s="5">
-        <f>H42</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" ref="J42:AF42" si="6">I42</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="M42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="N42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C45">
-        <v>2021</v>
-      </c>
-      <c r="D45">
-        <v>2022</v>
-      </c>
-      <c r="E45">
-        <v>2023</v>
-      </c>
-      <c r="F45">
-        <v>2024</v>
-      </c>
-      <c r="G45">
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B79" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="45" cm="1">
+        <f t="array" ref="C79:O79">TRANSPOSE(G84:G96)</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="45">
+        <v>0.98556385942470071</v>
+      </c>
+      <c r="E79" s="45">
+        <v>0.96983137334414704</v>
+      </c>
+      <c r="F79" s="45">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="G79" s="45">
+        <v>0.95661376543184151</v>
+      </c>
+      <c r="H79" s="45">
+        <v>0.93665959530026111</v>
+      </c>
+      <c r="I79" s="45">
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="J79" s="45">
+        <v>0.89805481563188172</v>
+      </c>
+      <c r="K79" s="45">
+        <v>0.88711067149387013</v>
+      </c>
+      <c r="L79" s="45">
+        <v>0.84730412960844359</v>
+      </c>
+      <c r="M79" s="45">
+        <v>0.78452102304761584</v>
+      </c>
+      <c r="N79" s="45">
+        <v>0.75350342301658668</v>
+      </c>
+      <c r="O79" s="45">
+        <v>0.73191600598044548</v>
+      </c>
+      <c r="P79" s="46" cm="1">
+        <f t="array" ref="P79:Z79">TRANSPOSE(G99:G109)</f>
+        <v>0.71059806405868498</v>
+      </c>
+      <c r="Q79" s="46">
+        <v>0.68990103306668438</v>
+      </c>
+      <c r="R79" s="46">
+        <v>0.66980682822008197</v>
+      </c>
+      <c r="S79" s="46">
+        <v>0.65029789147580774</v>
+      </c>
+      <c r="T79" s="46">
+        <v>0.63135717619010456</v>
+      </c>
+      <c r="U79" s="46">
+        <v>0.61296813222340252</v>
+      </c>
+      <c r="V79" s="46">
+        <v>0.59511469147903162</v>
+      </c>
+      <c r="W79" s="46">
+        <v>0.57778125386313739</v>
+      </c>
+      <c r="X79" s="46">
+        <v>0.56095267365353152</v>
+      </c>
+      <c r="Y79" s="46">
+        <v>0.54461424626556454</v>
+      </c>
+      <c r="Z79" s="46">
+        <v>0.52875169540346068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="15"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84">
+        <v>228.85</v>
+      </c>
+      <c r="C84">
+        <v>230.33799999999999</v>
+      </c>
+      <c r="D84">
+        <v>229.59399999999999</v>
+      </c>
+      <c r="E84">
+        <v>1.7</v>
+      </c>
+      <c r="F84">
+        <v>2.1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85">
+        <v>232.36600000000001</v>
+      </c>
+      <c r="C85">
+        <v>233.548</v>
+      </c>
+      <c r="D85">
+        <v>232.95699999999999</v>
+      </c>
+      <c r="E85">
+        <v>1.5</v>
+      </c>
+      <c r="F85">
+        <v>1.5</v>
+      </c>
+      <c r="G85">
+        <v>0.98556385942470071</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86">
+        <v>236.38399999999999</v>
+      </c>
+      <c r="C86">
+        <v>237.08799999999999</v>
+      </c>
+      <c r="D86">
+        <v>236.73599999999999</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>1.6</v>
+      </c>
+      <c r="G86">
+        <v>0.96983137334414704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87">
+        <v>236.26499999999999</v>
+      </c>
+      <c r="C87">
+        <v>237.76900000000001</v>
+      </c>
+      <c r="D87">
+        <v>237.017</v>
+      </c>
+      <c r="E87">
+        <v>0.7</v>
+      </c>
+      <c r="F87">
+        <v>0.1</v>
+      </c>
+      <c r="G87">
+        <v>0.9686815713640794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88">
+        <v>238.77799999999999</v>
+      </c>
+      <c r="C88">
+        <v>241.23699999999999</v>
+      </c>
+      <c r="D88">
+        <v>240.00700000000001</v>
+      </c>
+      <c r="E88">
+        <v>2.1</v>
+      </c>
+      <c r="F88">
+        <v>1.3</v>
+      </c>
+      <c r="G88">
+        <v>0.95661376543184151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89">
+        <v>244.07599999999999</v>
+      </c>
+      <c r="C89">
+        <v>246.16300000000001</v>
+      </c>
+      <c r="D89">
+        <v>245.12</v>
+      </c>
+      <c r="E89">
+        <v>2.1</v>
+      </c>
+      <c r="F89">
+        <v>2.1</v>
+      </c>
+      <c r="G89">
+        <v>0.93665959530026111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90">
+        <v>250.089</v>
+      </c>
+      <c r="C90">
+        <v>252.125</v>
+      </c>
+      <c r="D90">
+        <v>251.107</v>
+      </c>
+      <c r="E90">
+        <v>1.9</v>
+      </c>
+      <c r="F90">
+        <v>2.4</v>
+      </c>
+      <c r="G90">
+        <v>0.9143273584567535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91">
+        <v>254.41200000000001</v>
+      </c>
+      <c r="C91">
+        <v>256.90300000000002</v>
+      </c>
+      <c r="D91">
+        <v>255.65700000000001</v>
+      </c>
+      <c r="E91">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F91">
+        <v>1.8</v>
+      </c>
+      <c r="G91">
+        <v>0.89805481563188172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92">
+        <v>257.55700000000002</v>
+      </c>
+      <c r="C92">
+        <v>260.065</v>
+      </c>
+      <c r="D92">
+        <v>258.81099999999998</v>
+      </c>
+      <c r="E92">
+        <v>1.4</v>
+      </c>
+      <c r="F92">
+        <v>1.2</v>
+      </c>
+      <c r="G92">
+        <v>0.88711067149387013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93">
+        <v>266.23599999999999</v>
+      </c>
+      <c r="C93">
+        <v>275.70299999999997</v>
+      </c>
+      <c r="D93">
+        <v>270.97000000000003</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>4.7</v>
+      </c>
+      <c r="G93">
+        <v>0.84730412960844359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94">
+        <v>288.34699999999998</v>
+      </c>
+      <c r="C94">
+        <v>296.96300000000002</v>
+      </c>
+      <c r="D94">
+        <v>292.65499999999997</v>
+      </c>
+      <c r="E94">
+        <v>6.5</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94">
+        <v>0.78452102304761584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95">
+        <v>302.40800000000002</v>
+      </c>
+      <c r="C95">
+        <v>306.99599999999998</v>
+      </c>
+      <c r="D95">
+        <v>304.702</v>
+      </c>
+      <c r="G95">
+        <v>0.75350342301658668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96">
+        <v>312.14499999999998</v>
+      </c>
+      <c r="C96">
+        <v>315.233</v>
+      </c>
+      <c r="D96">
+        <v>313.68900000000002</v>
+      </c>
+      <c r="G96">
+        <v>0.73191600598044548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F98" t="s">
+        <v>113</v>
+      </c>
+      <c r="H98">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>2025</v>
       </c>
-      <c r="H45">
+      <c r="D99">
+        <v>323.09967</v>
+      </c>
+      <c r="F99">
+        <v>0.03</v>
+      </c>
+      <c r="G99" s="22">
+        <f>D$84/D99</f>
+        <v>0.71059806405868498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>2026</v>
       </c>
-      <c r="I45">
+      <c r="D100">
+        <v>332.79266010000003</v>
+      </c>
+      <c r="F100">
+        <v>0.03</v>
+      </c>
+      <c r="G100" s="22">
+        <f t="shared" ref="G100:G109" si="35">D$84/D100</f>
+        <v>0.68990103306668438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>2027</v>
       </c>
-      <c r="J45">
+      <c r="D101">
+        <v>342.77643990300004</v>
+      </c>
+      <c r="F101">
+        <v>0.03</v>
+      </c>
+      <c r="G101" s="22">
+        <f t="shared" si="35"/>
+        <v>0.66980682822008197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>2028</v>
       </c>
-      <c r="K45">
+      <c r="D102">
+        <v>353.05973310009006</v>
+      </c>
+      <c r="F102">
+        <v>0.03</v>
+      </c>
+      <c r="G102" s="22">
+        <f t="shared" si="35"/>
+        <v>0.65029789147580774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>2029</v>
       </c>
-      <c r="L45">
+      <c r="D103">
+        <v>363.65152509309274</v>
+      </c>
+      <c r="F103">
+        <v>0.03</v>
+      </c>
+      <c r="G103" s="22">
+        <f t="shared" si="35"/>
+        <v>0.63135717619010456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>2030</v>
       </c>
-      <c r="M45">
+      <c r="D104">
+        <v>374.56107084588552</v>
+      </c>
+      <c r="F104">
+        <v>0.03</v>
+      </c>
+      <c r="G104" s="22">
+        <f t="shared" si="35"/>
+        <v>0.61296813222340252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>2031</v>
       </c>
-      <c r="N45">
+      <c r="D105">
+        <v>385.79790297126209</v>
+      </c>
+      <c r="F105">
+        <v>0.03</v>
+      </c>
+      <c r="G105" s="22">
+        <f t="shared" si="35"/>
+        <v>0.59511469147903162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>2032</v>
       </c>
-      <c r="O45">
+      <c r="D106">
+        <v>397.37184006039996</v>
+      </c>
+      <c r="F106">
+        <v>0.03</v>
+      </c>
+      <c r="G106" s="22">
+        <f t="shared" si="35"/>
+        <v>0.57778125386313739</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>2033</v>
       </c>
-      <c r="P45">
+      <c r="D107">
+        <v>409.29299526221195</v>
+      </c>
+      <c r="F107">
+        <v>0.03</v>
+      </c>
+      <c r="G107" s="22">
+        <f t="shared" si="35"/>
+        <v>0.56095267365353152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>2034</v>
       </c>
-      <c r="Q45">
+      <c r="D108">
+        <v>421.57178512007829</v>
+      </c>
+      <c r="F108">
+        <v>0.03</v>
+      </c>
+      <c r="G108" s="22">
+        <f t="shared" si="35"/>
+        <v>0.54461424626556454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>2035</v>
       </c>
-      <c r="R45">
-        <v>2036</v>
-      </c>
-      <c r="S45">
-        <v>2037</v>
-      </c>
-      <c r="T45">
-        <v>2038</v>
-      </c>
-      <c r="U45">
-        <v>2039</v>
-      </c>
-      <c r="V45">
-        <v>2040</v>
-      </c>
-      <c r="W45">
-        <v>2041</v>
-      </c>
-      <c r="X45">
-        <v>2042</v>
-      </c>
-      <c r="Y45">
-        <v>2043</v>
-      </c>
-      <c r="Z45">
-        <v>2044</v>
-      </c>
-      <c r="AA45">
-        <v>2045</v>
-      </c>
-      <c r="AB45">
-        <v>2046</v>
-      </c>
-      <c r="AC45">
-        <v>2047</v>
-      </c>
-      <c r="AD45">
-        <v>2048</v>
-      </c>
-      <c r="AE45">
-        <v>2049</v>
-      </c>
-      <c r="AF45">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <f t="shared" ref="C46:AF46" si="7">B4+C42</f>
-        <v>3036.0333459787557</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="7"/>
-        <v>2273.5314681335358</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" si="7"/>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="7"/>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="shared" si="7"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="7"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="7"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="7"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="7"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="7"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="M46" s="5">
-        <f t="shared" si="7"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="7"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" ref="C47:AF47" si="8">B5+C42</f>
-        <v>7252.8733459787563</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="8"/>
-        <v>4193.501468133536</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="8"/>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="8"/>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="shared" si="8"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="8"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="8"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="J47" s="5">
-        <f t="shared" si="8"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="8"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="8"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="M47" s="5">
-        <f t="shared" si="8"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" si="8"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="16"/>
+      <c r="D109">
+        <v>434.21893867368067</v>
+      </c>
+      <c r="F109">
+        <v>0.03</v>
+      </c>
+      <c r="G109" s="22">
+        <f t="shared" si="35"/>
+        <v>0.52875169540346068</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8452,6 +10377,7 @@
     <hyperlink ref="R21" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8459,1114 +10385,1114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4700B1-78D7-456C-A4C4-AB085247994E}">
   <dimension ref="A1:AL776"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="23" customWidth="1"/>
-    <col min="5" max="38" width="7.54296875" style="23" customWidth="1"/>
-    <col min="39" max="16384" width="12.54296875" style="23"/>
+    <col min="1" max="1" width="51.81640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="22" customWidth="1"/>
+    <col min="5" max="38" width="7.54296875" style="22" customWidth="1"/>
+    <col min="39" max="16384" width="12.54296875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:38" ht="104.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
+      <c r="A2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
     </row>
     <row r="3" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
     </row>
     <row r="4" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="A4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="34">
         <v>40000</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="35">
+      <c r="A5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="34">
         <v>7500</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
     </row>
     <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
     </row>
     <row r="7" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="A7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="26">
         <f>B4*$B$16*$B$14</f>
         <v>27004</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="26">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>2023</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>2024</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>2025</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>2026</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>2027</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>2028</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>2029</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>2030</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>2031</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>2032</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="A11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="35">
         <f>C36</f>
         <v>10121.162702145082</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <f t="shared" ref="C11:K11" si="0">D36</f>
         <v>10059.772494365814</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <f t="shared" si="0"/>
         <v>10050.763799597085</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f t="shared" si="0"/>
         <v>10127.428607069427</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <f t="shared" si="0"/>
         <v>10269.11524721545</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>10350.781370900584</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <f t="shared" si="0"/>
         <v>10353.674088089921</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <f t="shared" si="0"/>
         <v>10294.239800360298</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
         <v>10251.903689786537</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <f t="shared" si="0"/>
         <v>10279.777009851599</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
+      <c r="A13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
     </row>
     <row r="14" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="26">
+      <c r="A14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="25">
         <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="A16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="25">
         <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>57</v>
+      <c r="A19" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>58</v>
+      <c r="A20" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:33" ht="39" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <f>B5*B14</f>
         <v>5887.5</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="24">
+      <c r="A24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="23">
         <v>3</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="26">
         <f>D23</f>
         <v>5887.5</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="29">
+      <c r="A25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="28">
         <v>44657</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="26">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+    </row>
+    <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+    </row>
+    <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+    </row>
+    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="31">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2024</v>
+      </c>
+      <c r="E31" s="31">
+        <v>2025</v>
+      </c>
+      <c r="F31" s="31">
+        <v>2026</v>
+      </c>
+      <c r="G31" s="31">
+        <v>2027</v>
+      </c>
+      <c r="H31" s="31">
+        <v>2028</v>
+      </c>
+      <c r="I31" s="31">
+        <v>2029</v>
+      </c>
+      <c r="J31" s="31">
+        <v>2030</v>
+      </c>
+      <c r="K31" s="31">
+        <v>2031</v>
+      </c>
+      <c r="L31" s="31">
+        <v>2032</v>
+      </c>
+      <c r="M31" s="31">
+        <v>2033</v>
+      </c>
+      <c r="N31" s="31">
+        <v>2034</v>
+      </c>
+      <c r="O31" s="31">
+        <v>2035</v>
+      </c>
+      <c r="P31" s="31">
+        <v>2036</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>2037</v>
+      </c>
+      <c r="R31" s="31">
+        <v>2038</v>
+      </c>
+      <c r="S31" s="31">
+        <v>2039</v>
+      </c>
+      <c r="T31" s="31">
+        <v>2040</v>
+      </c>
+      <c r="U31" s="31">
+        <v>2041</v>
+      </c>
+      <c r="V31" s="31">
+        <v>2042</v>
+      </c>
+      <c r="W31" s="31">
+        <v>2043</v>
+      </c>
+      <c r="X31" s="31">
+        <v>2044</v>
+      </c>
+      <c r="Y31" s="31">
+        <v>2045</v>
+      </c>
+      <c r="Z31" s="31">
+        <v>2046</v>
+      </c>
+      <c r="AA31" s="31">
+        <v>2047</v>
+      </c>
+      <c r="AB31" s="31">
+        <v>2048</v>
+      </c>
+      <c r="AC31" s="31">
+        <v>2049</v>
+      </c>
+      <c r="AD31" s="31">
+        <v>2050</v>
+      </c>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+    </row>
+    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="32">
+        <v>652.15881300000001</v>
+      </c>
+      <c r="C32" s="32">
+        <v>675.13665800000001</v>
+      </c>
+      <c r="D32" s="32">
+        <v>689.60467500000004</v>
+      </c>
+      <c r="E32" s="32">
+        <v>691.51690699999995</v>
+      </c>
+      <c r="F32" s="32">
+        <v>688.42425500000002</v>
+      </c>
+      <c r="G32" s="32">
+        <v>684.18414299999995</v>
+      </c>
+      <c r="H32" s="32">
+        <v>682.62188700000002</v>
+      </c>
+      <c r="I32" s="32">
+        <v>679.86218299999996</v>
+      </c>
+      <c r="J32" s="32">
+        <v>678.07775900000001</v>
+      </c>
+      <c r="K32" s="32">
+        <v>677.36639400000001</v>
+      </c>
+      <c r="L32" s="32">
+        <v>675.92620799999997</v>
+      </c>
+      <c r="M32" s="32">
+        <v>676.86370799999997</v>
+      </c>
+      <c r="N32" s="32">
+        <v>681.45581100000004</v>
+      </c>
+      <c r="O32" s="32">
+        <v>687.30078100000003</v>
+      </c>
+      <c r="P32" s="32">
+        <v>692.37145999999996</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>698.31860400000005</v>
+      </c>
+      <c r="R32" s="32">
+        <v>703.59320100000002</v>
+      </c>
+      <c r="S32" s="32">
+        <v>709.57092299999999</v>
+      </c>
+      <c r="T32" s="32">
+        <v>711.90655500000003</v>
+      </c>
+      <c r="U32" s="32">
+        <v>714.37567100000001</v>
+      </c>
+      <c r="V32" s="32">
+        <v>716.10638400000005</v>
+      </c>
+      <c r="W32" s="32">
+        <v>717.97564699999998</v>
+      </c>
+      <c r="X32" s="32">
+        <v>723.98962400000005</v>
+      </c>
+      <c r="Y32" s="32">
+        <v>729.19946300000004</v>
+      </c>
+      <c r="Z32" s="32">
+        <v>732.66320800000005</v>
+      </c>
+      <c r="AA32" s="32">
+        <v>734.38165300000003</v>
+      </c>
+      <c r="AB32" s="32">
+        <v>739.21014400000001</v>
+      </c>
+      <c r="AC32" s="32">
+        <v>745.07336399999997</v>
+      </c>
+      <c r="AD32" s="32">
+        <v>1035.5</v>
+      </c>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="29"/>
+    </row>
+    <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="32">
+        <v>252.12297100000001</v>
+      </c>
+      <c r="C33" s="32">
+        <v>262.199432</v>
+      </c>
+      <c r="D33" s="32">
+        <v>276.18127399999997</v>
+      </c>
+      <c r="E33" s="32">
+        <v>286.01892099999998</v>
+      </c>
+      <c r="F33" s="32">
+        <v>290.46655299999998</v>
+      </c>
+      <c r="G33" s="32">
+        <v>292.43240400000002</v>
+      </c>
+      <c r="H33" s="32">
+        <v>293.63424700000002</v>
+      </c>
+      <c r="I33" s="32">
+        <v>296.173248</v>
+      </c>
+      <c r="J33" s="32">
+        <v>298.12170400000002</v>
+      </c>
+      <c r="K33" s="32">
+        <v>300.39685100000003</v>
+      </c>
+      <c r="L33" s="32">
+        <v>303.257294</v>
+      </c>
+      <c r="M33" s="32">
+        <v>305.71603399999998</v>
+      </c>
+      <c r="N33" s="32">
+        <v>309.26257299999997</v>
+      </c>
+      <c r="O33" s="32">
+        <v>314.79812600000002</v>
+      </c>
+      <c r="P33" s="32">
+        <v>321.14746100000002</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>327.09249899999998</v>
+      </c>
+      <c r="R33" s="32">
+        <v>333.56478900000002</v>
+      </c>
+      <c r="S33" s="32">
+        <v>339.75351000000001</v>
+      </c>
+      <c r="T33" s="32">
+        <v>346.38189699999998</v>
+      </c>
+      <c r="U33" s="32">
+        <v>351.209137</v>
+      </c>
+      <c r="V33" s="32">
+        <v>355.95761099999999</v>
+      </c>
+      <c r="W33" s="32">
+        <v>360.42837500000002</v>
+      </c>
+      <c r="X33" s="32">
+        <v>364.902466</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>371.72610500000002</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>378.28823899999998</v>
+      </c>
+      <c r="AA33" s="32">
+        <v>383.89129600000001</v>
+      </c>
+      <c r="AB33" s="32">
+        <v>388.47567700000002</v>
+      </c>
+      <c r="AC33" s="32">
+        <v>394.81222500000001</v>
+      </c>
+      <c r="AD33" s="32">
+        <v>401.96115099999997</v>
+      </c>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="29"/>
+    </row>
+    <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="32">
+        <v>180.61982699999999</v>
+      </c>
+      <c r="C34" s="32">
+        <v>186.49350000000001</v>
+      </c>
+      <c r="D34" s="32">
+        <v>188.82283000000001</v>
+      </c>
+      <c r="E34" s="32">
+        <v>190.626938</v>
+      </c>
+      <c r="F34" s="32">
+        <v>195.106979</v>
+      </c>
+      <c r="G34" s="32">
+        <v>202.50727800000001</v>
+      </c>
+      <c r="H34" s="32">
+        <v>207.005585</v>
+      </c>
+      <c r="I34" s="32">
+        <v>207.12138400000001</v>
+      </c>
+      <c r="J34" s="32">
+        <v>203.823837</v>
+      </c>
+      <c r="K34" s="32">
+        <v>201.78428600000001</v>
+      </c>
+      <c r="L34" s="32">
+        <v>203.63635300000001</v>
+      </c>
+      <c r="M34" s="32">
+        <v>206.92961099999999</v>
+      </c>
+      <c r="N34" s="32">
+        <v>209.69859299999999</v>
+      </c>
+      <c r="O34" s="32">
+        <v>212.967072</v>
+      </c>
+      <c r="P34" s="32">
+        <v>216.125214</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>219.188492</v>
+      </c>
+      <c r="R34" s="32">
+        <v>221.84333799999999</v>
+      </c>
+      <c r="S34" s="32">
+        <v>224.323059</v>
+      </c>
+      <c r="T34" s="32">
+        <v>227.32418799999999</v>
+      </c>
+      <c r="U34" s="32">
+        <v>230.371872</v>
+      </c>
+      <c r="V34" s="32">
+        <v>232.498154</v>
+      </c>
+      <c r="W34" s="32">
+        <v>235.21517900000001</v>
+      </c>
+      <c r="X34" s="32">
+        <v>236.05999800000001</v>
+      </c>
+      <c r="Y34" s="32">
+        <v>234.92872600000001</v>
+      </c>
+      <c r="Z34" s="32">
+        <v>234.37702899999999</v>
+      </c>
+      <c r="AA34" s="32">
+        <v>235.44674699999999</v>
+      </c>
+      <c r="AB34" s="32">
+        <v>237.52796900000001</v>
+      </c>
+      <c r="AC34" s="32">
+        <v>239.052933</v>
+      </c>
+      <c r="AD34" s="32">
+        <v>241.633881</v>
+      </c>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="29"/>
+    </row>
+    <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-    </row>
-    <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-    </row>
-    <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-    </row>
-    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="32">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="32">
-        <v>2023</v>
-      </c>
-      <c r="D31" s="32">
-        <v>2024</v>
-      </c>
-      <c r="E31" s="32">
-        <v>2025</v>
-      </c>
-      <c r="F31" s="32">
-        <v>2026</v>
-      </c>
-      <c r="G31" s="32">
-        <v>2027</v>
-      </c>
-      <c r="H31" s="32">
-        <v>2028</v>
-      </c>
-      <c r="I31" s="32">
-        <v>2029</v>
-      </c>
-      <c r="J31" s="32">
-        <v>2030</v>
-      </c>
-      <c r="K31" s="32">
-        <v>2031</v>
-      </c>
-      <c r="L31" s="32">
-        <v>2032</v>
-      </c>
-      <c r="M31" s="32">
-        <v>2033</v>
-      </c>
-      <c r="N31" s="32">
-        <v>2034</v>
-      </c>
-      <c r="O31" s="32">
-        <v>2035</v>
-      </c>
-      <c r="P31" s="32">
-        <v>2036</v>
-      </c>
-      <c r="Q31" s="32">
-        <v>2037</v>
-      </c>
-      <c r="R31" s="32">
-        <v>2038</v>
-      </c>
-      <c r="S31" s="32">
-        <v>2039</v>
-      </c>
-      <c r="T31" s="32">
-        <v>2040</v>
-      </c>
-      <c r="U31" s="32">
-        <v>2041</v>
-      </c>
-      <c r="V31" s="32">
-        <v>2042</v>
-      </c>
-      <c r="W31" s="32">
-        <v>2043</v>
-      </c>
-      <c r="X31" s="32">
-        <v>2044</v>
-      </c>
-      <c r="Y31" s="32">
-        <v>2045</v>
-      </c>
-      <c r="Z31" s="32">
-        <v>2046</v>
-      </c>
-      <c r="AA31" s="32">
-        <v>2047</v>
-      </c>
-      <c r="AB31" s="32">
-        <v>2048</v>
-      </c>
-      <c r="AC31" s="32">
-        <v>2049</v>
-      </c>
-      <c r="AD31" s="32">
-        <v>2050</v>
-      </c>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-    </row>
-    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="33">
-        <v>652.15881300000001</v>
-      </c>
-      <c r="C32" s="33">
-        <v>675.13665800000001</v>
-      </c>
-      <c r="D32" s="33">
-        <v>689.60467500000004</v>
-      </c>
-      <c r="E32" s="33">
-        <v>691.51690699999995</v>
-      </c>
-      <c r="F32" s="33">
-        <v>688.42425500000002</v>
-      </c>
-      <c r="G32" s="33">
-        <v>684.18414299999995</v>
-      </c>
-      <c r="H32" s="33">
-        <v>682.62188700000002</v>
-      </c>
-      <c r="I32" s="33">
-        <v>679.86218299999996</v>
-      </c>
-      <c r="J32" s="33">
-        <v>678.07775900000001</v>
-      </c>
-      <c r="K32" s="33">
-        <v>677.36639400000001</v>
-      </c>
-      <c r="L32" s="33">
-        <v>675.92620799999997</v>
-      </c>
-      <c r="M32" s="33">
-        <v>676.86370799999997</v>
-      </c>
-      <c r="N32" s="33">
-        <v>681.45581100000004</v>
-      </c>
-      <c r="O32" s="33">
-        <v>687.30078100000003</v>
-      </c>
-      <c r="P32" s="33">
-        <v>692.37145999999996</v>
-      </c>
-      <c r="Q32" s="33">
-        <v>698.31860400000005</v>
-      </c>
-      <c r="R32" s="33">
-        <v>703.59320100000002</v>
-      </c>
-      <c r="S32" s="33">
-        <v>709.57092299999999</v>
-      </c>
-      <c r="T32" s="33">
-        <v>711.90655500000003</v>
-      </c>
-      <c r="U32" s="33">
-        <v>714.37567100000001</v>
-      </c>
-      <c r="V32" s="33">
-        <v>716.10638400000005</v>
-      </c>
-      <c r="W32" s="33">
-        <v>717.97564699999998</v>
-      </c>
-      <c r="X32" s="33">
-        <v>723.98962400000005</v>
-      </c>
-      <c r="Y32" s="33">
-        <v>729.19946300000004</v>
-      </c>
-      <c r="Z32" s="33">
-        <v>732.66320800000005</v>
-      </c>
-      <c r="AA32" s="33">
-        <v>734.38165300000003</v>
-      </c>
-      <c r="AB32" s="33">
-        <v>739.21014400000001</v>
-      </c>
-      <c r="AC32" s="33">
-        <v>745.07336399999997</v>
-      </c>
-      <c r="AD32" s="33">
-        <v>1035.5</v>
-      </c>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="30"/>
-    </row>
-    <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="33">
-        <v>252.12297100000001</v>
-      </c>
-      <c r="C33" s="33">
-        <v>262.199432</v>
-      </c>
-      <c r="D33" s="33">
-        <v>276.18127399999997</v>
-      </c>
-      <c r="E33" s="33">
-        <v>286.01892099999998</v>
-      </c>
-      <c r="F33" s="33">
-        <v>290.46655299999998</v>
-      </c>
-      <c r="G33" s="33">
-        <v>292.43240400000002</v>
-      </c>
-      <c r="H33" s="33">
-        <v>293.63424700000002</v>
-      </c>
-      <c r="I33" s="33">
-        <v>296.173248</v>
-      </c>
-      <c r="J33" s="33">
-        <v>298.12170400000002</v>
-      </c>
-      <c r="K33" s="33">
-        <v>300.39685100000003</v>
-      </c>
-      <c r="L33" s="33">
-        <v>303.257294</v>
-      </c>
-      <c r="M33" s="33">
-        <v>305.71603399999998</v>
-      </c>
-      <c r="N33" s="33">
-        <v>309.26257299999997</v>
-      </c>
-      <c r="O33" s="33">
-        <v>314.79812600000002</v>
-      </c>
-      <c r="P33" s="33">
-        <v>321.14746100000002</v>
-      </c>
-      <c r="Q33" s="33">
-        <v>327.09249899999998</v>
-      </c>
-      <c r="R33" s="33">
-        <v>333.56478900000002</v>
-      </c>
-      <c r="S33" s="33">
-        <v>339.75351000000001</v>
-      </c>
-      <c r="T33" s="33">
-        <v>346.38189699999998</v>
-      </c>
-      <c r="U33" s="33">
-        <v>351.209137</v>
-      </c>
-      <c r="V33" s="33">
-        <v>355.95761099999999</v>
-      </c>
-      <c r="W33" s="33">
-        <v>360.42837500000002</v>
-      </c>
-      <c r="X33" s="33">
-        <v>364.902466</v>
-      </c>
-      <c r="Y33" s="33">
-        <v>371.72610500000002</v>
-      </c>
-      <c r="Z33" s="33">
-        <v>378.28823899999998</v>
-      </c>
-      <c r="AA33" s="33">
-        <v>383.89129600000001</v>
-      </c>
-      <c r="AB33" s="33">
-        <v>388.47567700000002</v>
-      </c>
-      <c r="AC33" s="33">
-        <v>394.81222500000001</v>
-      </c>
-      <c r="AD33" s="33">
-        <v>401.96115099999997</v>
-      </c>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="30"/>
-    </row>
-    <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="33">
-        <v>180.61982699999999</v>
-      </c>
-      <c r="C34" s="33">
-        <v>186.49350000000001</v>
-      </c>
-      <c r="D34" s="33">
-        <v>188.82283000000001</v>
-      </c>
-      <c r="E34" s="33">
-        <v>190.626938</v>
-      </c>
-      <c r="F34" s="33">
-        <v>195.106979</v>
-      </c>
-      <c r="G34" s="33">
-        <v>202.50727800000001</v>
-      </c>
-      <c r="H34" s="33">
-        <v>207.005585</v>
-      </c>
-      <c r="I34" s="33">
-        <v>207.12138400000001</v>
-      </c>
-      <c r="J34" s="33">
-        <v>203.823837</v>
-      </c>
-      <c r="K34" s="33">
-        <v>201.78428600000001</v>
-      </c>
-      <c r="L34" s="33">
-        <v>203.63635300000001</v>
-      </c>
-      <c r="M34" s="33">
-        <v>206.92961099999999</v>
-      </c>
-      <c r="N34" s="33">
-        <v>209.69859299999999</v>
-      </c>
-      <c r="O34" s="33">
-        <v>212.967072</v>
-      </c>
-      <c r="P34" s="33">
-        <v>216.125214</v>
-      </c>
-      <c r="Q34" s="33">
-        <v>219.188492</v>
-      </c>
-      <c r="R34" s="33">
-        <v>221.84333799999999</v>
-      </c>
-      <c r="S34" s="33">
-        <v>224.323059</v>
-      </c>
-      <c r="T34" s="33">
-        <v>227.32418799999999</v>
-      </c>
-      <c r="U34" s="33">
-        <v>230.371872</v>
-      </c>
-      <c r="V34" s="33">
-        <v>232.498154</v>
-      </c>
-      <c r="W34" s="33">
-        <v>235.21517900000001</v>
-      </c>
-      <c r="X34" s="33">
-        <v>236.05999800000001</v>
-      </c>
-      <c r="Y34" s="33">
-        <v>234.92872600000001</v>
-      </c>
-      <c r="Z34" s="33">
-        <v>234.37702899999999</v>
-      </c>
-      <c r="AA34" s="33">
-        <v>235.44674699999999</v>
-      </c>
-      <c r="AB34" s="33">
-        <v>237.52796900000001</v>
-      </c>
-      <c r="AC34" s="33">
-        <v>239.052933</v>
-      </c>
-      <c r="AD34" s="33">
-        <v>241.633881</v>
-      </c>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="30"/>
-    </row>
-    <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
         <v>10134.948146095066</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <f t="shared" si="1"/>
         <v>10121.162702145082</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <f t="shared" si="1"/>
         <v>10059.772494365814</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f t="shared" si="1"/>
         <v>10050.763799597085</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="26">
         <f t="shared" si="1"/>
         <v>10127.428607069427</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="26">
         <f t="shared" si="1"/>
         <v>10269.11524721545</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="26">
         <f t="shared" si="1"/>
         <v>10350.781370900584</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="26">
         <f t="shared" si="1"/>
         <v>10353.674088089921</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="26">
         <f t="shared" si="1"/>
         <v>10294.239800360298</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="26">
         <f t="shared" si="1"/>
         <v>10251.903689786537</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="26">
         <f t="shared" si="1"/>
         <v>10279.777009851599</v>
       </c>
-      <c r="M36" s="27">
+      <c r="M36" s="26">
         <f t="shared" si="1"/>
         <v>10325.709491436844</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="26">
         <f t="shared" si="1"/>
         <v>10344.230833049938</v>
       </c>
-      <c r="O36" s="27">
+      <c r="O36" s="26">
         <f t="shared" si="1"/>
         <v>10359.12748221428</v>
       </c>
-      <c r="P36" s="27">
+      <c r="P36" s="26">
         <f t="shared" si="1"/>
         <v>10371.638430973771</v>
       </c>
-      <c r="Q36" s="27">
+      <c r="Q36" s="26">
         <f t="shared" si="1"/>
         <v>10380.548547191598</v>
       </c>
-      <c r="R36" s="27">
+      <c r="R36" s="26">
         <f t="shared" si="1"/>
         <v>10382.950508948947</v>
       </c>
-      <c r="S36" s="27">
+      <c r="S36" s="26">
         <f t="shared" si="1"/>
         <v>10380.927010758403</v>
       </c>
-      <c r="T36" s="27">
+      <c r="T36" s="26">
         <f t="shared" si="1"/>
         <v>10398.663134138134</v>
       </c>
-      <c r="U36" s="27">
+      <c r="U36" s="26">
         <f t="shared" si="1"/>
         <v>10422.653431517481</v>
       </c>
-      <c r="V36" s="27">
+      <c r="V36" s="26">
         <f t="shared" si="1"/>
         <v>10434.319910781423</v>
       </c>
-      <c r="W36" s="27">
+      <c r="W36" s="26">
         <f t="shared" si="1"/>
         <v>10455.739600691937</v>
       </c>
-      <c r="X36" s="27">
+      <c r="X36" s="26">
         <f t="shared" si="1"/>
         <v>10432.932814907192</v>
       </c>
-      <c r="Y36" s="27">
+      <c r="Y36" s="26">
         <f t="shared" si="1"/>
         <v>10374.231186923143</v>
       </c>
-      <c r="Z36" s="27">
+      <c r="Z36" s="26">
         <f t="shared" si="1"/>
         <v>10332.172107247137</v>
       </c>
-      <c r="AA36" s="27">
+      <c r="AA36" s="26">
         <f t="shared" si="1"/>
         <v>10324.781329795693</v>
       </c>
-      <c r="AB36" s="27">
+      <c r="AB36" s="26">
         <f t="shared" si="1"/>
         <v>10326.315629830769</v>
       </c>
-      <c r="AC36" s="27">
+      <c r="AC36" s="26">
         <f t="shared" si="1"/>
         <v>10310.34979051626</v>
       </c>
-      <c r="AD36" s="27">
+      <c r="AD36" s="26">
         <f t="shared" si="1"/>
         <v>9558.932689351499</v>
       </c>
@@ -10450,219 +12376,219 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
-        <f>'Passenger Vehicle Calculations'!C46</f>
-        <v>3036.0333459787557</v>
-      </c>
-      <c r="C2" s="19">
-        <f>'Passenger Vehicle Calculations'!D46</f>
-        <v>2273.5314681335358</v>
-      </c>
-      <c r="D2" s="19">
-        <f>'Passenger Vehicle Calculations'!E46</f>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="E2" s="19">
-        <f>'Passenger Vehicle Calculations'!F46</f>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="F2" s="19">
-        <f>'Passenger Vehicle Calculations'!G46</f>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="G2" s="19">
-        <f>'Passenger Vehicle Calculations'!H46</f>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="H2" s="19">
-        <f>'Passenger Vehicle Calculations'!I46</f>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="I2" s="19">
-        <f>'Passenger Vehicle Calculations'!J46</f>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="J2" s="19">
-        <f>'Passenger Vehicle Calculations'!K46</f>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="K2" s="19">
-        <f>'Passenger Vehicle Calculations'!L46</f>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="L2" s="19">
-        <f>'Passenger Vehicle Calculations'!M46</f>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="M2" s="19">
-        <f>'Passenger Vehicle Calculations'!N46</f>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="N2" s="19">
-        <f>'Passenger Vehicle Calculations'!O46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O2" s="19">
-        <f>'Passenger Vehicle Calculations'!P46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P2" s="19">
-        <f>'Passenger Vehicle Calculations'!Q46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q2" s="19">
-        <f>'Passenger Vehicle Calculations'!R46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R2" s="19">
-        <f>'Passenger Vehicle Calculations'!S46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S2" s="19">
-        <f>'Passenger Vehicle Calculations'!T46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T2" s="19">
-        <f>'Passenger Vehicle Calculations'!U46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U2" s="19">
-        <f>'Passenger Vehicle Calculations'!V46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V2" s="19">
-        <f>'Passenger Vehicle Calculations'!W46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W2" s="19">
-        <f>'Passenger Vehicle Calculations'!X46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X2" s="19">
-        <f>'Passenger Vehicle Calculations'!Y46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y2" s="19">
-        <f>'Passenger Vehicle Calculations'!Z46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z2" s="19">
-        <f>'Passenger Vehicle Calculations'!AA46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA2" s="19">
-        <f>'Passenger Vehicle Calculations'!AB46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB2" s="19">
-        <f>'Passenger Vehicle Calculations'!AC46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC2" s="19">
-        <f>'Passenger Vehicle Calculations'!AD46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD2" s="19">
-        <f>'Passenger Vehicle Calculations'!AE46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE2" s="19">
-        <f>'Passenger Vehicle Calculations'!AF46</f>
-        <v>568.32511001517457</v>
+      <c r="B2" s="18">
+        <f>'Passenger Vehicle Calculations'!C69</f>
+        <v>2720.1223686433941</v>
+      </c>
+      <c r="C2" s="18">
+        <f>'Passenger Vehicle Calculations'!D69</f>
+        <v>1928.2968213818772</v>
+      </c>
+      <c r="D2" s="18">
+        <f>'Passenger Vehicle Calculations'!E69</f>
+        <v>2129.412735209472</v>
+      </c>
+      <c r="E2" s="18">
+        <f>'Passenger Vehicle Calculations'!F69</f>
+        <v>2025.9480858626696</v>
+      </c>
+      <c r="F2" s="18">
+        <f>'Passenger Vehicle Calculations'!G69</f>
+        <v>1302.7046290858618</v>
+      </c>
+      <c r="G2" s="18">
+        <f>'Passenger Vehicle Calculations'!H69</f>
+        <v>1251.3865088212251</v>
+      </c>
+      <c r="H2" s="18">
+        <f>'Passenger Vehicle Calculations'!I69</f>
+        <v>1211.2404940011895</v>
+      </c>
+      <c r="I2" s="18">
+        <f>'Passenger Vehicle Calculations'!J69</f>
+        <v>1207.7766446613491</v>
+      </c>
+      <c r="J2" s="18">
+        <f>'Passenger Vehicle Calculations'!K69</f>
+        <v>1209.1801647197562</v>
+      </c>
+      <c r="K2" s="18">
+        <f>'Passenger Vehicle Calculations'!L69</f>
+        <v>1262.2663977861712</v>
+      </c>
+      <c r="L2" s="18">
+        <f>'Passenger Vehicle Calculations'!M69</f>
+        <v>1313.0283230933701</v>
+      </c>
+      <c r="M2" s="18">
+        <f>'Passenger Vehicle Calculations'!N69</f>
+        <v>1318.9340515469612</v>
+      </c>
+      <c r="N2" s="18">
+        <f>'Passenger Vehicle Calculations'!O69</f>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="O2" s="18">
+        <f>'Passenger Vehicle Calculations'!P69</f>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="P2" s="18">
+        <f>'Passenger Vehicle Calculations'!Q69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Q2" s="18">
+        <f>'Passenger Vehicle Calculations'!R69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R2" s="18">
+        <f>'Passenger Vehicle Calculations'!S69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="S2" s="18">
+        <f>'Passenger Vehicle Calculations'!T69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="T2" s="18">
+        <f>'Passenger Vehicle Calculations'!U69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="U2" s="18">
+        <f>'Passenger Vehicle Calculations'!V69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="V2" s="18">
+        <f>'Passenger Vehicle Calculations'!W69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="W2" s="18">
+        <f>'Passenger Vehicle Calculations'!X69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="X2" s="18">
+        <f>'Passenger Vehicle Calculations'!Y69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Y2" s="18">
+        <f>'Passenger Vehicle Calculations'!Z69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Z2" s="18">
+        <f>'Passenger Vehicle Calculations'!AA69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AA2" s="18">
+        <f>'Passenger Vehicle Calculations'!AB69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AB2" s="18">
+        <f>'Passenger Vehicle Calculations'!AC69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AC2" s="18">
+        <f>'Passenger Vehicle Calculations'!AD69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AD2" s="18">
+        <f>'Passenger Vehicle Calculations'!AE69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AE2" s="18">
+        <f>'Passenger Vehicle Calculations'!AF69</f>
+        <v>148.76456017556194</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19">
-        <v>0</v>
-      </c>
-      <c r="T3" s="19">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="19">
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -10670,94 +12596,94 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="19">
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -10765,94 +12691,94 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="19">
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -10860,219 +12786,219 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
-        <f>'Passenger Vehicle Calculations'!C47</f>
-        <v>7252.8733459787563</v>
-      </c>
-      <c r="C6" s="19">
-        <f>'Passenger Vehicle Calculations'!D47</f>
-        <v>4193.501468133536</v>
-      </c>
-      <c r="D6" s="19">
-        <f>'Passenger Vehicle Calculations'!E47</f>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="E6" s="19">
-        <f>'Passenger Vehicle Calculations'!F47</f>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="F6" s="19">
-        <f>'Passenger Vehicle Calculations'!G47</f>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="G6" s="19">
-        <f>'Passenger Vehicle Calculations'!H47</f>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="H6" s="19">
-        <f>'Passenger Vehicle Calculations'!I47</f>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="I6" s="19">
-        <f>'Passenger Vehicle Calculations'!J47</f>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="J6" s="19">
-        <f>'Passenger Vehicle Calculations'!K47</f>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="K6" s="19">
-        <f>'Passenger Vehicle Calculations'!L47</f>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="L6" s="19">
-        <f>'Passenger Vehicle Calculations'!M47</f>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="M6" s="19">
-        <f>'Passenger Vehicle Calculations'!N47</f>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="N6" s="19">
-        <f>'Passenger Vehicle Calculations'!O47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O6" s="19">
-        <f>'Passenger Vehicle Calculations'!P47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P6" s="19">
-        <f>'Passenger Vehicle Calculations'!Q47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>'Passenger Vehicle Calculations'!R47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R6" s="19">
-        <f>'Passenger Vehicle Calculations'!S47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S6" s="19">
-        <f>'Passenger Vehicle Calculations'!T47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T6" s="19">
-        <f>'Passenger Vehicle Calculations'!U47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U6" s="19">
-        <f>'Passenger Vehicle Calculations'!V47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V6" s="19">
-        <f>'Passenger Vehicle Calculations'!W47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W6" s="19">
-        <f>'Passenger Vehicle Calculations'!X47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X6" s="19">
-        <f>'Passenger Vehicle Calculations'!Y47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y6" s="19">
-        <f>'Passenger Vehicle Calculations'!Z47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z6" s="19">
-        <f>'Passenger Vehicle Calculations'!AA47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA6" s="19">
-        <f>'Passenger Vehicle Calculations'!AB47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB6" s="19">
-        <f>'Passenger Vehicle Calculations'!AC47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC6" s="19">
-        <f>'Passenger Vehicle Calculations'!AD47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD6" s="19">
-        <f>'Passenger Vehicle Calculations'!AE47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE6" s="19">
-        <f>'Passenger Vehicle Calculations'!AF47</f>
-        <v>568.32511001517457</v>
+      <c r="B6" s="18">
+        <f>'Passenger Vehicle Calculations'!C70</f>
+        <v>6936.9623686433943</v>
+      </c>
+      <c r="C6" s="18">
+        <f>'Passenger Vehicle Calculations'!D70</f>
+        <v>3848.2668213818774</v>
+      </c>
+      <c r="D6" s="18">
+        <f>'Passenger Vehicle Calculations'!E70</f>
+        <v>2129.412735209472</v>
+      </c>
+      <c r="E6" s="18">
+        <f>'Passenger Vehicle Calculations'!F70</f>
+        <v>2025.9480858626696</v>
+      </c>
+      <c r="F6" s="18">
+        <f>'Passenger Vehicle Calculations'!G70</f>
+        <v>1302.7046290858618</v>
+      </c>
+      <c r="G6" s="18">
+        <f>'Passenger Vehicle Calculations'!H70</f>
+        <v>1251.3865088212251</v>
+      </c>
+      <c r="H6" s="18">
+        <f>'Passenger Vehicle Calculations'!I70</f>
+        <v>1211.2404940011895</v>
+      </c>
+      <c r="I6" s="18">
+        <f>'Passenger Vehicle Calculations'!J70</f>
+        <v>1207.7766446613491</v>
+      </c>
+      <c r="J6" s="18">
+        <f>'Passenger Vehicle Calculations'!K70</f>
+        <v>1209.1801647197562</v>
+      </c>
+      <c r="K6" s="18">
+        <f>'Passenger Vehicle Calculations'!L70</f>
+        <v>1262.2663977861712</v>
+      </c>
+      <c r="L6" s="18">
+        <f>'Passenger Vehicle Calculations'!M70</f>
+        <v>1313.0283230933701</v>
+      </c>
+      <c r="M6" s="18">
+        <f>'Passenger Vehicle Calculations'!N70</f>
+        <v>1318.9340515469612</v>
+      </c>
+      <c r="N6" s="18">
+        <f>'Passenger Vehicle Calculations'!O70</f>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="O6" s="18">
+        <f>'Passenger Vehicle Calculations'!P70</f>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="P6" s="18">
+        <f>'Passenger Vehicle Calculations'!Q70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>'Passenger Vehicle Calculations'!R70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R6" s="18">
+        <f>'Passenger Vehicle Calculations'!S70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="S6" s="18">
+        <f>'Passenger Vehicle Calculations'!T70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="T6" s="18">
+        <f>'Passenger Vehicle Calculations'!U70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="U6" s="18">
+        <f>'Passenger Vehicle Calculations'!V70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="V6" s="18">
+        <f>'Passenger Vehicle Calculations'!W70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="W6" s="18">
+        <f>'Passenger Vehicle Calculations'!X70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="X6" s="18">
+        <f>'Passenger Vehicle Calculations'!Y70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Y6" s="18">
+        <f>'Passenger Vehicle Calculations'!Z70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Z6" s="18">
+        <f>'Passenger Vehicle Calculations'!AA70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AA6" s="18">
+        <f>'Passenger Vehicle Calculations'!AB70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AB6" s="18">
+        <f>'Passenger Vehicle Calculations'!AC70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AC6" s="18">
+        <f>'Passenger Vehicle Calculations'!AD70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AD6" s="18">
+        <f>'Passenger Vehicle Calculations'!AE70</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AE6" s="18">
+        <f>'Passenger Vehicle Calculations'!AF70</f>
+        <v>148.76456017556194</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0</v>
-      </c>
-      <c r="S7" s="19">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19">
-        <v>0</v>
-      </c>
-      <c r="U7" s="19">
-        <v>0</v>
-      </c>
-      <c r="V7" s="19">
-        <v>0</v>
-      </c>
-      <c r="W7" s="19">
-        <v>0</v>
-      </c>
-      <c r="X7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="19">
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -11080,123 +13006,123 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
         <f>D2</f>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="E8" s="19">
+        <v>2129.412735209472</v>
+      </c>
+      <c r="E8" s="18">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="F8" s="19">
+        <v>2025.9480858626696</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="G8" s="19">
+        <v>1302.7046290858618</v>
+      </c>
+      <c r="G8" s="18">
         <f t="shared" si="0"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="H8" s="19">
+        <v>1251.3865088212251</v>
+      </c>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="I8" s="19">
+        <v>1211.2404940011895</v>
+      </c>
+      <c r="I8" s="18">
         <f t="shared" si="0"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="J8" s="19">
+        <v>1207.7766446613491</v>
+      </c>
+      <c r="J8" s="18">
         <f t="shared" si="0"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="K8" s="19">
+        <v>1209.1801647197562</v>
+      </c>
+      <c r="K8" s="18">
         <f t="shared" si="0"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="L8" s="19">
+        <v>1262.2663977861712</v>
+      </c>
+      <c r="L8" s="18">
         <f t="shared" si="0"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="M8" s="19">
+        <v>1313.0283230933701</v>
+      </c>
+      <c r="M8" s="18">
         <f t="shared" si="0"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="N8" s="19">
+        <v>1318.9340515469612</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O8" s="19">
+        <v>157.82432189025366</v>
+      </c>
+      <c r="O8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P8" s="19">
+        <v>153.22749698082879</v>
+      </c>
+      <c r="P8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Q8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="S8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="T8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="U8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="V8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="W8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="X8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Y8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Z8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AA8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AB8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AC8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AD8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="AE8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>148.76456017556194</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB5F82D-4199-462E-956F-98B9574200DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D7EF2-3C86-4E89-8090-35539B011F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58740" yWindow="1140" windowWidth="23910" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35745" yWindow="1065" windowWidth="21660" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6949,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
   <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8616,19 +8616,19 @@
         <v>21</v>
       </c>
       <c r="D47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="8">
         <v>0</v>
@@ -8721,16 +8721,17 @@
         <v>2500</v>
       </c>
       <c r="G50" s="8">
-        <v>3500</v>
+        <f>G30*0.5</f>
+        <v>1750</v>
       </c>
       <c r="H50" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J50" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8754,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8783,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8818,16 +8819,16 @@
         <v>2000</v>
       </c>
       <c r="G53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8880,25 +8881,25 @@
         <v>21</v>
       </c>
       <c r="D55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="E55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="F55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="G55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="H55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="I55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="J55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9199,127 +9200,127 @@
       </c>
       <c r="C66" s="5">
         <f>SUMPRODUCT(D40:D56,$B$40:$B$56)/SUM($B$40:$B$56)*K$79</f>
-        <v>463.29350546214374</v>
+        <v>457.66715073896358</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" ref="D66:I66" si="16">SUMPRODUCT(E40:E56,$B$40:$B$56)/SUM($B$40:$B$56)*L$79</f>
-        <v>221.09557242733794</v>
+        <v>215.72168420258612</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="16"/>
-        <v>194.30618610622579</v>
+        <v>188.02811316670545</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="16"/>
-        <v>255.3303083708262</v>
+        <v>181.15698643889937</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="16"/>
-        <v>251.52892263302851</v>
+        <v>152.76346597230366</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" si="16"/>
-        <v>189.20535092319807</v>
+        <v>96.20855199074947</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" si="16"/>
-        <v>183.69451545941558</v>
+        <v>93.406361156067433</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" ref="J66:R66" si="17">I66*R$79/Q$79</f>
-        <v>178.34418976642291</v>
+        <v>90.685787530162571</v>
       </c>
       <c r="K66" s="5">
         <f t="shared" si="17"/>
-        <v>173.14969880235233</v>
+        <v>88.04445391277919</v>
       </c>
       <c r="L66" s="5">
         <f t="shared" si="17"/>
-        <v>168.10650369160422</v>
+        <v>85.480052342504052</v>
       </c>
       <c r="M66" s="5">
         <f t="shared" si="17"/>
-        <v>163.21019775883906</v>
+        <v>82.990342080101016</v>
       </c>
       <c r="N66" s="5">
         <f t="shared" si="17"/>
-        <v>158.45650267848453</v>
+        <v>80.573147650583522</v>
       </c>
       <c r="O66" s="5">
         <f t="shared" si="17"/>
-        <v>153.8412647363927</v>
+        <v>78.226356942314084</v>
       </c>
       <c r="P66" s="5">
         <f t="shared" si="17"/>
-        <v>149.36045120038131</v>
+        <v>75.947919361469985</v>
       </c>
       <c r="Q66" s="5">
         <f t="shared" si="17"/>
-        <v>145.01014679648668</v>
+        <v>73.735844040262123</v>
       </c>
       <c r="R66" s="5">
         <f t="shared" si="17"/>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="S66" s="5">
         <f t="shared" ref="S66" si="18">R66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="T66" s="5">
         <f t="shared" ref="T66" si="19">S66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="U66" s="5">
         <f t="shared" ref="U66" si="20">T66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="V66" s="5">
         <f t="shared" ref="V66" si="21">U66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="W66" s="5">
         <f t="shared" ref="W66" si="22">V66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="X66" s="5">
         <f t="shared" ref="X66" si="23">W66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Y66" s="5">
         <f t="shared" ref="Y66" si="24">X66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Z66" s="5">
         <f t="shared" ref="Z66" si="25">Y66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AA66" s="5">
         <f t="shared" ref="AA66" si="26">Z66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AB66" s="5">
         <f t="shared" ref="AB66" si="27">AA66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AC66" s="5">
         <f t="shared" ref="AC66" si="28">AB66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AD66" s="5">
         <f t="shared" ref="AD66" si="29">AC66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AE66" s="5">
         <f t="shared" ref="AE66" si="30">AD66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AF66" s="5">
         <f t="shared" ref="AF66" si="31">AE66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AG66" s="5">
         <f t="shared" ref="AG66" si="32">AF66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D7EF2-3C86-4E89-8090-35539B011F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB5F82D-4199-462E-956F-98B9574200DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35745" yWindow="1065" windowWidth="21660" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58740" yWindow="1140" windowWidth="23910" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6949,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
   <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8616,19 +8616,19 @@
         <v>21</v>
       </c>
       <c r="D47" s="8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I47" s="8">
         <v>0</v>
@@ -8721,17 +8721,16 @@
         <v>2500</v>
       </c>
       <c r="G50" s="8">
-        <f>G30*0.5</f>
-        <v>1750</v>
+        <v>3500</v>
       </c>
       <c r="H50" s="8">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I50" s="8">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J50" s="8">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="51" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8755,16 +8754,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="8">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H51" s="8">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I51" s="8">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J51" s="8">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8784,19 +8783,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" s="8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I52" s="8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="J52" s="8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8819,16 +8818,16 @@
         <v>2000</v>
       </c>
       <c r="G53" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H53" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I53" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J53" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8881,25 +8880,25 @@
         <v>21</v>
       </c>
       <c r="D55" s="43">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="E55" s="43">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="F55" s="43">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="G55" s="43">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H55" s="43">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="I55" s="43">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="J55" s="43">
-        <v>1000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9200,127 +9199,127 @@
       </c>
       <c r="C66" s="5">
         <f>SUMPRODUCT(D40:D56,$B$40:$B$56)/SUM($B$40:$B$56)*K$79</f>
-        <v>457.66715073896358</v>
+        <v>463.29350546214374</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" ref="D66:I66" si="16">SUMPRODUCT(E40:E56,$B$40:$B$56)/SUM($B$40:$B$56)*L$79</f>
-        <v>215.72168420258612</v>
+        <v>221.09557242733794</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="16"/>
-        <v>188.02811316670545</v>
+        <v>194.30618610622579</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="16"/>
-        <v>181.15698643889937</v>
+        <v>255.3303083708262</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="16"/>
-        <v>152.76346597230366</v>
+        <v>251.52892263302851</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" si="16"/>
-        <v>96.20855199074947</v>
+        <v>189.20535092319807</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" si="16"/>
-        <v>93.406361156067433</v>
+        <v>183.69451545941558</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" ref="J66:R66" si="17">I66*R$79/Q$79</f>
-        <v>90.685787530162571</v>
+        <v>178.34418976642291</v>
       </c>
       <c r="K66" s="5">
         <f t="shared" si="17"/>
-        <v>88.04445391277919</v>
+        <v>173.14969880235233</v>
       </c>
       <c r="L66" s="5">
         <f t="shared" si="17"/>
-        <v>85.480052342504052</v>
+        <v>168.10650369160422</v>
       </c>
       <c r="M66" s="5">
         <f t="shared" si="17"/>
-        <v>82.990342080101016</v>
+        <v>163.21019775883906</v>
       </c>
       <c r="N66" s="5">
         <f t="shared" si="17"/>
-        <v>80.573147650583522</v>
+        <v>158.45650267848453</v>
       </c>
       <c r="O66" s="5">
         <f t="shared" si="17"/>
-        <v>78.226356942314084</v>
+        <v>153.8412647363927</v>
       </c>
       <c r="P66" s="5">
         <f t="shared" si="17"/>
-        <v>75.947919361469985</v>
+        <v>149.36045120038131</v>
       </c>
       <c r="Q66" s="5">
         <f t="shared" si="17"/>
-        <v>73.735844040262123</v>
+        <v>145.01014679648668</v>
       </c>
       <c r="R66" s="5">
         <f t="shared" si="17"/>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="S66" s="5">
         <f t="shared" ref="S66" si="18">R66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="T66" s="5">
         <f t="shared" ref="T66" si="19">S66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="U66" s="5">
         <f t="shared" ref="U66" si="20">T66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="V66" s="5">
         <f t="shared" ref="V66" si="21">U66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="W66" s="5">
         <f t="shared" ref="W66" si="22">V66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="X66" s="5">
         <f t="shared" ref="X66" si="23">W66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="Y66" s="5">
         <f t="shared" ref="Y66" si="24">X66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="Z66" s="5">
         <f t="shared" ref="Z66" si="25">Y66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="AA66" s="5">
         <f t="shared" ref="AA66" si="26">Z66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="AB66" s="5">
         <f t="shared" ref="AB66" si="27">AA66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="AC66" s="5">
         <f t="shared" ref="AC66" si="28">AB66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="AD66" s="5">
         <f t="shared" ref="AD66" si="29">AC66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="AE66" s="5">
         <f t="shared" ref="AE66" si="30">AD66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="AF66" s="5">
         <f t="shared" ref="AF66" si="31">AE66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
       <c r="AG66" s="5">
         <f t="shared" ref="AG66" si="32">AF66</f>
-        <v>71.588198097341873</v>
+        <v>140.78655028785116</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB5F82D-4199-462E-956F-98B9574200DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C8C8B-8C14-4E6F-8DC9-713862856D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58740" yWindow="1140" windowWidth="23910" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60630" yWindow="2445" windowWidth="23910" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6949,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
   <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8616,19 +8616,19 @@
         <v>21</v>
       </c>
       <c r="D47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="8">
         <v>0</v>
@@ -8721,16 +8721,17 @@
         <v>2500</v>
       </c>
       <c r="G50" s="8">
-        <v>3500</v>
+        <f>G30*0.5</f>
+        <v>1750</v>
       </c>
       <c r="H50" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J50" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8754,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J51" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8783,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8818,16 +8819,16 @@
         <v>2000</v>
       </c>
       <c r="G53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J53" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8880,25 +8881,25 @@
         <v>21</v>
       </c>
       <c r="D55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="E55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="F55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="G55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="H55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="I55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="J55" s="43">
-        <v>2200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9199,127 +9200,127 @@
       </c>
       <c r="C66" s="5">
         <f>SUMPRODUCT(D40:D56,$B$40:$B$56)/SUM($B$40:$B$56)*K$79</f>
-        <v>463.29350546214374</v>
+        <v>457.66715073896358</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" ref="D66:I66" si="16">SUMPRODUCT(E40:E56,$B$40:$B$56)/SUM($B$40:$B$56)*L$79</f>
-        <v>221.09557242733794</v>
+        <v>215.72168420258612</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="16"/>
-        <v>194.30618610622579</v>
+        <v>188.02811316670545</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="16"/>
-        <v>255.3303083708262</v>
+        <v>181.15698643889937</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="16"/>
-        <v>251.52892263302851</v>
+        <v>152.76346597230366</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" si="16"/>
-        <v>189.20535092319807</v>
+        <v>96.20855199074947</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" si="16"/>
-        <v>183.69451545941558</v>
+        <v>93.406361156067433</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" ref="J66:R66" si="17">I66*R$79/Q$79</f>
-        <v>178.34418976642291</v>
+        <v>90.685787530162571</v>
       </c>
       <c r="K66" s="5">
         <f t="shared" si="17"/>
-        <v>173.14969880235233</v>
+        <v>88.04445391277919</v>
       </c>
       <c r="L66" s="5">
         <f t="shared" si="17"/>
-        <v>168.10650369160422</v>
+        <v>85.480052342504052</v>
       </c>
       <c r="M66" s="5">
         <f t="shared" si="17"/>
-        <v>163.21019775883906</v>
+        <v>82.990342080101016</v>
       </c>
       <c r="N66" s="5">
         <f t="shared" si="17"/>
-        <v>158.45650267848453</v>
+        <v>80.573147650583522</v>
       </c>
       <c r="O66" s="5">
         <f t="shared" si="17"/>
-        <v>153.8412647363927</v>
+        <v>78.226356942314084</v>
       </c>
       <c r="P66" s="5">
         <f t="shared" si="17"/>
-        <v>149.36045120038131</v>
+        <v>75.947919361469985</v>
       </c>
       <c r="Q66" s="5">
         <f t="shared" si="17"/>
-        <v>145.01014679648668</v>
+        <v>73.735844040262123</v>
       </c>
       <c r="R66" s="5">
         <f t="shared" si="17"/>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="S66" s="5">
         <f t="shared" ref="S66" si="18">R66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="T66" s="5">
         <f t="shared" ref="T66" si="19">S66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="U66" s="5">
         <f t="shared" ref="U66" si="20">T66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="V66" s="5">
         <f t="shared" ref="V66" si="21">U66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="W66" s="5">
         <f t="shared" ref="W66" si="22">V66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="X66" s="5">
         <f t="shared" ref="X66" si="23">W66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Y66" s="5">
         <f t="shared" ref="Y66" si="24">X66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Z66" s="5">
         <f t="shared" ref="Z66" si="25">Y66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AA66" s="5">
         <f t="shared" ref="AA66" si="26">Z66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AB66" s="5">
         <f t="shared" ref="AB66" si="27">AA66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AC66" s="5">
         <f t="shared" ref="AC66" si="28">AB66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AD66" s="5">
         <f t="shared" ref="AD66" si="29">AC66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AE66" s="5">
         <f t="shared" ref="AE66" si="30">AD66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AF66" s="5">
         <f t="shared" ref="AF66" si="31">AE66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AG66" s="5">
         <f t="shared" ref="AG66" si="32">AF66</f>
-        <v>140.78655028785116</v>
+        <v>71.588198097341873</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
@@ -9425,7 +9426,7 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5">
-        <f t="shared" ref="C69:AF69" si="33">B4+D65</f>
+        <f t="shared" ref="C69:AF70" si="33">B4+D65</f>
         <v>2720.1223686433941</v>
       </c>
       <c r="D69" s="5">
@@ -9550,124 +9551,124 @@
         <v>41</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" ref="C70:AF70" si="34">B5+D65</f>
-        <v>6936.9623686433943</v>
+        <f>B5+D66</f>
+        <v>6868.4416842025867</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="34"/>
-        <v>3848.2668213818774</v>
+        <f t="shared" si="33"/>
+        <v>3805.0781131667054</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="34"/>
-        <v>2129.412735209472</v>
+        <f t="shared" si="33"/>
+        <v>1976.4317864388993</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="34"/>
-        <v>2025.9480858626696</v>
+        <f t="shared" si="33"/>
+        <v>1914.2726659723035</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="34"/>
-        <v>1302.7046290858618</v>
+        <f t="shared" si="33"/>
+        <v>1198.9860519907493</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="34"/>
-        <v>1251.3865088212251</v>
+        <f t="shared" si="33"/>
+        <v>1150.6888611560676</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="34"/>
-        <v>1211.2404940011895</v>
+        <f t="shared" si="33"/>
+        <v>1113.4757875301625</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="34"/>
-        <v>1207.7766446613491</v>
+        <f t="shared" si="33"/>
+        <v>1112.8594539127791</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="34"/>
-        <v>1209.1801647197562</v>
+        <f t="shared" si="33"/>
+        <v>1117.0275523425039</v>
       </c>
       <c r="L70" s="5">
-        <f t="shared" si="34"/>
-        <v>1262.2663977861712</v>
+        <f t="shared" si="33"/>
+        <v>1172.797842080101</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="34"/>
-        <v>1313.0283230933701</v>
+        <f t="shared" si="33"/>
+        <v>1226.1656476505834</v>
       </c>
       <c r="N70" s="5">
-        <f t="shared" si="34"/>
-        <v>1318.9340515469612</v>
+        <f t="shared" si="33"/>
+        <v>1234.6013569423142</v>
       </c>
       <c r="O70" s="5">
-        <f t="shared" si="34"/>
-        <v>157.82432189025366</v>
+        <f t="shared" si="33"/>
+        <v>75.947919361469985</v>
       </c>
       <c r="P70" s="5">
-        <f t="shared" si="34"/>
-        <v>153.22749698082879</v>
+        <f t="shared" si="33"/>
+        <v>73.735844040262123</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="R70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="S70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="T70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="W70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="X70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="Y70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="Z70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="AA70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="AB70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="AD70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="AE70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="AF70" s="5">
-        <f t="shared" si="34"/>
-        <v>148.76456017556194</v>
+        <f t="shared" si="33"/>
+        <v>71.588198097341873</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
@@ -10231,7 +10232,7 @@
         <v>0.03</v>
       </c>
       <c r="G100" s="22">
-        <f t="shared" ref="G100:G109" si="35">D$84/D100</f>
+        <f t="shared" ref="G100:G109" si="34">D$84/D100</f>
         <v>0.68990103306668438</v>
       </c>
     </row>
@@ -10246,7 +10247,7 @@
         <v>0.03</v>
       </c>
       <c r="G101" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.66980682822008197</v>
       </c>
     </row>
@@ -10261,7 +10262,7 @@
         <v>0.03</v>
       </c>
       <c r="G102" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.65029789147580774</v>
       </c>
     </row>
@@ -10276,7 +10277,7 @@
         <v>0.03</v>
       </c>
       <c r="G103" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.63135717619010456</v>
       </c>
     </row>
@@ -10291,7 +10292,7 @@
         <v>0.03</v>
       </c>
       <c r="G104" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.61296813222340252</v>
       </c>
     </row>
@@ -10306,7 +10307,7 @@
         <v>0.03</v>
       </c>
       <c r="G105" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.59511469147903162</v>
       </c>
     </row>
@@ -10321,7 +10322,7 @@
         <v>0.03</v>
       </c>
       <c r="G106" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.57778125386313739</v>
       </c>
     </row>
@@ -10336,7 +10337,7 @@
         <v>0.03</v>
       </c>
       <c r="G107" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.56095267365353152</v>
       </c>
     </row>
@@ -10351,7 +10352,7 @@
         <v>0.03</v>
       </c>
       <c r="G108" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.54461424626556454</v>
       </c>
     </row>
@@ -10366,7 +10367,7 @@
         <v>0.03</v>
       </c>
       <c r="G109" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.52875169540346068</v>
       </c>
     </row>
@@ -12788,123 +12789,123 @@
       </c>
       <c r="B6" s="18">
         <f>'Passenger Vehicle Calculations'!C70</f>
-        <v>6936.9623686433943</v>
+        <v>6868.4416842025867</v>
       </c>
       <c r="C6" s="18">
         <f>'Passenger Vehicle Calculations'!D70</f>
-        <v>3848.2668213818774</v>
+        <v>3805.0781131667054</v>
       </c>
       <c r="D6" s="18">
         <f>'Passenger Vehicle Calculations'!E70</f>
-        <v>2129.412735209472</v>
+        <v>1976.4317864388993</v>
       </c>
       <c r="E6" s="18">
         <f>'Passenger Vehicle Calculations'!F70</f>
-        <v>2025.9480858626696</v>
+        <v>1914.2726659723035</v>
       </c>
       <c r="F6" s="18">
         <f>'Passenger Vehicle Calculations'!G70</f>
-        <v>1302.7046290858618</v>
+        <v>1198.9860519907493</v>
       </c>
       <c r="G6" s="18">
         <f>'Passenger Vehicle Calculations'!H70</f>
-        <v>1251.3865088212251</v>
+        <v>1150.6888611560676</v>
       </c>
       <c r="H6" s="18">
         <f>'Passenger Vehicle Calculations'!I70</f>
-        <v>1211.2404940011895</v>
+        <v>1113.4757875301625</v>
       </c>
       <c r="I6" s="18">
         <f>'Passenger Vehicle Calculations'!J70</f>
-        <v>1207.7766446613491</v>
+        <v>1112.8594539127791</v>
       </c>
       <c r="J6" s="18">
         <f>'Passenger Vehicle Calculations'!K70</f>
-        <v>1209.1801647197562</v>
+        <v>1117.0275523425039</v>
       </c>
       <c r="K6" s="18">
         <f>'Passenger Vehicle Calculations'!L70</f>
-        <v>1262.2663977861712</v>
+        <v>1172.797842080101</v>
       </c>
       <c r="L6" s="18">
         <f>'Passenger Vehicle Calculations'!M70</f>
-        <v>1313.0283230933701</v>
+        <v>1226.1656476505834</v>
       </c>
       <c r="M6" s="18">
         <f>'Passenger Vehicle Calculations'!N70</f>
-        <v>1318.9340515469612</v>
+        <v>1234.6013569423142</v>
       </c>
       <c r="N6" s="18">
         <f>'Passenger Vehicle Calculations'!O70</f>
-        <v>157.82432189025366</v>
+        <v>75.947919361469985</v>
       </c>
       <c r="O6" s="18">
         <f>'Passenger Vehicle Calculations'!P70</f>
-        <v>153.22749698082879</v>
+        <v>73.735844040262123</v>
       </c>
       <c r="P6" s="18">
         <f>'Passenger Vehicle Calculations'!Q70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Q6" s="18">
         <f>'Passenger Vehicle Calculations'!R70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="R6" s="18">
         <f>'Passenger Vehicle Calculations'!S70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="S6" s="18">
         <f>'Passenger Vehicle Calculations'!T70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="T6" s="18">
         <f>'Passenger Vehicle Calculations'!U70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="U6" s="18">
         <f>'Passenger Vehicle Calculations'!V70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="V6" s="18">
         <f>'Passenger Vehicle Calculations'!W70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="W6" s="18">
         <f>'Passenger Vehicle Calculations'!X70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="X6" s="18">
         <f>'Passenger Vehicle Calculations'!Y70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Y6" s="18">
         <f>'Passenger Vehicle Calculations'!Z70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Z6" s="18">
         <f>'Passenger Vehicle Calculations'!AA70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AA6" s="18">
         <f>'Passenger Vehicle Calculations'!AB70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AB6" s="18">
         <f>'Passenger Vehicle Calculations'!AC70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AC6" s="18">
         <f>'Passenger Vehicle Calculations'!AD70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AD6" s="18">
         <f>'Passenger Vehicle Calculations'!AE70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="AE6" s="18">
         <f>'Passenger Vehicle Calculations'!AF70</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C8C8B-8C14-4E6F-8DC9-713862856D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B291C5C-0D68-4026-BF5B-12E51E7484B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60630" yWindow="2445" windowWidth="23910" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,107 +45,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Daniel O'Brien</author>
-    <author>tc={94EC4F1A-4D24-4F44-A34B-386F9FB62127}</author>
-    <author>tc={9DBAEA6F-524D-4D30-93F7-3DE2900676A6}</author>
-  </authors>
-  <commentList>
-    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{DFD8252E-7E14-48C3-89C2-2C7A608E1296}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel O'Brien:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Where data is available, we take the total ev subsidy spend and divide by the total sales of EVs in the state</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{DC8CC06D-E747-4DF6-BAB3-83E7FCB980AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel O'Brien:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-BEV standard rebate reduced to 1500 on 1/1/25
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D31" authorId="1" shapeId="0" xr:uid="{94EC4F1A-4D24-4F44-A34B-386F9FB62127}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Adjust weighting for PA - only first 500 people get it</t>
-      </text>
-    </comment>
-    <comment ref="D51" authorId="2" shapeId="0" xr:uid="{9DBAEA6F-524D-4D30-93F7-3DE2900676A6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Adjust weighting for PA - only first 500 people get it</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
   <si>
     <t>Sources:</t>
   </si>
@@ -186,10 +87,16 @@
     <t>It also omits states that do not offer a rebate but do exempt EVs from sales, use, or excise taxes.</t>
   </si>
   <si>
+    <t>State Rebates + Tax Credits Updated 8/11/2021</t>
+  </si>
+  <si>
     <t>TC</t>
   </si>
   <si>
     <t>https://www.energysage.com/electric-vehicles/costs-and-benefits-evs/ev-tax-credits/</t>
+  </si>
+  <si>
+    <t>Rebates</t>
   </si>
   <si>
     <t>https://www.tesla.com/support/incentives</t>
@@ -213,6 +120,9 @@
     <t>LDV</t>
   </si>
   <si>
+    <t>Note: average of cars and truck subsidies, which are different</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
@@ -223,6 +133,9 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>Subsidy goes up to 2000 based on battery</t>
   </si>
   <si>
     <t>TX</t>
@@ -253,6 +166,9 @@
   </si>
   <si>
     <t>VT</t>
+  </si>
+  <si>
+    <t>Note: Up to 4000</t>
   </si>
   <si>
     <t>Rest of country</t>
@@ -395,154 +311,20 @@
   <si>
     <t>We assume a 56% cut in our original analysis to represent FEOC restrictions for the year 2024, based on BNEF data. We assume more restrictive guidance starting in 2025 will reduce the credit amount by 75%.</t>
   </si>
-  <si>
-    <t>Future Inflation Assumption</t>
-  </si>
-  <si>
-    <t>US average share of EVs leased vs purchased</t>
-  </si>
-  <si>
-    <t>https://www.experian.com/blogs/ask-experian/electric-vehicle-trends/</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>https://tax.colorado.gov/sites/tax/files/documents/ITT_Innovative_Motor_Vehicle_Credit_Feb_2024.pdf</t>
-  </si>
-  <si>
-    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Rebate-Stats</t>
-  </si>
-  <si>
-    <t>https://cleanvehiclerebate.org/en/rebate-statistics</t>
-  </si>
-  <si>
-    <t>Note: value was previously 1500 but after digging I don’t believe LA has ever had a state tax credit</t>
-  </si>
-  <si>
-    <t>suspended all ev rebate programs starting in 2024</t>
-  </si>
-  <si>
-    <t>no longer funds program</t>
-  </si>
-  <si>
-    <t>Note; renewed on annual basis, only for first 500</t>
-  </si>
-  <si>
-    <t>up to 4k if low income</t>
-  </si>
-  <si>
-    <t>up to 3.2k if low income</t>
-  </si>
-  <si>
-    <t>From BLS CPI tables</t>
-  </si>
-  <si>
-    <t>Inflation adjuster</t>
-  </si>
-  <si>
-    <t>2012............................................................................. .</t>
-  </si>
-  <si>
-    <t>2013............................................................................. .</t>
-  </si>
-  <si>
-    <t>2014............................................................................. .</t>
-  </si>
-  <si>
-    <t>2015............................................................................. .</t>
-  </si>
-  <si>
-    <t>2016............................................................................. .</t>
-  </si>
-  <si>
-    <t>2017............................................................................. .</t>
-  </si>
-  <si>
-    <t>2018............................................................................. .</t>
-  </si>
-  <si>
-    <t>2019............................................................................. .</t>
-  </si>
-  <si>
-    <t>2020............................................................................. .</t>
-  </si>
-  <si>
-    <t>2021............................................................................. .</t>
-  </si>
-  <si>
-    <t>2022............................................................................. .</t>
-  </si>
-  <si>
-    <t>2023............................................................................. .</t>
-  </si>
-  <si>
-    <t>2024............................................................................. .</t>
-  </si>
-  <si>
-    <t>assumed fwd inflation</t>
-  </si>
-  <si>
-    <t>Inflation Historical Data and Assumptions</t>
-  </si>
-  <si>
-    <t>PHEV Subsidies</t>
-  </si>
-  <si>
-    <t>BEV</t>
-  </si>
-  <si>
-    <t>PHEV</t>
-  </si>
-  <si>
-    <t>State Rebates + Tax Credits Updated 1/30/25</t>
-  </si>
-  <si>
-    <t>https://data.delaware.gov/Energy-and-Environment/State-Rebates-for-Alternative-Fuel-Vehicles/8z8z-di7f/explore</t>
-  </si>
-  <si>
-    <t>BEV Subsidies</t>
-  </si>
-  <si>
-    <t>https://www.energy.ca.gov/data-reports/energy-almanac/zero-emission-vehicle-and-infrastructure-statistics-collection/new-zev</t>
-  </si>
-  <si>
-    <t>data 1</t>
-  </si>
-  <si>
-    <t>data 2</t>
-  </si>
-  <si>
-    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Map-of-EV-Registrations</t>
-  </si>
-  <si>
-    <t>https://portal.ct.gov/ceq/ar-23-gold/2023-ceq-annual-report-ebook/personal-impact---waste-diversion/transportation</t>
-  </si>
-  <si>
-    <t>https://evrebate.oregon.gov/rebate-statistics</t>
-  </si>
-  <si>
-    <t>https://www.oregon.gov/energy/Data-and-Reports/Pages/Oregon-Electric-Vehicle-Dashboard.aspx</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="m\-d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,21 +450,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,30 +468,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -846,7 +591,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -862,6 +607,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -883,11 +629,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="31" applyFont="1"/>
@@ -902,18 +648,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="31" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="31" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -973,10 +708,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4826000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123093</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474705</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -999,8 +734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1809751"/>
-          <a:ext cx="4829175" cy="3377467"/>
+          <a:off x="609600" y="1841501"/>
+          <a:ext cx="6532605" cy="4648200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1010,12 +745,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Olivia Ashmoore" id="{157D1DBA-3E37-421C-B718-F98423D1625B}" userId="S::olivia@energyinnovation.org::75aa6550-3462-4480-900f-0bd2e542e876" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,23 +1032,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D31" dT="2025-01-24T19:38:54.68" personId="{157D1DBA-3E37-421C-B718-F98423D1625B}" id="{94EC4F1A-4D24-4F44-A34B-386F9FB62127}">
-    <text>Adjust weighting for PA - only first 500 people get it</text>
-  </threadedComment>
-  <threadedComment ref="D51" dT="2025-01-24T19:38:54.68" personId="{157D1DBA-3E37-421C-B718-F98423D1625B}" id="{9DBAEA6F-524D-4D30-93F7-3DE2900676A6}">
-    <text>Adjust weighting for PA - only first 500 people get it</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1336,13 +1054,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>45</v>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1352,20 +1070,20 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
-        <v>80</v>
+      <c r="B8" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1382,16 +1100,6 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="36">
-        <v>0.03</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6946,11 +6654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AG109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
+  <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6962,12 +6670,12 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -7064,7 +6772,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>2435.88</v>
@@ -7077,7 +6785,7 @@
         <v>1795.2747999999999</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4" si="0">E9*(1-0.56)</f>
+        <f t="shared" ref="E4:M4" si="0">E9*(1-0.56)</f>
         <v>1761.5091999999997</v>
       </c>
       <c r="F4">
@@ -7169,7 +6877,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>6652.72</v>
@@ -7182,7 +6890,7 @@
         <v>1795.2747999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5" si="2">E10*(1-0.56)</f>
+        <f t="shared" ref="E5:M5" si="2">E10*(1-0.56)</f>
         <v>1761.5091999999997</v>
       </c>
       <c r="F5">
@@ -7277,7 +6985,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -7374,7 +7082,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>2435.88</v>
@@ -7469,7 +7177,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>6652.72</v>
@@ -7582,43 +7290,43 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>120</v>
+      <c r="A17" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8">
         <v>2020</v>
@@ -7647,198 +7355,156 @@
         <f t="shared" si="4"/>
         <v>2026</v>
       </c>
-      <c r="K19" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="37">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
         <v>5.6849999999999996</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="38">
-        <f>2000*D76+4000*(1-D76)</f>
-        <v>3506.6</v>
-      </c>
-      <c r="E20" s="38">
-        <f>1500*E76+2500*(1-E76)</f>
-        <v>2190.8000000000002</v>
-      </c>
-      <c r="F20" s="38">
-        <f>1500*F76+2500*(1-F76)</f>
-        <v>2359</v>
-      </c>
-      <c r="G20" s="38">
-        <f>0.5*(1500*G76+2500*(1-G76))+0.5*(5000)</f>
-        <v>3641.35</v>
-      </c>
-      <c r="H20" s="38">
-        <v>5000</v>
-      </c>
-      <c r="I20" s="38">
-        <v>3500</v>
-      </c>
-      <c r="J20" s="38">
-        <f>I20</f>
-        <v>3500</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>89</v>
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4750</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4750</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="37">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
         <v>3.5710000000000002</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="38">
-        <f>613500/(7880-5480)</f>
-        <v>255.625</v>
-      </c>
-      <c r="E21" s="38">
-        <f>1079750/(12513-7880)</f>
-        <v>233.05633498812864</v>
-      </c>
-      <c r="F21" s="38">
-        <f>1468250/(18509-12513)</f>
-        <v>244.87158105403603</v>
-      </c>
-      <c r="G21" s="38">
-        <f>7744000/(27709-18509)</f>
-        <v>841.73913043478262</v>
-      </c>
-      <c r="H21" s="38">
-        <f>11982750/(27146*27709/44313)</f>
-        <v>705.92888732943345</v>
-      </c>
-      <c r="I21" s="38">
-        <f>H21*1500/2250</f>
-        <v>470.61925821962228</v>
-      </c>
-      <c r="J21" s="38">
-        <f>I21</f>
-        <v>470.61925821962228</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" t="s">
-        <v>125</v>
-      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2250</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2250</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2250</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2250</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2250</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2250</v>
+      </c>
+      <c r="J21" s="8">
+        <v>2250</v>
+      </c>
+      <c r="K21" s="8"/>
       <c r="R21" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8">
         <v>0.96799999999999997</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="42">
-        <f>852000/311</f>
-        <v>2739.5498392282957</v>
-      </c>
-      <c r="E22" s="42">
-        <f>2500</f>
+        <v>23</v>
+      </c>
+      <c r="D22" s="8">
         <v>2500</v>
       </c>
-      <c r="F22" s="42">
-        <f>2500</f>
+      <c r="E22" s="8">
         <v>2500</v>
       </c>
-      <c r="G22" s="42">
-        <f>2500</f>
+      <c r="F22" s="8">
         <v>2500</v>
       </c>
-      <c r="H22" s="42">
-        <f>2500</f>
+      <c r="G22" s="8">
         <v>2500</v>
       </c>
-      <c r="I22" s="42">
-        <f>2500</f>
+      <c r="H22" s="8">
         <v>2500</v>
       </c>
-      <c r="J22" s="42">
-        <f>2500</f>
+      <c r="I22" s="8">
         <v>2500</v>
       </c>
-      <c r="K22" t="s">
-        <v>119</v>
+      <c r="J22" s="8">
+        <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8">
         <v>8.3800000000000008</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="42">
-        <f>17436700/10692</f>
-        <v>1630.8174335952115</v>
-      </c>
-      <c r="E23" s="42">
-        <f>18953100/20836</f>
-        <v>909.63236705701672</v>
-      </c>
-      <c r="F23" s="42">
-        <f>16215000/28241</f>
-        <v>574.16522077830109</v>
-      </c>
-      <c r="G23" s="42">
-        <f>26945500/48746</f>
-        <v>552.77356090756166</v>
-      </c>
-      <c r="H23" s="42">
-        <f>19221500/54664</f>
-        <v>351.62995755890529</v>
-      </c>
-      <c r="I23" s="42">
-        <f>H23</f>
-        <v>351.62995755890529</v>
-      </c>
-      <c r="J23" s="42">
-        <f>I23</f>
-        <v>351.62995755890529</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2000</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M23" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
         <v>28.64</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24" s="8">
         <v>2500</v>
@@ -7862,100 +7528,83 @@
         <v>0</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8">
         <v>39.35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="42">
-        <f>80255483/(100377+5569)</f>
-        <v>757.51310101372394</v>
-      </c>
-      <c r="E25" s="42">
-        <f>103494583/(152400+7866)</f>
-        <v>645.76755518949744</v>
-      </c>
-      <c r="F25" s="42">
-        <f>88529166/(256315+5761)</f>
-        <v>337.79959248462279</v>
-      </c>
-      <c r="G25" s="42">
-        <f>310602850/(371002+3666)</f>
-        <v>829.00821527325525</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2500</v>
       </c>
       <c r="H25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M25" s="11"/>
+        <v>2500</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
         <v>4.665</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7">
+        <v>23</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8">
         <v>1.341</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>21</v>
+      <c r="C27" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
@@ -7973,34 +7622,30 @@
         <v>2000</v>
       </c>
       <c r="I27" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R27" s="12"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="7">
-        <v>5.7169999999999996</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>21</v>
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E28" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F28" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G28" s="8">
         <v>2500</v>
@@ -8009,24 +7654,21 @@
         <v>2500</v>
       </c>
       <c r="I28" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>94</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="7">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>21</v>
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="8">
         <v>2500</v>
@@ -8038,2338 +7680,770 @@
         <v>2500</v>
       </c>
       <c r="G29" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H29" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="I29" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J29" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="7">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>21</v>
+      <c r="A30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="8">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="8">
         <v>2500</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>2500</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>2500</v>
       </c>
-      <c r="G30" s="8">
-        <v>3500</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3500</v>
-      </c>
-      <c r="I30" s="8">
-        <v>3500</v>
-      </c>
-      <c r="J30" s="8">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="7">
-        <f>500/10^6</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
       <c r="G31" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H31" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="I31" s="8">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J31" s="8">
-        <v>3000</v>
-      </c>
-      <c r="K31" t="s">
-        <v>95</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>21</v>
+      <c r="A32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="8">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E32" s="8">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="8">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="8">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="H32" s="8">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="I32" s="8">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="7">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="8">
+        <f>B34-SUM(B20:B32)</f>
+        <v>210.304</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G33" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J33" s="8">
-        <v>2000</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="7">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="42">
-        <f>9294500/3753</f>
-        <v>2476.5520916600053</v>
-      </c>
-      <c r="E34" s="42">
-        <f>14303500/7764</f>
-        <v>1842.284904688305</v>
-      </c>
-      <c r="F34" s="42">
-        <f>19442500/12379</f>
-        <v>1570.6034413118991</v>
-      </c>
-      <c r="G34" s="42">
-        <f>13295000/19790</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="H34" s="42">
-        <f>G34</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="I34" s="42">
-        <f>H34</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="J34" s="42">
-        <f>I34</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="K34" t="s">
-        <v>126</v>
-      </c>
-      <c r="L34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.624</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="43">
-        <v>2200</v>
-      </c>
-      <c r="E35" s="43">
-        <v>2200</v>
-      </c>
-      <c r="F35" s="43">
-        <v>2200</v>
-      </c>
-      <c r="G35" s="43">
-        <v>2200</v>
-      </c>
-      <c r="H35" s="43">
-        <v>2200</v>
-      </c>
-      <c r="I35" s="43">
-        <v>2200</v>
-      </c>
-      <c r="J35" s="43">
-        <v>2200</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="8">
-        <f>B37-SUM(B20:B35)</f>
-        <v>203.49250000000001</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="8">
         <v>329.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" ref="E39" si="5">D39+1</f>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C41">
         <v>2021</v>
       </c>
-      <c r="F39" s="8">
-        <f t="shared" ref="F39" si="6">E39+1</f>
+      <c r="D41">
         <v>2022</v>
       </c>
-      <c r="G39" s="8">
-        <f t="shared" ref="G39" si="7">F39+1</f>
+      <c r="E41">
         <v>2023</v>
       </c>
-      <c r="H39" s="8">
-        <f t="shared" ref="H39" si="8">G39+1</f>
+      <c r="F41">
         <v>2024</v>
       </c>
-      <c r="I39" s="8">
-        <f t="shared" ref="I39" si="9">H39+1</f>
+      <c r="G41">
         <v>2025</v>
       </c>
-      <c r="J39" s="8">
-        <f t="shared" ref="J39" si="10">I39+1</f>
+      <c r="H41">
         <v>2026</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="37">
-        <v>5.6849999999999996</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="38">
-        <f>D20</f>
-        <v>3506.6</v>
-      </c>
-      <c r="E40" s="38">
-        <f t="shared" ref="E40:J40" si="11">E20</f>
-        <v>2190.8000000000002</v>
-      </c>
-      <c r="F40" s="38">
-        <f t="shared" si="11"/>
-        <v>2359</v>
-      </c>
-      <c r="G40" s="38">
-        <f t="shared" si="11"/>
-        <v>3641.35</v>
-      </c>
-      <c r="H40" s="38">
-        <f t="shared" si="11"/>
-        <v>5000</v>
-      </c>
-      <c r="I40" s="38">
-        <f t="shared" si="11"/>
-        <v>3500</v>
-      </c>
-      <c r="J40" s="38">
-        <f t="shared" si="11"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="37">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="38">
-        <f>128000/255</f>
-        <v>501.96078431372547</v>
-      </c>
-      <c r="E41" s="38">
-        <f>537750/(8827-5893)</f>
-        <v>183.28220858895705</v>
-      </c>
-      <c r="F41" s="38">
-        <f>412000/(11615-8827)</f>
-        <v>147.77618364418939</v>
-      </c>
-      <c r="G41" s="38">
-        <f>512500/(16517-11615)</f>
-        <v>104.54916360669115</v>
-      </c>
-      <c r="H41" s="38">
-        <f>685000/(27146*16517/44313)</f>
-        <v>67.69938302941182</v>
-      </c>
-      <c r="I41" s="38">
-        <f>H41</f>
-        <v>67.69938302941182</v>
-      </c>
-      <c r="J41" s="38">
-        <f t="shared" ref="J41" si="12">I41</f>
-        <v>67.69938302941182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="8">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="42">
-        <f>104500/97</f>
-        <v>1077.319587628866</v>
-      </c>
-      <c r="E42" s="42">
-        <v>1000</v>
-      </c>
-      <c r="F42" s="42">
-        <v>1000</v>
-      </c>
-      <c r="G42" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="42">
-        <v>1000</v>
-      </c>
-      <c r="I42" s="42">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="8">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="42">
-        <f>4684500/6464</f>
-        <v>724.7060643564356</v>
-      </c>
-      <c r="E43" s="42">
-        <f>9996000/14360</f>
-        <v>696.10027855153203</v>
-      </c>
-      <c r="F43" s="42">
-        <f>5049700/14312</f>
-        <v>352.82979318054777</v>
-      </c>
-      <c r="G43" s="42">
-        <f>8627000/30164</f>
-        <v>286.00318260177693</v>
-      </c>
-      <c r="H43" s="42">
-        <f>7694000/35557</f>
-        <v>216.38495936102595</v>
-      </c>
-      <c r="I43" s="42">
-        <f>H43</f>
-        <v>216.38495936102595</v>
-      </c>
-      <c r="J43" s="42">
-        <f>I43</f>
-        <v>216.38495936102595</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="8">
-        <v>28.64</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="8">
-        <v>39.35</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="42">
-        <f>12007419/38153</f>
-        <v>314.71755825229997</v>
-      </c>
-      <c r="E45" s="42">
-        <f>10067604/53090</f>
-        <v>189.6327745338105</v>
-      </c>
-      <c r="F45" s="42">
-        <f>3681500/(43689)</f>
-        <v>84.266062395568682</v>
-      </c>
-      <c r="G45" s="42">
-        <f>8757316/(63496)</f>
-        <v>137.9191760110873</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0</v>
-      </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="8">
-        <v>4.665</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="13">
-        <v>0</v>
-      </c>
-      <c r="E46" s="13">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
-        <v>0</v>
-      </c>
-      <c r="J46" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="7">
-        <v>1.341</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G47" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H47" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="7">
-        <v>5.7169999999999996</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H48" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="7">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E49" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F49" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="J49" s="8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="7">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E50" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F50" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G50" s="8">
-        <f>G30*0.5</f>
-        <v>1750</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="7">
-        <f>500/10^6</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H51" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I51" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J51" s="8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="7">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G52" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I52" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="7">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E53" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F53" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0</v>
-      </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="7">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="8">
-        <f>1843000/1494</f>
-        <v>1233.6010709504685</v>
-      </c>
-      <c r="E54" s="8">
-        <f>4828500/4476</f>
-        <v>1078.7533512064342</v>
-      </c>
-      <c r="F54" s="8">
-        <f>5495500/4897</f>
-        <v>1122.217684296508</v>
-      </c>
-      <c r="G54" s="42">
-        <f>2876000/6464</f>
-        <v>444.92574257425741</v>
-      </c>
-      <c r="H54" s="42">
-        <f>G54</f>
-        <v>444.92574257425741</v>
-      </c>
-      <c r="I54" s="42">
-        <f>H54</f>
-        <v>444.92574257425741</v>
-      </c>
-      <c r="J54" s="42">
-        <f>I54</f>
-        <v>444.92574257425741</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="7">
-        <v>0.624</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="43">
-        <v>1000</v>
-      </c>
-      <c r="E55" s="43">
-        <v>1000</v>
-      </c>
-      <c r="F55" s="43">
-        <v>1000</v>
-      </c>
-      <c r="G55" s="43">
-        <v>1000</v>
-      </c>
-      <c r="H55" s="43">
-        <v>1000</v>
-      </c>
-      <c r="I55" s="43">
-        <v>1000</v>
-      </c>
-      <c r="J55" s="43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="8">
-        <f>B57-SUM(B40:B55)</f>
-        <v>203.49250000000001</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="8">
-        <v>329.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+      <c r="I41">
+        <v>2027</v>
+      </c>
+      <c r="J41">
+        <v>2028</v>
+      </c>
+      <c r="K41">
+        <v>2029</v>
+      </c>
+      <c r="L41">
+        <v>2030</v>
+      </c>
+      <c r="M41">
+        <v>2031</v>
+      </c>
+      <c r="N41">
+        <v>2032</v>
+      </c>
+      <c r="O41">
+        <v>2033</v>
+      </c>
+      <c r="P41">
+        <v>2034</v>
+      </c>
+      <c r="Q41">
+        <v>2035</v>
+      </c>
+      <c r="R41">
+        <v>2036</v>
+      </c>
+      <c r="S41">
+        <v>2037</v>
+      </c>
+      <c r="T41">
+        <v>2038</v>
+      </c>
+      <c r="U41">
+        <v>2039</v>
+      </c>
+      <c r="V41">
+        <v>2040</v>
+      </c>
+      <c r="W41">
+        <v>2041</v>
+      </c>
+      <c r="X41">
+        <v>2042</v>
+      </c>
+      <c r="Y41">
+        <v>2043</v>
+      </c>
+      <c r="Z41">
+        <v>2044</v>
+      </c>
+      <c r="AA41">
+        <v>2045</v>
+      </c>
+      <c r="AB41">
+        <v>2046</v>
+      </c>
+      <c r="AC41">
+        <v>2047</v>
+      </c>
+      <c r="AD41">
+        <v>2048</v>
+      </c>
+      <c r="AE41">
+        <v>2049</v>
+      </c>
+      <c r="AF41">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C42" s="5">
+        <f t="shared" ref="C42:H42" si="5">SUMPRODUCT(E20:E33,$B$20:$B$33)/SUM($B$20:$B$33)*$B$38</f>
+        <v>600.15334597875574</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="5"/>
+        <v>576.45146813353574</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="5"/>
+        <v>576.45146813353574</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="5"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="I42" s="5">
+        <f>H42</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" ref="J42:AF42" si="6">I42</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF42" s="5">
+        <f t="shared" si="6"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="22">
-        <v>0.88711067149387013</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C64">
-        <v>2020</v>
-      </c>
-      <c r="D64">
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C45">
         <v>2021</v>
       </c>
-      <c r="E64">
+      <c r="D45">
         <v>2022</v>
       </c>
-      <c r="F64">
+      <c r="E45">
         <v>2023</v>
       </c>
-      <c r="G64">
+      <c r="F45">
         <v>2024</v>
       </c>
-      <c r="H64">
+      <c r="G45">
         <v>2025</v>
       </c>
-      <c r="I64">
+      <c r="H45">
         <v>2026</v>
       </c>
-      <c r="J64">
+      <c r="I45">
         <v>2027</v>
       </c>
-      <c r="K64">
+      <c r="J45">
         <v>2028</v>
       </c>
-      <c r="L64">
+      <c r="K45">
         <v>2029</v>
       </c>
-      <c r="M64">
+      <c r="L45">
         <v>2030</v>
       </c>
-      <c r="N64">
+      <c r="M45">
         <v>2031</v>
       </c>
-      <c r="O64">
+      <c r="N45">
         <v>2032</v>
       </c>
-      <c r="P64">
+      <c r="O45">
         <v>2033</v>
       </c>
-      <c r="Q64">
+      <c r="P45">
         <v>2034</v>
       </c>
-      <c r="R64">
+      <c r="Q45">
         <v>2035</v>
       </c>
-      <c r="S64">
+      <c r="R45">
         <v>2036</v>
       </c>
-      <c r="T64">
+      <c r="S45">
         <v>2037</v>
       </c>
-      <c r="U64">
+      <c r="T45">
         <v>2038</v>
       </c>
-      <c r="V64">
+      <c r="U45">
         <v>2039</v>
       </c>
-      <c r="W64">
+      <c r="V45">
         <v>2040</v>
       </c>
-      <c r="X64">
+      <c r="W45">
         <v>2041</v>
       </c>
-      <c r="Y64">
+      <c r="X45">
         <v>2042</v>
       </c>
-      <c r="Z64">
+      <c r="Y45">
         <v>2043</v>
       </c>
-      <c r="AA64">
+      <c r="Z45">
         <v>2044</v>
       </c>
-      <c r="AB64">
+      <c r="AA45">
         <v>2045</v>
       </c>
-      <c r="AC64">
+      <c r="AB45">
         <v>2046</v>
       </c>
-      <c r="AD64">
+      <c r="AC45">
         <v>2047</v>
       </c>
-      <c r="AE64">
+      <c r="AD45">
         <v>2048</v>
       </c>
-      <c r="AF64">
+      <c r="AE45">
         <v>2049</v>
       </c>
-      <c r="AG64">
+      <c r="AF45">
         <v>2050</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="5">
-        <f t="shared" ref="C65:I65" si="13">SUMPRODUCT(D20:D36,$B$20:$B$36)/SUM($B$20:$B$36)*K$79</f>
-        <v>546.58540370871401</v>
-      </c>
-      <c r="D65" s="5">
-        <f t="shared" si="13"/>
-        <v>284.24236864339406</v>
-      </c>
-      <c r="E65" s="5">
-        <f t="shared" si="13"/>
-        <v>231.21682138187734</v>
-      </c>
-      <c r="F65" s="5">
-        <f t="shared" si="13"/>
-        <v>334.13793520947195</v>
-      </c>
-      <c r="G65" s="5">
-        <f t="shared" si="13"/>
-        <v>264.43888586266991</v>
-      </c>
-      <c r="H65" s="5">
-        <f t="shared" si="13"/>
-        <v>199.92712908586196</v>
-      </c>
-      <c r="I65" s="5">
-        <f t="shared" si="13"/>
-        <v>194.10400882122519</v>
-      </c>
-      <c r="J65" s="5">
-        <f>I65*R$79/Q$79</f>
-        <v>188.4504940011895</v>
-      </c>
-      <c r="K65" s="5">
-        <f t="shared" ref="K65:R65" si="14">J65*S$79/R$79</f>
-        <v>182.96164466134903</v>
-      </c>
-      <c r="L65" s="5">
-        <f t="shared" si="14"/>
-        <v>177.63266471975632</v>
-      </c>
-      <c r="M65" s="5">
-        <f t="shared" si="14"/>
-        <v>172.45889778617118</v>
-      </c>
-      <c r="N65" s="5">
-        <f t="shared" si="14"/>
-        <v>167.43582309337009</v>
-      </c>
-      <c r="O65" s="5">
-        <f t="shared" si="14"/>
-        <v>162.55905154696123</v>
-      </c>
-      <c r="P65" s="5">
-        <f t="shared" si="14"/>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="Q65" s="5">
-        <f t="shared" si="14"/>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="R65" s="5">
-        <f t="shared" si="14"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="S65" s="5">
-        <f t="shared" ref="S65:AG65" si="15">R65</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="T65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="U65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="V65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="W65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="X65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Y65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Z65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AA65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AB65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AC65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AD65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AE65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AF65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AG65" s="5">
-        <f t="shared" si="15"/>
-        <v>148.76456017556194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="5">
-        <f>SUMPRODUCT(D40:D56,$B$40:$B$56)/SUM($B$40:$B$56)*K$79</f>
-        <v>457.66715073896358</v>
-      </c>
-      <c r="D66" s="5">
-        <f t="shared" ref="D66:I66" si="16">SUMPRODUCT(E40:E56,$B$40:$B$56)/SUM($B$40:$B$56)*L$79</f>
-        <v>215.72168420258612</v>
-      </c>
-      <c r="E66" s="5">
-        <f t="shared" si="16"/>
-        <v>188.02811316670545</v>
-      </c>
-      <c r="F66" s="5">
-        <f t="shared" si="16"/>
-        <v>181.15698643889937</v>
-      </c>
-      <c r="G66" s="5">
-        <f t="shared" si="16"/>
-        <v>152.76346597230366</v>
-      </c>
-      <c r="H66" s="5">
-        <f t="shared" si="16"/>
-        <v>96.20855199074947</v>
-      </c>
-      <c r="I66" s="5">
-        <f t="shared" si="16"/>
-        <v>93.406361156067433</v>
-      </c>
-      <c r="J66" s="5">
-        <f t="shared" ref="J66:R66" si="17">I66*R$79/Q$79</f>
-        <v>90.685787530162571</v>
-      </c>
-      <c r="K66" s="5">
-        <f t="shared" si="17"/>
-        <v>88.04445391277919</v>
-      </c>
-      <c r="L66" s="5">
-        <f t="shared" si="17"/>
-        <v>85.480052342504052</v>
-      </c>
-      <c r="M66" s="5">
-        <f t="shared" si="17"/>
-        <v>82.990342080101016</v>
-      </c>
-      <c r="N66" s="5">
-        <f t="shared" si="17"/>
-        <v>80.573147650583522</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="17"/>
-        <v>78.226356942314084</v>
-      </c>
-      <c r="P66" s="5">
-        <f t="shared" si="17"/>
-        <v>75.947919361469985</v>
-      </c>
-      <c r="Q66" s="5">
-        <f t="shared" si="17"/>
-        <v>73.735844040262123</v>
-      </c>
-      <c r="R66" s="5">
-        <f t="shared" si="17"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="S66" s="5">
-        <f t="shared" ref="S66" si="18">R66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="T66" s="5">
-        <f t="shared" ref="T66" si="19">S66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="U66" s="5">
-        <f t="shared" ref="U66" si="20">T66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="V66" s="5">
-        <f t="shared" ref="V66" si="21">U66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="W66" s="5">
-        <f t="shared" ref="W66" si="22">V66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="X66" s="5">
-        <f t="shared" ref="X66" si="23">W66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Y66" s="5">
-        <f t="shared" ref="Y66" si="24">X66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Z66" s="5">
-        <f t="shared" ref="Z66" si="25">Y66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AA66" s="5">
-        <f t="shared" ref="AA66" si="26">Z66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AB66" s="5">
-        <f t="shared" ref="AB66" si="27">AA66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AC66" s="5">
-        <f t="shared" ref="AC66" si="28">AB66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AD66" s="5">
-        <f t="shared" ref="AD66" si="29">AC66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AE66" s="5">
-        <f t="shared" ref="AE66" si="30">AD66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AF66" s="5">
-        <f t="shared" ref="AF66" si="31">AE66</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AG66" s="5">
-        <f t="shared" ref="AG66" si="32">AF66</f>
-        <v>71.588198097341873</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C68">
-        <v>2021</v>
-      </c>
-      <c r="D68">
-        <v>2022</v>
-      </c>
-      <c r="E68">
-        <v>2023</v>
-      </c>
-      <c r="F68">
-        <v>2024</v>
-      </c>
-      <c r="G68">
-        <v>2025</v>
-      </c>
-      <c r="H68">
-        <v>2026</v>
-      </c>
-      <c r="I68">
-        <v>2027</v>
-      </c>
-      <c r="J68">
-        <v>2028</v>
-      </c>
-      <c r="K68">
-        <v>2029</v>
-      </c>
-      <c r="L68">
-        <v>2030</v>
-      </c>
-      <c r="M68">
-        <v>2031</v>
-      </c>
-      <c r="N68">
-        <v>2032</v>
-      </c>
-      <c r="O68">
-        <v>2033</v>
-      </c>
-      <c r="P68">
-        <v>2034</v>
-      </c>
-      <c r="Q68">
-        <v>2035</v>
-      </c>
-      <c r="R68">
-        <v>2036</v>
-      </c>
-      <c r="S68">
-        <v>2037</v>
-      </c>
-      <c r="T68">
-        <v>2038</v>
-      </c>
-      <c r="U68">
-        <v>2039</v>
-      </c>
-      <c r="V68">
-        <v>2040</v>
-      </c>
-      <c r="W68">
-        <v>2041</v>
-      </c>
-      <c r="X68">
-        <v>2042</v>
-      </c>
-      <c r="Y68">
-        <v>2043</v>
-      </c>
-      <c r="Z68">
-        <v>2044</v>
-      </c>
-      <c r="AA68">
-        <v>2045</v>
-      </c>
-      <c r="AB68">
-        <v>2046</v>
-      </c>
-      <c r="AC68">
-        <v>2047</v>
-      </c>
-      <c r="AD68">
-        <v>2048</v>
-      </c>
-      <c r="AE68">
-        <v>2049</v>
-      </c>
-      <c r="AF68">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5">
-        <f t="shared" ref="C69:AF70" si="33">B4+D65</f>
-        <v>2720.1223686433941</v>
-      </c>
-      <c r="D69" s="5">
-        <f t="shared" si="33"/>
-        <v>1928.2968213818772</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" si="33"/>
-        <v>2129.412735209472</v>
-      </c>
-      <c r="F69" s="5">
-        <f t="shared" si="33"/>
-        <v>2025.9480858626696</v>
-      </c>
-      <c r="G69" s="5">
-        <f t="shared" si="33"/>
-        <v>1302.7046290858618</v>
-      </c>
-      <c r="H69" s="5">
-        <f t="shared" si="33"/>
-        <v>1251.3865088212251</v>
-      </c>
-      <c r="I69" s="5">
-        <f t="shared" si="33"/>
-        <v>1211.2404940011895</v>
-      </c>
-      <c r="J69" s="5">
-        <f t="shared" si="33"/>
-        <v>1207.7766446613491</v>
-      </c>
-      <c r="K69" s="5">
-        <f t="shared" si="33"/>
-        <v>1209.1801647197562</v>
-      </c>
-      <c r="L69" s="5">
-        <f t="shared" si="33"/>
-        <v>1262.2663977861712</v>
-      </c>
-      <c r="M69" s="5">
-        <f t="shared" si="33"/>
-        <v>1313.0283230933701</v>
-      </c>
-      <c r="N69" s="5">
-        <f t="shared" si="33"/>
-        <v>1318.9340515469612</v>
-      </c>
-      <c r="O69" s="5">
-        <f t="shared" si="33"/>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="P69" s="5">
-        <f t="shared" si="33"/>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="Q69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="R69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="S69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="T69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="U69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="V69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="W69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="X69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Y69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Z69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AA69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AB69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AC69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AD69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AE69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AF69" s="5">
-        <f t="shared" si="33"/>
-        <v>148.76456017556194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="5">
-        <f>B5+D66</f>
-        <v>6868.4416842025867</v>
-      </c>
-      <c r="D70" s="5">
-        <f t="shared" si="33"/>
-        <v>3805.0781131667054</v>
-      </c>
-      <c r="E70" s="5">
-        <f t="shared" si="33"/>
-        <v>1976.4317864388993</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" si="33"/>
-        <v>1914.2726659723035</v>
-      </c>
-      <c r="G70" s="5">
-        <f t="shared" si="33"/>
-        <v>1198.9860519907493</v>
-      </c>
-      <c r="H70" s="5">
-        <f t="shared" si="33"/>
-        <v>1150.6888611560676</v>
-      </c>
-      <c r="I70" s="5">
-        <f t="shared" si="33"/>
-        <v>1113.4757875301625</v>
-      </c>
-      <c r="J70" s="5">
-        <f t="shared" si="33"/>
-        <v>1112.8594539127791</v>
-      </c>
-      <c r="K70" s="5">
-        <f t="shared" si="33"/>
-        <v>1117.0275523425039</v>
-      </c>
-      <c r="L70" s="5">
-        <f t="shared" si="33"/>
-        <v>1172.797842080101</v>
-      </c>
-      <c r="M70" s="5">
-        <f t="shared" si="33"/>
-        <v>1226.1656476505834</v>
-      </c>
-      <c r="N70" s="5">
-        <f t="shared" si="33"/>
-        <v>1234.6013569423142</v>
-      </c>
-      <c r="O70" s="5">
-        <f t="shared" si="33"/>
-        <v>75.947919361469985</v>
-      </c>
-      <c r="P70" s="5">
-        <f t="shared" si="33"/>
-        <v>73.735844040262123</v>
-      </c>
-      <c r="Q70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="R70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="S70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="T70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="U70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="V70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="W70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="X70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Y70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Z70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AA70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AB70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AC70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AD70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AE70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AF70" s="5">
-        <f t="shared" si="33"/>
-        <v>71.588198097341873</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D73" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D74" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D75" s="22">
-        <v>2020</v>
-      </c>
-      <c r="E75" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F75" s="22">
-        <v>2022</v>
-      </c>
-      <c r="G75" s="22">
-        <v>2023</v>
-      </c>
-      <c r="H75" s="22">
-        <v>2024</v>
-      </c>
-      <c r="I75" s="22">
-        <v>2025</v>
-      </c>
-      <c r="J75" s="22">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="D76" s="39">
-        <v>0.2467</v>
-      </c>
-      <c r="E76" s="39">
-        <v>0.30919999999999997</v>
-      </c>
-      <c r="F76" s="39">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G76" s="39">
-        <v>0.21729999999999999</v>
-      </c>
-      <c r="H76" s="39">
-        <v>0.46560000000000001</v>
-      </c>
-      <c r="I76" s="40">
-        <f>H76</f>
-        <v>0.46560000000000001</v>
-      </c>
-      <c r="J76" s="41">
-        <f>I76</f>
-        <v>0.46560000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B78" s="22"/>
-      <c r="C78" s="22">
-        <v>2012</v>
-      </c>
-      <c r="D78" s="22">
-        <v>2013</v>
-      </c>
-      <c r="E78" s="22">
-        <v>2014</v>
-      </c>
-      <c r="F78" s="22">
-        <v>2015</v>
-      </c>
-      <c r="G78" s="22">
-        <v>2016</v>
-      </c>
-      <c r="H78" s="22">
-        <v>2017</v>
-      </c>
-      <c r="I78" s="22">
-        <v>2018</v>
-      </c>
-      <c r="J78" s="22">
-        <v>2019</v>
-      </c>
-      <c r="K78" s="22">
-        <v>2020</v>
-      </c>
-      <c r="L78" s="22">
-        <v>2021</v>
-      </c>
-      <c r="M78" s="22">
-        <v>2022</v>
-      </c>
-      <c r="N78" s="22">
-        <v>2023</v>
-      </c>
-      <c r="O78" s="22">
-        <v>2024</v>
-      </c>
-      <c r="P78" s="22">
-        <v>2025</v>
-      </c>
-      <c r="Q78" s="22">
-        <v>2026</v>
-      </c>
-      <c r="R78" s="22">
-        <v>2027</v>
-      </c>
-      <c r="S78" s="22">
-        <v>2028</v>
-      </c>
-      <c r="T78" s="22">
-        <v>2029</v>
-      </c>
-      <c r="U78" s="22">
-        <v>2030</v>
-      </c>
-      <c r="V78" s="22">
-        <v>2031</v>
-      </c>
-      <c r="W78" s="22">
-        <v>2032</v>
-      </c>
-      <c r="X78" s="22">
-        <v>2033</v>
-      </c>
-      <c r="Y78" s="22">
-        <v>2034</v>
-      </c>
-      <c r="Z78" s="22">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B79" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="45" cm="1">
-        <f t="array" ref="C79:O79">TRANSPOSE(G84:G96)</f>
-        <v>1</v>
-      </c>
-      <c r="D79" s="45">
-        <v>0.98556385942470071</v>
-      </c>
-      <c r="E79" s="45">
-        <v>0.96983137334414704</v>
-      </c>
-      <c r="F79" s="45">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="G79" s="45">
-        <v>0.95661376543184151</v>
-      </c>
-      <c r="H79" s="45">
-        <v>0.93665959530026111</v>
-      </c>
-      <c r="I79" s="45">
-        <v>0.9143273584567535</v>
-      </c>
-      <c r="J79" s="45">
-        <v>0.89805481563188172</v>
-      </c>
-      <c r="K79" s="45">
-        <v>0.88711067149387013</v>
-      </c>
-      <c r="L79" s="45">
-        <v>0.84730412960844359</v>
-      </c>
-      <c r="M79" s="45">
-        <v>0.78452102304761584</v>
-      </c>
-      <c r="N79" s="45">
-        <v>0.75350342301658668</v>
-      </c>
-      <c r="O79" s="45">
-        <v>0.73191600598044548</v>
-      </c>
-      <c r="P79" s="46" cm="1">
-        <f t="array" ref="P79:Z79">TRANSPOSE(G99:G109)</f>
-        <v>0.71059806405868498</v>
-      </c>
-      <c r="Q79" s="46">
-        <v>0.68990103306668438</v>
-      </c>
-      <c r="R79" s="46">
-        <v>0.66980682822008197</v>
-      </c>
-      <c r="S79" s="46">
-        <v>0.65029789147580774</v>
-      </c>
-      <c r="T79" s="46">
-        <v>0.63135717619010456</v>
-      </c>
-      <c r="U79" s="46">
-        <v>0.61296813222340252</v>
-      </c>
-      <c r="V79" s="46">
-        <v>0.59511469147903162</v>
-      </c>
-      <c r="W79" s="46">
-        <v>0.57778125386313739</v>
-      </c>
-      <c r="X79" s="46">
-        <v>0.56095267365353152</v>
-      </c>
-      <c r="Y79" s="46">
-        <v>0.54461424626556454</v>
-      </c>
-      <c r="Z79" s="46">
-        <v>0.52875169540346068</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="15"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84">
-        <v>228.85</v>
-      </c>
-      <c r="C84">
-        <v>230.33799999999999</v>
-      </c>
-      <c r="D84">
-        <v>229.59399999999999</v>
-      </c>
-      <c r="E84">
-        <v>1.7</v>
-      </c>
-      <c r="F84">
-        <v>2.1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85">
-        <v>232.36600000000001</v>
-      </c>
-      <c r="C85">
-        <v>233.548</v>
-      </c>
-      <c r="D85">
-        <v>232.95699999999999</v>
-      </c>
-      <c r="E85">
-        <v>1.5</v>
-      </c>
-      <c r="F85">
-        <v>1.5</v>
-      </c>
-      <c r="G85">
-        <v>0.98556385942470071</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86">
-        <v>236.38399999999999</v>
-      </c>
-      <c r="C86">
-        <v>237.08799999999999</v>
-      </c>
-      <c r="D86">
-        <v>236.73599999999999</v>
-      </c>
-      <c r="E86">
-        <v>0.8</v>
-      </c>
-      <c r="F86">
-        <v>1.6</v>
-      </c>
-      <c r="G86">
-        <v>0.96983137334414704</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87">
-        <v>236.26499999999999</v>
-      </c>
-      <c r="C87">
-        <v>237.76900000000001</v>
-      </c>
-      <c r="D87">
-        <v>237.017</v>
-      </c>
-      <c r="E87">
-        <v>0.7</v>
-      </c>
-      <c r="F87">
-        <v>0.1</v>
-      </c>
-      <c r="G87">
-        <v>0.9686815713640794</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88">
-        <v>238.77799999999999</v>
-      </c>
-      <c r="C88">
-        <v>241.23699999999999</v>
-      </c>
-      <c r="D88">
-        <v>240.00700000000001</v>
-      </c>
-      <c r="E88">
-        <v>2.1</v>
-      </c>
-      <c r="F88">
-        <v>1.3</v>
-      </c>
-      <c r="G88">
-        <v>0.95661376543184151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89">
-        <v>244.07599999999999</v>
-      </c>
-      <c r="C89">
-        <v>246.16300000000001</v>
-      </c>
-      <c r="D89">
-        <v>245.12</v>
-      </c>
-      <c r="E89">
-        <v>2.1</v>
-      </c>
-      <c r="F89">
-        <v>2.1</v>
-      </c>
-      <c r="G89">
-        <v>0.93665959530026111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90">
-        <v>250.089</v>
-      </c>
-      <c r="C90">
-        <v>252.125</v>
-      </c>
-      <c r="D90">
-        <v>251.107</v>
-      </c>
-      <c r="E90">
-        <v>1.9</v>
-      </c>
-      <c r="F90">
-        <v>2.4</v>
-      </c>
-      <c r="G90">
-        <v>0.9143273584567535</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91">
-        <v>254.41200000000001</v>
-      </c>
-      <c r="C91">
-        <v>256.90300000000002</v>
-      </c>
-      <c r="D91">
-        <v>255.65700000000001</v>
-      </c>
-      <c r="E91">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F91">
-        <v>1.8</v>
-      </c>
-      <c r="G91">
-        <v>0.89805481563188172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>108</v>
-      </c>
-      <c r="B92">
-        <v>257.55700000000002</v>
-      </c>
-      <c r="C92">
-        <v>260.065</v>
-      </c>
-      <c r="D92">
-        <v>258.81099999999998</v>
-      </c>
-      <c r="E92">
-        <v>1.4</v>
-      </c>
-      <c r="F92">
-        <v>1.2</v>
-      </c>
-      <c r="G92">
-        <v>0.88711067149387013</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93">
-        <v>266.23599999999999</v>
-      </c>
-      <c r="C93">
-        <v>275.70299999999997</v>
-      </c>
-      <c r="D93">
-        <v>270.97000000000003</v>
-      </c>
-      <c r="E93">
-        <v>7</v>
-      </c>
-      <c r="F93">
-        <v>4.7</v>
-      </c>
-      <c r="G93">
-        <v>0.84730412960844359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94">
-        <v>288.34699999999998</v>
-      </c>
-      <c r="C94">
-        <v>296.96300000000002</v>
-      </c>
-      <c r="D94">
-        <v>292.65499999999997</v>
-      </c>
-      <c r="E94">
-        <v>6.5</v>
-      </c>
-      <c r="F94">
-        <v>8</v>
-      </c>
-      <c r="G94">
-        <v>0.78452102304761584</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>111</v>
-      </c>
-      <c r="B95">
-        <v>302.40800000000002</v>
-      </c>
-      <c r="C95">
-        <v>306.99599999999998</v>
-      </c>
-      <c r="D95">
-        <v>304.702</v>
-      </c>
-      <c r="G95">
-        <v>0.75350342301658668</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96">
-        <v>312.14499999999998</v>
-      </c>
-      <c r="C96">
-        <v>315.233</v>
-      </c>
-      <c r="D96">
-        <v>313.68900000000002</v>
-      </c>
-      <c r="G96">
-        <v>0.73191600598044548</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F98" t="s">
-        <v>113</v>
-      </c>
-      <c r="H98">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>2025</v>
-      </c>
-      <c r="D99">
-        <v>323.09967</v>
-      </c>
-      <c r="F99">
-        <v>0.03</v>
-      </c>
-      <c r="G99" s="22">
-        <f>D$84/D99</f>
-        <v>0.71059806405868498</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>2026</v>
-      </c>
-      <c r="D100">
-        <v>332.79266010000003</v>
-      </c>
-      <c r="F100">
-        <v>0.03</v>
-      </c>
-      <c r="G100" s="22">
-        <f t="shared" ref="G100:G109" si="34">D$84/D100</f>
-        <v>0.68990103306668438</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>2027</v>
-      </c>
-      <c r="D101">
-        <v>342.77643990300004</v>
-      </c>
-      <c r="F101">
-        <v>0.03</v>
-      </c>
-      <c r="G101" s="22">
-        <f t="shared" si="34"/>
-        <v>0.66980682822008197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>2028</v>
-      </c>
-      <c r="D102">
-        <v>353.05973310009006</v>
-      </c>
-      <c r="F102">
-        <v>0.03</v>
-      </c>
-      <c r="G102" s="22">
-        <f t="shared" si="34"/>
-        <v>0.65029789147580774</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>2029</v>
-      </c>
-      <c r="D103">
-        <v>363.65152509309274</v>
-      </c>
-      <c r="F103">
-        <v>0.03</v>
-      </c>
-      <c r="G103" s="22">
-        <f t="shared" si="34"/>
-        <v>0.63135717619010456</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>2030</v>
-      </c>
-      <c r="D104">
-        <v>374.56107084588552</v>
-      </c>
-      <c r="F104">
-        <v>0.03</v>
-      </c>
-      <c r="G104" s="22">
-        <f t="shared" si="34"/>
-        <v>0.61296813222340252</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>2031</v>
-      </c>
-      <c r="D105">
-        <v>385.79790297126209</v>
-      </c>
-      <c r="F105">
-        <v>0.03</v>
-      </c>
-      <c r="G105" s="22">
-        <f t="shared" si="34"/>
-        <v>0.59511469147903162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>2032</v>
-      </c>
-      <c r="D106">
-        <v>397.37184006039996</v>
-      </c>
-      <c r="F106">
-        <v>0.03</v>
-      </c>
-      <c r="G106" s="22">
-        <f t="shared" si="34"/>
-        <v>0.57778125386313739</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>2033</v>
-      </c>
-      <c r="D107">
-        <v>409.29299526221195</v>
-      </c>
-      <c r="F107">
-        <v>0.03</v>
-      </c>
-      <c r="G107" s="22">
-        <f t="shared" si="34"/>
-        <v>0.56095267365353152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>2034</v>
-      </c>
-      <c r="D108">
-        <v>421.57178512007829</v>
-      </c>
-      <c r="F108">
-        <v>0.03</v>
-      </c>
-      <c r="G108" s="22">
-        <f t="shared" si="34"/>
-        <v>0.54461424626556454</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>2035</v>
-      </c>
-      <c r="D109">
-        <v>434.21893867368067</v>
-      </c>
-      <c r="F109">
-        <v>0.03</v>
-      </c>
-      <c r="G109" s="22">
-        <f t="shared" si="34"/>
-        <v>0.52875169540346068</v>
-      </c>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5">
+        <f t="shared" ref="C46:AF46" si="7">B4+C42</f>
+        <v>3036.0333459787557</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="7"/>
+        <v>2273.5314681335358</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="7"/>
+        <v>2371.7262681335355</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="7"/>
+        <v>2329.8343100151742</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="7"/>
+        <v>1671.1026100151744</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="7"/>
+        <v>1625.6076100151745</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="7"/>
+        <v>1591.1151100151747</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="7"/>
+        <v>1593.1401100151747</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="7"/>
+        <v>1599.8726100151744</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="7"/>
+        <v>1658.1326100151746</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="7"/>
+        <v>1713.9176100151744</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="7"/>
+        <v>1724.7001100151747</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF46" s="5">
+        <f t="shared" si="7"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" ref="C47:AF47" si="8">B5+C42</f>
+        <v>7252.8733459787563</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="8"/>
+        <v>4193.501468133536</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="8"/>
+        <v>2371.7262681335355</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="8"/>
+        <v>2329.8343100151742</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="8"/>
+        <v>1671.1026100151744</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="8"/>
+        <v>1625.6076100151745</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="8"/>
+        <v>1591.1151100151747</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="8"/>
+        <v>1593.1401100151747</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="8"/>
+        <v>1599.8726100151744</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="8"/>
+        <v>1658.1326100151746</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="8"/>
+        <v>1713.9176100151744</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="8"/>
+        <v>1724.7001100151747</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF47" s="5">
+        <f t="shared" si="8"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10378,7 +8452,6 @@
     <hyperlink ref="R21" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -10386,1114 +8459,1114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4700B1-78D7-456C-A4C4-AB085247994E}">
   <dimension ref="A1:AL776"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="22" customWidth="1"/>
-    <col min="5" max="38" width="7.54296875" style="22" customWidth="1"/>
-    <col min="39" max="16384" width="12.54296875" style="22"/>
+    <col min="1" max="1" width="51.81640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="23" customWidth="1"/>
+    <col min="5" max="38" width="7.54296875" style="23" customWidth="1"/>
+    <col min="39" max="16384" width="12.54296875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
     </row>
     <row r="2" spans="1:38" ht="104.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
     </row>
     <row r="3" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
     </row>
     <row r="4" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="34">
+      <c r="A4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="35">
         <v>40000</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="34">
+      <c r="A5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="35">
         <v>7500</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
     </row>
     <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
     </row>
     <row r="7" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="A7" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="27">
         <f>B4*$B$16*$B$14</f>
         <v>27004</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="A8" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="27">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22">
+      <c r="B10" s="23">
         <v>2023</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="23">
         <v>2024</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="23">
         <v>2025</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>2026</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>2027</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>2028</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>2029</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <v>2030</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <v>2031</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="23">
         <v>2032</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="35">
+      <c r="A11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="36">
         <f>C36</f>
         <v>10121.162702145082</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="36">
         <f t="shared" ref="C11:K11" si="0">D36</f>
         <v>10059.772494365814</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="36">
         <f t="shared" si="0"/>
         <v>10050.763799597085</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>10127.428607069427</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
         <v>10269.11524721545</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
         <v>10350.781370900584</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>10353.674088089921</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
         <v>10294.239800360298</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="36">
         <f t="shared" si="0"/>
         <v>10251.903689786537</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="36">
         <f t="shared" si="0"/>
         <v>10279.777009851599</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
     </row>
     <row r="14" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="25">
+      <c r="A14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="26">
         <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="25">
+      <c r="A16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="26">
         <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
     </row>
     <row r="18" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>52</v>
+      <c r="A19" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>53</v>
+      <c r="A20" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:33" ht="39" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>76</v>
+      <c r="A22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="A23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="27">
         <f>B5*B14</f>
         <v>5887.5</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="23">
+      <c r="A24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="24">
         <v>3</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="26">
+      <c r="C24" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="27">
         <f>D23</f>
         <v>5887.5</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="28">
+      <c r="A25" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="29">
         <v>44657</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="26">
+      <c r="C25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="27">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>64</v>
+      <c r="A27" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
+      <c r="A28" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
     </row>
     <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
     </row>
     <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
+      <c r="A30" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
     </row>
     <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="31">
+      <c r="A31" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="32">
         <v>2022</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="32">
         <v>2023</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="32">
         <v>2024</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="32">
         <v>2025</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="32">
         <v>2026</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="32">
         <v>2027</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="32">
         <v>2028</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="32">
         <v>2029</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="32">
         <v>2030</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="32">
         <v>2031</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="32">
         <v>2032</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="32">
         <v>2033</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="32">
         <v>2034</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="32">
         <v>2035</v>
       </c>
-      <c r="P31" s="31">
+      <c r="P31" s="32">
         <v>2036</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q31" s="32">
         <v>2037</v>
       </c>
-      <c r="R31" s="31">
+      <c r="R31" s="32">
         <v>2038</v>
       </c>
-      <c r="S31" s="31">
+      <c r="S31" s="32">
         <v>2039</v>
       </c>
-      <c r="T31" s="31">
+      <c r="T31" s="32">
         <v>2040</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U31" s="32">
         <v>2041</v>
       </c>
-      <c r="V31" s="31">
+      <c r="V31" s="32">
         <v>2042</v>
       </c>
-      <c r="W31" s="31">
+      <c r="W31" s="32">
         <v>2043</v>
       </c>
-      <c r="X31" s="31">
+      <c r="X31" s="32">
         <v>2044</v>
       </c>
-      <c r="Y31" s="31">
+      <c r="Y31" s="32">
         <v>2045</v>
       </c>
-      <c r="Z31" s="31">
+      <c r="Z31" s="32">
         <v>2046</v>
       </c>
-      <c r="AA31" s="31">
+      <c r="AA31" s="32">
         <v>2047</v>
       </c>
-      <c r="AB31" s="31">
+      <c r="AB31" s="32">
         <v>2048</v>
       </c>
-      <c r="AC31" s="31">
+      <c r="AC31" s="32">
         <v>2049</v>
       </c>
-      <c r="AD31" s="31">
+      <c r="AD31" s="32">
         <v>2050</v>
       </c>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
     </row>
     <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="32">
+      <c r="A32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="33">
         <v>652.15881300000001</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="33">
         <v>675.13665800000001</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="33">
         <v>689.60467500000004</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="33">
         <v>691.51690699999995</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="33">
         <v>688.42425500000002</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="33">
         <v>684.18414299999995</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="33">
         <v>682.62188700000002</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="33">
         <v>679.86218299999996</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="33">
         <v>678.07775900000001</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="33">
         <v>677.36639400000001</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="33">
         <v>675.92620799999997</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="33">
         <v>676.86370799999997</v>
       </c>
-      <c r="N32" s="32">
+      <c r="N32" s="33">
         <v>681.45581100000004</v>
       </c>
-      <c r="O32" s="32">
+      <c r="O32" s="33">
         <v>687.30078100000003</v>
       </c>
-      <c r="P32" s="32">
+      <c r="P32" s="33">
         <v>692.37145999999996</v>
       </c>
-      <c r="Q32" s="32">
+      <c r="Q32" s="33">
         <v>698.31860400000005</v>
       </c>
-      <c r="R32" s="32">
+      <c r="R32" s="33">
         <v>703.59320100000002</v>
       </c>
-      <c r="S32" s="32">
+      <c r="S32" s="33">
         <v>709.57092299999999</v>
       </c>
-      <c r="T32" s="32">
+      <c r="T32" s="33">
         <v>711.90655500000003</v>
       </c>
-      <c r="U32" s="32">
+      <c r="U32" s="33">
         <v>714.37567100000001</v>
       </c>
-      <c r="V32" s="32">
+      <c r="V32" s="33">
         <v>716.10638400000005</v>
       </c>
-      <c r="W32" s="32">
+      <c r="W32" s="33">
         <v>717.97564699999998</v>
       </c>
-      <c r="X32" s="32">
+      <c r="X32" s="33">
         <v>723.98962400000005</v>
       </c>
-      <c r="Y32" s="32">
+      <c r="Y32" s="33">
         <v>729.19946300000004</v>
       </c>
-      <c r="Z32" s="32">
+      <c r="Z32" s="33">
         <v>732.66320800000005</v>
       </c>
-      <c r="AA32" s="32">
+      <c r="AA32" s="33">
         <v>734.38165300000003</v>
       </c>
-      <c r="AB32" s="32">
+      <c r="AB32" s="33">
         <v>739.21014400000001</v>
       </c>
-      <c r="AC32" s="32">
+      <c r="AC32" s="33">
         <v>745.07336399999997</v>
       </c>
-      <c r="AD32" s="32">
+      <c r="AD32" s="33">
         <v>1035.5</v>
       </c>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="29"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="30"/>
     </row>
     <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="32">
+      <c r="A33" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="33">
         <v>252.12297100000001</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="33">
         <v>262.199432</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="33">
         <v>276.18127399999997</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="33">
         <v>286.01892099999998</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="33">
         <v>290.46655299999998</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="33">
         <v>292.43240400000002</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="33">
         <v>293.63424700000002</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="33">
         <v>296.173248</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="33">
         <v>298.12170400000002</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="33">
         <v>300.39685100000003</v>
       </c>
-      <c r="L33" s="32">
+      <c r="L33" s="33">
         <v>303.257294</v>
       </c>
-      <c r="M33" s="32">
+      <c r="M33" s="33">
         <v>305.71603399999998</v>
       </c>
-      <c r="N33" s="32">
+      <c r="N33" s="33">
         <v>309.26257299999997</v>
       </c>
-      <c r="O33" s="32">
+      <c r="O33" s="33">
         <v>314.79812600000002</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="33">
         <v>321.14746100000002</v>
       </c>
-      <c r="Q33" s="32">
+      <c r="Q33" s="33">
         <v>327.09249899999998</v>
       </c>
-      <c r="R33" s="32">
+      <c r="R33" s="33">
         <v>333.56478900000002</v>
       </c>
-      <c r="S33" s="32">
+      <c r="S33" s="33">
         <v>339.75351000000001</v>
       </c>
-      <c r="T33" s="32">
+      <c r="T33" s="33">
         <v>346.38189699999998</v>
       </c>
-      <c r="U33" s="32">
+      <c r="U33" s="33">
         <v>351.209137</v>
       </c>
-      <c r="V33" s="32">
+      <c r="V33" s="33">
         <v>355.95761099999999</v>
       </c>
-      <c r="W33" s="32">
+      <c r="W33" s="33">
         <v>360.42837500000002</v>
       </c>
-      <c r="X33" s="32">
+      <c r="X33" s="33">
         <v>364.902466</v>
       </c>
-      <c r="Y33" s="32">
+      <c r="Y33" s="33">
         <v>371.72610500000002</v>
       </c>
-      <c r="Z33" s="32">
+      <c r="Z33" s="33">
         <v>378.28823899999998</v>
       </c>
-      <c r="AA33" s="32">
+      <c r="AA33" s="33">
         <v>383.89129600000001</v>
       </c>
-      <c r="AB33" s="32">
+      <c r="AB33" s="33">
         <v>388.47567700000002</v>
       </c>
-      <c r="AC33" s="32">
+      <c r="AC33" s="33">
         <v>394.81222500000001</v>
       </c>
-      <c r="AD33" s="32">
+      <c r="AD33" s="33">
         <v>401.96115099999997</v>
       </c>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="29"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="30"/>
     </row>
     <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="32">
+      <c r="A34" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="33">
         <v>180.61982699999999</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="33">
         <v>186.49350000000001</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="33">
         <v>188.82283000000001</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="33">
         <v>190.626938</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="33">
         <v>195.106979</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="33">
         <v>202.50727800000001</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="33">
         <v>207.005585</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="33">
         <v>207.12138400000001</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="33">
         <v>203.823837</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="33">
         <v>201.78428600000001</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="33">
         <v>203.63635300000001</v>
       </c>
-      <c r="M34" s="32">
+      <c r="M34" s="33">
         <v>206.92961099999999</v>
       </c>
-      <c r="N34" s="32">
+      <c r="N34" s="33">
         <v>209.69859299999999</v>
       </c>
-      <c r="O34" s="32">
+      <c r="O34" s="33">
         <v>212.967072</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="33">
         <v>216.125214</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="33">
         <v>219.188492</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="33">
         <v>221.84333799999999</v>
       </c>
-      <c r="S34" s="32">
+      <c r="S34" s="33">
         <v>224.323059</v>
       </c>
-      <c r="T34" s="32">
+      <c r="T34" s="33">
         <v>227.32418799999999</v>
       </c>
-      <c r="U34" s="32">
+      <c r="U34" s="33">
         <v>230.371872</v>
       </c>
-      <c r="V34" s="32">
+      <c r="V34" s="33">
         <v>232.498154</v>
       </c>
-      <c r="W34" s="32">
+      <c r="W34" s="33">
         <v>235.21517900000001</v>
       </c>
-      <c r="X34" s="32">
+      <c r="X34" s="33">
         <v>236.05999800000001</v>
       </c>
-      <c r="Y34" s="32">
+      <c r="Y34" s="33">
         <v>234.92872600000001</v>
       </c>
-      <c r="Z34" s="32">
+      <c r="Z34" s="33">
         <v>234.37702899999999</v>
       </c>
-      <c r="AA34" s="32">
+      <c r="AA34" s="33">
         <v>235.44674699999999</v>
       </c>
-      <c r="AB34" s="32">
+      <c r="AB34" s="33">
         <v>237.52796900000001</v>
       </c>
-      <c r="AC34" s="32">
+      <c r="AC34" s="33">
         <v>239.052933</v>
       </c>
-      <c r="AD34" s="32">
+      <c r="AD34" s="33">
         <v>241.633881</v>
       </c>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="29"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="30"/>
     </row>
     <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="26">
+      <c r="A36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="27">
         <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
         <v>10134.948146095066</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="27">
         <f t="shared" si="1"/>
         <v>10121.162702145082</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="27">
         <f t="shared" si="1"/>
         <v>10059.772494365814</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="27">
         <f t="shared" si="1"/>
         <v>10050.763799597085</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="27">
         <f t="shared" si="1"/>
         <v>10127.428607069427</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10269.11524721545</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="27">
         <f t="shared" si="1"/>
         <v>10350.781370900584</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="27">
         <f t="shared" si="1"/>
         <v>10353.674088089921</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="27">
         <f t="shared" si="1"/>
         <v>10294.239800360298</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="27">
         <f t="shared" si="1"/>
         <v>10251.903689786537</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="27">
         <f t="shared" si="1"/>
         <v>10279.777009851599</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="27">
         <f t="shared" si="1"/>
         <v>10325.709491436844</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="27">
         <f t="shared" si="1"/>
         <v>10344.230833049938</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="27">
         <f t="shared" si="1"/>
         <v>10359.12748221428</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="27">
         <f t="shared" si="1"/>
         <v>10371.638430973771</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="27">
         <f t="shared" si="1"/>
         <v>10380.548547191598</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="27">
         <f t="shared" si="1"/>
         <v>10382.950508948947</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="27">
         <f t="shared" si="1"/>
         <v>10380.927010758403</v>
       </c>
-      <c r="T36" s="26">
+      <c r="T36" s="27">
         <f t="shared" si="1"/>
         <v>10398.663134138134</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="27">
         <f t="shared" si="1"/>
         <v>10422.653431517481</v>
       </c>
-      <c r="V36" s="26">
+      <c r="V36" s="27">
         <f t="shared" si="1"/>
         <v>10434.319910781423</v>
       </c>
-      <c r="W36" s="26">
+      <c r="W36" s="27">
         <f t="shared" si="1"/>
         <v>10455.739600691937</v>
       </c>
-      <c r="X36" s="26">
+      <c r="X36" s="27">
         <f t="shared" si="1"/>
         <v>10432.932814907192</v>
       </c>
-      <c r="Y36" s="26">
+      <c r="Y36" s="27">
         <f t="shared" si="1"/>
         <v>10374.231186923143</v>
       </c>
-      <c r="Z36" s="26">
+      <c r="Z36" s="27">
         <f t="shared" si="1"/>
         <v>10332.172107247137</v>
       </c>
-      <c r="AA36" s="26">
+      <c r="AA36" s="27">
         <f t="shared" si="1"/>
         <v>10324.781329795693</v>
       </c>
-      <c r="AB36" s="26">
+      <c r="AB36" s="27">
         <f t="shared" si="1"/>
         <v>10326.315629830769</v>
       </c>
-      <c r="AC36" s="26">
+      <c r="AC36" s="27">
         <f t="shared" si="1"/>
         <v>10310.34979051626</v>
       </c>
-      <c r="AD36" s="26">
+      <c r="AD36" s="27">
         <f t="shared" si="1"/>
         <v>9558.932689351499</v>
       </c>
@@ -12377,219 +10450,219 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
-        <f>'Passenger Vehicle Calculations'!C69</f>
-        <v>2720.1223686433941</v>
-      </c>
-      <c r="C2" s="18">
-        <f>'Passenger Vehicle Calculations'!D69</f>
-        <v>1928.2968213818772</v>
-      </c>
-      <c r="D2" s="18">
-        <f>'Passenger Vehicle Calculations'!E69</f>
-        <v>2129.412735209472</v>
-      </c>
-      <c r="E2" s="18">
-        <f>'Passenger Vehicle Calculations'!F69</f>
-        <v>2025.9480858626696</v>
-      </c>
-      <c r="F2" s="18">
-        <f>'Passenger Vehicle Calculations'!G69</f>
-        <v>1302.7046290858618</v>
-      </c>
-      <c r="G2" s="18">
-        <f>'Passenger Vehicle Calculations'!H69</f>
-        <v>1251.3865088212251</v>
-      </c>
-      <c r="H2" s="18">
-        <f>'Passenger Vehicle Calculations'!I69</f>
-        <v>1211.2404940011895</v>
-      </c>
-      <c r="I2" s="18">
-        <f>'Passenger Vehicle Calculations'!J69</f>
-        <v>1207.7766446613491</v>
-      </c>
-      <c r="J2" s="18">
-        <f>'Passenger Vehicle Calculations'!K69</f>
-        <v>1209.1801647197562</v>
-      </c>
-      <c r="K2" s="18">
-        <f>'Passenger Vehicle Calculations'!L69</f>
-        <v>1262.2663977861712</v>
-      </c>
-      <c r="L2" s="18">
-        <f>'Passenger Vehicle Calculations'!M69</f>
-        <v>1313.0283230933701</v>
-      </c>
-      <c r="M2" s="18">
-        <f>'Passenger Vehicle Calculations'!N69</f>
-        <v>1318.9340515469612</v>
-      </c>
-      <c r="N2" s="18">
-        <f>'Passenger Vehicle Calculations'!O69</f>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="O2" s="18">
-        <f>'Passenger Vehicle Calculations'!P69</f>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="P2" s="18">
-        <f>'Passenger Vehicle Calculations'!Q69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Q2" s="18">
-        <f>'Passenger Vehicle Calculations'!R69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="R2" s="18">
-        <f>'Passenger Vehicle Calculations'!S69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="S2" s="18">
-        <f>'Passenger Vehicle Calculations'!T69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="T2" s="18">
-        <f>'Passenger Vehicle Calculations'!U69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="U2" s="18">
-        <f>'Passenger Vehicle Calculations'!V69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="V2" s="18">
-        <f>'Passenger Vehicle Calculations'!W69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="W2" s="18">
-        <f>'Passenger Vehicle Calculations'!X69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="X2" s="18">
-        <f>'Passenger Vehicle Calculations'!Y69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Y2" s="18">
-        <f>'Passenger Vehicle Calculations'!Z69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Z2" s="18">
-        <f>'Passenger Vehicle Calculations'!AA69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AA2" s="18">
-        <f>'Passenger Vehicle Calculations'!AB69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AB2" s="18">
-        <f>'Passenger Vehicle Calculations'!AC69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AC2" s="18">
-        <f>'Passenger Vehicle Calculations'!AD69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AD2" s="18">
-        <f>'Passenger Vehicle Calculations'!AE69</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AE2" s="18">
-        <f>'Passenger Vehicle Calculations'!AF69</f>
-        <v>148.76456017556194</v>
+      <c r="B2" s="19">
+        <f>'Passenger Vehicle Calculations'!C46</f>
+        <v>3036.0333459787557</v>
+      </c>
+      <c r="C2" s="19">
+        <f>'Passenger Vehicle Calculations'!D46</f>
+        <v>2273.5314681335358</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Passenger Vehicle Calculations'!E46</f>
+        <v>2371.7262681335355</v>
+      </c>
+      <c r="E2" s="19">
+        <f>'Passenger Vehicle Calculations'!F46</f>
+        <v>2329.8343100151742</v>
+      </c>
+      <c r="F2" s="19">
+        <f>'Passenger Vehicle Calculations'!G46</f>
+        <v>1671.1026100151744</v>
+      </c>
+      <c r="G2" s="19">
+        <f>'Passenger Vehicle Calculations'!H46</f>
+        <v>1625.6076100151745</v>
+      </c>
+      <c r="H2" s="19">
+        <f>'Passenger Vehicle Calculations'!I46</f>
+        <v>1591.1151100151747</v>
+      </c>
+      <c r="I2" s="19">
+        <f>'Passenger Vehicle Calculations'!J46</f>
+        <v>1593.1401100151747</v>
+      </c>
+      <c r="J2" s="19">
+        <f>'Passenger Vehicle Calculations'!K46</f>
+        <v>1599.8726100151744</v>
+      </c>
+      <c r="K2" s="19">
+        <f>'Passenger Vehicle Calculations'!L46</f>
+        <v>1658.1326100151746</v>
+      </c>
+      <c r="L2" s="19">
+        <f>'Passenger Vehicle Calculations'!M46</f>
+        <v>1713.9176100151744</v>
+      </c>
+      <c r="M2" s="19">
+        <f>'Passenger Vehicle Calculations'!N46</f>
+        <v>1724.7001100151747</v>
+      </c>
+      <c r="N2" s="19">
+        <f>'Passenger Vehicle Calculations'!O46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="O2" s="19">
+        <f>'Passenger Vehicle Calculations'!P46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P2" s="19">
+        <f>'Passenger Vehicle Calculations'!Q46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>'Passenger Vehicle Calculations'!R46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R2" s="19">
+        <f>'Passenger Vehicle Calculations'!S46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S2" s="19">
+        <f>'Passenger Vehicle Calculations'!T46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T2" s="19">
+        <f>'Passenger Vehicle Calculations'!U46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U2" s="19">
+        <f>'Passenger Vehicle Calculations'!V46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V2" s="19">
+        <f>'Passenger Vehicle Calculations'!W46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W2" s="19">
+        <f>'Passenger Vehicle Calculations'!X46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X2" s="19">
+        <f>'Passenger Vehicle Calculations'!Y46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y2" s="19">
+        <f>'Passenger Vehicle Calculations'!Z46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z2" s="19">
+        <f>'Passenger Vehicle Calculations'!AA46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA2" s="19">
+        <f>'Passenger Vehicle Calculations'!AB46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB2" s="19">
+        <f>'Passenger Vehicle Calculations'!AC46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC2" s="19">
+        <f>'Passenger Vehicle Calculations'!AD46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD2" s="19">
+        <f>'Passenger Vehicle Calculations'!AE46</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE2" s="19">
+        <f>'Passenger Vehicle Calculations'!AF46</f>
+        <v>568.32511001517457</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="18">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12597,94 +10670,94 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18">
-        <v>0</v>
-      </c>
-      <c r="W4" s="18">
-        <v>0</v>
-      </c>
-      <c r="X4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="18">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12692,94 +10765,94 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
-        <v>0</v>
-      </c>
-      <c r="V5" s="18">
-        <v>0</v>
-      </c>
-      <c r="W5" s="18">
-        <v>0</v>
-      </c>
-      <c r="X5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="18">
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12787,219 +10860,219 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
-        <f>'Passenger Vehicle Calculations'!C70</f>
-        <v>6868.4416842025867</v>
-      </c>
-      <c r="C6" s="18">
-        <f>'Passenger Vehicle Calculations'!D70</f>
-        <v>3805.0781131667054</v>
-      </c>
-      <c r="D6" s="18">
-        <f>'Passenger Vehicle Calculations'!E70</f>
-        <v>1976.4317864388993</v>
-      </c>
-      <c r="E6" s="18">
-        <f>'Passenger Vehicle Calculations'!F70</f>
-        <v>1914.2726659723035</v>
-      </c>
-      <c r="F6" s="18">
-        <f>'Passenger Vehicle Calculations'!G70</f>
-        <v>1198.9860519907493</v>
-      </c>
-      <c r="G6" s="18">
-        <f>'Passenger Vehicle Calculations'!H70</f>
-        <v>1150.6888611560676</v>
-      </c>
-      <c r="H6" s="18">
-        <f>'Passenger Vehicle Calculations'!I70</f>
-        <v>1113.4757875301625</v>
-      </c>
-      <c r="I6" s="18">
-        <f>'Passenger Vehicle Calculations'!J70</f>
-        <v>1112.8594539127791</v>
-      </c>
-      <c r="J6" s="18">
-        <f>'Passenger Vehicle Calculations'!K70</f>
-        <v>1117.0275523425039</v>
-      </c>
-      <c r="K6" s="18">
-        <f>'Passenger Vehicle Calculations'!L70</f>
-        <v>1172.797842080101</v>
-      </c>
-      <c r="L6" s="18">
-        <f>'Passenger Vehicle Calculations'!M70</f>
-        <v>1226.1656476505834</v>
-      </c>
-      <c r="M6" s="18">
-        <f>'Passenger Vehicle Calculations'!N70</f>
-        <v>1234.6013569423142</v>
-      </c>
-      <c r="N6" s="18">
-        <f>'Passenger Vehicle Calculations'!O70</f>
-        <v>75.947919361469985</v>
-      </c>
-      <c r="O6" s="18">
-        <f>'Passenger Vehicle Calculations'!P70</f>
-        <v>73.735844040262123</v>
-      </c>
-      <c r="P6" s="18">
-        <f>'Passenger Vehicle Calculations'!Q70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Q6" s="18">
-        <f>'Passenger Vehicle Calculations'!R70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="R6" s="18">
-        <f>'Passenger Vehicle Calculations'!S70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="S6" s="18">
-        <f>'Passenger Vehicle Calculations'!T70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="T6" s="18">
-        <f>'Passenger Vehicle Calculations'!U70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="U6" s="18">
-        <f>'Passenger Vehicle Calculations'!V70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="V6" s="18">
-        <f>'Passenger Vehicle Calculations'!W70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="W6" s="18">
-        <f>'Passenger Vehicle Calculations'!X70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="X6" s="18">
-        <f>'Passenger Vehicle Calculations'!Y70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Y6" s="18">
-        <f>'Passenger Vehicle Calculations'!Z70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Z6" s="18">
-        <f>'Passenger Vehicle Calculations'!AA70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AA6" s="18">
-        <f>'Passenger Vehicle Calculations'!AB70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AB6" s="18">
-        <f>'Passenger Vehicle Calculations'!AC70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AC6" s="18">
-        <f>'Passenger Vehicle Calculations'!AD70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AD6" s="18">
-        <f>'Passenger Vehicle Calculations'!AE70</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="AE6" s="18">
-        <f>'Passenger Vehicle Calculations'!AF70</f>
-        <v>71.588198097341873</v>
+      <c r="B6" s="19">
+        <f>'Passenger Vehicle Calculations'!C47</f>
+        <v>7252.8733459787563</v>
+      </c>
+      <c r="C6" s="19">
+        <f>'Passenger Vehicle Calculations'!D47</f>
+        <v>4193.501468133536</v>
+      </c>
+      <c r="D6" s="19">
+        <f>'Passenger Vehicle Calculations'!E47</f>
+        <v>2371.7262681335355</v>
+      </c>
+      <c r="E6" s="19">
+        <f>'Passenger Vehicle Calculations'!F47</f>
+        <v>2329.8343100151742</v>
+      </c>
+      <c r="F6" s="19">
+        <f>'Passenger Vehicle Calculations'!G47</f>
+        <v>1671.1026100151744</v>
+      </c>
+      <c r="G6" s="19">
+        <f>'Passenger Vehicle Calculations'!H47</f>
+        <v>1625.6076100151745</v>
+      </c>
+      <c r="H6" s="19">
+        <f>'Passenger Vehicle Calculations'!I47</f>
+        <v>1591.1151100151747</v>
+      </c>
+      <c r="I6" s="19">
+        <f>'Passenger Vehicle Calculations'!J47</f>
+        <v>1593.1401100151747</v>
+      </c>
+      <c r="J6" s="19">
+        <f>'Passenger Vehicle Calculations'!K47</f>
+        <v>1599.8726100151744</v>
+      </c>
+      <c r="K6" s="19">
+        <f>'Passenger Vehicle Calculations'!L47</f>
+        <v>1658.1326100151746</v>
+      </c>
+      <c r="L6" s="19">
+        <f>'Passenger Vehicle Calculations'!M47</f>
+        <v>1713.9176100151744</v>
+      </c>
+      <c r="M6" s="19">
+        <f>'Passenger Vehicle Calculations'!N47</f>
+        <v>1724.7001100151747</v>
+      </c>
+      <c r="N6" s="19">
+        <f>'Passenger Vehicle Calculations'!O47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="O6" s="19">
+        <f>'Passenger Vehicle Calculations'!P47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P6" s="19">
+        <f>'Passenger Vehicle Calculations'!Q47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>'Passenger Vehicle Calculations'!R47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R6" s="19">
+        <f>'Passenger Vehicle Calculations'!S47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S6" s="19">
+        <f>'Passenger Vehicle Calculations'!T47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T6" s="19">
+        <f>'Passenger Vehicle Calculations'!U47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U6" s="19">
+        <f>'Passenger Vehicle Calculations'!V47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V6" s="19">
+        <f>'Passenger Vehicle Calculations'!W47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W6" s="19">
+        <f>'Passenger Vehicle Calculations'!X47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X6" s="19">
+        <f>'Passenger Vehicle Calculations'!Y47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y6" s="19">
+        <f>'Passenger Vehicle Calculations'!Z47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z6" s="19">
+        <f>'Passenger Vehicle Calculations'!AA47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA6" s="19">
+        <f>'Passenger Vehicle Calculations'!AB47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB6" s="19">
+        <f>'Passenger Vehicle Calculations'!AC47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC6" s="19">
+        <f>'Passenger Vehicle Calculations'!AD47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD6" s="19">
+        <f>'Passenger Vehicle Calculations'!AE47</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE6" s="19">
+        <f>'Passenger Vehicle Calculations'!AF47</f>
+        <v>568.32511001517457</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="18">
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -13007,123 +11080,123 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
         <f>D2</f>
-        <v>2129.412735209472</v>
-      </c>
-      <c r="E8" s="18">
+        <v>2371.7262681335355</v>
+      </c>
+      <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>2025.9480858626696</v>
-      </c>
-      <c r="F8" s="18">
+        <v>2329.8343100151742</v>
+      </c>
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>1302.7046290858618</v>
-      </c>
-      <c r="G8" s="18">
+        <v>1671.1026100151744</v>
+      </c>
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>1251.3865088212251</v>
-      </c>
-      <c r="H8" s="18">
+        <v>1625.6076100151745</v>
+      </c>
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>1211.2404940011895</v>
-      </c>
-      <c r="I8" s="18">
+        <v>1591.1151100151747</v>
+      </c>
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>1207.7766446613491</v>
-      </c>
-      <c r="J8" s="18">
+        <v>1593.1401100151747</v>
+      </c>
+      <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>1209.1801647197562</v>
-      </c>
-      <c r="K8" s="18">
+        <v>1599.8726100151744</v>
+      </c>
+      <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>1262.2663977861712</v>
-      </c>
-      <c r="L8" s="18">
+        <v>1658.1326100151746</v>
+      </c>
+      <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>1313.0283230933701</v>
-      </c>
-      <c r="M8" s="18">
+        <v>1713.9176100151744</v>
+      </c>
+      <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>1318.9340515469612</v>
-      </c>
-      <c r="N8" s="18">
+        <v>1724.7001100151747</v>
+      </c>
+      <c r="N8" s="19">
         <f t="shared" si="0"/>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="O8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="O8" s="19">
         <f t="shared" si="0"/>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="P8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Q8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="R8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="S8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="T8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="U8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="V8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="W8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="X8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Y8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Z8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AA8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AB8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AC8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AD8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="AE8" s="18">
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
+        <v>568.32511001517457</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B291C5C-0D68-4026-BF5B-12E51E7484B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD49FB6-8DA8-4910-B887-5CA9FDF4C6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="1380" windowWidth="20940" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,8 +45,107 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Daniel O'Brien</author>
+    <author>tc={838D9E4A-FB93-4B31-99BC-34A5B3DDC0E3}</author>
+    <author>tc={741FCEA6-F177-4B34-877A-4D6E81B99010}</author>
+  </authors>
+  <commentList>
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{5360E313-EC74-4D8F-BAE2-E743E264FB32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel O'Brien:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Where data is available, we take the total ev subsidy spend and divide by the total sales of EVs in the state</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{F5AC01E3-5D5B-4469-AC39-12AA7E3BADD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel O'Brien:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BEV standard rebate reduced to 1500 on 1/1/25
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="1" shapeId="0" xr:uid="{838D9E4A-FB93-4B31-99BC-34A5B3DDC0E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adjust weighting for PA - only first 500 people get it</t>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="2" shapeId="0" xr:uid="{741FCEA6-F177-4B34-877A-4D6E81B99010}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adjust weighting for PA - only first 500 people get it</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
   <si>
     <t>Sources:</t>
   </si>
@@ -87,9 +186,6 @@
     <t>It also omits states that do not offer a rebate but do exempt EVs from sales, use, or excise taxes.</t>
   </si>
   <si>
-    <t>State Rebates + Tax Credits Updated 8/11/2021</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
@@ -120,9 +216,6 @@
     <t>LDV</t>
   </si>
   <si>
-    <t>Note: average of cars and truck subsidies, which are different</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -133,9 +226,6 @@
   </si>
   <si>
     <t>NY</t>
-  </si>
-  <si>
-    <t>Subsidy goes up to 2000 based on battery</t>
   </si>
   <si>
     <t>TX</t>
@@ -166,9 +256,6 @@
   </si>
   <si>
     <t>VT</t>
-  </si>
-  <si>
-    <t>Note: Up to 4000</t>
   </si>
   <si>
     <t>Rest of country</t>
@@ -300,31 +387,150 @@
     <t>AEO 2023</t>
   </si>
   <si>
-    <t>values from original IRA analysis</t>
-  </si>
-  <si>
     <t>Foreign Entities of Concern Multiplier</t>
   </si>
   <si>
     <t>BloombergNEF, MarkLines, Department of Energy</t>
   </si>
   <si>
-    <t>We assume a 56% cut in our original analysis to represent FEOC restrictions for the year 2024, based on BNEF data. We assume more restrictive guidance starting in 2025 will reduce the credit amount by 75%.</t>
+    <t>data 1</t>
+  </si>
+  <si>
+    <t>data 2</t>
+  </si>
+  <si>
+    <t>https://tax.colorado.gov/sites/tax/files/documents/ITT_Innovative_Motor_Vehicle_Credit_Feb_2024.pdf</t>
+  </si>
+  <si>
+    <t>https://portal.ct.gov/ceq/ar-23-gold/2023-ceq-annual-report-ebook/personal-impact---waste-diversion/transportation</t>
+  </si>
+  <si>
+    <t>https://data.delaware.gov/Energy-and-Environment/State-Rebates-for-Alternative-Fuel-Vehicles/8z8z-di7f/explore</t>
+  </si>
+  <si>
+    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Rebate-Stats</t>
+  </si>
+  <si>
+    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Map-of-EV-Registrations</t>
+  </si>
+  <si>
+    <t>https://cleanvehiclerebate.org/en/rebate-statistics</t>
+  </si>
+  <si>
+    <t>https://www.energy.ca.gov/data-reports/energy-almanac/zero-emission-vehicle-and-infrastructure-statistics-collection/new-zev</t>
+  </si>
+  <si>
+    <t>Note: value was previously 1500 but after digging I don’t believe LA has ever had a state tax credit</t>
+  </si>
+  <si>
+    <t>suspended all ev rebate programs starting in 2024</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>no longer funds program</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Note; renewed on annual basis, only for first 500</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>up to 4k if low income</t>
+  </si>
+  <si>
+    <t>https://evrebate.oregon.gov/rebate-statistics</t>
+  </si>
+  <si>
+    <t>https://www.oregon.gov/energy/Data-and-Reports/Pages/Oregon-Electric-Vehicle-Dashboard.aspx</t>
+  </si>
+  <si>
+    <t>up to 3.2k if low income</t>
+  </si>
+  <si>
+    <t>PHEV Subsidies</t>
+  </si>
+  <si>
+    <t>US average share of EVs leased vs purchased</t>
+  </si>
+  <si>
+    <t>https://www.experian.com/blogs/ask-experian/electric-vehicle-trends/</t>
+  </si>
+  <si>
+    <t>Inflation adjuster</t>
+  </si>
+  <si>
+    <t>Inflation Historical Data and Assumptions</t>
+  </si>
+  <si>
+    <t>2012............................................................................. .</t>
+  </si>
+  <si>
+    <t>2013............................................................................. .</t>
+  </si>
+  <si>
+    <t>2014............................................................................. .</t>
+  </si>
+  <si>
+    <t>2015............................................................................. .</t>
+  </si>
+  <si>
+    <t>2016............................................................................. .</t>
+  </si>
+  <si>
+    <t>2017............................................................................. .</t>
+  </si>
+  <si>
+    <t>2018............................................................................. .</t>
+  </si>
+  <si>
+    <t>2019............................................................................. .</t>
+  </si>
+  <si>
+    <t>2020............................................................................. .</t>
+  </si>
+  <si>
+    <t>2021............................................................................. .</t>
+  </si>
+  <si>
+    <t>2022............................................................................. .</t>
+  </si>
+  <si>
+    <t>2023............................................................................. .</t>
+  </si>
+  <si>
+    <t>2024............................................................................. .</t>
+  </si>
+  <si>
+    <t>Future inflation assumption:</t>
+  </si>
+  <si>
+    <t>These values come from our internal analysis of weighted 30D and 45W purchase and leasing credits. (ICCT spreadsheet)</t>
+  </si>
+  <si>
+    <t>State Rebates + Tax Credits Updated 1/30/25</t>
+  </si>
+  <si>
+    <t>Updated 2/11/25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +656,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +687,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -516,7 +753,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -590,8 +827,9 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,7 +845,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -649,12 +886,27 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="31" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="31" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="34">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Body: normal cell 2" xfId="24" xr:uid="{18BAE46B-2E2B-4189-9E60-EEC8494BA028}"/>
     <cellStyle name="Body: normal cell 3" xfId="17" xr:uid="{46606A30-9DB6-4D96-9D39-18DB8C25C045}"/>
     <cellStyle name="Body: normal cell 4" xfId="9" xr:uid="{23D7D41B-0FA5-4B15-8ACE-D94C027772C4}"/>
+    <cellStyle name="Currency" xfId="33" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="32" xr:uid="{C53AF8AC-2A66-4CBB-880E-1554F67B4888}"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Font: Calibri, 9pt regular 2" xfId="25" xr:uid="{97A6AFB7-D07D-4277-A8A5-6AA031407B07}"/>
@@ -745,6 +997,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Olivia Ashmoore" id="{810A4951-0CFA-4CDB-88D1-6340A66E89CD}" userId="S::olivia@energyinnovation.org::75aa6550-3462-4480-900f-0bd2e542e876" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,6 +1290,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D28" dT="2025-01-24T19:38:54.68" personId="{810A4951-0CFA-4CDB-88D1-6340A66E89CD}" id="{838D9E4A-FB93-4B31-99BC-34A5B3DDC0E3}">
+    <text>Adjust weighting for PA - only first 500 people get it</text>
+  </threadedComment>
+  <threadedComment ref="D48" dT="2025-01-24T19:38:54.68" personId="{810A4951-0CFA-4CDB-88D1-6340A66E89CD}" id="{741FCEA6-F177-4B34-877A-4D6E81B99010}">
+    <text>Adjust weighting for PA - only first 500 people get it</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
@@ -1054,13 +1323,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
+      <c r="B3" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1070,20 +1339,20 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>85</v>
+      <c r="B8" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -6654,11 +6923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
+  <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6666,264 +6935,159 @@
     <col min="1" max="1" width="45.453125" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B4">
         <v>2021</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2022</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>2023</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>2024</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>2025</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2026</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>2027</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>2028</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>2029</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>2030</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>2031</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>2032</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>2033</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>2034</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>2035</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>2036</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>2037</v>
       </c>
-      <c r="S3">
+      <c r="S4">
         <v>2038</v>
       </c>
-      <c r="T3">
+      <c r="T4">
         <v>2039</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>2040</v>
       </c>
-      <c r="V3">
+      <c r="V4">
         <v>2041</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>2042</v>
       </c>
-      <c r="X3">
+      <c r="X4">
         <v>2043</v>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <v>2044</v>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <v>2045</v>
       </c>
-      <c r="AA3">
+      <c r="AA4">
         <v>2046</v>
       </c>
-      <c r="AB3">
+      <c r="AB4">
         <v>2047</v>
       </c>
-      <c r="AC3">
+      <c r="AC4">
         <v>2048</v>
       </c>
-      <c r="AD3">
+      <c r="AD4">
         <v>2049</v>
       </c>
-      <c r="AE3">
+      <c r="AE4">
         <v>2050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>2435.88</v>
-      </c>
-      <c r="C4">
-        <v>1697.08</v>
-      </c>
-      <c r="D4">
-        <f>D9*(1-0.56)</f>
-        <v>1795.2747999999999</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:M4" si="0">E9*(1-0.56)</f>
-        <v>1761.5091999999997</v>
-      </c>
-      <c r="F4">
-        <f>F9*(1-0.75)</f>
-        <v>1102.7774999999999</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:M4" si="1">G9*(1-0.75)</f>
-        <v>1057.2825</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>1022.79</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>1024.8150000000001</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>1031.5474999999999</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>1089.8074999999999</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>1145.5925</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>1156.375</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>6652.72</v>
-      </c>
-      <c r="C5">
-        <v>3617.05</v>
-      </c>
-      <c r="D5">
-        <f>D10*(1-0.56)</f>
-        <v>1795.2747999999999</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:M5" si="2">E10*(1-0.56)</f>
-        <v>1761.5091999999997</v>
-      </c>
-      <c r="F5">
-        <f>F10*(1-0.75)</f>
-        <v>1102.7774999999999</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:M5" si="3">G10*(1-0.75)</f>
-        <v>1057.2825</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>1022.79</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>1024.8150000000001</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>1031.5474999999999</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>1089.8074999999999</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>1145.5925</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>1156.375</v>
+        <v>41</v>
+      </c>
+      <c r="B5" s="49">
+        <v>1646.4981124797289</v>
+      </c>
+      <c r="C5" s="49">
+        <v>1368.5857570401329</v>
+      </c>
+      <c r="D5" s="49">
+        <v>4795.9636566176632</v>
+      </c>
+      <c r="E5" s="49">
+        <v>3555.487701851609</v>
+      </c>
+      <c r="F5" s="49">
+        <v>3365.6876734116477</v>
+      </c>
+      <c r="G5" s="49">
+        <v>3118.2246810233032</v>
+      </c>
+      <c r="H5" s="49">
+        <v>2391.1775782482218</v>
+      </c>
+      <c r="I5" s="49">
+        <v>2424.5099210417061</v>
+      </c>
+      <c r="J5" s="49">
+        <v>2459.8873208312061</v>
+      </c>
+      <c r="K5" s="49">
+        <v>2497.1120748745493</v>
+      </c>
+      <c r="L5" s="49">
+        <v>2525.3972397122579</v>
+      </c>
+      <c r="M5" s="49">
+        <v>2552.5012628800359</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6981,575 +7145,542 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="49">
+        <v>6652.7185168992282</v>
+      </c>
+      <c r="C6" s="49">
+        <v>3617.050692978903</v>
+      </c>
+      <c r="D6" s="49">
+        <v>3481.1983222883337</v>
+      </c>
+      <c r="E6" s="49">
+        <v>2846.5223385773729</v>
+      </c>
+      <c r="F6" s="49">
+        <v>2396.2166523302549</v>
+      </c>
+      <c r="G6" s="49">
+        <v>2262.2795944248228</v>
+      </c>
+      <c r="H6" s="49">
+        <v>2133.3803923218893</v>
+      </c>
+      <c r="I6" s="49">
+        <v>2079.4479927022094</v>
+      </c>
+      <c r="J6" s="49">
+        <v>2027.1389823455879</v>
+      </c>
+      <c r="K6" s="49">
+        <v>1976.3952724267306</v>
+      </c>
+      <c r="L6" s="49">
+        <v>1926.1484722201324</v>
+      </c>
+      <c r="M6" s="49">
+        <v>1877.1377242807455</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8">
-        <v>2022</v>
-      </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
-      <c r="E8">
-        <v>2024</v>
-      </c>
-      <c r="F8">
-        <v>2025</v>
-      </c>
-      <c r="G8">
-        <v>2026</v>
-      </c>
-      <c r="H8">
-        <v>2027</v>
-      </c>
-      <c r="I8">
-        <v>2028</v>
-      </c>
-      <c r="J8">
-        <v>2029</v>
-      </c>
-      <c r="K8">
-        <v>2030</v>
-      </c>
-      <c r="L8">
-        <v>2031</v>
-      </c>
-      <c r="M8">
-        <v>2032</v>
-      </c>
-      <c r="N8">
-        <v>2033</v>
-      </c>
-      <c r="O8">
-        <v>2034</v>
-      </c>
-      <c r="P8">
-        <v>2035</v>
-      </c>
-      <c r="Q8">
-        <v>2036</v>
-      </c>
-      <c r="R8">
-        <v>2037</v>
-      </c>
-      <c r="S8">
-        <v>2038</v>
-      </c>
-      <c r="T8">
-        <v>2039</v>
-      </c>
-      <c r="U8">
-        <v>2040</v>
-      </c>
-      <c r="V8">
-        <v>2041</v>
-      </c>
-      <c r="W8">
-        <v>2042</v>
-      </c>
-      <c r="X8">
-        <v>2043</v>
-      </c>
-      <c r="Y8">
-        <v>2044</v>
-      </c>
-      <c r="Z8">
-        <v>2045</v>
-      </c>
-      <c r="AA8">
-        <v>2046</v>
-      </c>
-      <c r="AB8">
-        <v>2047</v>
-      </c>
-      <c r="AC8">
-        <v>2048</v>
-      </c>
-      <c r="AD8">
-        <v>2049</v>
-      </c>
-      <c r="AE8">
-        <v>2050</v>
-      </c>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>2435.88</v>
-      </c>
-      <c r="C9">
-        <v>1697.08</v>
-      </c>
-      <c r="D9">
-        <v>4080.17</v>
-      </c>
-      <c r="E9">
-        <v>4003.43</v>
-      </c>
-      <c r="F9">
-        <v>4411.1099999999997</v>
-      </c>
-      <c r="G9">
-        <v>4229.13</v>
-      </c>
-      <c r="H9">
-        <v>4091.16</v>
-      </c>
-      <c r="I9">
-        <v>4099.26</v>
-      </c>
-      <c r="J9">
-        <v>4126.1899999999996</v>
-      </c>
-      <c r="K9">
-        <v>4359.2299999999996</v>
-      </c>
-      <c r="L9">
-        <v>4582.37</v>
-      </c>
-      <c r="M9">
-        <v>4625.5</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
+      <c r="A9" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>6652.72</v>
-      </c>
-      <c r="C10">
-        <v>3617.05</v>
-      </c>
-      <c r="D10">
-        <v>4080.17</v>
-      </c>
-      <c r="E10">
-        <v>4003.43</v>
-      </c>
-      <c r="F10">
-        <v>4411.1099999999997</v>
-      </c>
-      <c r="G10">
-        <v>4229.13</v>
-      </c>
-      <c r="H10">
-        <v>4091.16</v>
-      </c>
-      <c r="I10">
-        <v>4099.26</v>
-      </c>
-      <c r="J10">
-        <v>4126.1899999999996</v>
-      </c>
-      <c r="K10">
-        <v>4359.2299999999996</v>
-      </c>
-      <c r="L10">
-        <v>4582.37</v>
-      </c>
-      <c r="M10">
-        <v>4625.5</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7"/>
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ref="E16:J16" si="0">D16+1</f>
+        <v>2021</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>17</v>
+      <c r="A17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="45">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="48">
+        <f>2000*D76+4000*(1-D76)</f>
+        <v>3506.6</v>
+      </c>
+      <c r="E17" s="37">
+        <f>1500*E76+2500*(1-E76)</f>
+        <v>2190.8000000000002</v>
+      </c>
+      <c r="F17" s="37">
+        <f>1500*F76+2500*(1-F76)</f>
+        <v>2359</v>
+      </c>
+      <c r="G17" s="37">
+        <f>0.5*(1500*G76+2500*(1-G76))+0.5*(5000)</f>
+        <v>3641.35</v>
+      </c>
+      <c r="H17" s="37">
+        <v>5000</v>
+      </c>
+      <c r="I17" s="37">
+        <v>3500</v>
+      </c>
+      <c r="J17" s="37">
+        <f>I17</f>
+        <v>3500</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8"/>
+      <c r="A18" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="45">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="37">
+        <f>613500/(7880-5480)</f>
+        <v>255.625</v>
+      </c>
+      <c r="E18" s="37">
+        <f>1079750/(12513-7880)</f>
+        <v>233.05633498812864</v>
+      </c>
+      <c r="F18" s="37">
+        <f>1468250/(18509-12513)</f>
+        <v>244.87158105403603</v>
+      </c>
+      <c r="G18" s="37">
+        <f>7744000/(27709-18509)</f>
+        <v>841.73913043478262</v>
+      </c>
+      <c r="H18" s="37">
+        <f>11982750/(27146*27709/44313)</f>
+        <v>705.92888732943345</v>
+      </c>
+      <c r="I18" s="37">
+        <f>H18*1500/2250</f>
+        <v>470.61925821962228</v>
+      </c>
+      <c r="J18" s="37">
+        <f>I18</f>
+        <v>470.61925821962228</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="46">
+        <v>0.96799999999999997</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" ref="E19:J19" si="4">D19+1</f>
-        <v>2021</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="4"/>
-        <v>2022</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="4"/>
-        <v>2023</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="4"/>
-        <v>2024</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="4"/>
-        <v>2025</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="4"/>
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="D19" s="38">
+        <f>852000/311</f>
+        <v>2739.5498392282957</v>
+      </c>
+      <c r="E19" s="38">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
+      <c r="F19" s="38">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
+      <c r="G19" s="38">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
+      <c r="H19" s="38">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
+      <c r="I19" s="38">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
+      <c r="J19" s="38">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="46">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8">
-        <v>5.6849999999999996</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="8">
-        <v>4750</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4750</v>
-      </c>
-      <c r="F20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="J20" s="8">
-        <v>2400</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D20" s="38">
+        <f>17436700/10692</f>
+        <v>1630.8174335952115</v>
+      </c>
+      <c r="E20" s="38">
+        <f>18953100/20836</f>
+        <v>909.63236705701672</v>
+      </c>
+      <c r="F20" s="38">
+        <f>16215000/28241</f>
+        <v>574.16522077830109</v>
+      </c>
+      <c r="G20" s="38">
+        <f>26945500/48746</f>
+        <v>552.77356090756166</v>
+      </c>
+      <c r="H20" s="38">
+        <f>19221500/54664</f>
+        <v>351.62995755890529</v>
+      </c>
+      <c r="I20" s="38">
+        <f>H20</f>
+        <v>351.62995755890529</v>
+      </c>
+      <c r="J20" s="38">
+        <f>I20</f>
+        <v>351.62995755890529</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8">
-        <v>3.5710000000000002</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="46">
+        <v>28.64</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="E21" s="8">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="F21" s="8">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8">
-        <v>2250</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="R21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.96799999999999997</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="46">
+        <v>39.35</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G22" s="8">
-        <v>2500</v>
+        <v>22</v>
+      </c>
+      <c r="D22" s="38">
+        <f>80255483/(100377+5569)</f>
+        <v>757.51310101372394</v>
+      </c>
+      <c r="E22" s="38">
+        <f>103494583/(152400+7866)</f>
+        <v>645.76755518949744</v>
+      </c>
+      <c r="F22" s="38">
+        <f>88529166/(256315+5761)</f>
+        <v>337.79959248462279</v>
+      </c>
+      <c r="G22" s="38">
+        <f>310602850/(371002+3666)</f>
+        <v>829.00821527325525</v>
       </c>
       <c r="H22" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8">
-        <v>2500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="11">
+        <v>30</v>
+      </c>
+      <c r="B23" s="46">
+        <v>4.665</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="47">
+        <v>1.341</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8">
         <v>2000</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="8">
         <v>2000</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="8">
         <v>2000</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="8">
         <v>2000</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="8">
         <v>2000</v>
       </c>
-      <c r="I23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="8">
-        <v>28.64</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
       <c r="I24" s="8">
         <v>0</v>
       </c>
       <c r="J24" s="8">
         <v>0</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="13"/>
+      <c r="K24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8">
-        <v>39.35</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>23</v>
+      <c r="A25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="47">
+        <v>5.7169999999999996</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>2500</v>
@@ -7558,246 +7689,269 @@
         <v>2500</v>
       </c>
       <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="47">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8">
         <v>2500</v>
       </c>
-      <c r="J25" s="8">
+      <c r="E26" s="8">
         <v>2500</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="F26" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <v>4.665</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="B27" s="47">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H27" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I27" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J27" s="8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="47">
+        <f>500/10^6</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H28" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J28" s="8">
+        <v>3000</v>
+      </c>
+      <c r="K28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="47">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
         <v>1500</v>
       </c>
-      <c r="E26" s="14">
+      <c r="G29" s="8">
         <v>1500</v>
       </c>
-      <c r="F26" s="14">
+      <c r="H29" s="8">
         <v>1500</v>
       </c>
-      <c r="G26" s="14">
+      <c r="I29" s="8">
         <v>1500</v>
       </c>
-      <c r="H26" s="14">
+      <c r="J29" s="8">
         <v>1500</v>
       </c>
-      <c r="I26" s="14">
-        <v>1500</v>
-      </c>
-      <c r="J26" s="14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="8">
-        <v>1.341</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="B30" s="47">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8">
         <v>2000</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E30" s="8">
         <v>2000</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F30" s="8">
         <v>2000</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G30" s="8">
         <v>2000</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H30" s="8">
         <v>2000</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I30" s="8">
         <v>2000</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J30" s="8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="K30" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="8">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J28" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="B31" s="47">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="38">
+        <f>9294500/3753</f>
+        <v>2476.5520916600053</v>
+      </c>
+      <c r="E31" s="38">
+        <f>14303500/7764</f>
+        <v>1842.284904688305</v>
+      </c>
+      <c r="F31" s="38">
+        <f>19442500/12379</f>
+        <v>1570.6034413118991</v>
+      </c>
+      <c r="G31" s="38">
+        <f>13295000/19790</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="H31" s="38">
+        <f>G31</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="I31" s="38">
+        <f>H31</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="J31" s="38">
+        <f>I31</f>
+        <v>671.80394138453767</v>
+      </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="8">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J29" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="B32" s="47">
+        <v>0.624</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="39">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="39">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="39">
+        <v>2200</v>
+      </c>
+      <c r="G32" s="39">
+        <v>2200</v>
+      </c>
+      <c r="H32" s="39">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="39">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="39">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="8">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J30" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="8">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0.624</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="I32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="J32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="8">
-        <f>B34-SUM(B20:B32)</f>
-        <v>210.304</v>
+      <c r="B33" s="46">
+        <f>B34-SUM(B17:B32)</f>
+        <v>203.49250000000001</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8">
@@ -7823,635 +7977,2082 @@
       </c>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" s="8">
         <v>329.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" ref="E36:J36" si="1">D36+1</f>
+        <v>2021</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="36">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="37">
+        <f>D17</f>
+        <v>3506.6</v>
+      </c>
+      <c r="E37" s="37">
+        <f t="shared" ref="E37:J37" si="2">E17</f>
+        <v>2190.8000000000002</v>
+      </c>
+      <c r="F37" s="37">
+        <f t="shared" si="2"/>
+        <v>2359</v>
+      </c>
+      <c r="G37" s="37">
+        <f t="shared" si="2"/>
+        <v>3641.35</v>
+      </c>
+      <c r="H37" s="37">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I37" s="37">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="J37" s="37">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="36">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="37">
+        <f>128000/255</f>
+        <v>501.96078431372547</v>
+      </c>
+      <c r="E38" s="37">
+        <f>537750/(8827-5893)</f>
+        <v>183.28220858895705</v>
+      </c>
+      <c r="F38" s="37">
+        <f>412000/(11615-8827)</f>
+        <v>147.77618364418939</v>
+      </c>
+      <c r="G38" s="37">
+        <f>512500/(16517-11615)</f>
+        <v>104.54916360669115</v>
+      </c>
+      <c r="H38" s="37">
+        <f>685000/(27146*16517/44313)</f>
+        <v>67.69938302941182</v>
+      </c>
+      <c r="I38" s="37">
+        <f>H38</f>
+        <v>67.69938302941182</v>
+      </c>
+      <c r="J38" s="37">
+        <f t="shared" ref="J38" si="3">I38</f>
+        <v>67.69938302941182</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="38">
+        <f>104500/97</f>
+        <v>1077.319587628866</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="38">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="38">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="38">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="38">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="38">
+        <v>1000</v>
+      </c>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="8">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="38">
+        <f>4684500/6464</f>
+        <v>724.7060643564356</v>
+      </c>
+      <c r="E40" s="38">
+        <f>9996000/14360</f>
+        <v>696.10027855153203</v>
+      </c>
+      <c r="F40" s="38">
+        <f>5049700/14312</f>
+        <v>352.82979318054777</v>
+      </c>
+      <c r="G40" s="38">
+        <f>8627000/30164</f>
+        <v>286.00318260177693</v>
+      </c>
+      <c r="H40" s="38">
+        <f>7694000/35557</f>
+        <v>216.38495936102595</v>
+      </c>
+      <c r="I40" s="38">
+        <f>H40</f>
+        <v>216.38495936102595</v>
+      </c>
+      <c r="J40" s="38">
+        <f>I40</f>
+        <v>216.38495936102595</v>
+      </c>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="8">
+        <v>28.64</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="8">
+        <v>39.35</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="38">
+        <f>12007419/38153</f>
+        <v>314.71755825229997</v>
+      </c>
+      <c r="E42" s="38">
+        <f>10067604/53090</f>
+        <v>189.6327745338105</v>
+      </c>
+      <c r="F42" s="38">
+        <f>3681500/(43689)</f>
+        <v>84.266062395568682</v>
+      </c>
+      <c r="G42" s="38">
+        <f>8757316/(63496)</f>
+        <v>137.9191760110873</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="8">
+        <v>4.665</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1.341</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5.7169999999999996</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H45" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="7">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H46" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J46" s="8">
+        <v>3000</v>
+      </c>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G47" s="8">
+        <f>G27*0.5</f>
+        <v>1750</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="7">
+        <f>500/10^6</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H48" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I48" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J48" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="7">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="8">
+        <f>1843000/1494</f>
+        <v>1233.6010709504685</v>
+      </c>
+      <c r="E51" s="8">
+        <f>4828500/4476</f>
+        <v>1078.7533512064342</v>
+      </c>
+      <c r="F51" s="8">
+        <f>5495500/4897</f>
+        <v>1122.217684296508</v>
+      </c>
+      <c r="G51" s="38">
+        <f>2876000/6464</f>
+        <v>444.92574257425741</v>
+      </c>
+      <c r="H51" s="38">
+        <f>G51</f>
+        <v>444.92574257425741</v>
+      </c>
+      <c r="I51" s="38">
+        <f>H51</f>
+        <v>444.92574257425741</v>
+      </c>
+      <c r="J51" s="38">
+        <f>I51</f>
+        <v>444.92574257425741</v>
+      </c>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="39">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="39">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="39">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="39">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="39">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="39">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="39">
+        <v>1000</v>
+      </c>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="8">
+        <f>B54-SUM(B37:B52)</f>
+        <v>203.49250000000001</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="8">
+        <v>329.5</v>
+      </c>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C41">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C62">
         <v>2021</v>
       </c>
-      <c r="D41">
+      <c r="D62">
         <v>2022</v>
       </c>
-      <c r="E41">
+      <c r="E62">
         <v>2023</v>
       </c>
-      <c r="F41">
+      <c r="F62">
         <v>2024</v>
       </c>
-      <c r="G41">
+      <c r="G62">
         <v>2025</v>
       </c>
-      <c r="H41">
+      <c r="H62">
         <v>2026</v>
       </c>
-      <c r="I41">
+      <c r="I62">
         <v>2027</v>
       </c>
-      <c r="J41">
+      <c r="J62">
         <v>2028</v>
       </c>
-      <c r="K41">
+      <c r="K62">
         <v>2029</v>
       </c>
-      <c r="L41">
+      <c r="L62">
         <v>2030</v>
       </c>
-      <c r="M41">
+      <c r="M62">
         <v>2031</v>
       </c>
-      <c r="N41">
+      <c r="N62">
         <v>2032</v>
       </c>
-      <c r="O41">
+      <c r="O62">
         <v>2033</v>
       </c>
-      <c r="P41">
+      <c r="P62">
         <v>2034</v>
       </c>
-      <c r="Q41">
+      <c r="Q62">
         <v>2035</v>
       </c>
-      <c r="R41">
+      <c r="R62">
         <v>2036</v>
       </c>
-      <c r="S41">
+      <c r="S62">
         <v>2037</v>
       </c>
-      <c r="T41">
+      <c r="T62">
         <v>2038</v>
       </c>
-      <c r="U41">
+      <c r="U62">
         <v>2039</v>
       </c>
-      <c r="V41">
+      <c r="V62">
         <v>2040</v>
       </c>
-      <c r="W41">
+      <c r="W62">
         <v>2041</v>
       </c>
-      <c r="X41">
+      <c r="X62">
         <v>2042</v>
       </c>
-      <c r="Y41">
+      <c r="Y62">
         <v>2043</v>
       </c>
-      <c r="Z41">
+      <c r="Z62">
         <v>2044</v>
       </c>
-      <c r="AA41">
+      <c r="AA62">
         <v>2045</v>
       </c>
-      <c r="AB41">
+      <c r="AB62">
         <v>2046</v>
       </c>
-      <c r="AC41">
+      <c r="AC62">
         <v>2047</v>
       </c>
-      <c r="AD41">
+      <c r="AD62">
         <v>2048</v>
       </c>
-      <c r="AE41">
+      <c r="AE62">
         <v>2049</v>
       </c>
-      <c r="AF41">
+      <c r="AF62">
         <v>2050</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C42" s="5">
-        <f t="shared" ref="C42:H42" si="5">SUMPRODUCT(E20:E33,$B$20:$B$33)/SUM($B$20:$B$33)*$B$38</f>
-        <v>600.15334597875574</v>
-      </c>
-      <c r="D42" s="5">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C63" s="5">
+        <f>SUMPRODUCT(E17:E33,$B$17:$B$33)/SUM($B$17:$B$33)*L79</f>
+        <v>284.24236864339406</v>
+      </c>
+      <c r="D63" s="5">
+        <f>SUMPRODUCT(F17:F33,$B$17:$B$33)/SUM($B$17:$B$33)*M79</f>
+        <v>231.21682138187734</v>
+      </c>
+      <c r="E63" s="5">
+        <f>SUMPRODUCT(G17:G33,$B$17:$B$33)/SUM($B$17:$B$33)*N79</f>
+        <v>334.13793520947195</v>
+      </c>
+      <c r="F63" s="5">
+        <f>SUMPRODUCT(H17:H33,$B$17:$B$33)/SUM($B$17:$B$33)*O79</f>
+        <v>264.43888586266991</v>
+      </c>
+      <c r="G63" s="5">
+        <f>SUMPRODUCT(I17:I33,$B$17:$B$33)/SUM($B$17:$B$33)*P79</f>
+        <v>199.92712908586196</v>
+      </c>
+      <c r="H63" s="5">
+        <f>SUMPRODUCT(J17:J33,$B$17:$B$33)/SUM($B$17:$B$33)*Q79</f>
+        <v>194.10400882122519</v>
+      </c>
+      <c r="I63" s="5">
+        <f>H63*R79/Q79</f>
+        <v>188.4504940011895</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" ref="J63:Q63" si="4">I63*S79/R79</f>
+        <v>182.96164466134903</v>
+      </c>
+      <c r="K63" s="5">
+        <f t="shared" si="4"/>
+        <v>177.63266471975632</v>
+      </c>
+      <c r="L63" s="5">
+        <f t="shared" si="4"/>
+        <v>172.45889778617118</v>
+      </c>
+      <c r="M63" s="5">
+        <f t="shared" si="4"/>
+        <v>167.43582309337009</v>
+      </c>
+      <c r="N63" s="5">
+        <f t="shared" si="4"/>
+        <v>162.55905154696123</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="4"/>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="P63" s="5">
+        <f t="shared" si="4"/>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="Q63" s="5">
+        <f t="shared" si="4"/>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5">
+        <v>0</v>
+      </c>
+      <c r="U63" s="5">
+        <v>0</v>
+      </c>
+      <c r="V63" s="5">
+        <v>0</v>
+      </c>
+      <c r="W63" s="5">
+        <v>0</v>
+      </c>
+      <c r="X63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C64" s="5">
+        <f>SUMPRODUCT(E37:E53,$B$37:$B$53)/SUM($B$37:$B$53)*L79</f>
+        <v>215.72168420258612</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" ref="D64:H64" si="5">SUMPRODUCT(F37:F53,$B$37:$B$53)/SUM($B$37:$B$53)*M79</f>
+        <v>188.02811316670545</v>
+      </c>
+      <c r="E64" s="5">
         <f t="shared" si="5"/>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="E42" s="5">
+        <v>181.15698643889937</v>
+      </c>
+      <c r="F64" s="5">
         <f t="shared" si="5"/>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="F42" s="5">
+        <v>152.76346597230366</v>
+      </c>
+      <c r="G64" s="5">
         <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="G42" s="5">
+        <v>96.20855199074947</v>
+      </c>
+      <c r="H64" s="5">
         <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="5"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="I42" s="5">
-        <f>H42</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" ref="J42:AF42" si="6">I42</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="K42" s="5">
+        <v>93.406361156067433</v>
+      </c>
+      <c r="I64" s="5">
+        <f>H64*R79/Q79</f>
+        <v>90.685787530162571</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" ref="J64:Q64" si="6">I64*S79/R79</f>
+        <v>88.04445391277919</v>
+      </c>
+      <c r="K64" s="5">
         <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="L42" s="5">
+        <v>85.480052342504052</v>
+      </c>
+      <c r="L64" s="5">
         <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="M42" s="5">
+        <v>82.990342080101016</v>
+      </c>
+      <c r="M64" s="5">
         <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="N42" s="5">
+        <v>80.573147650583522</v>
+      </c>
+      <c r="N64" s="5">
         <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O42" s="5">
+        <v>78.226356942314084</v>
+      </c>
+      <c r="O64" s="5">
         <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P42" s="5">
+        <v>75.947919361469985</v>
+      </c>
+      <c r="P64" s="5">
         <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q42" s="5">
+        <v>73.735844040262123</v>
+      </c>
+      <c r="Q64" s="5">
         <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF42" s="5">
-        <f t="shared" si="6"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C45">
+        <v>71.588198097341873</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="5">
+        <v>0</v>
+      </c>
+      <c r="T64" s="5">
+        <v>0</v>
+      </c>
+      <c r="U64" s="5">
+        <v>0</v>
+      </c>
+      <c r="V64" s="5">
+        <v>0</v>
+      </c>
+      <c r="W64" s="5">
+        <v>0</v>
+      </c>
+      <c r="X64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C67">
         <v>2021</v>
       </c>
-      <c r="D45">
+      <c r="D67">
         <v>2022</v>
       </c>
-      <c r="E45">
+      <c r="E67">
         <v>2023</v>
       </c>
-      <c r="F45">
+      <c r="F67">
         <v>2024</v>
       </c>
-      <c r="G45">
+      <c r="G67">
         <v>2025</v>
       </c>
-      <c r="H45">
+      <c r="H67">
         <v>2026</v>
       </c>
-      <c r="I45">
+      <c r="I67">
         <v>2027</v>
       </c>
-      <c r="J45">
+      <c r="J67">
         <v>2028</v>
       </c>
-      <c r="K45">
+      <c r="K67">
         <v>2029</v>
       </c>
-      <c r="L45">
+      <c r="L67">
         <v>2030</v>
       </c>
-      <c r="M45">
+      <c r="M67">
         <v>2031</v>
       </c>
-      <c r="N45">
+      <c r="N67">
         <v>2032</v>
       </c>
-      <c r="O45">
+      <c r="O67">
         <v>2033</v>
       </c>
-      <c r="P45">
+      <c r="P67">
         <v>2034</v>
       </c>
-      <c r="Q45">
+      <c r="Q67">
         <v>2035</v>
       </c>
-      <c r="R45">
+      <c r="R67">
         <v>2036</v>
       </c>
-      <c r="S45">
+      <c r="S67">
         <v>2037</v>
       </c>
-      <c r="T45">
+      <c r="T67">
         <v>2038</v>
       </c>
-      <c r="U45">
+      <c r="U67">
         <v>2039</v>
       </c>
-      <c r="V45">
+      <c r="V67">
         <v>2040</v>
       </c>
-      <c r="W45">
+      <c r="W67">
         <v>2041</v>
       </c>
-      <c r="X45">
+      <c r="X67">
         <v>2042</v>
       </c>
-      <c r="Y45">
+      <c r="Y67">
         <v>2043</v>
       </c>
-      <c r="Z45">
+      <c r="Z67">
         <v>2044</v>
       </c>
-      <c r="AA45">
+      <c r="AA67">
         <v>2045</v>
       </c>
-      <c r="AB45">
+      <c r="AB67">
         <v>2046</v>
       </c>
-      <c r="AC45">
+      <c r="AC67">
         <v>2047</v>
       </c>
-      <c r="AD45">
+      <c r="AD67">
         <v>2048</v>
       </c>
-      <c r="AE45">
+      <c r="AE67">
         <v>2049</v>
       </c>
-      <c r="AF45">
+      <c r="AF67">
         <v>2050</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <f t="shared" ref="C46:AF46" si="7">B4+C42</f>
-        <v>3036.0333459787557</v>
-      </c>
-      <c r="D46" s="5">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5">
+        <f>B5+C63</f>
+        <v>1930.7404811231229</v>
+      </c>
+      <c r="D68" s="5">
+        <f>C5+D63</f>
+        <v>1599.8025784220101</v>
+      </c>
+      <c r="E68" s="5">
+        <f>D5+E63</f>
+        <v>5130.1015918271351</v>
+      </c>
+      <c r="F68" s="5">
+        <f>E5+F63</f>
+        <v>3819.9265877142789</v>
+      </c>
+      <c r="G68" s="5">
+        <f>F5+G63</f>
+        <v>3565.6148024975096</v>
+      </c>
+      <c r="H68" s="5">
+        <f>G5+H63</f>
+        <v>3312.3286898445285</v>
+      </c>
+      <c r="I68" s="5">
+        <f>H5+I63</f>
+        <v>2579.6280722494112</v>
+      </c>
+      <c r="J68" s="5">
+        <f>I5+J63</f>
+        <v>2607.4715657030551</v>
+      </c>
+      <c r="K68" s="5">
+        <f>J5+K63</f>
+        <v>2637.5199855509622</v>
+      </c>
+      <c r="L68" s="5">
+        <f>K5+L63</f>
+        <v>2669.5709726607206</v>
+      </c>
+      <c r="M68" s="5">
+        <f>L5+M63</f>
+        <v>2692.8330628056278</v>
+      </c>
+      <c r="N68" s="5">
+        <f>M5+N63</f>
+        <v>2715.0603144269971</v>
+      </c>
+      <c r="O68" s="5">
+        <f>N5+O63</f>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="P68" s="5">
+        <f>O5+P63</f>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="Q68" s="5">
+        <f>P5+Q63</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R68" s="5">
+        <f>Q5+R63</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="5">
+        <f>R5+S63</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="5">
+        <f>S5+T63</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="5">
+        <f>T5+U63</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="5">
+        <f>U5+V63</f>
+        <v>0</v>
+      </c>
+      <c r="W68" s="5">
+        <f>V5+W63</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="5">
+        <f>W5+X63</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="5">
+        <f>X5+Y63</f>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="5">
+        <f>Y5+Z63</f>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="5">
+        <f>Z5+AA63</f>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="5">
+        <f>AA5+AB63</f>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="5">
+        <f>AB5+AC63</f>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="5">
+        <f>AC5+AD63</f>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="5">
+        <f>AD5+AE63</f>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="5">
+        <f>AE5+AF63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="5">
+        <f>B6+C63</f>
+        <v>6936.9608855426222</v>
+      </c>
+      <c r="D69" s="5">
+        <f>C6+D63</f>
+        <v>3848.2675143607803</v>
+      </c>
+      <c r="E69" s="5">
+        <f>D6+E63</f>
+        <v>3815.3362574978055</v>
+      </c>
+      <c r="F69" s="5">
+        <f>E6+F63</f>
+        <v>3110.9612244400428</v>
+      </c>
+      <c r="G69" s="5">
+        <f>F6+G63</f>
+        <v>2596.1437814161168</v>
+      </c>
+      <c r="H69" s="5">
+        <f>G6+H63</f>
+        <v>2456.3836032460481</v>
+      </c>
+      <c r="I69" s="5">
+        <f>H6+I63</f>
+        <v>2321.8308863230786</v>
+      </c>
+      <c r="J69" s="5">
+        <f>I6+J63</f>
+        <v>2262.4096373635584</v>
+      </c>
+      <c r="K69" s="5">
+        <f>J6+K63</f>
+        <v>2204.771647065344</v>
+      </c>
+      <c r="L69" s="5">
+        <f>K6+L63</f>
+        <v>2148.8541702129019</v>
+      </c>
+      <c r="M69" s="5">
+        <f>L6+M63</f>
+        <v>2093.5842953135025</v>
+      </c>
+      <c r="N69" s="5">
+        <f>M6+N63</f>
+        <v>2039.6967758277067</v>
+      </c>
+      <c r="O69" s="5">
+        <f>N6+O63</f>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="P69" s="5">
+        <f>O6+P63</f>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="Q69" s="5">
+        <f>P6+Q63</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="R69" s="5">
+        <f>Q6+R63</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="5">
+        <f>R6+S63</f>
+        <v>0</v>
+      </c>
+      <c r="T69" s="5">
+        <f>S6+T63</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="5">
+        <f>T6+U63</f>
+        <v>0</v>
+      </c>
+      <c r="V69" s="5">
+        <f>U6+V63</f>
+        <v>0</v>
+      </c>
+      <c r="W69" s="5">
+        <f>V6+W63</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="5">
+        <f>W6+X63</f>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="5">
+        <f>X6+Y63</f>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="5">
+        <f>Y6+Z63</f>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="5">
+        <f>Z6+AA63</f>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="5">
+        <f>AA6+AB63</f>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="5">
+        <f>AB6+AC63</f>
+        <v>0</v>
+      </c>
+      <c r="AD69" s="5">
+        <f>AC6+AD63</f>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="5">
+        <f>AD6+AE63</f>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="5">
+        <f>AE6+AF63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="D73" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="D74" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="D75" s="22">
+        <v>2020</v>
+      </c>
+      <c r="E75" s="22">
+        <v>2021</v>
+      </c>
+      <c r="F75" s="22">
+        <v>2022</v>
+      </c>
+      <c r="G75" s="22">
+        <v>2023</v>
+      </c>
+      <c r="H75" s="22">
+        <v>2024</v>
+      </c>
+      <c r="I75" s="22">
+        <v>2025</v>
+      </c>
+      <c r="J75" s="22">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="D76" s="40">
+        <v>0.2467</v>
+      </c>
+      <c r="E76" s="40">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="F76" s="40">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G76" s="40">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="H76" s="40">
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="I76" s="41">
+        <f>H76</f>
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="J76" s="42">
+        <f>I76</f>
+        <v>0.46560000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22">
+        <v>2012</v>
+      </c>
+      <c r="D78" s="22">
+        <v>2013</v>
+      </c>
+      <c r="E78" s="22">
+        <v>2014</v>
+      </c>
+      <c r="F78" s="22">
+        <v>2015</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2016</v>
+      </c>
+      <c r="H78" s="22">
+        <v>2017</v>
+      </c>
+      <c r="I78" s="22">
+        <v>2018</v>
+      </c>
+      <c r="J78" s="22">
+        <v>2019</v>
+      </c>
+      <c r="K78" s="22">
+        <v>2020</v>
+      </c>
+      <c r="L78" s="22">
+        <v>2021</v>
+      </c>
+      <c r="M78" s="22">
+        <v>2022</v>
+      </c>
+      <c r="N78" s="22">
+        <v>2023</v>
+      </c>
+      <c r="O78" s="22">
+        <v>2024</v>
+      </c>
+      <c r="P78" s="22">
+        <v>2025</v>
+      </c>
+      <c r="Q78" s="22">
+        <v>2026</v>
+      </c>
+      <c r="R78" s="22">
+        <v>2027</v>
+      </c>
+      <c r="S78" s="22">
+        <v>2028</v>
+      </c>
+      <c r="T78" s="22">
+        <v>2029</v>
+      </c>
+      <c r="U78" s="22">
+        <v>2030</v>
+      </c>
+      <c r="V78" s="22">
+        <v>2031</v>
+      </c>
+      <c r="W78" s="22">
+        <v>2032</v>
+      </c>
+      <c r="X78" s="22">
+        <v>2033</v>
+      </c>
+      <c r="Y78" s="22">
+        <v>2034</v>
+      </c>
+      <c r="Z78" s="22">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B79" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="43" cm="1">
+        <f t="array" ref="C79:Z79">TRANSPOSE(G84:G107)</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="43">
+        <v>0.98556385942470071</v>
+      </c>
+      <c r="E79" s="43">
+        <v>0.96983137334414704</v>
+      </c>
+      <c r="F79" s="43">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="G79" s="43">
+        <v>0.95661376543184151</v>
+      </c>
+      <c r="H79" s="43">
+        <v>0.93665959530026111</v>
+      </c>
+      <c r="I79" s="43">
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="J79" s="43">
+        <v>0.89805481563188172</v>
+      </c>
+      <c r="K79" s="43">
+        <v>0.88711067149387013</v>
+      </c>
+      <c r="L79" s="43">
+        <v>0.84730412960844359</v>
+      </c>
+      <c r="M79" s="43">
+        <v>0.78452102304761584</v>
+      </c>
+      <c r="N79" s="43">
+        <v>0.75350342301658668</v>
+      </c>
+      <c r="O79" s="43">
+        <v>0.73191600598044548</v>
+      </c>
+      <c r="P79" s="44">
+        <v>0.71059806405868498</v>
+      </c>
+      <c r="Q79" s="44">
+        <v>0.68990103306668438</v>
+      </c>
+      <c r="R79" s="44">
+        <v>0.66980682822008197</v>
+      </c>
+      <c r="S79" s="44">
+        <v>0.65029789147580774</v>
+      </c>
+      <c r="T79" s="44">
+        <v>0.63135717619010456</v>
+      </c>
+      <c r="U79" s="44">
+        <v>0.61296813222340252</v>
+      </c>
+      <c r="V79" s="44">
+        <v>0.59511469147903162</v>
+      </c>
+      <c r="W79" s="44">
+        <v>0.57778125386313739</v>
+      </c>
+      <c r="X79" s="44">
+        <v>0.56095267365353152</v>
+      </c>
+      <c r="Y79" s="44">
+        <v>0.54461424626556454</v>
+      </c>
+      <c r="Z79" s="44">
+        <v>0.52875169540346068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="15"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84">
+        <v>228.85</v>
+      </c>
+      <c r="C84">
+        <v>230.33799999999999</v>
+      </c>
+      <c r="D84">
+        <v>229.59399999999999</v>
+      </c>
+      <c r="E84">
+        <v>1.7</v>
+      </c>
+      <c r="F84">
+        <v>2.1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85">
+        <v>232.36600000000001</v>
+      </c>
+      <c r="C85">
+        <v>233.548</v>
+      </c>
+      <c r="D85">
+        <v>232.95699999999999</v>
+      </c>
+      <c r="E85">
+        <v>1.5</v>
+      </c>
+      <c r="F85">
+        <v>1.5</v>
+      </c>
+      <c r="G85">
+        <v>0.98556385942470071</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86">
+        <v>236.38399999999999</v>
+      </c>
+      <c r="C86">
+        <v>237.08799999999999</v>
+      </c>
+      <c r="D86">
+        <v>236.73599999999999</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>1.6</v>
+      </c>
+      <c r="G86">
+        <v>0.96983137334414704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87">
+        <v>236.26499999999999</v>
+      </c>
+      <c r="C87">
+        <v>237.76900000000001</v>
+      </c>
+      <c r="D87">
+        <v>237.017</v>
+      </c>
+      <c r="E87">
+        <v>0.7</v>
+      </c>
+      <c r="F87">
+        <v>0.1</v>
+      </c>
+      <c r="G87">
+        <v>0.9686815713640794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88">
+        <v>238.77799999999999</v>
+      </c>
+      <c r="C88">
+        <v>241.23699999999999</v>
+      </c>
+      <c r="D88">
+        <v>240.00700000000001</v>
+      </c>
+      <c r="E88">
+        <v>2.1</v>
+      </c>
+      <c r="F88">
+        <v>1.3</v>
+      </c>
+      <c r="G88">
+        <v>0.95661376543184151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89">
+        <v>244.07599999999999</v>
+      </c>
+      <c r="C89">
+        <v>246.16300000000001</v>
+      </c>
+      <c r="D89">
+        <v>245.12</v>
+      </c>
+      <c r="E89">
+        <v>2.1</v>
+      </c>
+      <c r="F89">
+        <v>2.1</v>
+      </c>
+      <c r="G89">
+        <v>0.93665959530026111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90">
+        <v>250.089</v>
+      </c>
+      <c r="C90">
+        <v>252.125</v>
+      </c>
+      <c r="D90">
+        <v>251.107</v>
+      </c>
+      <c r="E90">
+        <v>1.9</v>
+      </c>
+      <c r="F90">
+        <v>2.4</v>
+      </c>
+      <c r="G90">
+        <v>0.9143273584567535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91">
+        <v>254.41200000000001</v>
+      </c>
+      <c r="C91">
+        <v>256.90300000000002</v>
+      </c>
+      <c r="D91">
+        <v>255.65700000000001</v>
+      </c>
+      <c r="E91">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F91">
+        <v>1.8</v>
+      </c>
+      <c r="G91">
+        <v>0.89805481563188172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92">
+        <v>257.55700000000002</v>
+      </c>
+      <c r="C92">
+        <v>260.065</v>
+      </c>
+      <c r="D92">
+        <v>258.81099999999998</v>
+      </c>
+      <c r="E92">
+        <v>1.4</v>
+      </c>
+      <c r="F92">
+        <v>1.2</v>
+      </c>
+      <c r="G92">
+        <v>0.88711067149387013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93">
+        <v>266.23599999999999</v>
+      </c>
+      <c r="C93">
+        <v>275.70299999999997</v>
+      </c>
+      <c r="D93">
+        <v>270.97000000000003</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>4.7</v>
+      </c>
+      <c r="G93">
+        <v>0.84730412960844359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94">
+        <v>288.34699999999998</v>
+      </c>
+      <c r="C94">
+        <v>296.96300000000002</v>
+      </c>
+      <c r="D94">
+        <v>292.65499999999997</v>
+      </c>
+      <c r="E94">
+        <v>6.5</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94">
+        <v>0.78452102304761584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95">
+        <v>302.40800000000002</v>
+      </c>
+      <c r="C95">
+        <v>306.99599999999998</v>
+      </c>
+      <c r="D95">
+        <v>304.702</v>
+      </c>
+      <c r="G95">
+        <v>0.75350342301658668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96">
+        <v>312.14499999999998</v>
+      </c>
+      <c r="C96">
+        <v>315.233</v>
+      </c>
+      <c r="D96">
+        <v>313.68900000000002</v>
+      </c>
+      <c r="G96">
+        <v>0.73191600598044548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2025</v>
+      </c>
+      <c r="D97">
+        <f>D96*(1+F97)</f>
+        <v>323.09967</v>
+      </c>
+      <c r="F97" s="16">
+        <f>G$82</f>
+        <v>0.03</v>
+      </c>
+      <c r="G97" s="22">
+        <f>D$84/D97</f>
+        <v>0.71059806405868498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2026</v>
+      </c>
+      <c r="D98">
+        <f>D97*(1+F98)</f>
+        <v>332.79266010000003</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" ref="F98:F107" si="7">G$82</f>
+        <v>0.03</v>
+      </c>
+      <c r="G98" s="22">
+        <f t="shared" ref="G98:G107" si="8">D$84/D98</f>
+        <v>0.68990103306668438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2027</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ref="D99:D107" si="9">D98*(1+F99)</f>
+        <v>342.77643990300004</v>
+      </c>
+      <c r="F99" s="16">
         <f t="shared" si="7"/>
-        <v>2273.5314681335358</v>
-      </c>
-      <c r="E46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G99" s="22">
+        <f t="shared" si="8"/>
+        <v>0.66980682822008197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2028</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="9"/>
+        <v>353.05973310009006</v>
+      </c>
+      <c r="F100" s="16">
         <f t="shared" si="7"/>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="F46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G100" s="22">
+        <f t="shared" si="8"/>
+        <v>0.65029789147580774</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2029</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="9"/>
+        <v>363.65152509309274</v>
+      </c>
+      <c r="F101" s="16">
         <f t="shared" si="7"/>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="G46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G101" s="22">
+        <f t="shared" si="8"/>
+        <v>0.63135717619010456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2030</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="9"/>
+        <v>374.56107084588552</v>
+      </c>
+      <c r="F102" s="16">
         <f t="shared" si="7"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="H46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G102" s="22">
+        <f t="shared" si="8"/>
+        <v>0.61296813222340252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2031</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="9"/>
+        <v>385.79790297126209</v>
+      </c>
+      <c r="F103" s="16">
         <f t="shared" si="7"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="I46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G103" s="22">
+        <f t="shared" si="8"/>
+        <v>0.59511469147903162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2032</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="9"/>
+        <v>397.37184006039996</v>
+      </c>
+      <c r="F104" s="16">
         <f t="shared" si="7"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="J46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G104" s="22">
+        <f t="shared" si="8"/>
+        <v>0.57778125386313739</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2033</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="9"/>
+        <v>409.29299526221195</v>
+      </c>
+      <c r="F105" s="16">
         <f t="shared" si="7"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="K46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G105" s="22">
+        <f t="shared" si="8"/>
+        <v>0.56095267365353152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2034</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="9"/>
+        <v>421.57178512007829</v>
+      </c>
+      <c r="F106" s="16">
         <f t="shared" si="7"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="L46" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G106" s="22">
+        <f t="shared" si="8"/>
+        <v>0.54461424626556454</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2035</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="9"/>
+        <v>434.21893867368067</v>
+      </c>
+      <c r="F107" s="16">
         <f t="shared" si="7"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="M46" s="5">
-        <f t="shared" si="7"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="7"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF46" s="5">
-        <f t="shared" si="7"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" ref="C47:AF47" si="8">B5+C42</f>
-        <v>7252.8733459787563</v>
-      </c>
-      <c r="D47" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G107" s="22">
         <f t="shared" si="8"/>
-        <v>4193.501468133536</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="8"/>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="8"/>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="shared" si="8"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="8"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="8"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="J47" s="5">
-        <f t="shared" si="8"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="8"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="8"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="M47" s="5">
-        <f t="shared" si="8"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" si="8"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF47" s="5">
-        <f t="shared" si="8"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="16"/>
+        <v>0.52875169540346068</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
-    <hyperlink ref="R21" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
+    <hyperlink ref="R18" r:id="rId3" xr:uid="{5F06F0E1-C2F5-4064-8449-00379A1A43C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8459,1114 +10060,1114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4700B1-78D7-456C-A4C4-AB085247994E}">
   <dimension ref="A1:AL776"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="23" customWidth="1"/>
-    <col min="5" max="38" width="7.54296875" style="23" customWidth="1"/>
-    <col min="39" max="16384" width="12.54296875" style="23"/>
+    <col min="1" max="1" width="51.81640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="22" customWidth="1"/>
+    <col min="5" max="38" width="7.54296875" style="22" customWidth="1"/>
+    <col min="39" max="16384" width="12.54296875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:38" ht="104.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
+      <c r="A2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
     </row>
     <row r="3" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
     </row>
     <row r="4" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="A4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="34">
         <v>40000</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="35">
+      <c r="A5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="34">
         <v>7500</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
     </row>
     <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
     </row>
     <row r="7" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="A7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="26">
         <f>B4*$B$16*$B$14</f>
         <v>27004</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="26">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>2023</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>2024</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>2025</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>2026</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>2027</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>2028</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>2029</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>2030</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>2031</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>2032</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="A11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="35">
         <f>C36</f>
         <v>10121.162702145082</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <f t="shared" ref="C11:K11" si="0">D36</f>
         <v>10059.772494365814</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <f t="shared" si="0"/>
         <v>10050.763799597085</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f t="shared" si="0"/>
         <v>10127.428607069427</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <f t="shared" si="0"/>
         <v>10269.11524721545</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>10350.781370900584</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <f t="shared" si="0"/>
         <v>10353.674088089921</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <f t="shared" si="0"/>
         <v>10294.239800360298</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
         <v>10251.903689786537</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <f t="shared" si="0"/>
         <v>10279.777009851599</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
+      <c r="A13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
     </row>
     <row r="14" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="26">
+      <c r="A14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="25">
         <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
     </row>
     <row r="16" spans="1:38" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="A16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="25">
         <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="18" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>57</v>
+      <c r="A19" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>58</v>
+      <c r="A20" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:33" ht="39" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <f>B5*B14</f>
         <v>5887.5</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="24">
+      <c r="A24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="23">
         <v>3</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="26">
         <f>D23</f>
         <v>5887.5</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="29">
+      <c r="A25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="28">
         <v>44657</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="26">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+    </row>
+    <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+    </row>
+    <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+    </row>
+    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="31">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2024</v>
+      </c>
+      <c r="E31" s="31">
+        <v>2025</v>
+      </c>
+      <c r="F31" s="31">
+        <v>2026</v>
+      </c>
+      <c r="G31" s="31">
+        <v>2027</v>
+      </c>
+      <c r="H31" s="31">
+        <v>2028</v>
+      </c>
+      <c r="I31" s="31">
+        <v>2029</v>
+      </c>
+      <c r="J31" s="31">
+        <v>2030</v>
+      </c>
+      <c r="K31" s="31">
+        <v>2031</v>
+      </c>
+      <c r="L31" s="31">
+        <v>2032</v>
+      </c>
+      <c r="M31" s="31">
+        <v>2033</v>
+      </c>
+      <c r="N31" s="31">
+        <v>2034</v>
+      </c>
+      <c r="O31" s="31">
+        <v>2035</v>
+      </c>
+      <c r="P31" s="31">
+        <v>2036</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>2037</v>
+      </c>
+      <c r="R31" s="31">
+        <v>2038</v>
+      </c>
+      <c r="S31" s="31">
+        <v>2039</v>
+      </c>
+      <c r="T31" s="31">
+        <v>2040</v>
+      </c>
+      <c r="U31" s="31">
+        <v>2041</v>
+      </c>
+      <c r="V31" s="31">
+        <v>2042</v>
+      </c>
+      <c r="W31" s="31">
+        <v>2043</v>
+      </c>
+      <c r="X31" s="31">
+        <v>2044</v>
+      </c>
+      <c r="Y31" s="31">
+        <v>2045</v>
+      </c>
+      <c r="Z31" s="31">
+        <v>2046</v>
+      </c>
+      <c r="AA31" s="31">
+        <v>2047</v>
+      </c>
+      <c r="AB31" s="31">
+        <v>2048</v>
+      </c>
+      <c r="AC31" s="31">
+        <v>2049</v>
+      </c>
+      <c r="AD31" s="31">
+        <v>2050</v>
+      </c>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+    </row>
+    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="32">
+        <v>652.15881300000001</v>
+      </c>
+      <c r="C32" s="32">
+        <v>675.13665800000001</v>
+      </c>
+      <c r="D32" s="32">
+        <v>689.60467500000004</v>
+      </c>
+      <c r="E32" s="32">
+        <v>691.51690699999995</v>
+      </c>
+      <c r="F32" s="32">
+        <v>688.42425500000002</v>
+      </c>
+      <c r="G32" s="32">
+        <v>684.18414299999995</v>
+      </c>
+      <c r="H32" s="32">
+        <v>682.62188700000002</v>
+      </c>
+      <c r="I32" s="32">
+        <v>679.86218299999996</v>
+      </c>
+      <c r="J32" s="32">
+        <v>678.07775900000001</v>
+      </c>
+      <c r="K32" s="32">
+        <v>677.36639400000001</v>
+      </c>
+      <c r="L32" s="32">
+        <v>675.92620799999997</v>
+      </c>
+      <c r="M32" s="32">
+        <v>676.86370799999997</v>
+      </c>
+      <c r="N32" s="32">
+        <v>681.45581100000004</v>
+      </c>
+      <c r="O32" s="32">
+        <v>687.30078100000003</v>
+      </c>
+      <c r="P32" s="32">
+        <v>692.37145999999996</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>698.31860400000005</v>
+      </c>
+      <c r="R32" s="32">
+        <v>703.59320100000002</v>
+      </c>
+      <c r="S32" s="32">
+        <v>709.57092299999999</v>
+      </c>
+      <c r="T32" s="32">
+        <v>711.90655500000003</v>
+      </c>
+      <c r="U32" s="32">
+        <v>714.37567100000001</v>
+      </c>
+      <c r="V32" s="32">
+        <v>716.10638400000005</v>
+      </c>
+      <c r="W32" s="32">
+        <v>717.97564699999998</v>
+      </c>
+      <c r="X32" s="32">
+        <v>723.98962400000005</v>
+      </c>
+      <c r="Y32" s="32">
+        <v>729.19946300000004</v>
+      </c>
+      <c r="Z32" s="32">
+        <v>732.66320800000005</v>
+      </c>
+      <c r="AA32" s="32">
+        <v>734.38165300000003</v>
+      </c>
+      <c r="AB32" s="32">
+        <v>739.21014400000001</v>
+      </c>
+      <c r="AC32" s="32">
+        <v>745.07336399999997</v>
+      </c>
+      <c r="AD32" s="32">
+        <v>1035.5</v>
+      </c>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="29"/>
+    </row>
+    <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="32">
+        <v>252.12297100000001</v>
+      </c>
+      <c r="C33" s="32">
+        <v>262.199432</v>
+      </c>
+      <c r="D33" s="32">
+        <v>276.18127399999997</v>
+      </c>
+      <c r="E33" s="32">
+        <v>286.01892099999998</v>
+      </c>
+      <c r="F33" s="32">
+        <v>290.46655299999998</v>
+      </c>
+      <c r="G33" s="32">
+        <v>292.43240400000002</v>
+      </c>
+      <c r="H33" s="32">
+        <v>293.63424700000002</v>
+      </c>
+      <c r="I33" s="32">
+        <v>296.173248</v>
+      </c>
+      <c r="J33" s="32">
+        <v>298.12170400000002</v>
+      </c>
+      <c r="K33" s="32">
+        <v>300.39685100000003</v>
+      </c>
+      <c r="L33" s="32">
+        <v>303.257294</v>
+      </c>
+      <c r="M33" s="32">
+        <v>305.71603399999998</v>
+      </c>
+      <c r="N33" s="32">
+        <v>309.26257299999997</v>
+      </c>
+      <c r="O33" s="32">
+        <v>314.79812600000002</v>
+      </c>
+      <c r="P33" s="32">
+        <v>321.14746100000002</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>327.09249899999998</v>
+      </c>
+      <c r="R33" s="32">
+        <v>333.56478900000002</v>
+      </c>
+      <c r="S33" s="32">
+        <v>339.75351000000001</v>
+      </c>
+      <c r="T33" s="32">
+        <v>346.38189699999998</v>
+      </c>
+      <c r="U33" s="32">
+        <v>351.209137</v>
+      </c>
+      <c r="V33" s="32">
+        <v>355.95761099999999</v>
+      </c>
+      <c r="W33" s="32">
+        <v>360.42837500000002</v>
+      </c>
+      <c r="X33" s="32">
+        <v>364.902466</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>371.72610500000002</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>378.28823899999998</v>
+      </c>
+      <c r="AA33" s="32">
+        <v>383.89129600000001</v>
+      </c>
+      <c r="AB33" s="32">
+        <v>388.47567700000002</v>
+      </c>
+      <c r="AC33" s="32">
+        <v>394.81222500000001</v>
+      </c>
+      <c r="AD33" s="32">
+        <v>401.96115099999997</v>
+      </c>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="29"/>
+    </row>
+    <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-    </row>
-    <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-    </row>
-    <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="B34" s="32">
+        <v>180.61982699999999</v>
+      </c>
+      <c r="C34" s="32">
+        <v>186.49350000000001</v>
+      </c>
+      <c r="D34" s="32">
+        <v>188.82283000000001</v>
+      </c>
+      <c r="E34" s="32">
+        <v>190.626938</v>
+      </c>
+      <c r="F34" s="32">
+        <v>195.106979</v>
+      </c>
+      <c r="G34" s="32">
+        <v>202.50727800000001</v>
+      </c>
+      <c r="H34" s="32">
+        <v>207.005585</v>
+      </c>
+      <c r="I34" s="32">
+        <v>207.12138400000001</v>
+      </c>
+      <c r="J34" s="32">
+        <v>203.823837</v>
+      </c>
+      <c r="K34" s="32">
+        <v>201.78428600000001</v>
+      </c>
+      <c r="L34" s="32">
+        <v>203.63635300000001</v>
+      </c>
+      <c r="M34" s="32">
+        <v>206.92961099999999</v>
+      </c>
+      <c r="N34" s="32">
+        <v>209.69859299999999</v>
+      </c>
+      <c r="O34" s="32">
+        <v>212.967072</v>
+      </c>
+      <c r="P34" s="32">
+        <v>216.125214</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>219.188492</v>
+      </c>
+      <c r="R34" s="32">
+        <v>221.84333799999999</v>
+      </c>
+      <c r="S34" s="32">
+        <v>224.323059</v>
+      </c>
+      <c r="T34" s="32">
+        <v>227.32418799999999</v>
+      </c>
+      <c r="U34" s="32">
+        <v>230.371872</v>
+      </c>
+      <c r="V34" s="32">
+        <v>232.498154</v>
+      </c>
+      <c r="W34" s="32">
+        <v>235.21517900000001</v>
+      </c>
+      <c r="X34" s="32">
+        <v>236.05999800000001</v>
+      </c>
+      <c r="Y34" s="32">
+        <v>234.92872600000001</v>
+      </c>
+      <c r="Z34" s="32">
+        <v>234.37702899999999</v>
+      </c>
+      <c r="AA34" s="32">
+        <v>235.44674699999999</v>
+      </c>
+      <c r="AB34" s="32">
+        <v>237.52796900000001</v>
+      </c>
+      <c r="AC34" s="32">
+        <v>239.052933</v>
+      </c>
+      <c r="AD34" s="32">
+        <v>241.633881</v>
+      </c>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="29"/>
+    </row>
+    <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-    </row>
-    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="32">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="32">
-        <v>2023</v>
-      </c>
-      <c r="D31" s="32">
-        <v>2024</v>
-      </c>
-      <c r="E31" s="32">
-        <v>2025</v>
-      </c>
-      <c r="F31" s="32">
-        <v>2026</v>
-      </c>
-      <c r="G31" s="32">
-        <v>2027</v>
-      </c>
-      <c r="H31" s="32">
-        <v>2028</v>
-      </c>
-      <c r="I31" s="32">
-        <v>2029</v>
-      </c>
-      <c r="J31" s="32">
-        <v>2030</v>
-      </c>
-      <c r="K31" s="32">
-        <v>2031</v>
-      </c>
-      <c r="L31" s="32">
-        <v>2032</v>
-      </c>
-      <c r="M31" s="32">
-        <v>2033</v>
-      </c>
-      <c r="N31" s="32">
-        <v>2034</v>
-      </c>
-      <c r="O31" s="32">
-        <v>2035</v>
-      </c>
-      <c r="P31" s="32">
-        <v>2036</v>
-      </c>
-      <c r="Q31" s="32">
-        <v>2037</v>
-      </c>
-      <c r="R31" s="32">
-        <v>2038</v>
-      </c>
-      <c r="S31" s="32">
-        <v>2039</v>
-      </c>
-      <c r="T31" s="32">
-        <v>2040</v>
-      </c>
-      <c r="U31" s="32">
-        <v>2041</v>
-      </c>
-      <c r="V31" s="32">
-        <v>2042</v>
-      </c>
-      <c r="W31" s="32">
-        <v>2043</v>
-      </c>
-      <c r="X31" s="32">
-        <v>2044</v>
-      </c>
-      <c r="Y31" s="32">
-        <v>2045</v>
-      </c>
-      <c r="Z31" s="32">
-        <v>2046</v>
-      </c>
-      <c r="AA31" s="32">
-        <v>2047</v>
-      </c>
-      <c r="AB31" s="32">
-        <v>2048</v>
-      </c>
-      <c r="AC31" s="32">
-        <v>2049</v>
-      </c>
-      <c r="AD31" s="32">
-        <v>2050</v>
-      </c>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-    </row>
-    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="33">
-        <v>652.15881300000001</v>
-      </c>
-      <c r="C32" s="33">
-        <v>675.13665800000001</v>
-      </c>
-      <c r="D32" s="33">
-        <v>689.60467500000004</v>
-      </c>
-      <c r="E32" s="33">
-        <v>691.51690699999995</v>
-      </c>
-      <c r="F32" s="33">
-        <v>688.42425500000002</v>
-      </c>
-      <c r="G32" s="33">
-        <v>684.18414299999995</v>
-      </c>
-      <c r="H32" s="33">
-        <v>682.62188700000002</v>
-      </c>
-      <c r="I32" s="33">
-        <v>679.86218299999996</v>
-      </c>
-      <c r="J32" s="33">
-        <v>678.07775900000001</v>
-      </c>
-      <c r="K32" s="33">
-        <v>677.36639400000001</v>
-      </c>
-      <c r="L32" s="33">
-        <v>675.92620799999997</v>
-      </c>
-      <c r="M32" s="33">
-        <v>676.86370799999997</v>
-      </c>
-      <c r="N32" s="33">
-        <v>681.45581100000004</v>
-      </c>
-      <c r="O32" s="33">
-        <v>687.30078100000003</v>
-      </c>
-      <c r="P32" s="33">
-        <v>692.37145999999996</v>
-      </c>
-      <c r="Q32" s="33">
-        <v>698.31860400000005</v>
-      </c>
-      <c r="R32" s="33">
-        <v>703.59320100000002</v>
-      </c>
-      <c r="S32" s="33">
-        <v>709.57092299999999</v>
-      </c>
-      <c r="T32" s="33">
-        <v>711.90655500000003</v>
-      </c>
-      <c r="U32" s="33">
-        <v>714.37567100000001</v>
-      </c>
-      <c r="V32" s="33">
-        <v>716.10638400000005</v>
-      </c>
-      <c r="W32" s="33">
-        <v>717.97564699999998</v>
-      </c>
-      <c r="X32" s="33">
-        <v>723.98962400000005</v>
-      </c>
-      <c r="Y32" s="33">
-        <v>729.19946300000004</v>
-      </c>
-      <c r="Z32" s="33">
-        <v>732.66320800000005</v>
-      </c>
-      <c r="AA32" s="33">
-        <v>734.38165300000003</v>
-      </c>
-      <c r="AB32" s="33">
-        <v>739.21014400000001</v>
-      </c>
-      <c r="AC32" s="33">
-        <v>745.07336399999997</v>
-      </c>
-      <c r="AD32" s="33">
-        <v>1035.5</v>
-      </c>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="30"/>
-    </row>
-    <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="33">
-        <v>252.12297100000001</v>
-      </c>
-      <c r="C33" s="33">
-        <v>262.199432</v>
-      </c>
-      <c r="D33" s="33">
-        <v>276.18127399999997</v>
-      </c>
-      <c r="E33" s="33">
-        <v>286.01892099999998</v>
-      </c>
-      <c r="F33" s="33">
-        <v>290.46655299999998</v>
-      </c>
-      <c r="G33" s="33">
-        <v>292.43240400000002</v>
-      </c>
-      <c r="H33" s="33">
-        <v>293.63424700000002</v>
-      </c>
-      <c r="I33" s="33">
-        <v>296.173248</v>
-      </c>
-      <c r="J33" s="33">
-        <v>298.12170400000002</v>
-      </c>
-      <c r="K33" s="33">
-        <v>300.39685100000003</v>
-      </c>
-      <c r="L33" s="33">
-        <v>303.257294</v>
-      </c>
-      <c r="M33" s="33">
-        <v>305.71603399999998</v>
-      </c>
-      <c r="N33" s="33">
-        <v>309.26257299999997</v>
-      </c>
-      <c r="O33" s="33">
-        <v>314.79812600000002</v>
-      </c>
-      <c r="P33" s="33">
-        <v>321.14746100000002</v>
-      </c>
-      <c r="Q33" s="33">
-        <v>327.09249899999998</v>
-      </c>
-      <c r="R33" s="33">
-        <v>333.56478900000002</v>
-      </c>
-      <c r="S33" s="33">
-        <v>339.75351000000001</v>
-      </c>
-      <c r="T33" s="33">
-        <v>346.38189699999998</v>
-      </c>
-      <c r="U33" s="33">
-        <v>351.209137</v>
-      </c>
-      <c r="V33" s="33">
-        <v>355.95761099999999</v>
-      </c>
-      <c r="W33" s="33">
-        <v>360.42837500000002</v>
-      </c>
-      <c r="X33" s="33">
-        <v>364.902466</v>
-      </c>
-      <c r="Y33" s="33">
-        <v>371.72610500000002</v>
-      </c>
-      <c r="Z33" s="33">
-        <v>378.28823899999998</v>
-      </c>
-      <c r="AA33" s="33">
-        <v>383.89129600000001</v>
-      </c>
-      <c r="AB33" s="33">
-        <v>388.47567700000002</v>
-      </c>
-      <c r="AC33" s="33">
-        <v>394.81222500000001</v>
-      </c>
-      <c r="AD33" s="33">
-        <v>401.96115099999997</v>
-      </c>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="30"/>
-    </row>
-    <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="33">
-        <v>180.61982699999999</v>
-      </c>
-      <c r="C34" s="33">
-        <v>186.49350000000001</v>
-      </c>
-      <c r="D34" s="33">
-        <v>188.82283000000001</v>
-      </c>
-      <c r="E34" s="33">
-        <v>190.626938</v>
-      </c>
-      <c r="F34" s="33">
-        <v>195.106979</v>
-      </c>
-      <c r="G34" s="33">
-        <v>202.50727800000001</v>
-      </c>
-      <c r="H34" s="33">
-        <v>207.005585</v>
-      </c>
-      <c r="I34" s="33">
-        <v>207.12138400000001</v>
-      </c>
-      <c r="J34" s="33">
-        <v>203.823837</v>
-      </c>
-      <c r="K34" s="33">
-        <v>201.78428600000001</v>
-      </c>
-      <c r="L34" s="33">
-        <v>203.63635300000001</v>
-      </c>
-      <c r="M34" s="33">
-        <v>206.92961099999999</v>
-      </c>
-      <c r="N34" s="33">
-        <v>209.69859299999999</v>
-      </c>
-      <c r="O34" s="33">
-        <v>212.967072</v>
-      </c>
-      <c r="P34" s="33">
-        <v>216.125214</v>
-      </c>
-      <c r="Q34" s="33">
-        <v>219.188492</v>
-      </c>
-      <c r="R34" s="33">
-        <v>221.84333799999999</v>
-      </c>
-      <c r="S34" s="33">
-        <v>224.323059</v>
-      </c>
-      <c r="T34" s="33">
-        <v>227.32418799999999</v>
-      </c>
-      <c r="U34" s="33">
-        <v>230.371872</v>
-      </c>
-      <c r="V34" s="33">
-        <v>232.498154</v>
-      </c>
-      <c r="W34" s="33">
-        <v>235.21517900000001</v>
-      </c>
-      <c r="X34" s="33">
-        <v>236.05999800000001</v>
-      </c>
-      <c r="Y34" s="33">
-        <v>234.92872600000001</v>
-      </c>
-      <c r="Z34" s="33">
-        <v>234.37702899999999</v>
-      </c>
-      <c r="AA34" s="33">
-        <v>235.44674699999999</v>
-      </c>
-      <c r="AB34" s="33">
-        <v>237.52796900000001</v>
-      </c>
-      <c r="AC34" s="33">
-        <v>239.052933</v>
-      </c>
-      <c r="AD34" s="33">
-        <v>241.633881</v>
-      </c>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="30"/>
-    </row>
-    <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
         <v>10134.948146095066</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <f t="shared" si="1"/>
         <v>10121.162702145082</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <f t="shared" si="1"/>
         <v>10059.772494365814</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f t="shared" si="1"/>
         <v>10050.763799597085</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="26">
         <f t="shared" si="1"/>
         <v>10127.428607069427</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="26">
         <f t="shared" si="1"/>
         <v>10269.11524721545</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="26">
         <f t="shared" si="1"/>
         <v>10350.781370900584</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="26">
         <f t="shared" si="1"/>
         <v>10353.674088089921</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="26">
         <f t="shared" si="1"/>
         <v>10294.239800360298</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="26">
         <f t="shared" si="1"/>
         <v>10251.903689786537</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="26">
         <f t="shared" si="1"/>
         <v>10279.777009851599</v>
       </c>
-      <c r="M36" s="27">
+      <c r="M36" s="26">
         <f t="shared" si="1"/>
         <v>10325.709491436844</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="26">
         <f t="shared" si="1"/>
         <v>10344.230833049938</v>
       </c>
-      <c r="O36" s="27">
+      <c r="O36" s="26">
         <f t="shared" si="1"/>
         <v>10359.12748221428</v>
       </c>
-      <c r="P36" s="27">
+      <c r="P36" s="26">
         <f t="shared" si="1"/>
         <v>10371.638430973771</v>
       </c>
-      <c r="Q36" s="27">
+      <c r="Q36" s="26">
         <f t="shared" si="1"/>
         <v>10380.548547191598</v>
       </c>
-      <c r="R36" s="27">
+      <c r="R36" s="26">
         <f t="shared" si="1"/>
         <v>10382.950508948947</v>
       </c>
-      <c r="S36" s="27">
+      <c r="S36" s="26">
         <f t="shared" si="1"/>
         <v>10380.927010758403</v>
       </c>
-      <c r="T36" s="27">
+      <c r="T36" s="26">
         <f t="shared" si="1"/>
         <v>10398.663134138134</v>
       </c>
-      <c r="U36" s="27">
+      <c r="U36" s="26">
         <f t="shared" si="1"/>
         <v>10422.653431517481</v>
       </c>
-      <c r="V36" s="27">
+      <c r="V36" s="26">
         <f t="shared" si="1"/>
         <v>10434.319910781423</v>
       </c>
-      <c r="W36" s="27">
+      <c r="W36" s="26">
         <f t="shared" si="1"/>
         <v>10455.739600691937</v>
       </c>
-      <c r="X36" s="27">
+      <c r="X36" s="26">
         <f t="shared" si="1"/>
         <v>10432.932814907192</v>
       </c>
-      <c r="Y36" s="27">
+      <c r="Y36" s="26">
         <f t="shared" si="1"/>
         <v>10374.231186923143</v>
       </c>
-      <c r="Z36" s="27">
+      <c r="Z36" s="26">
         <f t="shared" si="1"/>
         <v>10332.172107247137</v>
       </c>
-      <c r="AA36" s="27">
+      <c r="AA36" s="26">
         <f t="shared" si="1"/>
         <v>10324.781329795693</v>
       </c>
-      <c r="AB36" s="27">
+      <c r="AB36" s="26">
         <f t="shared" si="1"/>
         <v>10326.315629830769</v>
       </c>
-      <c r="AC36" s="27">
+      <c r="AC36" s="26">
         <f t="shared" si="1"/>
         <v>10310.34979051626</v>
       </c>
-      <c r="AD36" s="27">
+      <c r="AD36" s="26">
         <f t="shared" si="1"/>
         <v>9558.932689351499</v>
       </c>
@@ -10342,7 +11943,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10450,219 +12051,219 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
-        <f>'Passenger Vehicle Calculations'!C46</f>
-        <v>3036.0333459787557</v>
-      </c>
-      <c r="C2" s="19">
-        <f>'Passenger Vehicle Calculations'!D46</f>
-        <v>2273.5314681335358</v>
-      </c>
-      <c r="D2" s="19">
-        <f>'Passenger Vehicle Calculations'!E46</f>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="E2" s="19">
-        <f>'Passenger Vehicle Calculations'!F46</f>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="F2" s="19">
-        <f>'Passenger Vehicle Calculations'!G46</f>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="G2" s="19">
-        <f>'Passenger Vehicle Calculations'!H46</f>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="H2" s="19">
-        <f>'Passenger Vehicle Calculations'!I46</f>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="I2" s="19">
-        <f>'Passenger Vehicle Calculations'!J46</f>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="J2" s="19">
-        <f>'Passenger Vehicle Calculations'!K46</f>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="K2" s="19">
-        <f>'Passenger Vehicle Calculations'!L46</f>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="L2" s="19">
-        <f>'Passenger Vehicle Calculations'!M46</f>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="M2" s="19">
-        <f>'Passenger Vehicle Calculations'!N46</f>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="N2" s="19">
-        <f>'Passenger Vehicle Calculations'!O46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O2" s="19">
-        <f>'Passenger Vehicle Calculations'!P46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P2" s="19">
-        <f>'Passenger Vehicle Calculations'!Q46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q2" s="19">
-        <f>'Passenger Vehicle Calculations'!R46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R2" s="19">
-        <f>'Passenger Vehicle Calculations'!S46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S2" s="19">
-        <f>'Passenger Vehicle Calculations'!T46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T2" s="19">
-        <f>'Passenger Vehicle Calculations'!U46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U2" s="19">
-        <f>'Passenger Vehicle Calculations'!V46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V2" s="19">
-        <f>'Passenger Vehicle Calculations'!W46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W2" s="19">
-        <f>'Passenger Vehicle Calculations'!X46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X2" s="19">
-        <f>'Passenger Vehicle Calculations'!Y46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y2" s="19">
-        <f>'Passenger Vehicle Calculations'!Z46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z2" s="19">
-        <f>'Passenger Vehicle Calculations'!AA46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA2" s="19">
-        <f>'Passenger Vehicle Calculations'!AB46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB2" s="19">
-        <f>'Passenger Vehicle Calculations'!AC46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC2" s="19">
-        <f>'Passenger Vehicle Calculations'!AD46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD2" s="19">
-        <f>'Passenger Vehicle Calculations'!AE46</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE2" s="19">
-        <f>'Passenger Vehicle Calculations'!AF46</f>
-        <v>568.32511001517457</v>
+      <c r="B2" s="18">
+        <f>'Passenger Vehicle Calculations'!C68</f>
+        <v>1930.7404811231229</v>
+      </c>
+      <c r="C2" s="18">
+        <f>'Passenger Vehicle Calculations'!D68</f>
+        <v>1599.8025784220101</v>
+      </c>
+      <c r="D2" s="18">
+        <f>'Passenger Vehicle Calculations'!E68</f>
+        <v>5130.1015918271351</v>
+      </c>
+      <c r="E2" s="18">
+        <f>'Passenger Vehicle Calculations'!F68</f>
+        <v>3819.9265877142789</v>
+      </c>
+      <c r="F2" s="18">
+        <f>'Passenger Vehicle Calculations'!G68</f>
+        <v>3565.6148024975096</v>
+      </c>
+      <c r="G2" s="18">
+        <f>'Passenger Vehicle Calculations'!H68</f>
+        <v>3312.3286898445285</v>
+      </c>
+      <c r="H2" s="18">
+        <f>'Passenger Vehicle Calculations'!I68</f>
+        <v>2579.6280722494112</v>
+      </c>
+      <c r="I2" s="18">
+        <f>'Passenger Vehicle Calculations'!J68</f>
+        <v>2607.4715657030551</v>
+      </c>
+      <c r="J2" s="18">
+        <f>'Passenger Vehicle Calculations'!K68</f>
+        <v>2637.5199855509622</v>
+      </c>
+      <c r="K2" s="18">
+        <f>'Passenger Vehicle Calculations'!L68</f>
+        <v>2669.5709726607206</v>
+      </c>
+      <c r="L2" s="18">
+        <f>'Passenger Vehicle Calculations'!M68</f>
+        <v>2692.8330628056278</v>
+      </c>
+      <c r="M2" s="18">
+        <f>'Passenger Vehicle Calculations'!N68</f>
+        <v>2715.0603144269971</v>
+      </c>
+      <c r="N2" s="18">
+        <f>'Passenger Vehicle Calculations'!O68</f>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="O2" s="18">
+        <f>'Passenger Vehicle Calculations'!P68</f>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="P2" s="18">
+        <f>'Passenger Vehicle Calculations'!Q68</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Q2" s="18">
+        <f>'Passenger Vehicle Calculations'!R68</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <f>'Passenger Vehicle Calculations'!S68</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <f>'Passenger Vehicle Calculations'!T68</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <f>'Passenger Vehicle Calculations'!U68</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <f>'Passenger Vehicle Calculations'!V68</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
+        <f>'Passenger Vehicle Calculations'!W68</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <f>'Passenger Vehicle Calculations'!X68</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
+        <f>'Passenger Vehicle Calculations'!Y68</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="18">
+        <f>'Passenger Vehicle Calculations'!Z68</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="18">
+        <f>'Passenger Vehicle Calculations'!AA68</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <f>'Passenger Vehicle Calculations'!AB68</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
+        <f>'Passenger Vehicle Calculations'!AC68</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="18">
+        <f>'Passenger Vehicle Calculations'!AD68</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="18">
+        <f>'Passenger Vehicle Calculations'!AE68</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="18">
+        <f>'Passenger Vehicle Calculations'!AF68</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19">
-        <v>0</v>
-      </c>
-      <c r="T3" s="19">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="19">
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -10670,94 +12271,94 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="19">
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -10765,94 +12366,94 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="19">
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -10860,219 +12461,219 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
-        <f>'Passenger Vehicle Calculations'!C47</f>
-        <v>7252.8733459787563</v>
-      </c>
-      <c r="C6" s="19">
-        <f>'Passenger Vehicle Calculations'!D47</f>
-        <v>4193.501468133536</v>
-      </c>
-      <c r="D6" s="19">
-        <f>'Passenger Vehicle Calculations'!E47</f>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="E6" s="19">
-        <f>'Passenger Vehicle Calculations'!F47</f>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="F6" s="19">
-        <f>'Passenger Vehicle Calculations'!G47</f>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="G6" s="19">
-        <f>'Passenger Vehicle Calculations'!H47</f>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="H6" s="19">
-        <f>'Passenger Vehicle Calculations'!I47</f>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="I6" s="19">
-        <f>'Passenger Vehicle Calculations'!J47</f>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="J6" s="19">
-        <f>'Passenger Vehicle Calculations'!K47</f>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="K6" s="19">
-        <f>'Passenger Vehicle Calculations'!L47</f>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="L6" s="19">
-        <f>'Passenger Vehicle Calculations'!M47</f>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="M6" s="19">
-        <f>'Passenger Vehicle Calculations'!N47</f>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="N6" s="19">
-        <f>'Passenger Vehicle Calculations'!O47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O6" s="19">
-        <f>'Passenger Vehicle Calculations'!P47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P6" s="19">
-        <f>'Passenger Vehicle Calculations'!Q47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>'Passenger Vehicle Calculations'!R47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R6" s="19">
-        <f>'Passenger Vehicle Calculations'!S47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S6" s="19">
-        <f>'Passenger Vehicle Calculations'!T47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T6" s="19">
-        <f>'Passenger Vehicle Calculations'!U47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U6" s="19">
-        <f>'Passenger Vehicle Calculations'!V47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V6" s="19">
-        <f>'Passenger Vehicle Calculations'!W47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W6" s="19">
-        <f>'Passenger Vehicle Calculations'!X47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X6" s="19">
-        <f>'Passenger Vehicle Calculations'!Y47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y6" s="19">
-        <f>'Passenger Vehicle Calculations'!Z47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z6" s="19">
-        <f>'Passenger Vehicle Calculations'!AA47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA6" s="19">
-        <f>'Passenger Vehicle Calculations'!AB47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB6" s="19">
-        <f>'Passenger Vehicle Calculations'!AC47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC6" s="19">
-        <f>'Passenger Vehicle Calculations'!AD47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD6" s="19">
-        <f>'Passenger Vehicle Calculations'!AE47</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE6" s="19">
-        <f>'Passenger Vehicle Calculations'!AF47</f>
-        <v>568.32511001517457</v>
+      <c r="B6" s="18">
+        <f>'Passenger Vehicle Calculations'!C69</f>
+        <v>6936.9608855426222</v>
+      </c>
+      <c r="C6" s="18">
+        <f>'Passenger Vehicle Calculations'!D69</f>
+        <v>3848.2675143607803</v>
+      </c>
+      <c r="D6" s="18">
+        <f>'Passenger Vehicle Calculations'!E69</f>
+        <v>3815.3362574978055</v>
+      </c>
+      <c r="E6" s="18">
+        <f>'Passenger Vehicle Calculations'!F69</f>
+        <v>3110.9612244400428</v>
+      </c>
+      <c r="F6" s="18">
+        <f>'Passenger Vehicle Calculations'!G69</f>
+        <v>2596.1437814161168</v>
+      </c>
+      <c r="G6" s="18">
+        <f>'Passenger Vehicle Calculations'!H69</f>
+        <v>2456.3836032460481</v>
+      </c>
+      <c r="H6" s="18">
+        <f>'Passenger Vehicle Calculations'!I69</f>
+        <v>2321.8308863230786</v>
+      </c>
+      <c r="I6" s="18">
+        <f>'Passenger Vehicle Calculations'!J69</f>
+        <v>2262.4096373635584</v>
+      </c>
+      <c r="J6" s="18">
+        <f>'Passenger Vehicle Calculations'!K69</f>
+        <v>2204.771647065344</v>
+      </c>
+      <c r="K6" s="18">
+        <f>'Passenger Vehicle Calculations'!L69</f>
+        <v>2148.8541702129019</v>
+      </c>
+      <c r="L6" s="18">
+        <f>'Passenger Vehicle Calculations'!M69</f>
+        <v>2093.5842953135025</v>
+      </c>
+      <c r="M6" s="18">
+        <f>'Passenger Vehicle Calculations'!N69</f>
+        <v>2039.6967758277067</v>
+      </c>
+      <c r="N6" s="18">
+        <f>'Passenger Vehicle Calculations'!O69</f>
+        <v>157.82432189025366</v>
+      </c>
+      <c r="O6" s="18">
+        <f>'Passenger Vehicle Calculations'!P69</f>
+        <v>153.22749698082879</v>
+      </c>
+      <c r="P6" s="18">
+        <f>'Passenger Vehicle Calculations'!Q69</f>
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>'Passenger Vehicle Calculations'!R69</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <f>'Passenger Vehicle Calculations'!S69</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <f>'Passenger Vehicle Calculations'!T69</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
+        <f>'Passenger Vehicle Calculations'!U69</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <f>'Passenger Vehicle Calculations'!V69</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <f>'Passenger Vehicle Calculations'!W69</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="18">
+        <f>'Passenger Vehicle Calculations'!X69</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
+        <f>'Passenger Vehicle Calculations'!Y69</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
+        <f>'Passenger Vehicle Calculations'!Z69</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="18">
+        <f>'Passenger Vehicle Calculations'!AA69</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="18">
+        <f>'Passenger Vehicle Calculations'!AB69</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
+        <f>'Passenger Vehicle Calculations'!AC69</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <f>'Passenger Vehicle Calculations'!AD69</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18">
+        <f>'Passenger Vehicle Calculations'!AE69</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <f>'Passenger Vehicle Calculations'!AF69</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0</v>
-      </c>
-      <c r="S7" s="19">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19">
-        <v>0</v>
-      </c>
-      <c r="U7" s="19">
-        <v>0</v>
-      </c>
-      <c r="V7" s="19">
-        <v>0</v>
-      </c>
-      <c r="W7" s="19">
-        <v>0</v>
-      </c>
-      <c r="X7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="19">
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -11080,123 +12681,123 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
         <f>D2</f>
-        <v>2371.7262681335355</v>
-      </c>
-      <c r="E8" s="19">
+        <v>5130.1015918271351</v>
+      </c>
+      <c r="E8" s="18">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>2329.8343100151742</v>
-      </c>
-      <c r="F8" s="19">
+        <v>3819.9265877142789</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>1671.1026100151744</v>
-      </c>
-      <c r="G8" s="19">
+        <v>3565.6148024975096</v>
+      </c>
+      <c r="G8" s="18">
         <f t="shared" si="0"/>
-        <v>1625.6076100151745</v>
-      </c>
-      <c r="H8" s="19">
+        <v>3312.3286898445285</v>
+      </c>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
-        <v>1591.1151100151747</v>
-      </c>
-      <c r="I8" s="19">
+        <v>2579.6280722494112</v>
+      </c>
+      <c r="I8" s="18">
         <f t="shared" si="0"/>
-        <v>1593.1401100151747</v>
-      </c>
-      <c r="J8" s="19">
+        <v>2607.4715657030551</v>
+      </c>
+      <c r="J8" s="18">
         <f t="shared" si="0"/>
-        <v>1599.8726100151744</v>
-      </c>
-      <c r="K8" s="19">
+        <v>2637.5199855509622</v>
+      </c>
+      <c r="K8" s="18">
         <f t="shared" si="0"/>
-        <v>1658.1326100151746</v>
-      </c>
-      <c r="L8" s="19">
+        <v>2669.5709726607206</v>
+      </c>
+      <c r="L8" s="18">
         <f t="shared" si="0"/>
-        <v>1713.9176100151744</v>
-      </c>
-      <c r="M8" s="19">
+        <v>2692.8330628056278</v>
+      </c>
+      <c r="M8" s="18">
         <f t="shared" si="0"/>
-        <v>1724.7001100151747</v>
-      </c>
-      <c r="N8" s="19">
+        <v>2715.0603144269971</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O8" s="19">
+        <v>157.82432189025366</v>
+      </c>
+      <c r="O8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P8" s="19">
+        <v>153.22749698082879</v>
+      </c>
+      <c r="P8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q8" s="19">
+        <v>148.76456017556194</v>
+      </c>
+      <c r="Q8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V8" s="19">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W8" s="19">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X8" s="19">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\GitHub\Climate Imperative EPS repos\eps-us-ci\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD49FB6-8DA8-4910-B887-5CA9FDF4C6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82218EA2-F539-4938-8CEB-B66A3484C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1380" windowWidth="20940" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
   <si>
     <t>Sources:</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>Note: Pennsylvania offers a $1750 rebate, but only to the first 250 qualified applicants.</t>
   </si>
   <si>
     <t>Total Tax Credit (2012$)</t>
@@ -527,8 +524,8 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="m\-d"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="m\-d"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -829,7 +826,7 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -866,11 +863,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="31" applyFont="1"/>
@@ -885,7 +882,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -898,7 +895,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
@@ -1305,69 +1301,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.26953125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
@@ -1388,12 +1384,12 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1484,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1678,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2169,7 +2165,7 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2186,12 +2182,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +2282,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2581,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2781,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2876,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2998,12 +2994,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3098,7 +3094,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3203,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3298,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3593,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3688,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3809,12 +3805,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3909,7 +3905,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4004,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4194,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4384,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4479,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4590,12 +4586,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4690,7 +4686,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4785,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4880,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4975,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5070,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5165,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5371,12 +5367,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5471,7 +5467,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5661,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5756,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5946,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6041,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6152,12 +6148,12 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -6252,7 +6248,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6347,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6442,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6537,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6632,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6822,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6926,38 +6922,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
   <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2021</v>
       </c>
@@ -7049,139 +7045,139 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="48">
+        <v>1646.4981124797289</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1368.5857570401329</v>
+      </c>
+      <c r="D5" s="48">
+        <v>4795.9636566176632</v>
+      </c>
+      <c r="E5" s="48">
+        <v>3555.487701851609</v>
+      </c>
+      <c r="F5" s="48">
+        <v>3365.6876734116477</v>
+      </c>
+      <c r="G5" s="48">
+        <v>3118.2246810233032</v>
+      </c>
+      <c r="H5" s="48">
+        <v>2391.1775782482218</v>
+      </c>
+      <c r="I5" s="48">
+        <v>2424.5099210417061</v>
+      </c>
+      <c r="J5" s="48">
+        <v>2459.8873208312061</v>
+      </c>
+      <c r="K5" s="48">
+        <v>2497.1120748745493</v>
+      </c>
+      <c r="L5" s="48">
+        <v>2525.3972397122579</v>
+      </c>
+      <c r="M5" s="48">
+        <v>2552.5012628800359</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="49">
-        <v>1646.4981124797289</v>
-      </c>
-      <c r="C5" s="49">
-        <v>1368.5857570401329</v>
-      </c>
-      <c r="D5" s="49">
-        <v>4795.9636566176632</v>
-      </c>
-      <c r="E5" s="49">
-        <v>3555.487701851609</v>
-      </c>
-      <c r="F5" s="49">
-        <v>3365.6876734116477</v>
-      </c>
-      <c r="G5" s="49">
-        <v>3118.2246810233032</v>
-      </c>
-      <c r="H5" s="49">
-        <v>2391.1775782482218</v>
-      </c>
-      <c r="I5" s="49">
-        <v>2424.5099210417061</v>
-      </c>
-      <c r="J5" s="49">
-        <v>2459.8873208312061</v>
-      </c>
-      <c r="K5" s="49">
-        <v>2497.1120748745493</v>
-      </c>
-      <c r="L5" s="49">
-        <v>2525.3972397122579</v>
-      </c>
-      <c r="M5" s="49">
-        <v>2552.5012628800359</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>6652.7185168992282</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>3617.050692978903</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>3481.1983222883337</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <v>2846.5223385773729</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <v>2396.2166523302549</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <v>2262.2795944248228</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>2133.3803923218893</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>2079.4479927022094</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="48">
         <v>2027.1389823455879</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <v>1976.3952724267306</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <v>1926.1484722201324</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <v>1877.1377242807455</v>
       </c>
       <c r="N6">
@@ -7239,34 +7235,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -7275,7 +7271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -7284,13 +7280,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -7328,13 +7324,13 @@
         <v>2026</v>
       </c>
       <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>21</v>
       </c>
@@ -7344,7 +7340,7 @@
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="36">
         <f>2000*D76+4000*(1-D76)</f>
         <v>3506.6</v>
       </c>
@@ -7371,10 +7367,10 @@
         <v>3500</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>23</v>
       </c>
@@ -7413,16 +7409,16 @@
         <v>470.61925821962228</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
@@ -7461,10 +7457,10 @@
         <v>2500</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
@@ -7503,14 +7499,14 @@
         <v>351.62995755890529</v>
       </c>
       <c r="K20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -7547,7 +7543,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -7583,14 +7579,14 @@
         <v>0</v>
       </c>
       <c r="K22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -7622,12 +7618,12 @@
         <v>0</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -7659,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="B25" s="47">
         <v>5.7169999999999996</v>
@@ -7695,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -7730,7 +7726,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
@@ -7762,9 +7758,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="47">
         <f>500/10^6</f>
@@ -7795,12 +7791,12 @@
         <v>3000</v>
       </c>
       <c r="K28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="B29" s="47">
         <v>1.0940000000000001</v>
@@ -7830,7 +7826,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -7862,10 +7858,10 @@
         <v>2000</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -7904,13 +7900,13 @@
         <v>671.80394138453767</v>
       </c>
       <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="s">
         <v>99</v>
       </c>
-      <c r="L31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -7942,10 +7938,10 @@
         <v>2200</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -7977,7 +7973,7 @@
       </c>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
@@ -7985,13 +7981,13 @@
         <v>329.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>19</v>
@@ -8027,7 +8023,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>21</v>
       </c>
@@ -8067,7 +8063,7 @@
       </c>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>23</v>
       </c>
@@ -8107,7 +8103,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>25</v>
       </c>
@@ -8141,7 +8137,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>26</v>
       </c>
@@ -8181,7 +8177,7 @@
       </c>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>27</v>
       </c>
@@ -8214,7 +8210,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>29</v>
       </c>
@@ -8251,7 +8247,7 @@
       </c>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>30</v>
       </c>
@@ -8284,7 +8280,7 @@
       </c>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>31</v>
       </c>
@@ -8317,9 +8313,9 @@
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="7">
         <v>5.7169999999999996</v>
@@ -8350,7 +8346,7 @@
       </c>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
@@ -8383,7 +8379,7 @@
       </c>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
@@ -8417,9 +8413,9 @@
       </c>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="7">
         <f>500/10^6</f>
@@ -8451,9 +8447,9 @@
       </c>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="7">
         <v>1.0940000000000001</v>
@@ -8484,7 +8480,7 @@
       </c>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>34</v>
       </c>
@@ -8517,7 +8513,7 @@
       </c>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
@@ -8557,7 +8553,7 @@
       </c>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>36</v>
       </c>
@@ -8590,7 +8586,7 @@
       </c>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>37</v>
       </c>
@@ -8622,7 +8618,7 @@
       </c>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>38</v>
       </c>
@@ -8631,11 +8627,11 @@
       </c>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8647,31 +8643,29 @@
       <c r="I56" s="8"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>2021</v>
       </c>
@@ -8763,29 +8757,32 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C63" s="5">
-        <f>SUMPRODUCT(E17:E33,$B$17:$B$33)/SUM($B$17:$B$33)*L79</f>
+        <f t="shared" ref="C63:H63" si="4">SUMPRODUCT(E17:E33,$B$17:$B$33)/SUM($B$17:$B$33)*L79</f>
         <v>284.24236864339406</v>
       </c>
       <c r="D63" s="5">
-        <f>SUMPRODUCT(F17:F33,$B$17:$B$33)/SUM($B$17:$B$33)*M79</f>
+        <f t="shared" si="4"/>
         <v>231.21682138187734</v>
       </c>
       <c r="E63" s="5">
-        <f>SUMPRODUCT(G17:G33,$B$17:$B$33)/SUM($B$17:$B$33)*N79</f>
+        <f t="shared" si="4"/>
         <v>334.13793520947195</v>
       </c>
       <c r="F63" s="5">
-        <f>SUMPRODUCT(H17:H33,$B$17:$B$33)/SUM($B$17:$B$33)*O79</f>
+        <f t="shared" si="4"/>
         <v>264.43888586266991</v>
       </c>
       <c r="G63" s="5">
-        <f>SUMPRODUCT(I17:I33,$B$17:$B$33)/SUM($B$17:$B$33)*P79</f>
+        <f t="shared" si="4"/>
         <v>199.92712908586196</v>
       </c>
       <c r="H63" s="5">
-        <f>SUMPRODUCT(J17:J33,$B$17:$B$33)/SUM($B$17:$B$33)*Q79</f>
+        <f t="shared" si="4"/>
         <v>194.10400882122519</v>
       </c>
       <c r="I63" s="5">
@@ -8793,35 +8790,35 @@
         <v>188.4504940011895</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ref="J63:Q63" si="4">I63*S79/R79</f>
+        <f t="shared" ref="J63:Q63" si="5">I63*S79/R79</f>
         <v>182.96164466134903</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>177.63266471975632</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>172.45889778617118</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167.43582309337009</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162.55905154696123</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157.82432189025366</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>153.22749698082879</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.76456017556194</v>
       </c>
       <c r="R63" s="5">
@@ -8870,29 +8867,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C64" s="5">
         <f>SUMPRODUCT(E37:E53,$B$37:$B$53)/SUM($B$37:$B$53)*L79</f>
         <v>215.72168420258612</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" ref="D64:H64" si="5">SUMPRODUCT(F37:F53,$B$37:$B$53)/SUM($B$37:$B$53)*M79</f>
+        <f t="shared" ref="D64:H64" si="6">SUMPRODUCT(F37:F53,$B$37:$B$53)/SUM($B$37:$B$53)*M79</f>
         <v>188.02811316670545</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>181.15698643889937</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>152.76346597230366</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.20855199074947</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93.406361156067433</v>
       </c>
       <c r="I64" s="5">
@@ -8900,35 +8900,35 @@
         <v>90.685787530162571</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" ref="J64:Q64" si="6">I64*S79/R79</f>
+        <f t="shared" ref="J64:Q64" si="7">I64*S79/R79</f>
         <v>88.04445391277919</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85.480052342504052</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82.990342080101016</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80.573147650583522</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78.226356942314084</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75.947919361469985</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>73.735844040262123</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71.588198097341873</v>
       </c>
       <c r="R64" s="5">
@@ -8977,15 +8977,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>2021</v>
       </c>
@@ -9077,260 +9077,260 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5">
-        <f>B5+C63</f>
+        <f t="shared" ref="C68:AF68" si="8">B5+C63</f>
         <v>1930.7404811231229</v>
       </c>
       <c r="D68" s="5">
-        <f>C5+D63</f>
+        <f t="shared" si="8"/>
         <v>1599.8025784220101</v>
       </c>
       <c r="E68" s="5">
-        <f>D5+E63</f>
+        <f t="shared" si="8"/>
         <v>5130.1015918271351</v>
       </c>
       <c r="F68" s="5">
-        <f>E5+F63</f>
+        <f t="shared" si="8"/>
         <v>3819.9265877142789</v>
       </c>
       <c r="G68" s="5">
-        <f>F5+G63</f>
+        <f t="shared" si="8"/>
         <v>3565.6148024975096</v>
       </c>
       <c r="H68" s="5">
-        <f>G5+H63</f>
+        <f t="shared" si="8"/>
         <v>3312.3286898445285</v>
       </c>
       <c r="I68" s="5">
-        <f>H5+I63</f>
+        <f t="shared" si="8"/>
         <v>2579.6280722494112</v>
       </c>
       <c r="J68" s="5">
-        <f>I5+J63</f>
+        <f t="shared" si="8"/>
         <v>2607.4715657030551</v>
       </c>
       <c r="K68" s="5">
-        <f>J5+K63</f>
+        <f t="shared" si="8"/>
         <v>2637.5199855509622</v>
       </c>
       <c r="L68" s="5">
-        <f>K5+L63</f>
+        <f t="shared" si="8"/>
         <v>2669.5709726607206</v>
       </c>
       <c r="M68" s="5">
-        <f>L5+M63</f>
+        <f t="shared" si="8"/>
         <v>2692.8330628056278</v>
       </c>
       <c r="N68" s="5">
-        <f>M5+N63</f>
+        <f t="shared" si="8"/>
         <v>2715.0603144269971</v>
       </c>
       <c r="O68" s="5">
-        <f>N5+O63</f>
+        <f t="shared" si="8"/>
         <v>157.82432189025366</v>
       </c>
       <c r="P68" s="5">
-        <f>O5+P63</f>
+        <f t="shared" si="8"/>
         <v>153.22749698082879</v>
       </c>
       <c r="Q68" s="5">
-        <f>P5+Q63</f>
+        <f t="shared" si="8"/>
         <v>148.76456017556194</v>
       </c>
       <c r="R68" s="5">
-        <f>Q5+R63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S68" s="5">
-        <f>R5+S63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T68" s="5">
-        <f>S5+T63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U68" s="5">
-        <f>T5+U63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V68" s="5">
-        <f>U5+V63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W68" s="5">
-        <f>V5+W63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X68" s="5">
-        <f>W5+X63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y68" s="5">
-        <f>X5+Y63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z68" s="5">
-        <f>Y5+Z63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA68" s="5">
-        <f>Z5+AA63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB68" s="5">
-        <f>AA5+AB63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC68" s="5">
-        <f>AB5+AC63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD68" s="5">
-        <f>AC5+AD63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE68" s="5">
-        <f>AD5+AE63</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF68" s="5">
-        <f>AE5+AF63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="5">
-        <f>B6+C63</f>
-        <v>6936.9608855426222</v>
+        <f>B6+C64</f>
+        <v>6868.4402011018146</v>
       </c>
       <c r="D69" s="5">
-        <f>C6+D63</f>
-        <v>3848.2675143607803</v>
+        <f t="shared" ref="D69:AF69" si="9">C6+D64</f>
+        <v>3805.0788061456087</v>
       </c>
       <c r="E69" s="5">
-        <f>D6+E63</f>
-        <v>3815.3362574978055</v>
+        <f t="shared" si="9"/>
+        <v>3662.355308727233</v>
       </c>
       <c r="F69" s="5">
-        <f>E6+F63</f>
-        <v>3110.9612244400428</v>
+        <f t="shared" si="9"/>
+        <v>2999.2858045496764</v>
       </c>
       <c r="G69" s="5">
-        <f>F6+G63</f>
-        <v>2596.1437814161168</v>
+        <f t="shared" si="9"/>
+        <v>2492.4252043210045</v>
       </c>
       <c r="H69" s="5">
-        <f>G6+H63</f>
-        <v>2456.3836032460481</v>
+        <f t="shared" si="9"/>
+        <v>2355.6859555808901</v>
       </c>
       <c r="I69" s="5">
-        <f>H6+I63</f>
-        <v>2321.8308863230786</v>
+        <f t="shared" si="9"/>
+        <v>2224.0661798520518</v>
       </c>
       <c r="J69" s="5">
-        <f>I6+J63</f>
-        <v>2262.4096373635584</v>
+        <f t="shared" si="9"/>
+        <v>2167.4924466149887</v>
       </c>
       <c r="K69" s="5">
-        <f>J6+K63</f>
-        <v>2204.771647065344</v>
+        <f t="shared" si="9"/>
+        <v>2112.6190346880921</v>
       </c>
       <c r="L69" s="5">
-        <f>K6+L63</f>
-        <v>2148.8541702129019</v>
+        <f t="shared" si="9"/>
+        <v>2059.3856145068316</v>
       </c>
       <c r="M69" s="5">
-        <f>L6+M63</f>
-        <v>2093.5842953135025</v>
+        <f t="shared" si="9"/>
+        <v>2006.7216198707158</v>
       </c>
       <c r="N69" s="5">
-        <f>M6+N63</f>
-        <v>2039.6967758277067</v>
+        <f t="shared" si="9"/>
+        <v>1955.3640812230597</v>
       </c>
       <c r="O69" s="5">
-        <f>N6+O63</f>
-        <v>157.82432189025366</v>
+        <f t="shared" si="9"/>
+        <v>75.947919361469985</v>
       </c>
       <c r="P69" s="5">
-        <f>O6+P63</f>
-        <v>153.22749698082879</v>
+        <f t="shared" si="9"/>
+        <v>73.735844040262123</v>
       </c>
       <c r="Q69" s="5">
-        <f>P6+Q63</f>
-        <v>148.76456017556194</v>
+        <f t="shared" si="9"/>
+        <v>71.588198097341873</v>
       </c>
       <c r="R69" s="5">
-        <f>Q6+R63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S69" s="5">
-        <f>R6+S63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T69" s="5">
-        <f>S6+T63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U69" s="5">
-        <f>T6+U63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V69" s="5">
-        <f>U6+V63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W69" s="5">
-        <f>V6+W63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X69" s="5">
-        <f>W6+X63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y69" s="5">
-        <f>X6+Y63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z69" s="5">
-        <f>Y6+Z63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA69" s="5">
-        <f>Z6+AA63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB69" s="5">
-        <f>AA6+AB63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC69" s="5">
-        <f>AB6+AC63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD69" s="5">
-        <f>AC6+AD63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE69" s="5">
-        <f>AD6+AE63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF69" s="5">
-        <f>AE6+AF63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D73" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
@@ -9339,9 +9339,9 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D74" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -9350,7 +9350,7 @@
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D75" s="22">
         <v>2020</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D76" s="40">
         <v>0.2467</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>0.46560000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B78" s="22"/>
       <c r="C78" s="22">
         <v>2012</v>
@@ -9473,9 +9473,9 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="43" cm="1">
         <f t="array" ref="C79:Z79">TRANSPOSE(G84:G107)</f>
@@ -9551,14 +9551,14 @@
         <v>0.52875169540346068</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -9571,9 +9571,9 @@
       <c r="K82" s="17"/>
       <c r="L82" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>228.85</v>
@@ -9594,9 +9594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>232.36600000000001</v>
@@ -9617,9 +9617,9 @@
         <v>0.98556385942470071</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>236.38399999999999</v>
@@ -9640,9 +9640,9 @@
         <v>0.96983137334414704</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>236.26499999999999</v>
@@ -9663,9 +9663,9 @@
         <v>0.9686815713640794</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>238.77799999999999</v>
@@ -9686,9 +9686,9 @@
         <v>0.95661376543184151</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>244.07599999999999</v>
@@ -9709,9 +9709,9 @@
         <v>0.93665959530026111</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>250.089</v>
@@ -9732,9 +9732,9 @@
         <v>0.9143273584567535</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>254.41200000000001</v>
@@ -9755,9 +9755,9 @@
         <v>0.89805481563188172</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>257.55700000000002</v>
@@ -9778,9 +9778,9 @@
         <v>0.88711067149387013</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>266.23599999999999</v>
@@ -9801,9 +9801,9 @@
         <v>0.84730412960844359</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>288.34699999999998</v>
@@ -9824,9 +9824,9 @@
         <v>0.78452102304761584</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>302.40800000000002</v>
@@ -9841,9 +9841,9 @@
         <v>0.75350342301658668</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>312.14499999999998</v>
@@ -9858,7 +9858,7 @@
         <v>0.73191600598044548</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2025</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>0.71059806405868498</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2026</v>
       </c>
@@ -9884,164 +9884,164 @@
         <v>332.79266010000003</v>
       </c>
       <c r="F98" s="16">
-        <f t="shared" ref="F98:F107" si="7">G$82</f>
+        <f t="shared" ref="F98:F107" si="10">G$82</f>
         <v>0.03</v>
       </c>
       <c r="G98" s="22">
-        <f t="shared" ref="G98:G107" si="8">D$84/D98</f>
+        <f t="shared" ref="G98:G107" si="11">D$84/D98</f>
         <v>0.68990103306668438</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2027</v>
       </c>
       <c r="D99">
-        <f t="shared" ref="D99:D107" si="9">D98*(1+F99)</f>
+        <f t="shared" ref="D99:D107" si="12">D98*(1+F99)</f>
         <v>342.77643990300004</v>
       </c>
       <c r="F99" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G99" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.66980682822008197</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2028</v>
       </c>
       <c r="D100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>353.05973310009006</v>
       </c>
       <c r="F100" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G100" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.65029789147580774</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2029</v>
       </c>
       <c r="D101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>363.65152509309274</v>
       </c>
       <c r="F101" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G101" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.63135717619010456</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2030</v>
       </c>
       <c r="D102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>374.56107084588552</v>
       </c>
       <c r="F102" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G102" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.61296813222340252</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2031</v>
       </c>
       <c r="D103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>385.79790297126209</v>
       </c>
       <c r="F103" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G103" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.59511469147903162</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2032</v>
       </c>
       <c r="D104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>397.37184006039996</v>
       </c>
       <c r="F104" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G104" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.57778125386313739</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2033</v>
       </c>
       <c r="D105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>409.29299526221195</v>
       </c>
       <c r="F105" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G105" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.56095267365353152</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2034</v>
       </c>
       <c r="D106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>421.57178512007829</v>
       </c>
       <c r="F106" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G106" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.54461424626556454</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2035</v>
       </c>
       <c r="D107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>434.21893867368067</v>
       </c>
       <c r="F107" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="G107" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.52875169540346068</v>
       </c>
     </row>
@@ -10064,19 +10064,19 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="22" customWidth="1"/>
-    <col min="5" max="38" width="7.54296875" style="22" customWidth="1"/>
-    <col min="39" max="16384" width="12.54296875" style="22"/>
+    <col min="1" max="1" width="51.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="22" customWidth="1"/>
+    <col min="5" max="38" width="7.5703125" style="22" customWidth="1"/>
+    <col min="39" max="16384" width="12.5703125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -10116,9 +10116,9 @@
       <c r="AK1" s="21"/>
       <c r="AL1" s="21"/>
     </row>
-    <row r="2" spans="1:38" ht="104.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -10158,7 +10158,7 @@
       <c r="AK2" s="24"/>
       <c r="AL2" s="24"/>
     </row>
-    <row r="3" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -10198,9 +10198,9 @@
       <c r="AK3" s="24"/>
       <c r="AL3" s="24"/>
     </row>
-    <row r="4" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="34">
         <v>40000</v>
@@ -10242,9 +10242,9 @@
       <c r="AK4" s="24"/>
       <c r="AL4" s="24"/>
     </row>
-    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="34">
         <v>7500</v>
@@ -10286,7 +10286,7 @@
       <c r="AK5" s="24"/>
       <c r="AL5" s="24"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -10326,29 +10326,29 @@
       <c r="AK6" s="24"/>
       <c r="AL6" s="24"/>
     </row>
-    <row r="7" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="26">
         <f>B4*$B$16*$B$14</f>
         <v>27004</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="26">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="22">
         <v>2023</v>
       </c>
@@ -10380,9 +10380,9 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="35">
         <f>C36</f>
@@ -10425,9 +10425,9 @@
         <v>10279.777009851599</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -10467,108 +10467,108 @@
       <c r="AK13" s="21"/>
       <c r="AL13" s="21"/>
     </row>
-    <row r="14" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="25">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
     </row>
-    <row r="16" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="25">
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
     </row>
-    <row r="18" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+    <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:33" ht="39" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="B23" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C23" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>60</v>
       </c>
       <c r="D23" s="26">
         <f>B5*B14</f>
         <v>5887.5</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="23">
         <v>3</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="26">
         <f>D23</f>
         <v>5887.5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="28">
         <v>44657</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="26">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -10603,7 +10603,7 @@
       <c r="AF28" s="29"/>
       <c r="AG28" s="29"/>
     </row>
-    <row r="29" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -10638,9 +10638,9 @@
       <c r="AF29" s="29"/>
       <c r="AG29" s="29"/>
     </row>
-    <row r="30" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -10675,9 +10675,9 @@
       <c r="AF30" s="29"/>
       <c r="AG30" s="29"/>
     </row>
-    <row r="31" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="31">
         <v>2022</v>
@@ -10769,9 +10769,9 @@
       <c r="AE31" s="29"/>
       <c r="AF31" s="29"/>
     </row>
-    <row r="32" spans="1:33" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="32">
         <v>652.15881300000001</v>
@@ -10863,9 +10863,9 @@
       <c r="AE32" s="33"/>
       <c r="AF32" s="29"/>
     </row>
-    <row r="33" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="32">
         <v>252.12297100000001</v>
@@ -10957,9 +10957,9 @@
       <c r="AE33" s="33"/>
       <c r="AF33" s="29"/>
     </row>
-    <row r="34" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="32">
         <v>180.61982699999999</v>
@@ -11051,9 +11051,9 @@
       <c r="AE34" s="33"/>
       <c r="AF34" s="29"/>
     </row>
-    <row r="36" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="26">
         <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
@@ -11172,746 +11172,746 @@
         <v>9558.932689351499</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:32" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -11929,7 +11929,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11946,13 +11946,13 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12457,69 +12457,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="18">
         <f>'Passenger Vehicle Calculations'!C69</f>
-        <v>6936.9608855426222</v>
+        <v>6868.4402011018146</v>
       </c>
       <c r="C6" s="18">
         <f>'Passenger Vehicle Calculations'!D69</f>
-        <v>3848.2675143607803</v>
+        <v>3805.0788061456087</v>
       </c>
       <c r="D6" s="18">
         <f>'Passenger Vehicle Calculations'!E69</f>
-        <v>3815.3362574978055</v>
+        <v>3662.355308727233</v>
       </c>
       <c r="E6" s="18">
         <f>'Passenger Vehicle Calculations'!F69</f>
-        <v>3110.9612244400428</v>
+        <v>2999.2858045496764</v>
       </c>
       <c r="F6" s="18">
         <f>'Passenger Vehicle Calculations'!G69</f>
-        <v>2596.1437814161168</v>
+        <v>2492.4252043210045</v>
       </c>
       <c r="G6" s="18">
         <f>'Passenger Vehicle Calculations'!H69</f>
-        <v>2456.3836032460481</v>
+        <v>2355.6859555808901</v>
       </c>
       <c r="H6" s="18">
         <f>'Passenger Vehicle Calculations'!I69</f>
-        <v>2321.8308863230786</v>
+        <v>2224.0661798520518</v>
       </c>
       <c r="I6" s="18">
         <f>'Passenger Vehicle Calculations'!J69</f>
-        <v>2262.4096373635584</v>
+        <v>2167.4924466149887</v>
       </c>
       <c r="J6" s="18">
         <f>'Passenger Vehicle Calculations'!K69</f>
-        <v>2204.771647065344</v>
+        <v>2112.6190346880921</v>
       </c>
       <c r="K6" s="18">
         <f>'Passenger Vehicle Calculations'!L69</f>
-        <v>2148.8541702129019</v>
+        <v>2059.3856145068316</v>
       </c>
       <c r="L6" s="18">
         <f>'Passenger Vehicle Calculations'!M69</f>
-        <v>2093.5842953135025</v>
+        <v>2006.7216198707158</v>
       </c>
       <c r="M6" s="18">
         <f>'Passenger Vehicle Calculations'!N69</f>
-        <v>2039.6967758277067</v>
+        <v>1955.3640812230597</v>
       </c>
       <c r="N6" s="18">
         <f>'Passenger Vehicle Calculations'!O69</f>
-        <v>157.82432189025366</v>
+        <v>75.947919361469985</v>
       </c>
       <c r="O6" s="18">
         <f>'Passenger Vehicle Calculations'!P69</f>
-        <v>153.22749698082879</v>
+        <v>73.735844040262123</v>
       </c>
       <c r="P6" s="18">
         <f>'Passenger Vehicle Calculations'!Q69</f>
-        <v>148.76456017556194</v>
+        <v>71.588198097341873</v>
       </c>
       <c r="Q6" s="18">
         <f>'Passenger Vehicle Calculations'!R69</f>
@@ -12582,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12817,12 +12817,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13628,12 +13628,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14409,12 +14409,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15190,12 +15190,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\GitHub\Climate Imperative EPS repos\eps-us-ci\InputData\trans\BVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82218EA2-F539-4938-8CEB-B66A3484C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E25C66-036F-474A-A81B-895765D51030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -297,9 +297,6 @@
     <t>Calculations:</t>
   </si>
   <si>
-    <t>2022 $ to 2012 $</t>
-  </si>
-  <si>
     <t>Fraction of buses owned by private entities (see trans/FoVObE)</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
   </si>
   <si>
     <t>Freight HDV (2012 $)</t>
-  </si>
-  <si>
-    <t>Psgr LDV (2012 $)</t>
   </si>
   <si>
     <t>Credit Amount (2012 $)</t>
@@ -515,17 +509,24 @@
   <si>
     <t>Updated 2/11/25</t>
   </si>
+  <si>
+    <t>Conversion to 2012$</t>
+  </si>
+  <si>
+    <t>Frgt LDV (2012 $)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="m\-d"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -826,7 +827,7 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -896,6 +897,9 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1343,12 +1347,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,7 +2183,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:M7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,44 +2297,44 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>'Commercial Vehicles'!B11</f>
-        <v>10121.162702145082</v>
+        <f>'Commercial Vehicles'!B10</f>
+        <v>9715.0710076103514</v>
       </c>
       <c r="E2">
-        <f>'Commercial Vehicles'!C11</f>
-        <v>10059.772494365814</v>
+        <f>'Commercial Vehicles'!C10</f>
+        <v>9379.5012804435319</v>
       </c>
       <c r="F2">
-        <f>'Commercial Vehicles'!D11</f>
-        <v>10050.763799597085</v>
+        <f>'Commercial Vehicles'!D10</f>
+        <v>9098.157067904207</v>
       </c>
       <c r="G2">
-        <f>'Commercial Vehicles'!E11</f>
-        <v>10127.428607069427</v>
+        <f>'Commercial Vehicles'!E10</f>
+        <v>8900.5394373583313</v>
       </c>
       <c r="H2">
-        <f>'Commercial Vehicles'!F11</f>
-        <v>10269.11524721545</v>
+        <f>'Commercial Vehicles'!F10</f>
+        <v>8762.1955571514172</v>
       </c>
       <c r="I2">
-        <f>'Commercial Vehicles'!G11</f>
-        <v>10350.781370900584</v>
+        <f>'Commercial Vehicles'!G10</f>
+        <v>8574.638599520662</v>
       </c>
       <c r="J2">
-        <f>'Commercial Vehicles'!H11</f>
-        <v>10353.674088089921</v>
+        <f>'Commercial Vehicles'!H10</f>
+        <v>8327.2183891071436</v>
       </c>
       <c r="K2">
-        <f>'Commercial Vehicles'!I11</f>
-        <v>10294.239800360298</v>
+        <f>'Commercial Vehicles'!I10</f>
+        <v>8038.2687173078502</v>
       </c>
       <c r="L2">
-        <f>'Commercial Vehicles'!J11</f>
-        <v>10251.903689786537</v>
+        <f>'Commercial Vehicles'!J10</f>
+        <v>7772.0490463949827</v>
       </c>
       <c r="M2">
-        <f>'Commercial Vehicles'!K11</f>
-        <v>10279.777009851599</v>
+        <f>'Commercial Vehicles'!K10</f>
+        <v>7566.1942040579743</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2684,43 +2688,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>10121.162702145082</v>
+        <v>9715.0710076103514</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>10059.772494365814</v>
+        <v>9379.5012804435319</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>10050.763799597085</v>
+        <v>9098.157067904207</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>10127.428607069427</v>
+        <v>8900.5394373583313</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>10269.11524721545</v>
+        <v>8762.1955571514172</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>10350.781370900584</v>
+        <v>8574.638599520662</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>10353.674088089921</v>
+        <v>8327.2183891071436</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>10294.239800360298</v>
+        <v>8038.2687173078502</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>10251.903689786537</v>
+        <v>7772.0490463949827</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>10279.777009851599</v>
+        <v>7566.1942040579743</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2884,43 +2888,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>10121.162702145082</v>
+        <v>9715.0710076103514</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>10059.772494365814</v>
+        <v>9379.5012804435319</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>10050.763799597085</v>
+        <v>9098.157067904207</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>10127.428607069427</v>
+        <v>8900.5394373583313</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>10269.11524721545</v>
+        <v>8762.1955571514172</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>10350.781370900584</v>
+        <v>8574.638599520662</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>10353.674088089921</v>
+        <v>8327.2183891071436</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>10294.239800360298</v>
+        <v>8038.2687173078502</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>10251.903689786537</v>
+        <v>7772.0490463949827</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>10279.777009851599</v>
+        <v>7566.1942040579743</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2990,13 +2994,14 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -3104,45 +3109,45 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="E2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="F2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="G2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="H2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="I2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="J2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="K2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="L2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
-      </c>
-      <c r="M2">
-        <f>'Commercial Vehicles'!$B$8</f>
-        <v>31400</v>
+      <c r="D2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!C14</f>
+        <v>30140.136920663466</v>
+      </c>
+      <c r="E2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!D14</f>
+        <v>29276.640239217821</v>
+      </c>
+      <c r="F2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!E14</f>
+        <v>28423.922562347398</v>
+      </c>
+      <c r="G2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!F14</f>
+        <v>27596.041322667374</v>
+      </c>
+      <c r="H2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!G14</f>
+        <v>26792.273128803277</v>
+      </c>
+      <c r="I2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!H14</f>
+        <v>26011.915659032311</v>
+      </c>
+      <c r="J2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!I14</f>
+        <v>25254.287047604183</v>
+      </c>
+      <c r="K2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!J14</f>
+        <v>24518.725288936101</v>
+      </c>
+      <c r="L2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!K14</f>
+        <v>23804.587659161265</v>
+      </c>
+      <c r="M2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!L14</f>
+        <v>23111.250154525496</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3496,43 +3501,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>31400</v>
+        <v>30140.136920663466</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>31400</v>
+        <v>29276.640239217821</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>28423.922562347398</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>27596.041322667374</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>26792.273128803277</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>26011.915659032311</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>25254.287047604183</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>24518.725288936101</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>23804.587659161265</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>23111.250154525496</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3696,43 +3701,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>31400</v>
+        <v>30140.136920663466</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>31400</v>
+        <v>29276.640239217821</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>28423.922562347398</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>27596.041322667374</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>26792.273128803277</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>26011.915659032311</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>25254.287047604183</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>24518.725288936101</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>23804.587659161265</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>31400</v>
+        <v>23111.250154525496</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -6922,8 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
   <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6945,12 +6950,12 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -7258,7 +7263,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="7"/>
     </row>
@@ -7324,10 +7329,10 @@
         <v>2026</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -7367,7 +7372,7 @@
         <v>3500</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -7409,10 +7414,10 @@
         <v>470.61925821962228</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>24</v>
@@ -7457,7 +7462,7 @@
         <v>2500</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7499,10 +7504,10 @@
         <v>351.62995755890529</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M20" s="11"/>
     </row>
@@ -7579,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M22" s="11"/>
     </row>
@@ -7618,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="11"/>
@@ -7655,13 +7660,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="47">
         <v>5.7169999999999996</v>
@@ -7691,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7760,7 +7765,7 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="47">
         <f>500/10^6</f>
@@ -7791,12 +7796,12 @@
         <v>3000</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="47">
         <v>1.0940000000000001</v>
@@ -7858,7 +7863,7 @@
         <v>2000</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7900,10 +7905,10 @@
         <v>671.80394138453767</v>
       </c>
       <c r="K31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7938,7 +7943,7 @@
         <v>2200</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7987,7 +7992,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>19</v>
@@ -8315,7 +8320,7 @@
     </row>
     <row r="45" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="7">
         <v>5.7169999999999996</v>
@@ -8415,7 +8420,7 @@
     </row>
     <row r="48" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="7">
         <f>500/10^6</f>
@@ -8449,7 +8454,7 @@
     </row>
     <row r="49" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="7">
         <v>1.0940000000000001</v>
@@ -9330,7 +9335,7 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D73" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
@@ -9341,7 +9346,7 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D74" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -9475,7 +9480,7 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="43" cm="1">
         <f t="array" ref="C79:Z79">TRANSPOSE(G84:G107)</f>
@@ -9553,12 +9558,12 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -9573,7 +9578,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84">
         <v>228.85</v>
@@ -9596,7 +9601,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B85">
         <v>232.36600000000001</v>
@@ -9619,7 +9624,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B86">
         <v>236.38399999999999</v>
@@ -9642,7 +9647,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87">
         <v>236.26499999999999</v>
@@ -9665,7 +9670,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88">
         <v>238.77799999999999</v>
@@ -9688,7 +9693,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89">
         <v>244.07599999999999</v>
@@ -9711,7 +9716,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B90">
         <v>250.089</v>
@@ -9734,7 +9739,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91">
         <v>254.41200000000001</v>
@@ -9757,7 +9762,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>257.55700000000002</v>
@@ -9780,7 +9785,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B93">
         <v>266.23599999999999</v>
@@ -9803,7 +9808,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B94">
         <v>288.34699999999998</v>
@@ -9826,7 +9831,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B95">
         <v>302.40800000000002</v>
@@ -9843,7 +9848,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96">
         <v>312.14499999999998</v>
@@ -10061,7 +10066,7 @@
   <dimension ref="A1:AL776"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10118,7 +10123,7 @@
     </row>
     <row r="2" spans="1:38" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -10200,7 +10205,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="34">
         <v>40000</v>
@@ -10244,7 +10249,7 @@
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="34">
         <v>7500</v>
@@ -10326,153 +10331,287 @@
       <c r="AK6" s="24"/>
       <c r="AL6" s="24"/>
     </row>
-    <row r="7" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="26">
-        <f>B4*$B$16*$B$14</f>
-        <v>27004</v>
+    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="22">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2024</v>
+      </c>
+      <c r="D7" s="22">
+        <v>2025</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2026</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2027</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2028</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2029</v>
+      </c>
+      <c r="I7" s="22">
+        <v>2030</v>
+      </c>
+      <c r="J7" s="22">
+        <v>2031</v>
+      </c>
+      <c r="K7" s="22">
+        <v>2032</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="26">
-        <f>B4*B14</f>
-        <v>31400</v>
+        <f>$B4*$B$16*C$14</f>
+        <v>25920.517751770582</v>
+      </c>
+      <c r="C8" s="26">
+        <f>$B4*$B$16*D$14</f>
+        <v>25177.910605727324</v>
+      </c>
+      <c r="D8" s="26">
+        <f>$B4*$B$16*E$14</f>
+        <v>24444.573403618764</v>
+      </c>
+      <c r="E8" s="26">
+        <f>$B4*$B$16*F$14</f>
+        <v>23732.595537493944</v>
+      </c>
+      <c r="F8" s="26">
+        <f>$B4*$B$16*G$14</f>
+        <v>23041.354890770821</v>
+      </c>
+      <c r="G8" s="26">
+        <f>$B4*$B$16*H$14</f>
+        <v>22370.247466767785</v>
+      </c>
+      <c r="H8" s="26">
+        <f>$B4*$B$16*I$14</f>
+        <v>21718.686860939597</v>
+      </c>
+      <c r="I8" s="26">
+        <f>$B4*$B$16*J$14</f>
+        <v>21086.103748485046</v>
+      </c>
+      <c r="J8" s="26">
+        <f>$B4*$B$16*K$14</f>
+        <v>20471.945386878688</v>
+      </c>
+      <c r="K8" s="26">
+        <f>$B4*$B$16*L$14</f>
+        <v>19875.675132891927</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="26">
+        <f>$B$4*C14</f>
+        <v>30140.136920663466</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" ref="C9:K9" si="0">$B$4*D14</f>
+        <v>29276.640239217821</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="0"/>
+        <v>28423.922562347398</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>27596.041322667374</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>26792.273128803277</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>26011.915659032311</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="0"/>
+        <v>25254.287047604183</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>24518.725288936101</v>
+      </c>
+      <c r="J9" s="26">
+        <f t="shared" si="0"/>
+        <v>23804.587659161265</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="0"/>
+        <v>23111.250154525496</v>
+      </c>
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="22">
+      <c r="A10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="35">
+        <f>C36</f>
+        <v>9715.0710076103514</v>
+      </c>
+      <c r="C10" s="35">
+        <f t="shared" ref="C10:K10" si="1">D36</f>
+        <v>9379.5012804435319</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="1"/>
+        <v>9098.157067904207</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="1"/>
+        <v>8900.5394373583313</v>
+      </c>
+      <c r="F10" s="35">
+        <f t="shared" si="1"/>
+        <v>8762.1955571514172</v>
+      </c>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>8574.638599520662</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="1"/>
+        <v>8327.2183891071436</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="1"/>
+        <v>8038.2687173078502</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="1"/>
+        <v>7772.0490463949827</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="1"/>
+        <v>7566.1942040579743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+    </row>
+    <row r="13" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="25">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="22">
         <v>2023</v>
       </c>
-      <c r="C10" s="22">
+      <c r="D13" s="25">
         <v>2024</v>
       </c>
-      <c r="D10" s="22">
+      <c r="E13" s="22">
         <v>2025</v>
       </c>
-      <c r="E10" s="22">
+      <c r="F13" s="25">
         <v>2026</v>
       </c>
-      <c r="F10" s="22">
+      <c r="G13" s="22">
         <v>2027</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H13" s="25">
         <v>2028</v>
       </c>
-      <c r="H10" s="22">
+      <c r="I13" s="22">
         <v>2029</v>
       </c>
-      <c r="I10" s="22">
+      <c r="J13" s="25">
         <v>2030</v>
       </c>
-      <c r="J10" s="22">
+      <c r="K13" s="22">
         <v>2031</v>
       </c>
-      <c r="K10" s="22">
+      <c r="L13" s="25">
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="35">
-        <f>C36</f>
-        <v>10121.162702145082</v>
-      </c>
-      <c r="C11" s="35">
-        <f t="shared" ref="C11:K11" si="0">D36</f>
-        <v>10059.772494365814</v>
-      </c>
-      <c r="D11" s="35">
-        <f t="shared" si="0"/>
-        <v>10050.763799597085</v>
-      </c>
-      <c r="E11" s="35">
-        <f t="shared" si="0"/>
-        <v>10127.428607069427</v>
-      </c>
-      <c r="F11" s="35">
-        <f t="shared" si="0"/>
-        <v>10269.11524721545</v>
-      </c>
-      <c r="G11" s="35">
-        <f t="shared" si="0"/>
-        <v>10350.781370900584</v>
-      </c>
-      <c r="H11" s="35">
-        <f t="shared" si="0"/>
-        <v>10353.674088089921</v>
-      </c>
-      <c r="I11" s="35">
-        <f t="shared" si="0"/>
-        <v>10294.239800360298</v>
-      </c>
-      <c r="J11" s="35">
-        <f t="shared" si="0"/>
-        <v>10251.903689786537</v>
-      </c>
-      <c r="K11" s="35">
-        <f t="shared" si="0"/>
-        <v>10279.777009851599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-    </row>
     <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="25">
-        <v>0.78500000000000003</v>
+      <c r="A14" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="49" cm="1">
+        <f t="array" ref="B14:L14">TRANSPOSE('Passenger Vehicle Calculations'!G94:G104)</f>
+        <v>0.78452102304761584</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.75350342301658668</v>
+      </c>
+      <c r="D14" s="50">
+        <v>0.73191600598044548</v>
+      </c>
+      <c r="E14" s="50">
+        <v>0.71059806405868498</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0.68990103306668438</v>
+      </c>
+      <c r="G14" s="50">
+        <v>0.66980682822008197</v>
+      </c>
+      <c r="H14" s="50">
+        <v>0.65029789147580774</v>
+      </c>
+      <c r="I14" s="50">
+        <v>0.63135717619010456</v>
+      </c>
+      <c r="J14" s="50">
+        <v>0.61296813222340252</v>
+      </c>
+      <c r="K14" s="50">
+        <v>0.59511469147903162</v>
+      </c>
+      <c r="L14" s="50">
+        <v>0.57778125386313739</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
@@ -10480,7 +10619,7 @@
     </row>
     <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="25">
         <v>0.86</v>
@@ -10492,83 +10631,83 @@
     <row r="18" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="D22" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C23" s="27" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>59</v>
       </c>
       <c r="D23" s="26">
         <f>B5*B14</f>
-        <v>5887.5</v>
+        <v>5883.907672857119</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="23">
         <v>3</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="26">
         <f>D23</f>
-        <v>5887.5</v>
+        <v>5883.907672857119</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="28">
         <v>44657</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="26">
         <f>B4*B14</f>
-        <v>31400</v>
+        <v>31380.840921904633</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -10640,7 +10779,7 @@
     </row>
     <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -10677,7 +10816,7 @@
     </row>
     <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="31">
         <v>2022</v>
@@ -10712,66 +10851,30 @@
       <c r="L31" s="31">
         <v>2032</v>
       </c>
-      <c r="M31" s="31">
-        <v>2033</v>
-      </c>
-      <c r="N31" s="31">
-        <v>2034</v>
-      </c>
-      <c r="O31" s="31">
-        <v>2035</v>
-      </c>
-      <c r="P31" s="31">
-        <v>2036</v>
-      </c>
-      <c r="Q31" s="31">
-        <v>2037</v>
-      </c>
-      <c r="R31" s="31">
-        <v>2038</v>
-      </c>
-      <c r="S31" s="31">
-        <v>2039</v>
-      </c>
-      <c r="T31" s="31">
-        <v>2040</v>
-      </c>
-      <c r="U31" s="31">
-        <v>2041</v>
-      </c>
-      <c r="V31" s="31">
-        <v>2042</v>
-      </c>
-      <c r="W31" s="31">
-        <v>2043</v>
-      </c>
-      <c r="X31" s="31">
-        <v>2044</v>
-      </c>
-      <c r="Y31" s="31">
-        <v>2045</v>
-      </c>
-      <c r="Z31" s="31">
-        <v>2046</v>
-      </c>
-      <c r="AA31" s="31">
-        <v>2047</v>
-      </c>
-      <c r="AB31" s="31">
-        <v>2048</v>
-      </c>
-      <c r="AC31" s="31">
-        <v>2049</v>
-      </c>
-      <c r="AD31" s="31">
-        <v>2050</v>
-      </c>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
       <c r="AE31" s="29"/>
       <c r="AF31" s="29"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="32">
         <v>652.15881300000001</v>
@@ -10806,66 +10909,30 @@
       <c r="L32" s="32">
         <v>675.92620799999997</v>
       </c>
-      <c r="M32" s="32">
-        <v>676.86370799999997</v>
-      </c>
-      <c r="N32" s="32">
-        <v>681.45581100000004</v>
-      </c>
-      <c r="O32" s="32">
-        <v>687.30078100000003</v>
-      </c>
-      <c r="P32" s="32">
-        <v>692.37145999999996</v>
-      </c>
-      <c r="Q32" s="32">
-        <v>698.31860400000005</v>
-      </c>
-      <c r="R32" s="32">
-        <v>703.59320100000002</v>
-      </c>
-      <c r="S32" s="32">
-        <v>709.57092299999999</v>
-      </c>
-      <c r="T32" s="32">
-        <v>711.90655500000003</v>
-      </c>
-      <c r="U32" s="32">
-        <v>714.37567100000001</v>
-      </c>
-      <c r="V32" s="32">
-        <v>716.10638400000005</v>
-      </c>
-      <c r="W32" s="32">
-        <v>717.97564699999998</v>
-      </c>
-      <c r="X32" s="32">
-        <v>723.98962400000005</v>
-      </c>
-      <c r="Y32" s="32">
-        <v>729.19946300000004</v>
-      </c>
-      <c r="Z32" s="32">
-        <v>732.66320800000005</v>
-      </c>
-      <c r="AA32" s="32">
-        <v>734.38165300000003</v>
-      </c>
-      <c r="AB32" s="32">
-        <v>739.21014400000001</v>
-      </c>
-      <c r="AC32" s="32">
-        <v>745.07336399999997</v>
-      </c>
-      <c r="AD32" s="32">
-        <v>1035.5</v>
-      </c>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
       <c r="AE32" s="33"/>
       <c r="AF32" s="29"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="32">
         <v>252.12297100000001</v>
@@ -10900,66 +10967,30 @@
       <c r="L33" s="32">
         <v>303.257294</v>
       </c>
-      <c r="M33" s="32">
-        <v>305.71603399999998</v>
-      </c>
-      <c r="N33" s="32">
-        <v>309.26257299999997</v>
-      </c>
-      <c r="O33" s="32">
-        <v>314.79812600000002</v>
-      </c>
-      <c r="P33" s="32">
-        <v>321.14746100000002</v>
-      </c>
-      <c r="Q33" s="32">
-        <v>327.09249899999998</v>
-      </c>
-      <c r="R33" s="32">
-        <v>333.56478900000002</v>
-      </c>
-      <c r="S33" s="32">
-        <v>339.75351000000001</v>
-      </c>
-      <c r="T33" s="32">
-        <v>346.38189699999998</v>
-      </c>
-      <c r="U33" s="32">
-        <v>351.209137</v>
-      </c>
-      <c r="V33" s="32">
-        <v>355.95761099999999</v>
-      </c>
-      <c r="W33" s="32">
-        <v>360.42837500000002</v>
-      </c>
-      <c r="X33" s="32">
-        <v>364.902466</v>
-      </c>
-      <c r="Y33" s="32">
-        <v>371.72610500000002</v>
-      </c>
-      <c r="Z33" s="32">
-        <v>378.28823899999998</v>
-      </c>
-      <c r="AA33" s="32">
-        <v>383.89129600000001</v>
-      </c>
-      <c r="AB33" s="32">
-        <v>388.47567700000002</v>
-      </c>
-      <c r="AC33" s="32">
-        <v>394.81222500000001</v>
-      </c>
-      <c r="AD33" s="32">
-        <v>401.96115099999997</v>
-      </c>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
       <c r="AE33" s="33"/>
       <c r="AF33" s="29"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="32">
         <v>180.61982699999999</v>
@@ -10994,183 +11025,93 @@
       <c r="L34" s="32">
         <v>203.63635300000001</v>
       </c>
-      <c r="M34" s="32">
-        <v>206.92961099999999</v>
-      </c>
-      <c r="N34" s="32">
-        <v>209.69859299999999</v>
-      </c>
-      <c r="O34" s="32">
-        <v>212.967072</v>
-      </c>
-      <c r="P34" s="32">
-        <v>216.125214</v>
-      </c>
-      <c r="Q34" s="32">
-        <v>219.188492</v>
-      </c>
-      <c r="R34" s="32">
-        <v>221.84333799999999</v>
-      </c>
-      <c r="S34" s="32">
-        <v>224.323059</v>
-      </c>
-      <c r="T34" s="32">
-        <v>227.32418799999999</v>
-      </c>
-      <c r="U34" s="32">
-        <v>230.371872</v>
-      </c>
-      <c r="V34" s="32">
-        <v>232.498154</v>
-      </c>
-      <c r="W34" s="32">
-        <v>235.21517900000001</v>
-      </c>
-      <c r="X34" s="32">
-        <v>236.05999800000001</v>
-      </c>
-      <c r="Y34" s="32">
-        <v>234.92872600000001</v>
-      </c>
-      <c r="Z34" s="32">
-        <v>234.37702899999999</v>
-      </c>
-      <c r="AA34" s="32">
-        <v>235.44674699999999</v>
-      </c>
-      <c r="AB34" s="32">
-        <v>237.52796900000001</v>
-      </c>
-      <c r="AC34" s="32">
-        <v>239.052933</v>
-      </c>
-      <c r="AD34" s="32">
-        <v>241.633881</v>
-      </c>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
       <c r="AE34" s="33"/>
       <c r="AF34" s="29"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="26">
-        <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
-        <v>10134.948146095066</v>
+        <f t="shared" ref="B36:AD36" si="2">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
+        <v>10128.764188673933</v>
       </c>
       <c r="C36" s="26">
-        <f t="shared" si="1"/>
-        <v>10121.162702145082</v>
+        <f>SUMPRODUCT(C32:C34,$D$23:$D$25)/SUM(C32:C34)*C14/$B$14</f>
+        <v>9715.0710076103514</v>
       </c>
       <c r="D36" s="26">
-        <f t="shared" si="1"/>
-        <v>10059.772494365814</v>
+        <f t="shared" ref="D36:L36" si="3">SUMPRODUCT(D32:D34,$D$23:$D$25)/SUM(D32:D34)*D14/$B$14</f>
+        <v>9379.5012804435319</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" si="1"/>
-        <v>10050.763799597085</v>
+        <f t="shared" si="3"/>
+        <v>9098.157067904207</v>
       </c>
       <c r="F36" s="26">
-        <f t="shared" si="1"/>
-        <v>10127.428607069427</v>
+        <f t="shared" si="3"/>
+        <v>8900.5394373583313</v>
       </c>
       <c r="G36" s="26">
-        <f t="shared" si="1"/>
-        <v>10269.11524721545</v>
+        <f t="shared" si="3"/>
+        <v>8762.1955571514172</v>
       </c>
       <c r="H36" s="26">
-        <f t="shared" si="1"/>
-        <v>10350.781370900584</v>
+        <f t="shared" si="3"/>
+        <v>8574.638599520662</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" si="1"/>
-        <v>10353.674088089921</v>
+        <f t="shared" si="3"/>
+        <v>8327.2183891071436</v>
       </c>
       <c r="J36" s="26">
-        <f t="shared" si="1"/>
-        <v>10294.239800360298</v>
+        <f t="shared" si="3"/>
+        <v>8038.2687173078502</v>
       </c>
       <c r="K36" s="26">
-        <f t="shared" si="1"/>
-        <v>10251.903689786537</v>
+        <f t="shared" si="3"/>
+        <v>7772.0490463949827</v>
       </c>
       <c r="L36" s="26">
-        <f t="shared" si="1"/>
-        <v>10279.777009851599</v>
-      </c>
-      <c r="M36" s="26">
-        <f t="shared" si="1"/>
-        <v>10325.709491436844</v>
-      </c>
-      <c r="N36" s="26">
-        <f t="shared" si="1"/>
-        <v>10344.230833049938</v>
-      </c>
-      <c r="O36" s="26">
-        <f t="shared" si="1"/>
-        <v>10359.12748221428</v>
-      </c>
-      <c r="P36" s="26">
-        <f t="shared" si="1"/>
-        <v>10371.638430973771</v>
-      </c>
-      <c r="Q36" s="26">
-        <f t="shared" si="1"/>
-        <v>10380.548547191598</v>
-      </c>
-      <c r="R36" s="26">
-        <f t="shared" si="1"/>
-        <v>10382.950508948947</v>
-      </c>
-      <c r="S36" s="26">
-        <f t="shared" si="1"/>
-        <v>10380.927010758403</v>
-      </c>
-      <c r="T36" s="26">
-        <f t="shared" si="1"/>
-        <v>10398.663134138134</v>
-      </c>
-      <c r="U36" s="26">
-        <f t="shared" si="1"/>
-        <v>10422.653431517481</v>
-      </c>
-      <c r="V36" s="26">
-        <f t="shared" si="1"/>
-        <v>10434.319910781423</v>
-      </c>
-      <c r="W36" s="26">
-        <f t="shared" si="1"/>
-        <v>10455.739600691937</v>
-      </c>
-      <c r="X36" s="26">
-        <f t="shared" si="1"/>
-        <v>10432.932814907192</v>
-      </c>
-      <c r="Y36" s="26">
-        <f t="shared" si="1"/>
-        <v>10374.231186923143</v>
-      </c>
-      <c r="Z36" s="26">
-        <f t="shared" si="1"/>
-        <v>10332.172107247137</v>
-      </c>
-      <c r="AA36" s="26">
-        <f t="shared" si="1"/>
-        <v>10324.781329795693</v>
-      </c>
-      <c r="AB36" s="26">
-        <f t="shared" si="1"/>
-        <v>10326.315629830769</v>
-      </c>
-      <c r="AC36" s="26">
-        <f t="shared" si="1"/>
-        <v>10310.34979051626</v>
-      </c>
-      <c r="AD36" s="26">
-        <f t="shared" si="1"/>
-        <v>9558.932689351499</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>7566.1942040579743</v>
+      </c>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -12814,12 +12755,13 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:M7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -12927,45 +12869,45 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="E2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="F2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="G2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="H2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="I2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="J2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="K2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="L2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
-      </c>
-      <c r="M2">
-        <f>'Commercial Vehicles'!$B$7</f>
-        <v>27004</v>
+      <c r="D2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!C14*'Commercial Vehicles'!$B16</f>
+        <v>25920.517751770582</v>
+      </c>
+      <c r="E2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!D14*'Commercial Vehicles'!$B16</f>
+        <v>25177.910605727324</v>
+      </c>
+      <c r="F2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!E14*'Commercial Vehicles'!$B16</f>
+        <v>24444.57340361876</v>
+      </c>
+      <c r="G2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!F14*'Commercial Vehicles'!$B16</f>
+        <v>23732.59553749394</v>
+      </c>
+      <c r="H2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!G14*'Commercial Vehicles'!$B16</f>
+        <v>23041.354890770817</v>
+      </c>
+      <c r="I2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!H14*'Commercial Vehicles'!$B16</f>
+        <v>22370.247466767789</v>
+      </c>
+      <c r="J2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!I14*'Commercial Vehicles'!$B16</f>
+        <v>21718.686860939597</v>
+      </c>
+      <c r="K2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!J14*'Commercial Vehicles'!$B16</f>
+        <v>21086.103748485046</v>
+      </c>
+      <c r="L2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!K14*'Commercial Vehicles'!$B16</f>
+        <v>20471.945386878688</v>
+      </c>
+      <c r="M2" s="51">
+        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!L14*'Commercial Vehicles'!$B16</f>
+        <v>19875.675132891927</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -13319,43 +13261,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>27004</v>
+        <v>25920.517751770582</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>27004</v>
+        <v>25177.910605727324</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>24444.57340361876</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>23732.59553749394</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>23041.354890770817</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>22370.247466767789</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>21718.686860939597</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>21086.103748485046</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>20471.945386878688</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>27004</v>
+        <v>19875.675132891927</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -13519,43 +13461,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>27004</v>
+        <v>25920.517751770582</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>27004</v>
+        <v>25177.910605727324</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>24444.57340361876</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>23732.59553749394</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>23041.354890770817</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>22370.247466767789</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>21718.686860939597</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>21086.103748485046</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>20471.945386878688</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>27004</v>
+        <v>19875.675132891927</v>
       </c>
       <c r="N8">
         <v>0</v>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E25C66-036F-474A-A81B-895765D51030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445782DA-C67E-4DAD-8034-FCD084A94EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,107 +45,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Daniel O'Brien</author>
-    <author>tc={838D9E4A-FB93-4B31-99BC-34A5B3DDC0E3}</author>
-    <author>tc={741FCEA6-F177-4B34-877A-4D6E81B99010}</author>
-  </authors>
-  <commentList>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{5360E313-EC74-4D8F-BAE2-E743E264FB32}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel O'Brien:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Where data is available, we take the total ev subsidy spend and divide by the total sales of EVs in the state</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{F5AC01E3-5D5B-4469-AC39-12AA7E3BADD7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel O'Brien:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-BEV standard rebate reduced to 1500 on 1/1/25
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D28" authorId="1" shapeId="0" xr:uid="{838D9E4A-FB93-4B31-99BC-34A5B3DDC0E3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Adjust weighting for PA - only first 500 people get it</t>
-      </text>
-    </comment>
-    <comment ref="D48" authorId="2" shapeId="0" xr:uid="{741FCEA6-F177-4B34-877A-4D6E81B99010}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Adjust weighting for PA - only first 500 people get it</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>Sources:</t>
   </si>
@@ -186,6 +87,9 @@
     <t>It also omits states that do not offer a rebate but do exempt EVs from sales, use, or excise taxes.</t>
   </si>
   <si>
+    <t>State Rebates + Tax Credits Updated 8/11/2021</t>
+  </si>
+  <si>
     <t>TC</t>
   </si>
   <si>
@@ -216,6 +120,9 @@
     <t>LDV</t>
   </si>
   <si>
+    <t>Note: average of cars and truck subsidies, which are different</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
@@ -226,6 +133,9 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>Subsidy goes up to 2000 based on battery</t>
   </si>
   <si>
     <t>TX</t>
@@ -258,10 +168,16 @@
     <t>VT</t>
   </si>
   <si>
+    <t>Note: Up to 4000</t>
+  </si>
+  <si>
     <t>Rest of country</t>
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Note: Pennsylvania offers a $1750 rebate, but only to the first 250 qualified applicants.</t>
   </si>
   <si>
     <t>Total Tax Credit (2012$)</t>
@@ -295,6 +211,9 @@
   </si>
   <si>
     <t>Calculations:</t>
+  </si>
+  <si>
+    <t>2022 $ to 2012 $</t>
   </si>
   <si>
     <t>Fraction of buses owned by private entities (see trans/FoVObE)</t>
@@ -369,6 +288,9 @@
     <t>Freight HDV (2012 $)</t>
   </si>
   <si>
+    <t>Psgr LDV (2012 $)</t>
+  </si>
+  <si>
     <t>Credit Amount (2012 $)</t>
   </si>
   <si>
@@ -376,144 +298,6 @@
   </si>
   <si>
     <t>AEO 2023</t>
-  </si>
-  <si>
-    <t>Foreign Entities of Concern Multiplier</t>
-  </si>
-  <si>
-    <t>BloombergNEF, MarkLines, Department of Energy</t>
-  </si>
-  <si>
-    <t>data 1</t>
-  </si>
-  <si>
-    <t>data 2</t>
-  </si>
-  <si>
-    <t>https://tax.colorado.gov/sites/tax/files/documents/ITT_Innovative_Motor_Vehicle_Credit_Feb_2024.pdf</t>
-  </si>
-  <si>
-    <t>https://portal.ct.gov/ceq/ar-23-gold/2023-ceq-annual-report-ebook/personal-impact---waste-diversion/transportation</t>
-  </si>
-  <si>
-    <t>https://data.delaware.gov/Energy-and-Environment/State-Rebates-for-Alternative-Fuel-Vehicles/8z8z-di7f/explore</t>
-  </si>
-  <si>
-    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Rebate-Stats</t>
-  </si>
-  <si>
-    <t>https://www.nyserda.ny.gov/All-Programs/Drive-Clean-Rebate-For-Electric-Cars-Program/Rebate-Data/Map-of-EV-Registrations</t>
-  </si>
-  <si>
-    <t>https://cleanvehiclerebate.org/en/rebate-statistics</t>
-  </si>
-  <si>
-    <t>https://www.energy.ca.gov/data-reports/energy-almanac/zero-emission-vehicle-and-infrastructure-statistics-collection/new-zev</t>
-  </si>
-  <si>
-    <t>Note: value was previously 1500 but after digging I don’t believe LA has ever had a state tax credit</t>
-  </si>
-  <si>
-    <t>suspended all ev rebate programs starting in 2024</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>no longer funds program</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Note; renewed on annual basis, only for first 500</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>up to 4k if low income</t>
-  </si>
-  <si>
-    <t>https://evrebate.oregon.gov/rebate-statistics</t>
-  </si>
-  <si>
-    <t>https://www.oregon.gov/energy/Data-and-Reports/Pages/Oregon-Electric-Vehicle-Dashboard.aspx</t>
-  </si>
-  <si>
-    <t>up to 3.2k if low income</t>
-  </si>
-  <si>
-    <t>PHEV Subsidies</t>
-  </si>
-  <si>
-    <t>US average share of EVs leased vs purchased</t>
-  </si>
-  <si>
-    <t>https://www.experian.com/blogs/ask-experian/electric-vehicle-trends/</t>
-  </si>
-  <si>
-    <t>Inflation adjuster</t>
-  </si>
-  <si>
-    <t>Inflation Historical Data and Assumptions</t>
-  </si>
-  <si>
-    <t>2012............................................................................. .</t>
-  </si>
-  <si>
-    <t>2013............................................................................. .</t>
-  </si>
-  <si>
-    <t>2014............................................................................. .</t>
-  </si>
-  <si>
-    <t>2015............................................................................. .</t>
-  </si>
-  <si>
-    <t>2016............................................................................. .</t>
-  </si>
-  <si>
-    <t>2017............................................................................. .</t>
-  </si>
-  <si>
-    <t>2018............................................................................. .</t>
-  </si>
-  <si>
-    <t>2019............................................................................. .</t>
-  </si>
-  <si>
-    <t>2020............................................................................. .</t>
-  </si>
-  <si>
-    <t>2021............................................................................. .</t>
-  </si>
-  <si>
-    <t>2022............................................................................. .</t>
-  </si>
-  <si>
-    <t>2023............................................................................. .</t>
-  </si>
-  <si>
-    <t>2024............................................................................. .</t>
-  </si>
-  <si>
-    <t>Future inflation assumption:</t>
-  </si>
-  <si>
-    <t>These values come from our internal analysis of weighted 30D and 45W purchase and leasing credits. (ICCT spreadsheet)</t>
-  </si>
-  <si>
-    <t>State Rebates + Tax Credits Updated 1/30/25</t>
-  </si>
-  <si>
-    <t>Updated 2/11/25</t>
-  </si>
-  <si>
-    <t>Conversion to 2012$</t>
-  </si>
-  <si>
-    <t>Frgt LDV (2012 $)</t>
   </si>
 </sst>
 </file>
@@ -524,11 +308,11 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="m\-d"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,21 +438,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,24 +456,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -751,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -825,9 +578,8 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -843,6 +595,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -864,11 +617,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="31" applyFont="1"/>
@@ -883,30 +636,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="31" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="31" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="33">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Body: normal cell 2" xfId="24" xr:uid="{18BAE46B-2E2B-4189-9E60-EEC8494BA028}"/>
     <cellStyle name="Body: normal cell 3" xfId="17" xr:uid="{46606A30-9DB6-4D96-9D39-18DB8C25C045}"/>
     <cellStyle name="Body: normal cell 4" xfId="9" xr:uid="{23D7D41B-0FA5-4B15-8ACE-D94C027772C4}"/>
-    <cellStyle name="Currency" xfId="33" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="32" xr:uid="{C53AF8AC-2A66-4CBB-880E-1554F67B4888}"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Font: Calibri, 9pt regular 2" xfId="25" xr:uid="{97A6AFB7-D07D-4277-A8A5-6AA031407B07}"/>
@@ -948,61 +684,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>474705</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A770E37F-B482-C48F-69E5-AB265CCAA341}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1841501"/>
-          <a:ext cx="6532605" cy="4648200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Olivia Ashmoore" id="{810A4951-0CFA-4CDB-88D1-6340A66E89CD}" userId="S::olivia@energyinnovation.org::75aa6550-3462-4480-900f-0bd2e542e876" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1290,23 +971,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D28" dT="2025-01-24T19:38:54.68" personId="{810A4951-0CFA-4CDB-88D1-6340A66E89CD}" id="{838D9E4A-FB93-4B31-99BC-34A5B3DDC0E3}">
-    <text>Adjust weighting for PA - only first 500 people get it</text>
-  </threadedComment>
-  <threadedComment ref="D48" dT="2025-01-24T19:38:54.68" personId="{810A4951-0CFA-4CDB-88D1-6340A66E89CD}" id="{741FCEA6-F177-4B34-877A-4D6E81B99010}">
-    <text>Adjust weighting for PA - only first 500 people get it</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,13 +993,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>45</v>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,21 +1009,11 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -1373,7 +1033,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2183,7 +1842,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,44 +1956,44 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>'Commercial Vehicles'!B10</f>
-        <v>9715.0710076103514</v>
+        <f>'Commercial Vehicles'!B11</f>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>'Commercial Vehicles'!C10</f>
-        <v>9379.5012804435319</v>
+        <f>'Commercial Vehicles'!C11</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>'Commercial Vehicles'!D10</f>
-        <v>9098.157067904207</v>
+        <f>'Commercial Vehicles'!D11</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>'Commercial Vehicles'!E10</f>
-        <v>8900.5394373583313</v>
+        <f>'Commercial Vehicles'!E11</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>'Commercial Vehicles'!F10</f>
-        <v>8762.1955571514172</v>
+        <f>'Commercial Vehicles'!F11</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>'Commercial Vehicles'!G10</f>
-        <v>8574.638599520662</v>
+        <f>'Commercial Vehicles'!G11</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>'Commercial Vehicles'!H10</f>
-        <v>8327.2183891071436</v>
+        <f>'Commercial Vehicles'!H11</f>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>'Commercial Vehicles'!I10</f>
-        <v>8038.2687173078502</v>
+        <f>'Commercial Vehicles'!I11</f>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f>'Commercial Vehicles'!J10</f>
-        <v>7772.0490463949827</v>
+        <f>'Commercial Vehicles'!J11</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>'Commercial Vehicles'!K10</f>
-        <v>7566.1942040579743</v>
+        <f>'Commercial Vehicles'!K11</f>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2688,43 +2347,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>9715.0710076103514</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>9379.5012804435319</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>9098.157067904207</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>8900.5394373583313</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>8762.1955571514172</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>8574.638599520662</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>8327.2183891071436</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>8038.2687173078502</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>7772.0490463949827</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>7566.1942040579743</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2888,43 +2547,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>9715.0710076103514</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>9379.5012804435319</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9098.157067904207</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>8900.5394373583313</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8762.1955571514172</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>8574.638599520662</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>8327.2183891071436</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>8038.2687173078502</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>7772.0490463949827</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>7566.1942040579743</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2994,14 +2653,13 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -3109,45 +2767,45 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!C14</f>
-        <v>30140.136920663466</v>
-      </c>
-      <c r="E2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!D14</f>
-        <v>29276.640239217821</v>
-      </c>
-      <c r="F2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!E14</f>
-        <v>28423.922562347398</v>
-      </c>
-      <c r="G2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!F14</f>
-        <v>27596.041322667374</v>
-      </c>
-      <c r="H2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!G14</f>
-        <v>26792.273128803277</v>
-      </c>
-      <c r="I2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!H14</f>
-        <v>26011.915659032311</v>
-      </c>
-      <c r="J2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!I14</f>
-        <v>25254.287047604183</v>
-      </c>
-      <c r="K2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!J14</f>
-        <v>24518.725288936101</v>
-      </c>
-      <c r="L2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!K14</f>
-        <v>23804.587659161265</v>
-      </c>
-      <c r="M2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!L14</f>
-        <v>23111.250154525496</v>
+      <c r="D2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>'Commercial Vehicles'!$B$8</f>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3501,43 +3159,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>30140.136920663466</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>29276.640239217821</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>28423.922562347398</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>27596.041322667374</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>26792.273128803277</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>26011.915659032311</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>25254.287047604183</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>24518.725288936101</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>23804.587659161265</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>23111.250154525496</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3701,43 +3359,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>30140.136920663466</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>29276.640239217821</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>28423.922562347398</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>27596.041322667374</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>26792.273128803277</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>26011.915659032311</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>25254.287047604183</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>24518.725288936101</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>23804.587659161265</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>23111.250154525496</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -6924,11 +6582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6936,752 +6594,767 @@
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>118</v>
+      <c r="B2">
+        <v>2021</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <v>2024</v>
+      </c>
+      <c r="F2">
+        <v>2025</v>
+      </c>
+      <c r="G2">
+        <v>2026</v>
+      </c>
+      <c r="H2">
+        <v>2027</v>
+      </c>
+      <c r="I2">
+        <v>2028</v>
+      </c>
+      <c r="J2">
+        <v>2029</v>
+      </c>
+      <c r="K2">
+        <v>2030</v>
+      </c>
+      <c r="L2">
+        <v>2031</v>
+      </c>
+      <c r="M2">
+        <v>2032</v>
+      </c>
+      <c r="N2">
+        <v>2033</v>
+      </c>
+      <c r="O2">
+        <v>2034</v>
+      </c>
+      <c r="P2">
+        <v>2035</v>
+      </c>
+      <c r="Q2">
+        <v>2036</v>
+      </c>
+      <c r="R2">
+        <v>2037</v>
+      </c>
+      <c r="S2">
+        <v>2038</v>
+      </c>
+      <c r="T2">
+        <v>2039</v>
+      </c>
+      <c r="U2">
+        <v>2040</v>
+      </c>
+      <c r="V2">
+        <v>2041</v>
+      </c>
+      <c r="W2">
+        <v>2042</v>
+      </c>
+      <c r="X2">
+        <v>2043</v>
+      </c>
+      <c r="Y2">
+        <v>2044</v>
+      </c>
+      <c r="Z2">
+        <v>2045</v>
+      </c>
+      <c r="AA2">
+        <v>2046</v>
+      </c>
+      <c r="AB2">
+        <v>2047</v>
+      </c>
+      <c r="AC2">
+        <v>2048</v>
+      </c>
+      <c r="AD2">
+        <v>2049</v>
+      </c>
+      <c r="AE2">
+        <v>2050</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>120</v>
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1646.4981124797289</v>
+      </c>
+      <c r="C3">
+        <v>1368.5857570401329</v>
+      </c>
+      <c r="D3">
+        <v>983.6971469156598</v>
+      </c>
+      <c r="E3">
+        <v>654.32041202251673</v>
+      </c>
+      <c r="F3">
+        <v>219.25443921462275</v>
+      </c>
+      <c r="G3">
+        <v>29.671981569503362</v>
+      </c>
+      <c r="H3">
+        <v>29.671981569503377</v>
+      </c>
+      <c r="I3">
+        <v>29.671981569503377</v>
+      </c>
+      <c r="J3">
+        <v>29.67198156950337</v>
+      </c>
+      <c r="K3">
+        <v>29.671981569503377</v>
+      </c>
+      <c r="L3">
+        <v>29.67198156950338</v>
+      </c>
+      <c r="M3">
+        <v>29.662930818658605</v>
+      </c>
+      <c r="N3">
+        <v>29.657500368151737</v>
+      </c>
+      <c r="O3">
+        <v>29.657500368151744</v>
+      </c>
+      <c r="P3">
+        <v>20.04560297100296</v>
+      </c>
+      <c r="Q3">
+        <v>14.278464532713683</v>
+      </c>
+      <c r="R3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="S3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="T3">
+        <v>14.278464532713675</v>
+      </c>
+      <c r="U3">
+        <v>14.278464532713675</v>
+      </c>
+      <c r="V3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="W3">
+        <v>14.278464532713674</v>
+      </c>
+      <c r="X3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="Y3">
+        <v>14.278464532713683</v>
+      </c>
+      <c r="Z3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="AA3">
+        <v>14.278464532713683</v>
+      </c>
+      <c r="AB3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="AC3">
+        <v>14.278464532713679</v>
+      </c>
+      <c r="AD3">
+        <v>10.395692420306119</v>
+      </c>
+      <c r="AE3">
+        <v>8.066029152861578</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B4">
-        <v>2021</v>
+        <v>6652.7185168992282</v>
       </c>
       <c r="C4">
-        <v>2022</v>
+        <v>3617.050692978903</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>1422.8620974282658</v>
       </c>
       <c r="E4">
-        <v>2024</v>
+        <v>838.46462929681411</v>
       </c>
       <c r="F4">
-        <v>2025</v>
+        <v>421.08837128836086</v>
       </c>
       <c r="G4">
-        <v>2026</v>
+        <v>300.52351835174784</v>
       </c>
       <c r="H4">
-        <v>2027</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="I4">
-        <v>2028</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="J4">
-        <v>2029</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="K4">
-        <v>2030</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="L4">
-        <v>2031</v>
+        <v>300.52351835174778</v>
       </c>
       <c r="M4">
-        <v>2032</v>
+        <v>245.24790619147615</v>
       </c>
       <c r="N4">
-        <v>2033</v>
+        <v>149.54513499056355</v>
       </c>
       <c r="O4">
-        <v>2034</v>
+        <v>58.275878749437524</v>
       </c>
       <c r="P4">
-        <v>2035</v>
+        <v>11.623644285733851</v>
       </c>
       <c r="Q4">
-        <v>2036</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="R4">
-        <v>2037</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="S4">
-        <v>2038</v>
+        <v>2.981156610891051</v>
       </c>
       <c r="T4">
-        <v>2039</v>
+        <v>2.9811566108910506</v>
       </c>
       <c r="U4">
-        <v>2040</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="V4">
-        <v>2041</v>
+        <v>2.9811566108910506</v>
       </c>
       <c r="W4">
-        <v>2042</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="X4">
-        <v>2043</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="Y4">
-        <v>2044</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="Z4">
-        <v>2045</v>
+        <v>2.9811566108910497</v>
       </c>
       <c r="AA4">
-        <v>2046</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="AB4">
-        <v>2047</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="AC4">
-        <v>2048</v>
+        <v>2.9811566108910501</v>
       </c>
       <c r="AD4">
-        <v>2049</v>
+        <v>1.1179337290841438</v>
       </c>
       <c r="AE4">
-        <v>2050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="48">
-        <v>1646.4981124797289</v>
-      </c>
-      <c r="C5" s="48">
-        <v>1368.5857570401329</v>
-      </c>
-      <c r="D5" s="48">
-        <v>4795.9636566176632</v>
-      </c>
-      <c r="E5" s="48">
-        <v>3555.487701851609</v>
-      </c>
-      <c r="F5" s="48">
-        <v>3365.6876734116477</v>
-      </c>
-      <c r="G5" s="48">
-        <v>3118.2246810233032</v>
-      </c>
-      <c r="H5" s="48">
-        <v>2391.1775782482218</v>
-      </c>
-      <c r="I5" s="48">
-        <v>2424.5099210417061</v>
-      </c>
-      <c r="J5" s="48">
-        <v>2459.8873208312061</v>
-      </c>
-      <c r="K5" s="48">
-        <v>2497.1120748745493</v>
-      </c>
-      <c r="L5" s="48">
-        <v>2525.3972397122579</v>
-      </c>
-      <c r="M5" s="48">
-        <v>2552.5012628800359</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="48">
-        <v>6652.7185168992282</v>
-      </c>
-      <c r="C6" s="48">
-        <v>3617.050692978903</v>
-      </c>
-      <c r="D6" s="48">
-        <v>3481.1983222883337</v>
-      </c>
-      <c r="E6" s="48">
-        <v>2846.5223385773729</v>
-      </c>
-      <c r="F6" s="48">
-        <v>2396.2166523302549</v>
-      </c>
-      <c r="G6" s="48">
-        <v>2262.2795944248228</v>
-      </c>
-      <c r="H6" s="48">
-        <v>2133.3803923218893</v>
-      </c>
-      <c r="I6" s="48">
-        <v>2079.4479927022094</v>
-      </c>
-      <c r="J6" s="48">
-        <v>2027.1389823455879</v>
-      </c>
-      <c r="K6" s="48">
-        <v>1976.3952724267306</v>
-      </c>
-      <c r="L6" s="48">
-        <v>1926.1484722201324</v>
-      </c>
-      <c r="M6" s="48">
-        <v>1877.1377242807455</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
+      <c r="A6" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="7"/>
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:J13" si="0">D13+1</f>
+        <v>2021</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
+        <v>2026</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4750</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4750</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2400</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2400</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2250</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="R15" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.96799999999999997</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="8">
-        <v>2020</v>
+        <v>2500</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" ref="E16:J16" si="0">D16+1</f>
-        <v>2021</v>
+        <v>2500</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2500</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2500</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2500</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2500</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="45">
-        <v>5.6849999999999996</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="36">
-        <f>2000*D76+4000*(1-D76)</f>
-        <v>3506.6</v>
-      </c>
-      <c r="E17" s="37">
-        <f>1500*E76+2500*(1-E76)</f>
-        <v>2190.8000000000002</v>
-      </c>
-      <c r="F17" s="37">
-        <f>1500*F76+2500*(1-F76)</f>
-        <v>2359</v>
-      </c>
-      <c r="G17" s="37">
-        <f>0.5*(1500*G76+2500*(1-G76))+0.5*(5000)</f>
-        <v>3641.35</v>
-      </c>
-      <c r="H17" s="37">
-        <v>5000</v>
-      </c>
-      <c r="I17" s="37">
-        <v>3500</v>
-      </c>
-      <c r="J17" s="37">
-        <f>I17</f>
-        <v>3500</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="45">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="37">
-        <f>613500/(7880-5480)</f>
-        <v>255.625</v>
-      </c>
-      <c r="E18" s="37">
-        <f>1079750/(12513-7880)</f>
-        <v>233.05633498812864</v>
-      </c>
-      <c r="F18" s="37">
-        <f>1468250/(18509-12513)</f>
-        <v>244.87158105403603</v>
-      </c>
-      <c r="G18" s="37">
-        <f>7744000/(27709-18509)</f>
-        <v>841.73913043478262</v>
-      </c>
-      <c r="H18" s="37">
-        <f>11982750/(27146*27709/44313)</f>
-        <v>705.92888732943345</v>
-      </c>
-      <c r="I18" s="37">
-        <f>H18*1500/2250</f>
-        <v>470.61925821962228</v>
-      </c>
-      <c r="J18" s="37">
-        <f>I18</f>
-        <v>470.61925821962228</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>28.64</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="46">
-        <v>0.96799999999999997</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="8">
+        <v>39.35</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="38">
-        <f>852000/311</f>
-        <v>2739.5498392282957</v>
-      </c>
-      <c r="E19" s="38">
-        <f>2500</f>
+        <v>23</v>
+      </c>
+      <c r="D19" s="8">
         <v>2500</v>
       </c>
-      <c r="F19" s="38">
-        <f>2500</f>
+      <c r="E19" s="8">
         <v>2500</v>
       </c>
-      <c r="G19" s="38">
-        <f>2500</f>
+      <c r="F19" s="8">
         <v>2500</v>
       </c>
-      <c r="H19" s="38">
-        <f>2500</f>
+      <c r="G19" s="8">
         <v>2500</v>
       </c>
-      <c r="I19" s="38">
-        <f>2500</f>
+      <c r="H19" s="8">
         <v>2500</v>
       </c>
-      <c r="J19" s="38">
-        <f>2500</f>
+      <c r="I19" s="8">
         <v>2500</v>
       </c>
-      <c r="K19" t="s">
-        <v>83</v>
+      <c r="J19" s="8">
+        <v>2500</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="46">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="38">
-        <f>17436700/10692</f>
-        <v>1630.8174335952115</v>
-      </c>
-      <c r="E20" s="38">
-        <f>18953100/20836</f>
-        <v>909.63236705701672</v>
-      </c>
-      <c r="F20" s="38">
-        <f>16215000/28241</f>
-        <v>574.16522077830109</v>
-      </c>
-      <c r="G20" s="38">
-        <f>26945500/48746</f>
-        <v>552.77356090756166</v>
-      </c>
-      <c r="H20" s="38">
-        <f>19221500/54664</f>
-        <v>351.62995755890529</v>
-      </c>
-      <c r="I20" s="38">
-        <f>H20</f>
-        <v>351.62995755890529</v>
-      </c>
-      <c r="J20" s="38">
-        <f>I20</f>
-        <v>351.62995755890529</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4.665</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1500</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="46">
-        <v>28.64</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1.341</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F21" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="46">
-        <v>39.35</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="8">
+        <v>6.0380000000000003</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="38">
-        <f>80255483/(100377+5569)</f>
-        <v>757.51310101372394</v>
-      </c>
-      <c r="E22" s="38">
-        <f>103494583/(152400+7866)</f>
-        <v>645.76755518949744</v>
-      </c>
-      <c r="F22" s="38">
-        <f>88529166/(256315+5761)</f>
-        <v>337.79959248462279</v>
-      </c>
-      <c r="G22" s="38">
-        <f>310602850/(371002+3666)</f>
-        <v>829.00821527325525</v>
+        <v>23</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2500</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="11"/>
+        <v>2500</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="46">
-        <v>4.665</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="8">
+        <v>6.8730000000000002</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="47">
-        <v>1.341</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="8">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="8">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="8">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F24" s="8">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="8">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="8">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R24" s="12"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="47">
-        <v>5.7169999999999996</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>22</v>
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G25" s="8">
         <v>2500</v>
@@ -7690,2374 +7363,708 @@
         <v>2500</v>
       </c>
       <c r="I25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="47">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>22</v>
+      <c r="A26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="8">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E26" s="8">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="F26" s="8">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="G26" s="8">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H26" s="8">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="8">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="J26" s="8">
-        <v>3000</v>
+        <v>4000</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="47">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="8">
+        <f>B28-SUM(B14:B26)</f>
+        <v>210.304</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E27" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>3500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="47">
-        <f>500/10^6</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H28" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I28" s="8">
-        <v>3000</v>
-      </c>
-      <c r="J28" s="8">
-        <v>3000</v>
-      </c>
-      <c r="K28" t="s">
-        <v>93</v>
+      <c r="A28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="8">
+        <v>329.5</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="47">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1500</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="47">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="H30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="I30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="J30" s="8">
-        <v>2000</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="47">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="38">
-        <f>9294500/3753</f>
-        <v>2476.5520916600053</v>
-      </c>
-      <c r="E31" s="38">
-        <f>14303500/7764</f>
-        <v>1842.284904688305</v>
-      </c>
-      <c r="F31" s="38">
-        <f>19442500/12379</f>
-        <v>1570.6034413118991</v>
-      </c>
-      <c r="G31" s="38">
-        <f>13295000/19790</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="H31" s="38">
-        <f>G31</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="I31" s="38">
-        <f>H31</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="J31" s="38">
-        <f>I31</f>
-        <v>671.80394138453767</v>
-      </c>
-      <c r="K31" t="s">
-        <v>96</v>
-      </c>
-      <c r="L31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="47">
-        <v>0.624</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="39">
-        <v>2200</v>
-      </c>
-      <c r="E32" s="39">
-        <v>2200</v>
-      </c>
-      <c r="F32" s="39">
-        <v>2200</v>
-      </c>
-      <c r="G32" s="39">
-        <v>2200</v>
-      </c>
-      <c r="H32" s="39">
-        <v>2200</v>
-      </c>
-      <c r="I32" s="39">
-        <v>2200</v>
-      </c>
-      <c r="J32" s="39">
-        <v>2200</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="46">
-        <f>B34-SUM(B17:B32)</f>
-        <v>203.49250000000001</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="8">
-        <v>329.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="8">
-        <v>2020</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36:J36" si="1">D36+1</f>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>2021</v>
       </c>
-      <c r="F36" s="8">
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>2024</v>
+      </c>
+      <c r="G35">
+        <v>2025</v>
+      </c>
+      <c r="H35">
+        <v>2026</v>
+      </c>
+      <c r="I35">
+        <v>2027</v>
+      </c>
+      <c r="J35">
+        <v>2028</v>
+      </c>
+      <c r="K35">
+        <v>2029</v>
+      </c>
+      <c r="L35">
+        <v>2030</v>
+      </c>
+      <c r="M35">
+        <v>2031</v>
+      </c>
+      <c r="N35">
+        <v>2032</v>
+      </c>
+      <c r="O35">
+        <v>2033</v>
+      </c>
+      <c r="P35">
+        <v>2034</v>
+      </c>
+      <c r="Q35">
+        <v>2035</v>
+      </c>
+      <c r="R35">
+        <v>2036</v>
+      </c>
+      <c r="S35">
+        <v>2037</v>
+      </c>
+      <c r="T35">
+        <v>2038</v>
+      </c>
+      <c r="U35">
+        <v>2039</v>
+      </c>
+      <c r="V35">
+        <v>2040</v>
+      </c>
+      <c r="W35">
+        <v>2041</v>
+      </c>
+      <c r="X35">
+        <v>2042</v>
+      </c>
+      <c r="Y35">
+        <v>2043</v>
+      </c>
+      <c r="Z35">
+        <v>2044</v>
+      </c>
+      <c r="AA35">
+        <v>2045</v>
+      </c>
+      <c r="AB35">
+        <v>2046</v>
+      </c>
+      <c r="AC35">
+        <v>2047</v>
+      </c>
+      <c r="AD35">
+        <v>2048</v>
+      </c>
+      <c r="AE35">
+        <v>2049</v>
+      </c>
+      <c r="AF35">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C36" s="5">
+        <f t="shared" ref="C36:H36" si="1">SUMPRODUCT(E14:E27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
+        <v>600.15334597875574</v>
+      </c>
+      <c r="D36" s="5">
         <f t="shared" si="1"/>
+        <v>576.45146813353574</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>576.45146813353574</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="1"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="1"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="1"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="I36" s="5">
+        <f>H36</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" ref="J36:AF36" si="2">I36</f>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="V36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="W36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="X36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Y36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="Z36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AA36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AB36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AC36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AD36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AE36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+      <c r="AF36" s="5">
+        <f t="shared" si="2"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2021</v>
+      </c>
+      <c r="D39">
         <v>2022</v>
       </c>
-      <c r="G36" s="8">
-        <f t="shared" si="1"/>
+      <c r="E39">
         <v>2023</v>
       </c>
-      <c r="H36" s="8">
-        <f t="shared" si="1"/>
+      <c r="F39">
         <v>2024</v>
       </c>
-      <c r="I36" s="8">
-        <f t="shared" si="1"/>
+      <c r="G39">
         <v>2025</v>
       </c>
-      <c r="J36" s="8">
-        <f t="shared" si="1"/>
+      <c r="H39">
         <v>2026</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="36">
-        <v>5.6849999999999996</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="37">
-        <f>D17</f>
-        <v>3506.6</v>
-      </c>
-      <c r="E37" s="37">
-        <f t="shared" ref="E37:J37" si="2">E17</f>
-        <v>2190.8000000000002</v>
-      </c>
-      <c r="F37" s="37">
-        <f t="shared" si="2"/>
-        <v>2359</v>
-      </c>
-      <c r="G37" s="37">
-        <f t="shared" si="2"/>
-        <v>3641.35</v>
-      </c>
-      <c r="H37" s="37">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="I37" s="37">
-        <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="J37" s="37">
-        <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="36">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="37">
-        <f>128000/255</f>
-        <v>501.96078431372547</v>
-      </c>
-      <c r="E38" s="37">
-        <f>537750/(8827-5893)</f>
-        <v>183.28220858895705</v>
-      </c>
-      <c r="F38" s="37">
-        <f>412000/(11615-8827)</f>
-        <v>147.77618364418939</v>
-      </c>
-      <c r="G38" s="37">
-        <f>512500/(16517-11615)</f>
-        <v>104.54916360669115</v>
-      </c>
-      <c r="H38" s="37">
-        <f>685000/(27146*16517/44313)</f>
-        <v>67.69938302941182</v>
-      </c>
-      <c r="I38" s="37">
-        <f>H38</f>
-        <v>67.69938302941182</v>
-      </c>
-      <c r="J38" s="37">
-        <f t="shared" ref="J38" si="3">I38</f>
-        <v>67.69938302941182</v>
-      </c>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="8">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="38">
-        <f>104500/97</f>
-        <v>1077.319587628866</v>
-      </c>
-      <c r="E39" s="38">
-        <v>1000</v>
-      </c>
-      <c r="F39" s="38">
-        <v>1000</v>
-      </c>
-      <c r="G39" s="38">
-        <v>1000</v>
-      </c>
-      <c r="H39" s="38">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="38">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="38">
-        <v>1000</v>
-      </c>
-      <c r="L39"/>
-    </row>
-    <row r="40" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="8">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="38">
-        <f>4684500/6464</f>
-        <v>724.7060643564356</v>
-      </c>
-      <c r="E40" s="38">
-        <f>9996000/14360</f>
-        <v>696.10027855153203</v>
-      </c>
-      <c r="F40" s="38">
-        <f>5049700/14312</f>
-        <v>352.82979318054777</v>
-      </c>
-      <c r="G40" s="38">
-        <f>8627000/30164</f>
-        <v>286.00318260177693</v>
-      </c>
-      <c r="H40" s="38">
-        <f>7694000/35557</f>
-        <v>216.38495936102595</v>
-      </c>
-      <c r="I40" s="38">
-        <f>H40</f>
-        <v>216.38495936102595</v>
-      </c>
-      <c r="J40" s="38">
-        <f>I40</f>
-        <v>216.38495936102595</v>
-      </c>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="8">
-        <v>28.64</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0</v>
-      </c>
-      <c r="L41"/>
-    </row>
-    <row r="42" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="8">
-        <v>39.35</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="38">
-        <f>12007419/38153</f>
-        <v>314.71755825229997</v>
-      </c>
-      <c r="E42" s="38">
-        <f>10067604/53090</f>
-        <v>189.6327745338105</v>
-      </c>
-      <c r="F42" s="38">
-        <f>3681500/(43689)</f>
-        <v>84.266062395568682</v>
-      </c>
-      <c r="G42" s="38">
-        <f>8757316/(63496)</f>
-        <v>137.9191760110873</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="8">
-        <v>4.665</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="13">
-        <v>0</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
-        <v>0</v>
-      </c>
-      <c r="J43" s="13">
-        <v>0</v>
-      </c>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1.341</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="7">
-        <v>5.7169999999999996</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H45" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
-      <c r="L45"/>
-    </row>
-    <row r="46" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="7">
-        <v>6.0380000000000003</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E46" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F46" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="J46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="7">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E47" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F47" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G47" s="8">
-        <f>G27*0.5</f>
-        <v>1750</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="1:12" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="7">
-        <f>500/10^6</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H48" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I48" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J48" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="7">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G49" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="7">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E50" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F50" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="7">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="8">
-        <f>1843000/1494</f>
-        <v>1233.6010709504685</v>
-      </c>
-      <c r="E51" s="8">
-        <f>4828500/4476</f>
-        <v>1078.7533512064342</v>
-      </c>
-      <c r="F51" s="8">
-        <f>5495500/4897</f>
-        <v>1122.217684296508</v>
-      </c>
-      <c r="G51" s="38">
-        <f>2876000/6464</f>
-        <v>444.92574257425741</v>
-      </c>
-      <c r="H51" s="38">
-        <f>G51</f>
-        <v>444.92574257425741</v>
-      </c>
-      <c r="I51" s="38">
-        <f>H51</f>
-        <v>444.92574257425741</v>
-      </c>
-      <c r="J51" s="38">
-        <f>I51</f>
-        <v>444.92574257425741</v>
-      </c>
-      <c r="L51"/>
-    </row>
-    <row r="52" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="7">
-        <v>0.624</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="39">
-        <v>1000</v>
-      </c>
-      <c r="E52" s="39">
-        <v>1000</v>
-      </c>
-      <c r="F52" s="39">
-        <v>1000</v>
-      </c>
-      <c r="G52" s="39">
-        <v>1000</v>
-      </c>
-      <c r="H52" s="39">
-        <v>1000</v>
-      </c>
-      <c r="I52" s="39">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="39">
-        <v>1000</v>
-      </c>
-      <c r="L52"/>
-    </row>
-    <row r="53" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="8">
-        <f>B54-SUM(B37:B52)</f>
-        <v>203.49250000000001</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0</v>
-      </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
-      <c r="L53"/>
-    </row>
-    <row r="54" spans="1:32" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="8">
-        <v>329.5</v>
-      </c>
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C62">
-        <v>2021</v>
-      </c>
-      <c r="D62">
-        <v>2022</v>
-      </c>
-      <c r="E62">
-        <v>2023</v>
-      </c>
-      <c r="F62">
-        <v>2024</v>
-      </c>
-      <c r="G62">
-        <v>2025</v>
-      </c>
-      <c r="H62">
-        <v>2026</v>
-      </c>
-      <c r="I62">
+      <c r="I39">
         <v>2027</v>
       </c>
-      <c r="J62">
+      <c r="J39">
         <v>2028</v>
       </c>
-      <c r="K62">
+      <c r="K39">
         <v>2029</v>
       </c>
-      <c r="L62">
+      <c r="L39">
         <v>2030</v>
       </c>
-      <c r="M62">
+      <c r="M39">
         <v>2031</v>
       </c>
-      <c r="N62">
+      <c r="N39">
         <v>2032</v>
       </c>
-      <c r="O62">
+      <c r="O39">
         <v>2033</v>
       </c>
-      <c r="P62">
+      <c r="P39">
         <v>2034</v>
       </c>
-      <c r="Q62">
+      <c r="Q39">
         <v>2035</v>
       </c>
-      <c r="R62">
+      <c r="R39">
         <v>2036</v>
       </c>
-      <c r="S62">
+      <c r="S39">
         <v>2037</v>
       </c>
-      <c r="T62">
+      <c r="T39">
         <v>2038</v>
       </c>
-      <c r="U62">
+      <c r="U39">
         <v>2039</v>
       </c>
-      <c r="V62">
+      <c r="V39">
         <v>2040</v>
       </c>
-      <c r="W62">
+      <c r="W39">
         <v>2041</v>
       </c>
-      <c r="X62">
+      <c r="X39">
         <v>2042</v>
       </c>
-      <c r="Y62">
+      <c r="Y39">
         <v>2043</v>
       </c>
-      <c r="Z62">
+      <c r="Z39">
         <v>2044</v>
       </c>
-      <c r="AA62">
+      <c r="AA39">
         <v>2045</v>
       </c>
-      <c r="AB62">
+      <c r="AB39">
         <v>2046</v>
       </c>
-      <c r="AC62">
+      <c r="AC39">
         <v>2047</v>
       </c>
-      <c r="AD62">
+      <c r="AD39">
         <v>2048</v>
       </c>
-      <c r="AE62">
+      <c r="AE39">
         <v>2049</v>
       </c>
-      <c r="AF62">
+      <c r="AF39">
         <v>2050</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="5">
-        <f t="shared" ref="C63:H63" si="4">SUMPRODUCT(E17:E33,$B$17:$B$33)/SUM($B$17:$B$33)*L79</f>
-        <v>284.24236864339406</v>
-      </c>
-      <c r="D63" s="5">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5">
+        <f>B3+C36</f>
+        <v>2246.6514584584847</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" ref="D40:AF40" si="3">C3+D36</f>
+        <v>1945.0372251736685</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="3"/>
+        <v>1560.1486150491955</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="3"/>
+        <v>1222.6455220376913</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="3"/>
+        <v>787.57954922979729</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.98804083383322</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.98261038332635</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="3"/>
+        <v>597.98261038332635</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="3"/>
+        <v>588.37071298617752</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="X40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AB40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AC40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AD40" s="5">
+        <f t="shared" si="3"/>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AE40" s="5">
+        <f t="shared" si="3"/>
+        <v>578.72080243548066</v>
+      </c>
+      <c r="AF40" s="5">
+        <f t="shared" si="3"/>
+        <v>576.39113916803615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="5">
+        <f>B4+C36</f>
+        <v>7252.8718628779843</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:AF41" si="4">C4+D36</f>
+        <v>4193.5021611124384</v>
+      </c>
+      <c r="E41" s="5">
         <f t="shared" si="4"/>
-        <v>231.21682138187734</v>
-      </c>
-      <c r="E63" s="5">
+        <v>1999.3135655618016</v>
+      </c>
+      <c r="F41" s="5">
         <f t="shared" si="4"/>
-        <v>334.13793520947195</v>
-      </c>
-      <c r="F63" s="5">
+        <v>1406.7897393119888</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="4"/>
-        <v>264.43888586266991</v>
-      </c>
-      <c r="G63" s="5">
+        <v>989.41348130353549</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="4"/>
-        <v>199.92712908586196</v>
-      </c>
-      <c r="H63" s="5">
+        <v>868.84862836692241</v>
+      </c>
+      <c r="I41" s="5">
         <f t="shared" si="4"/>
-        <v>194.10400882122519</v>
-      </c>
-      <c r="I63" s="5">
-        <f>H63*R79/Q79</f>
-        <v>188.4504940011895</v>
-      </c>
-      <c r="J63" s="5">
-        <f t="shared" ref="J63:Q63" si="5">I63*S79/R79</f>
-        <v>182.96164466134903</v>
-      </c>
-      <c r="K63" s="5">
-        <f t="shared" si="5"/>
-        <v>177.63266471975632</v>
-      </c>
-      <c r="L63" s="5">
-        <f t="shared" si="5"/>
-        <v>172.45889778617118</v>
-      </c>
-      <c r="M63" s="5">
-        <f t="shared" si="5"/>
-        <v>167.43582309337009</v>
-      </c>
-      <c r="N63" s="5">
-        <f t="shared" si="5"/>
-        <v>162.55905154696123</v>
-      </c>
-      <c r="O63" s="5">
-        <f t="shared" si="5"/>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="P63" s="5">
-        <f t="shared" si="5"/>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="Q63" s="5">
-        <f t="shared" si="5"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="R63" s="5">
-        <v>0</v>
-      </c>
-      <c r="S63" s="5">
-        <v>0</v>
-      </c>
-      <c r="T63" s="5">
-        <v>0</v>
-      </c>
-      <c r="U63" s="5">
-        <v>0</v>
-      </c>
-      <c r="V63" s="5">
-        <v>0</v>
-      </c>
-      <c r="W63" s="5">
-        <v>0</v>
-      </c>
-      <c r="X63" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="5">
-        <f>SUMPRODUCT(E37:E53,$B$37:$B$53)/SUM($B$37:$B$53)*L79</f>
-        <v>215.72168420258612</v>
-      </c>
-      <c r="D64" s="5">
-        <f t="shared" ref="D64:H64" si="6">SUMPRODUCT(F37:F53,$B$37:$B$53)/SUM($B$37:$B$53)*M79</f>
-        <v>188.02811316670545</v>
-      </c>
-      <c r="E64" s="5">
-        <f t="shared" si="6"/>
-        <v>181.15698643889937</v>
-      </c>
-      <c r="F64" s="5">
-        <f t="shared" si="6"/>
-        <v>152.76346597230366</v>
-      </c>
-      <c r="G64" s="5">
-        <f t="shared" si="6"/>
-        <v>96.20855199074947</v>
-      </c>
-      <c r="H64" s="5">
-        <f t="shared" si="6"/>
-        <v>93.406361156067433</v>
-      </c>
-      <c r="I64" s="5">
-        <f>H64*R79/Q79</f>
-        <v>90.685787530162571</v>
-      </c>
-      <c r="J64" s="5">
-        <f t="shared" ref="J64:Q64" si="7">I64*S79/R79</f>
-        <v>88.04445391277919</v>
-      </c>
-      <c r="K64" s="5">
-        <f t="shared" si="7"/>
-        <v>85.480052342504052</v>
-      </c>
-      <c r="L64" s="5">
-        <f t="shared" si="7"/>
-        <v>82.990342080101016</v>
-      </c>
-      <c r="M64" s="5">
-        <f t="shared" si="7"/>
-        <v>80.573147650583522</v>
-      </c>
-      <c r="N64" s="5">
-        <f t="shared" si="7"/>
-        <v>78.226356942314084</v>
-      </c>
-      <c r="O64" s="5">
-        <f t="shared" si="7"/>
-        <v>75.947919361469985</v>
-      </c>
-      <c r="P64" s="5">
-        <f t="shared" si="7"/>
-        <v>73.735844040262123</v>
-      </c>
-      <c r="Q64" s="5">
-        <f t="shared" si="7"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="R64" s="5">
-        <v>0</v>
-      </c>
-      <c r="S64" s="5">
-        <v>0</v>
-      </c>
-      <c r="T64" s="5">
-        <v>0</v>
-      </c>
-      <c r="U64" s="5">
-        <v>0</v>
-      </c>
-      <c r="V64" s="5">
-        <v>0</v>
-      </c>
-      <c r="W64" s="5">
-        <v>0</v>
-      </c>
-      <c r="X64" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C67">
-        <v>2021</v>
-      </c>
-      <c r="D67">
-        <v>2022</v>
-      </c>
-      <c r="E67">
-        <v>2023</v>
-      </c>
-      <c r="F67">
-        <v>2024</v>
-      </c>
-      <c r="G67">
-        <v>2025</v>
-      </c>
-      <c r="H67">
-        <v>2026</v>
-      </c>
-      <c r="I67">
-        <v>2027</v>
-      </c>
-      <c r="J67">
-        <v>2028</v>
-      </c>
-      <c r="K67">
-        <v>2029</v>
-      </c>
-      <c r="L67">
-        <v>2030</v>
-      </c>
-      <c r="M67">
-        <v>2031</v>
-      </c>
-      <c r="N67">
-        <v>2032</v>
-      </c>
-      <c r="O67">
-        <v>2033</v>
-      </c>
-      <c r="P67">
-        <v>2034</v>
-      </c>
-      <c r="Q67">
-        <v>2035</v>
-      </c>
-      <c r="R67">
-        <v>2036</v>
-      </c>
-      <c r="S67">
-        <v>2037</v>
-      </c>
-      <c r="T67">
-        <v>2038</v>
-      </c>
-      <c r="U67">
-        <v>2039</v>
-      </c>
-      <c r="V67">
-        <v>2040</v>
-      </c>
-      <c r="W67">
-        <v>2041</v>
-      </c>
-      <c r="X67">
-        <v>2042</v>
-      </c>
-      <c r="Y67">
-        <v>2043</v>
-      </c>
-      <c r="Z67">
-        <v>2044</v>
-      </c>
-      <c r="AA67">
-        <v>2045</v>
-      </c>
-      <c r="AB67">
-        <v>2046</v>
-      </c>
-      <c r="AC67">
-        <v>2047</v>
-      </c>
-      <c r="AD67">
-        <v>2048</v>
-      </c>
-      <c r="AE67">
-        <v>2049</v>
-      </c>
-      <c r="AF67">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5">
-        <f t="shared" ref="C68:AF68" si="8">B5+C63</f>
-        <v>1930.7404811231229</v>
-      </c>
-      <c r="D68" s="5">
-        <f t="shared" si="8"/>
-        <v>1599.8025784220101</v>
-      </c>
-      <c r="E68" s="5">
-        <f t="shared" si="8"/>
-        <v>5130.1015918271351</v>
-      </c>
-      <c r="F68" s="5">
-        <f t="shared" si="8"/>
-        <v>3819.9265877142789</v>
-      </c>
-      <c r="G68" s="5">
-        <f t="shared" si="8"/>
-        <v>3565.6148024975096</v>
-      </c>
-      <c r="H68" s="5">
-        <f t="shared" si="8"/>
-        <v>3312.3286898445285</v>
-      </c>
-      <c r="I68" s="5">
-        <f t="shared" si="8"/>
-        <v>2579.6280722494112</v>
-      </c>
-      <c r="J68" s="5">
-        <f t="shared" si="8"/>
-        <v>2607.4715657030551</v>
-      </c>
-      <c r="K68" s="5">
-        <f t="shared" si="8"/>
-        <v>2637.5199855509622</v>
-      </c>
-      <c r="L68" s="5">
-        <f t="shared" si="8"/>
-        <v>2669.5709726607206</v>
-      </c>
-      <c r="M68" s="5">
-        <f t="shared" si="8"/>
-        <v>2692.8330628056278</v>
-      </c>
-      <c r="N68" s="5">
-        <f t="shared" si="8"/>
-        <v>2715.0603144269971</v>
-      </c>
-      <c r="O68" s="5">
-        <f t="shared" si="8"/>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="P68" s="5">
-        <f t="shared" si="8"/>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="Q68" s="5">
-        <f t="shared" si="8"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="R68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF68" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="5">
-        <f>B6+C64</f>
-        <v>6868.4402011018146</v>
-      </c>
-      <c r="D69" s="5">
-        <f t="shared" ref="D69:AF69" si="9">C6+D64</f>
-        <v>3805.0788061456087</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" si="9"/>
-        <v>3662.355308727233</v>
-      </c>
-      <c r="F69" s="5">
-        <f t="shared" si="9"/>
-        <v>2999.2858045496764</v>
-      </c>
-      <c r="G69" s="5">
-        <f t="shared" si="9"/>
-        <v>2492.4252043210045</v>
-      </c>
-      <c r="H69" s="5">
-        <f t="shared" si="9"/>
-        <v>2355.6859555808901</v>
-      </c>
-      <c r="I69" s="5">
-        <f t="shared" si="9"/>
-        <v>2224.0661798520518</v>
-      </c>
-      <c r="J69" s="5">
-        <f t="shared" si="9"/>
-        <v>2167.4924466149887</v>
-      </c>
-      <c r="K69" s="5">
-        <f t="shared" si="9"/>
-        <v>2112.6190346880921</v>
-      </c>
-      <c r="L69" s="5">
-        <f t="shared" si="9"/>
-        <v>2059.3856145068316</v>
-      </c>
-      <c r="M69" s="5">
-        <f t="shared" si="9"/>
-        <v>2006.7216198707158</v>
-      </c>
-      <c r="N69" s="5">
-        <f t="shared" si="9"/>
-        <v>1955.3640812230597</v>
-      </c>
-      <c r="O69" s="5">
-        <f t="shared" si="9"/>
-        <v>75.947919361469985</v>
-      </c>
-      <c r="P69" s="5">
-        <f t="shared" si="9"/>
-        <v>73.735844040262123</v>
-      </c>
-      <c r="Q69" s="5">
-        <f t="shared" si="9"/>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="R69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF69" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D73" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D74" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D75" s="22">
-        <v>2020</v>
-      </c>
-      <c r="E75" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F75" s="22">
-        <v>2022</v>
-      </c>
-      <c r="G75" s="22">
-        <v>2023</v>
-      </c>
-      <c r="H75" s="22">
-        <v>2024</v>
-      </c>
-      <c r="I75" s="22">
-        <v>2025</v>
-      </c>
-      <c r="J75" s="22">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D76" s="40">
-        <v>0.2467</v>
-      </c>
-      <c r="E76" s="40">
-        <v>0.30919999999999997</v>
-      </c>
-      <c r="F76" s="40">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G76" s="40">
-        <v>0.21729999999999999</v>
-      </c>
-      <c r="H76" s="40">
-        <v>0.46560000000000001</v>
-      </c>
-      <c r="I76" s="41">
-        <f>H76</f>
-        <v>0.46560000000000001</v>
-      </c>
-      <c r="J76" s="42">
-        <f>I76</f>
-        <v>0.46560000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B78" s="22"/>
-      <c r="C78" s="22">
-        <v>2012</v>
-      </c>
-      <c r="D78" s="22">
-        <v>2013</v>
-      </c>
-      <c r="E78" s="22">
-        <v>2014</v>
-      </c>
-      <c r="F78" s="22">
-        <v>2015</v>
-      </c>
-      <c r="G78" s="22">
-        <v>2016</v>
-      </c>
-      <c r="H78" s="22">
-        <v>2017</v>
-      </c>
-      <c r="I78" s="22">
-        <v>2018</v>
-      </c>
-      <c r="J78" s="22">
-        <v>2019</v>
-      </c>
-      <c r="K78" s="22">
-        <v>2020</v>
-      </c>
-      <c r="L78" s="22">
-        <v>2021</v>
-      </c>
-      <c r="M78" s="22">
-        <v>2022</v>
-      </c>
-      <c r="N78" s="22">
-        <v>2023</v>
-      </c>
-      <c r="O78" s="22">
-        <v>2024</v>
-      </c>
-      <c r="P78" s="22">
-        <v>2025</v>
-      </c>
-      <c r="Q78" s="22">
-        <v>2026</v>
-      </c>
-      <c r="R78" s="22">
-        <v>2027</v>
-      </c>
-      <c r="S78" s="22">
-        <v>2028</v>
-      </c>
-      <c r="T78" s="22">
-        <v>2029</v>
-      </c>
-      <c r="U78" s="22">
-        <v>2030</v>
-      </c>
-      <c r="V78" s="22">
-        <v>2031</v>
-      </c>
-      <c r="W78" s="22">
-        <v>2032</v>
-      </c>
-      <c r="X78" s="22">
-        <v>2033</v>
-      </c>
-      <c r="Y78" s="22">
-        <v>2034</v>
-      </c>
-      <c r="Z78" s="22">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="43" cm="1">
-        <f t="array" ref="C79:Z79">TRANSPOSE(G84:G107)</f>
-        <v>1</v>
-      </c>
-      <c r="D79" s="43">
-        <v>0.98556385942470071</v>
-      </c>
-      <c r="E79" s="43">
-        <v>0.96983137334414704</v>
-      </c>
-      <c r="F79" s="43">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="G79" s="43">
-        <v>0.95661376543184151</v>
-      </c>
-      <c r="H79" s="43">
-        <v>0.93665959530026111</v>
-      </c>
-      <c r="I79" s="43">
-        <v>0.9143273584567535</v>
-      </c>
-      <c r="J79" s="43">
-        <v>0.89805481563188172</v>
-      </c>
-      <c r="K79" s="43">
-        <v>0.88711067149387013</v>
-      </c>
-      <c r="L79" s="43">
-        <v>0.84730412960844359</v>
-      </c>
-      <c r="M79" s="43">
-        <v>0.78452102304761584</v>
-      </c>
-      <c r="N79" s="43">
-        <v>0.75350342301658668</v>
-      </c>
-      <c r="O79" s="43">
-        <v>0.73191600598044548</v>
-      </c>
-      <c r="P79" s="44">
-        <v>0.71059806405868498</v>
-      </c>
-      <c r="Q79" s="44">
-        <v>0.68990103306668438</v>
-      </c>
-      <c r="R79" s="44">
-        <v>0.66980682822008197</v>
-      </c>
-      <c r="S79" s="44">
-        <v>0.65029789147580774</v>
-      </c>
-      <c r="T79" s="44">
-        <v>0.63135717619010456</v>
-      </c>
-      <c r="U79" s="44">
-        <v>0.61296813222340252</v>
-      </c>
-      <c r="V79" s="44">
-        <v>0.59511469147903162</v>
-      </c>
-      <c r="W79" s="44">
-        <v>0.57778125386313739</v>
-      </c>
-      <c r="X79" s="44">
-        <v>0.56095267365353152</v>
-      </c>
-      <c r="Y79" s="44">
-        <v>0.54461424626556454</v>
-      </c>
-      <c r="Z79" s="44">
-        <v>0.52875169540346068</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17">
-        <v>0.03</v>
-      </c>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="15"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84">
-        <v>228.85</v>
-      </c>
-      <c r="C84">
-        <v>230.33799999999999</v>
-      </c>
-      <c r="D84">
-        <v>229.59399999999999</v>
-      </c>
-      <c r="E84">
-        <v>1.7</v>
-      </c>
-      <c r="F84">
-        <v>2.1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>105</v>
-      </c>
-      <c r="B85">
-        <v>232.36600000000001</v>
-      </c>
-      <c r="C85">
-        <v>233.548</v>
-      </c>
-      <c r="D85">
-        <v>232.95699999999999</v>
-      </c>
-      <c r="E85">
-        <v>1.5</v>
-      </c>
-      <c r="F85">
-        <v>1.5</v>
-      </c>
-      <c r="G85">
-        <v>0.98556385942470071</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>106</v>
-      </c>
-      <c r="B86">
-        <v>236.38399999999999</v>
-      </c>
-      <c r="C86">
-        <v>237.08799999999999</v>
-      </c>
-      <c r="D86">
-        <v>236.73599999999999</v>
-      </c>
-      <c r="E86">
-        <v>0.8</v>
-      </c>
-      <c r="F86">
-        <v>1.6</v>
-      </c>
-      <c r="G86">
-        <v>0.96983137334414704</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87">
-        <v>236.26499999999999</v>
-      </c>
-      <c r="C87">
-        <v>237.76900000000001</v>
-      </c>
-      <c r="D87">
-        <v>237.017</v>
-      </c>
-      <c r="E87">
-        <v>0.7</v>
-      </c>
-      <c r="F87">
-        <v>0.1</v>
-      </c>
-      <c r="G87">
-        <v>0.9686815713640794</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88">
-        <v>238.77799999999999</v>
-      </c>
-      <c r="C88">
-        <v>241.23699999999999</v>
-      </c>
-      <c r="D88">
-        <v>240.00700000000001</v>
-      </c>
-      <c r="E88">
-        <v>2.1</v>
-      </c>
-      <c r="F88">
-        <v>1.3</v>
-      </c>
-      <c r="G88">
-        <v>0.95661376543184151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89">
-        <v>244.07599999999999</v>
-      </c>
-      <c r="C89">
-        <v>246.16300000000001</v>
-      </c>
-      <c r="D89">
-        <v>245.12</v>
-      </c>
-      <c r="E89">
-        <v>2.1</v>
-      </c>
-      <c r="F89">
-        <v>2.1</v>
-      </c>
-      <c r="G89">
-        <v>0.93665959530026111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90">
-        <v>250.089</v>
-      </c>
-      <c r="C90">
-        <v>252.125</v>
-      </c>
-      <c r="D90">
-        <v>251.107</v>
-      </c>
-      <c r="E90">
-        <v>1.9</v>
-      </c>
-      <c r="F90">
-        <v>2.4</v>
-      </c>
-      <c r="G90">
-        <v>0.9143273584567535</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91">
-        <v>254.41200000000001</v>
-      </c>
-      <c r="C91">
-        <v>256.90300000000002</v>
-      </c>
-      <c r="D91">
-        <v>255.65700000000001</v>
-      </c>
-      <c r="E91">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F91">
-        <v>1.8</v>
-      </c>
-      <c r="G91">
-        <v>0.89805481563188172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92">
-        <v>257.55700000000002</v>
-      </c>
-      <c r="C92">
-        <v>260.065</v>
-      </c>
-      <c r="D92">
-        <v>258.81099999999998</v>
-      </c>
-      <c r="E92">
-        <v>1.4</v>
-      </c>
-      <c r="F92">
-        <v>1.2</v>
-      </c>
-      <c r="G92">
-        <v>0.88711067149387013</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93">
-        <v>266.23599999999999</v>
-      </c>
-      <c r="C93">
-        <v>275.70299999999997</v>
-      </c>
-      <c r="D93">
-        <v>270.97000000000003</v>
-      </c>
-      <c r="E93">
-        <v>7</v>
-      </c>
-      <c r="F93">
-        <v>4.7</v>
-      </c>
-      <c r="G93">
-        <v>0.84730412960844359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>114</v>
-      </c>
-      <c r="B94">
-        <v>288.34699999999998</v>
-      </c>
-      <c r="C94">
-        <v>296.96300000000002</v>
-      </c>
-      <c r="D94">
-        <v>292.65499999999997</v>
-      </c>
-      <c r="E94">
-        <v>6.5</v>
-      </c>
-      <c r="F94">
-        <v>8</v>
-      </c>
-      <c r="G94">
-        <v>0.78452102304761584</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95">
-        <v>302.40800000000002</v>
-      </c>
-      <c r="C95">
-        <v>306.99599999999998</v>
-      </c>
-      <c r="D95">
-        <v>304.702</v>
-      </c>
-      <c r="G95">
-        <v>0.75350342301658668</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96">
-        <v>312.14499999999998</v>
-      </c>
-      <c r="C96">
-        <v>315.233</v>
-      </c>
-      <c r="D96">
-        <v>313.68900000000002</v>
-      </c>
-      <c r="G96">
-        <v>0.73191600598044548</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>2025</v>
-      </c>
-      <c r="D97">
-        <f>D96*(1+F97)</f>
-        <v>323.09967</v>
-      </c>
-      <c r="F97" s="16">
-        <f>G$82</f>
-        <v>0.03</v>
-      </c>
-      <c r="G97" s="22">
-        <f>D$84/D97</f>
-        <v>0.71059806405868498</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>2026</v>
-      </c>
-      <c r="D98">
-        <f>D97*(1+F98)</f>
-        <v>332.79266010000003</v>
-      </c>
-      <c r="F98" s="16">
-        <f t="shared" ref="F98:F107" si="10">G$82</f>
-        <v>0.03</v>
-      </c>
-      <c r="G98" s="22">
-        <f t="shared" ref="G98:G107" si="11">D$84/D98</f>
-        <v>0.68990103306668438</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2027</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ref="D99:D107" si="12">D98*(1+F99)</f>
-        <v>342.77643990300004</v>
-      </c>
-      <c r="F99" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G99" s="22">
-        <f t="shared" si="11"/>
-        <v>0.66980682822008197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>2028</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="12"/>
-        <v>353.05973310009006</v>
-      </c>
-      <c r="F100" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G100" s="22">
-        <f t="shared" si="11"/>
-        <v>0.65029789147580774</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>2029</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="12"/>
-        <v>363.65152509309274</v>
-      </c>
-      <c r="F101" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G101" s="22">
-        <f t="shared" si="11"/>
-        <v>0.63135717619010456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>2030</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="12"/>
-        <v>374.56107084588552</v>
-      </c>
-      <c r="F102" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G102" s="22">
-        <f t="shared" si="11"/>
-        <v>0.61296813222340252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>2031</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="12"/>
-        <v>385.79790297126209</v>
-      </c>
-      <c r="F103" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G103" s="22">
-        <f t="shared" si="11"/>
-        <v>0.59511469147903162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>2032</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="12"/>
-        <v>397.37184006039996</v>
-      </c>
-      <c r="F104" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G104" s="22">
-        <f t="shared" si="11"/>
-        <v>0.57778125386313739</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>2033</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="12"/>
-        <v>409.29299526221195</v>
-      </c>
-      <c r="F105" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G105" s="22">
-        <f t="shared" si="11"/>
-        <v>0.56095267365353152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>2034</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="12"/>
-        <v>421.57178512007829</v>
-      </c>
-      <c r="F106" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G106" s="22">
-        <f t="shared" si="11"/>
-        <v>0.54461424626556454</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>2035</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="12"/>
-        <v>434.21893867368067</v>
-      </c>
-      <c r="F107" s="16">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
-      </c>
-      <c r="G107" s="22">
-        <f t="shared" si="11"/>
-        <v>0.52875169540346068</v>
-      </c>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="4"/>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="4"/>
+        <v>813.57301620665066</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="4"/>
+        <v>717.87024500573807</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="4"/>
+        <v>626.60098876461211</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="4"/>
+        <v>579.94875430090838</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="X41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Y41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AA41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AB41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AC41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AD41" s="5">
+        <f t="shared" si="4"/>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AE41" s="5">
+        <f t="shared" si="4"/>
+        <v>569.44304374425872</v>
+      </c>
+      <c r="AF41" s="5">
+        <f t="shared" si="4"/>
+        <v>568.32511001517457</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
-    <hyperlink ref="R18" r:id="rId3" xr:uid="{5F06F0E1-C2F5-4064-8449-00379A1A43C2}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
+    <hyperlink ref="R15" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -10065,1053 +8072,1117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4700B1-78D7-456C-A4C4-AB085247994E}">
   <dimension ref="A1:AL776"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="22" customWidth="1"/>
-    <col min="5" max="38" width="7.5703125" style="22" customWidth="1"/>
-    <col min="39" max="16384" width="12.5703125" style="22"/>
+    <col min="1" max="1" width="51.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="23" customWidth="1"/>
+    <col min="5" max="38" width="7.5703125" style="23" customWidth="1"/>
+    <col min="39" max="16384" width="12.5703125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
     </row>
     <row r="2" spans="1:38" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
+      <c r="A2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
     </row>
     <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
     </row>
     <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="34">
-        <v>40000</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
+      <c r="A4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="34">
-        <v>7500</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
+      <c r="A5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
     </row>
     <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+    </row>
+    <row r="7" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="27">
+        <f>B4*$B$16*$B$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="27">
+        <f>B4*B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23">
         <v>2023</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C10" s="23">
         <v>2024</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D10" s="23">
         <v>2025</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E10" s="23">
         <v>2026</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F10" s="23">
         <v>2027</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G10" s="23">
         <v>2028</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H10" s="23">
         <v>2029</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I10" s="23">
         <v>2030</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J10" s="23">
         <v>2031</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K10" s="23">
         <v>2032</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="26">
-        <f>$B4*$B$16*C$14</f>
-        <v>25920.517751770582</v>
-      </c>
-      <c r="C8" s="26">
-        <f>$B4*$B$16*D$14</f>
-        <v>25177.910605727324</v>
-      </c>
-      <c r="D8" s="26">
-        <f>$B4*$B$16*E$14</f>
-        <v>24444.573403618764</v>
-      </c>
-      <c r="E8" s="26">
-        <f>$B4*$B$16*F$14</f>
-        <v>23732.595537493944</v>
-      </c>
-      <c r="F8" s="26">
-        <f>$B4*$B$16*G$14</f>
-        <v>23041.354890770821</v>
-      </c>
-      <c r="G8" s="26">
-        <f>$B4*$B$16*H$14</f>
-        <v>22370.247466767785</v>
-      </c>
-      <c r="H8" s="26">
-        <f>$B4*$B$16*I$14</f>
-        <v>21718.686860939597</v>
-      </c>
-      <c r="I8" s="26">
-        <f>$B4*$B$16*J$14</f>
-        <v>21086.103748485046</v>
-      </c>
-      <c r="J8" s="26">
-        <f>$B4*$B$16*K$14</f>
-        <v>20471.945386878688</v>
-      </c>
-      <c r="K8" s="26">
-        <f>$B4*$B$16*L$14</f>
-        <v>19875.675132891927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="26">
-        <f>$B$4*C14</f>
-        <v>30140.136920663466</v>
-      </c>
-      <c r="C9" s="26">
-        <f t="shared" ref="C9:K9" si="0">$B$4*D14</f>
-        <v>29276.640239217821</v>
-      </c>
-      <c r="D9" s="26">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="36">
+        <f>C36</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="36">
+        <f t="shared" ref="C11:K11" si="0">D36</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
         <f t="shared" si="0"/>
-        <v>28423.922562347398</v>
-      </c>
-      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
-        <v>27596.041322667374</v>
-      </c>
-      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
-        <v>26792.273128803277</v>
-      </c>
-      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
-        <v>26011.915659032311</v>
-      </c>
-      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
-        <v>25254.287047604183</v>
-      </c>
-      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
-        <v>24518.725288936101</v>
-      </c>
-      <c r="J9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>23804.587659161265</v>
-      </c>
-      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="36">
         <f t="shared" si="0"/>
-        <v>23111.250154525496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="35">
-        <f>C36</f>
-        <v>9715.0710076103514</v>
-      </c>
-      <c r="C10" s="35">
-        <f t="shared" ref="C10:K10" si="1">D36</f>
-        <v>9379.5012804435319</v>
-      </c>
-      <c r="D10" s="35">
-        <f t="shared" si="1"/>
-        <v>9098.157067904207</v>
-      </c>
-      <c r="E10" s="35">
-        <f t="shared" si="1"/>
-        <v>8900.5394373583313</v>
-      </c>
-      <c r="F10" s="35">
-        <f t="shared" si="1"/>
-        <v>8762.1955571514172</v>
-      </c>
-      <c r="G10" s="35">
-        <f t="shared" si="1"/>
-        <v>8574.638599520662</v>
-      </c>
-      <c r="H10" s="35">
-        <f t="shared" si="1"/>
-        <v>8327.2183891071436</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="1"/>
-        <v>8038.2687173078502</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="1"/>
-        <v>7772.0490463949827</v>
-      </c>
-      <c r="K10" s="35">
-        <f t="shared" si="1"/>
-        <v>7566.1942040579743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-    </row>
-    <row r="13" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="25">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="22">
-        <v>2023</v>
-      </c>
-      <c r="D13" s="25">
-        <v>2024</v>
-      </c>
-      <c r="E13" s="22">
-        <v>2025</v>
-      </c>
-      <c r="F13" s="25">
-        <v>2026</v>
-      </c>
-      <c r="G13" s="22">
-        <v>2027</v>
-      </c>
-      <c r="H13" s="25">
-        <v>2028</v>
-      </c>
-      <c r="I13" s="22">
-        <v>2029</v>
-      </c>
-      <c r="J13" s="25">
-        <v>2030</v>
-      </c>
-      <c r="K13" s="22">
-        <v>2031</v>
-      </c>
-      <c r="L13" s="25">
-        <v>2032</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
     </row>
     <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="49" cm="1">
-        <f t="array" ref="B14:L14">TRANSPOSE('Passenger Vehicle Calculations'!G94:G104)</f>
-        <v>0.78452102304761584</v>
-      </c>
-      <c r="C14" s="50">
-        <v>0.75350342301658668</v>
-      </c>
-      <c r="D14" s="50">
-        <v>0.73191600598044548</v>
-      </c>
-      <c r="E14" s="50">
-        <v>0.71059806405868498</v>
-      </c>
-      <c r="F14" s="50">
-        <v>0.68990103306668438</v>
-      </c>
-      <c r="G14" s="50">
-        <v>0.66980682822008197</v>
-      </c>
-      <c r="H14" s="50">
-        <v>0.65029789147580774</v>
-      </c>
-      <c r="I14" s="50">
-        <v>0.63135717619010456</v>
-      </c>
-      <c r="J14" s="50">
-        <v>0.61296813222340252</v>
-      </c>
-      <c r="K14" s="50">
-        <v>0.59511469147903162</v>
-      </c>
-      <c r="L14" s="50">
-        <v>0.57778125386313739</v>
+      <c r="A14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="25">
+      <c r="A16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="26">
         <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>51</v>
+      <c r="A19" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>52</v>
+      <c r="A20" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>74</v>
+      <c r="A22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="A23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="27">
         <f>B5*B14</f>
-        <v>5883.907672857119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="23">
+      <c r="A24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="24">
         <v>3</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="26">
+      <c r="C24" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="27">
         <f>D23</f>
-        <v>5883.907672857119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="28">
+      <c r="A25" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="29">
         <v>44657</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="26">
+      <c r="C25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="27">
         <f>B4*B14</f>
-        <v>31380.840921904633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>63</v>
+      <c r="A27" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
+      <c r="A28" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
+      <c r="A30" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="31">
+      <c r="A31" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="32">
         <v>2022</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="32">
         <v>2023</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="32">
         <v>2024</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="32">
         <v>2025</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="32">
         <v>2026</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="32">
         <v>2027</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="32">
         <v>2028</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="32">
         <v>2029</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="32">
         <v>2030</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="32">
         <v>2031</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="32">
         <v>2032</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
+      <c r="M31" s="32">
+        <v>2033</v>
+      </c>
+      <c r="N31" s="32">
+        <v>2034</v>
+      </c>
+      <c r="O31" s="32">
+        <v>2035</v>
+      </c>
+      <c r="P31" s="32">
+        <v>2036</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>2037</v>
+      </c>
+      <c r="R31" s="32">
+        <v>2038</v>
+      </c>
+      <c r="S31" s="32">
+        <v>2039</v>
+      </c>
+      <c r="T31" s="32">
+        <v>2040</v>
+      </c>
+      <c r="U31" s="32">
+        <v>2041</v>
+      </c>
+      <c r="V31" s="32">
+        <v>2042</v>
+      </c>
+      <c r="W31" s="32">
+        <v>2043</v>
+      </c>
+      <c r="X31" s="32">
+        <v>2044</v>
+      </c>
+      <c r="Y31" s="32">
+        <v>2045</v>
+      </c>
+      <c r="Z31" s="32">
+        <v>2046</v>
+      </c>
+      <c r="AA31" s="32">
+        <v>2047</v>
+      </c>
+      <c r="AB31" s="32">
+        <v>2048</v>
+      </c>
+      <c r="AC31" s="32">
+        <v>2049</v>
+      </c>
+      <c r="AD31" s="32">
+        <v>2050</v>
+      </c>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="32">
+      <c r="A32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="33">
         <v>652.15881300000001</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="33">
         <v>675.13665800000001</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="33">
         <v>689.60467500000004</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="33">
         <v>691.51690699999995</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="33">
         <v>688.42425500000002</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="33">
         <v>684.18414299999995</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="33">
         <v>682.62188700000002</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="33">
         <v>679.86218299999996</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="33">
         <v>678.07775900000001</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="33">
         <v>677.36639400000001</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="33">
         <v>675.92620799999997</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="29"/>
+      <c r="M32" s="33">
+        <v>676.86370799999997</v>
+      </c>
+      <c r="N32" s="33">
+        <v>681.45581100000004</v>
+      </c>
+      <c r="O32" s="33">
+        <v>687.30078100000003</v>
+      </c>
+      <c r="P32" s="33">
+        <v>692.37145999999996</v>
+      </c>
+      <c r="Q32" s="33">
+        <v>698.31860400000005</v>
+      </c>
+      <c r="R32" s="33">
+        <v>703.59320100000002</v>
+      </c>
+      <c r="S32" s="33">
+        <v>709.57092299999999</v>
+      </c>
+      <c r="T32" s="33">
+        <v>711.90655500000003</v>
+      </c>
+      <c r="U32" s="33">
+        <v>714.37567100000001</v>
+      </c>
+      <c r="V32" s="33">
+        <v>716.10638400000005</v>
+      </c>
+      <c r="W32" s="33">
+        <v>717.97564699999998</v>
+      </c>
+      <c r="X32" s="33">
+        <v>723.98962400000005</v>
+      </c>
+      <c r="Y32" s="33">
+        <v>729.19946300000004</v>
+      </c>
+      <c r="Z32" s="33">
+        <v>732.66320800000005</v>
+      </c>
+      <c r="AA32" s="33">
+        <v>734.38165300000003</v>
+      </c>
+      <c r="AB32" s="33">
+        <v>739.21014400000001</v>
+      </c>
+      <c r="AC32" s="33">
+        <v>745.07336399999997</v>
+      </c>
+      <c r="AD32" s="33">
+        <v>1035.5</v>
+      </c>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="30"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="32">
+      <c r="A33" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="33">
         <v>252.12297100000001</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="33">
         <v>262.199432</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="33">
         <v>276.18127399999997</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="33">
         <v>286.01892099999998</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="33">
         <v>290.46655299999998</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="33">
         <v>292.43240400000002</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="33">
         <v>293.63424700000002</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="33">
         <v>296.173248</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="33">
         <v>298.12170400000002</v>
       </c>
-      <c r="K33" s="32">
+      <c r="K33" s="33">
         <v>300.39685100000003</v>
       </c>
-      <c r="L33" s="32">
+      <c r="L33" s="33">
         <v>303.257294</v>
       </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="29"/>
+      <c r="M33" s="33">
+        <v>305.71603399999998</v>
+      </c>
+      <c r="N33" s="33">
+        <v>309.26257299999997</v>
+      </c>
+      <c r="O33" s="33">
+        <v>314.79812600000002</v>
+      </c>
+      <c r="P33" s="33">
+        <v>321.14746100000002</v>
+      </c>
+      <c r="Q33" s="33">
+        <v>327.09249899999998</v>
+      </c>
+      <c r="R33" s="33">
+        <v>333.56478900000002</v>
+      </c>
+      <c r="S33" s="33">
+        <v>339.75351000000001</v>
+      </c>
+      <c r="T33" s="33">
+        <v>346.38189699999998</v>
+      </c>
+      <c r="U33" s="33">
+        <v>351.209137</v>
+      </c>
+      <c r="V33" s="33">
+        <v>355.95761099999999</v>
+      </c>
+      <c r="W33" s="33">
+        <v>360.42837500000002</v>
+      </c>
+      <c r="X33" s="33">
+        <v>364.902466</v>
+      </c>
+      <c r="Y33" s="33">
+        <v>371.72610500000002</v>
+      </c>
+      <c r="Z33" s="33">
+        <v>378.28823899999998</v>
+      </c>
+      <c r="AA33" s="33">
+        <v>383.89129600000001</v>
+      </c>
+      <c r="AB33" s="33">
+        <v>388.47567700000002</v>
+      </c>
+      <c r="AC33" s="33">
+        <v>394.81222500000001</v>
+      </c>
+      <c r="AD33" s="33">
+        <v>401.96115099999997</v>
+      </c>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="30"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="32">
+      <c r="A34" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="33">
         <v>180.61982699999999</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="33">
         <v>186.49350000000001</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="33">
         <v>188.82283000000001</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="33">
         <v>190.626938</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="33">
         <v>195.106979</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="33">
         <v>202.50727800000001</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="33">
         <v>207.005585</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="33">
         <v>207.12138400000001</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="33">
         <v>203.823837</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="33">
         <v>201.78428600000001</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="33">
         <v>203.63635300000001</v>
       </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="29"/>
+      <c r="M34" s="33">
+        <v>206.92961099999999</v>
+      </c>
+      <c r="N34" s="33">
+        <v>209.69859299999999</v>
+      </c>
+      <c r="O34" s="33">
+        <v>212.967072</v>
+      </c>
+      <c r="P34" s="33">
+        <v>216.125214</v>
+      </c>
+      <c r="Q34" s="33">
+        <v>219.188492</v>
+      </c>
+      <c r="R34" s="33">
+        <v>221.84333799999999</v>
+      </c>
+      <c r="S34" s="33">
+        <v>224.323059</v>
+      </c>
+      <c r="T34" s="33">
+        <v>227.32418799999999</v>
+      </c>
+      <c r="U34" s="33">
+        <v>230.371872</v>
+      </c>
+      <c r="V34" s="33">
+        <v>232.498154</v>
+      </c>
+      <c r="W34" s="33">
+        <v>235.21517900000001</v>
+      </c>
+      <c r="X34" s="33">
+        <v>236.05999800000001</v>
+      </c>
+      <c r="Y34" s="33">
+        <v>234.92872600000001</v>
+      </c>
+      <c r="Z34" s="33">
+        <v>234.37702899999999</v>
+      </c>
+      <c r="AA34" s="33">
+        <v>235.44674699999999</v>
+      </c>
+      <c r="AB34" s="33">
+        <v>237.52796900000001</v>
+      </c>
+      <c r="AC34" s="33">
+        <v>239.052933</v>
+      </c>
+      <c r="AD34" s="33">
+        <v>241.633881</v>
+      </c>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="30"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="26">
-        <f t="shared" ref="B36:AD36" si="2">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
-        <v>10128.764188673933</v>
-      </c>
-      <c r="C36" s="26">
-        <f>SUMPRODUCT(C32:C34,$D$23:$D$25)/SUM(C32:C34)*C14/$B$14</f>
-        <v>9715.0710076103514</v>
-      </c>
-      <c r="D36" s="26">
-        <f t="shared" ref="D36:L36" si="3">SUMPRODUCT(D32:D34,$D$23:$D$25)/SUM(D32:D34)*D14/$B$14</f>
-        <v>9379.5012804435319</v>
-      </c>
-      <c r="E36" s="26">
-        <f t="shared" si="3"/>
-        <v>9098.157067904207</v>
-      </c>
-      <c r="F36" s="26">
-        <f t="shared" si="3"/>
-        <v>8900.5394373583313</v>
-      </c>
-      <c r="G36" s="26">
-        <f t="shared" si="3"/>
-        <v>8762.1955571514172</v>
-      </c>
-      <c r="H36" s="26">
-        <f t="shared" si="3"/>
-        <v>8574.638599520662</v>
-      </c>
-      <c r="I36" s="26">
-        <f t="shared" si="3"/>
-        <v>8327.2183891071436</v>
-      </c>
-      <c r="J36" s="26">
-        <f t="shared" si="3"/>
-        <v>8038.2687173078502</v>
-      </c>
-      <c r="K36" s="26">
-        <f t="shared" si="3"/>
-        <v>7772.0490463949827</v>
-      </c>
-      <c r="L36" s="26">
-        <f t="shared" si="3"/>
-        <v>7566.1942040579743</v>
-      </c>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
+      <c r="A36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="27">
+        <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -11884,7 +9955,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D8" sqref="D8:AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11992,219 +10063,219 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
-        <f>'Passenger Vehicle Calculations'!C68</f>
-        <v>1930.7404811231229</v>
-      </c>
-      <c r="C2" s="18">
-        <f>'Passenger Vehicle Calculations'!D68</f>
-        <v>1599.8025784220101</v>
-      </c>
-      <c r="D2" s="18">
-        <f>'Passenger Vehicle Calculations'!E68</f>
-        <v>5130.1015918271351</v>
-      </c>
-      <c r="E2" s="18">
-        <f>'Passenger Vehicle Calculations'!F68</f>
-        <v>3819.9265877142789</v>
-      </c>
-      <c r="F2" s="18">
-        <f>'Passenger Vehicle Calculations'!G68</f>
-        <v>3565.6148024975096</v>
-      </c>
-      <c r="G2" s="18">
-        <f>'Passenger Vehicle Calculations'!H68</f>
-        <v>3312.3286898445285</v>
-      </c>
-      <c r="H2" s="18">
-        <f>'Passenger Vehicle Calculations'!I68</f>
-        <v>2579.6280722494112</v>
-      </c>
-      <c r="I2" s="18">
-        <f>'Passenger Vehicle Calculations'!J68</f>
-        <v>2607.4715657030551</v>
-      </c>
-      <c r="J2" s="18">
-        <f>'Passenger Vehicle Calculations'!K68</f>
-        <v>2637.5199855509622</v>
-      </c>
-      <c r="K2" s="18">
-        <f>'Passenger Vehicle Calculations'!L68</f>
-        <v>2669.5709726607206</v>
-      </c>
-      <c r="L2" s="18">
-        <f>'Passenger Vehicle Calculations'!M68</f>
-        <v>2692.8330628056278</v>
-      </c>
-      <c r="M2" s="18">
-        <f>'Passenger Vehicle Calculations'!N68</f>
-        <v>2715.0603144269971</v>
-      </c>
-      <c r="N2" s="18">
-        <f>'Passenger Vehicle Calculations'!O68</f>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="O2" s="18">
-        <f>'Passenger Vehicle Calculations'!P68</f>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="P2" s="18">
-        <f>'Passenger Vehicle Calculations'!Q68</f>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Q2" s="18">
-        <f>'Passenger Vehicle Calculations'!R68</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="18">
-        <f>'Passenger Vehicle Calculations'!S68</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <f>'Passenger Vehicle Calculations'!T68</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <f>'Passenger Vehicle Calculations'!U68</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <f>'Passenger Vehicle Calculations'!V68</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="18">
-        <f>'Passenger Vehicle Calculations'!W68</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="18">
-        <f>'Passenger Vehicle Calculations'!X68</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="18">
-        <f>'Passenger Vehicle Calculations'!Y68</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18">
-        <f>'Passenger Vehicle Calculations'!Z68</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="18">
-        <f>'Passenger Vehicle Calculations'!AA68</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="18">
-        <f>'Passenger Vehicle Calculations'!AB68</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="18">
-        <f>'Passenger Vehicle Calculations'!AC68</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="18">
-        <f>'Passenger Vehicle Calculations'!AD68</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="18">
-        <f>'Passenger Vehicle Calculations'!AE68</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="18">
-        <f>'Passenger Vehicle Calculations'!AF68</f>
-        <v>0</v>
+      <c r="B2" s="19">
+        <f>'Passenger Vehicle Calculations'!C40</f>
+        <v>2246.6514584584847</v>
+      </c>
+      <c r="C2" s="19">
+        <f>'Passenger Vehicle Calculations'!D40</f>
+        <v>1945.0372251736685</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Passenger Vehicle Calculations'!E40</f>
+        <v>1560.1486150491955</v>
+      </c>
+      <c r="E2" s="19">
+        <f>'Passenger Vehicle Calculations'!F40</f>
+        <v>1222.6455220376913</v>
+      </c>
+      <c r="F2" s="19">
+        <f>'Passenger Vehicle Calculations'!G40</f>
+        <v>787.57954922979729</v>
+      </c>
+      <c r="G2" s="19">
+        <f>'Passenger Vehicle Calculations'!H40</f>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="H2" s="19">
+        <f>'Passenger Vehicle Calculations'!I40</f>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="I2" s="19">
+        <f>'Passenger Vehicle Calculations'!J40</f>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="J2" s="19">
+        <f>'Passenger Vehicle Calculations'!K40</f>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="K2" s="19">
+        <f>'Passenger Vehicle Calculations'!L40</f>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="L2" s="19">
+        <f>'Passenger Vehicle Calculations'!M40</f>
+        <v>597.99709158467795</v>
+      </c>
+      <c r="M2" s="19">
+        <f>'Passenger Vehicle Calculations'!N40</f>
+        <v>597.98804083383322</v>
+      </c>
+      <c r="N2" s="19">
+        <f>'Passenger Vehicle Calculations'!O40</f>
+        <v>597.98261038332635</v>
+      </c>
+      <c r="O2" s="19">
+        <f>'Passenger Vehicle Calculations'!P40</f>
+        <v>597.98261038332635</v>
+      </c>
+      <c r="P2" s="19">
+        <f>'Passenger Vehicle Calculations'!Q40</f>
+        <v>588.37071298617752</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>'Passenger Vehicle Calculations'!R40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="R2" s="19">
+        <f>'Passenger Vehicle Calculations'!S40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="S2" s="19">
+        <f>'Passenger Vehicle Calculations'!T40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="T2" s="19">
+        <f>'Passenger Vehicle Calculations'!U40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="U2" s="19">
+        <f>'Passenger Vehicle Calculations'!V40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="V2" s="19">
+        <f>'Passenger Vehicle Calculations'!W40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="W2" s="19">
+        <f>'Passenger Vehicle Calculations'!X40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="X2" s="19">
+        <f>'Passenger Vehicle Calculations'!Y40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Y2" s="19">
+        <f>'Passenger Vehicle Calculations'!Z40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Z2" s="19">
+        <f>'Passenger Vehicle Calculations'!AA40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AA2" s="19">
+        <f>'Passenger Vehicle Calculations'!AB40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AB2" s="19">
+        <f>'Passenger Vehicle Calculations'!AC40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AC2" s="19">
+        <f>'Passenger Vehicle Calculations'!AD40</f>
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AD2" s="19">
+        <f>'Passenger Vehicle Calculations'!AE40</f>
+        <v>578.72080243548066</v>
+      </c>
+      <c r="AE2" s="19">
+        <f>'Passenger Vehicle Calculations'!AF40</f>
+        <v>576.39113916803615</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="18">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12212,94 +10283,94 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18">
-        <v>0</v>
-      </c>
-      <c r="W4" s="18">
-        <v>0</v>
-      </c>
-      <c r="X4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="18">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12307,94 +10378,94 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
-        <v>0</v>
-      </c>
-      <c r="V5" s="18">
-        <v>0</v>
-      </c>
-      <c r="W5" s="18">
-        <v>0</v>
-      </c>
-      <c r="X5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="18">
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12402,219 +10473,219 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
-        <f>'Passenger Vehicle Calculations'!C69</f>
-        <v>6868.4402011018146</v>
-      </c>
-      <c r="C6" s="18">
-        <f>'Passenger Vehicle Calculations'!D69</f>
-        <v>3805.0788061456087</v>
-      </c>
-      <c r="D6" s="18">
-        <f>'Passenger Vehicle Calculations'!E69</f>
-        <v>3662.355308727233</v>
-      </c>
-      <c r="E6" s="18">
-        <f>'Passenger Vehicle Calculations'!F69</f>
-        <v>2999.2858045496764</v>
-      </c>
-      <c r="F6" s="18">
-        <f>'Passenger Vehicle Calculations'!G69</f>
-        <v>2492.4252043210045</v>
-      </c>
-      <c r="G6" s="18">
-        <f>'Passenger Vehicle Calculations'!H69</f>
-        <v>2355.6859555808901</v>
-      </c>
-      <c r="H6" s="18">
-        <f>'Passenger Vehicle Calculations'!I69</f>
-        <v>2224.0661798520518</v>
-      </c>
-      <c r="I6" s="18">
-        <f>'Passenger Vehicle Calculations'!J69</f>
-        <v>2167.4924466149887</v>
-      </c>
-      <c r="J6" s="18">
-        <f>'Passenger Vehicle Calculations'!K69</f>
-        <v>2112.6190346880921</v>
-      </c>
-      <c r="K6" s="18">
-        <f>'Passenger Vehicle Calculations'!L69</f>
-        <v>2059.3856145068316</v>
-      </c>
-      <c r="L6" s="18">
-        <f>'Passenger Vehicle Calculations'!M69</f>
-        <v>2006.7216198707158</v>
-      </c>
-      <c r="M6" s="18">
-        <f>'Passenger Vehicle Calculations'!N69</f>
-        <v>1955.3640812230597</v>
-      </c>
-      <c r="N6" s="18">
-        <f>'Passenger Vehicle Calculations'!O69</f>
-        <v>75.947919361469985</v>
-      </c>
-      <c r="O6" s="18">
-        <f>'Passenger Vehicle Calculations'!P69</f>
-        <v>73.735844040262123</v>
-      </c>
-      <c r="P6" s="18">
-        <f>'Passenger Vehicle Calculations'!Q69</f>
-        <v>71.588198097341873</v>
-      </c>
-      <c r="Q6" s="18">
-        <f>'Passenger Vehicle Calculations'!R69</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <f>'Passenger Vehicle Calculations'!S69</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <f>'Passenger Vehicle Calculations'!T69</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <f>'Passenger Vehicle Calculations'!U69</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <f>'Passenger Vehicle Calculations'!V69</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <f>'Passenger Vehicle Calculations'!W69</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="18">
-        <f>'Passenger Vehicle Calculations'!X69</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="18">
-        <f>'Passenger Vehicle Calculations'!Y69</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18">
-        <f>'Passenger Vehicle Calculations'!Z69</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18">
-        <f>'Passenger Vehicle Calculations'!AA69</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <f>'Passenger Vehicle Calculations'!AB69</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
-        <f>'Passenger Vehicle Calculations'!AC69</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="18">
-        <f>'Passenger Vehicle Calculations'!AD69</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="18">
-        <f>'Passenger Vehicle Calculations'!AE69</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18">
-        <f>'Passenger Vehicle Calculations'!AF69</f>
-        <v>0</v>
+      <c r="B6" s="19">
+        <f>'Passenger Vehicle Calculations'!C41</f>
+        <v>7252.8718628779843</v>
+      </c>
+      <c r="C6" s="19">
+        <f>'Passenger Vehicle Calculations'!D41</f>
+        <v>4193.5021611124384</v>
+      </c>
+      <c r="D6" s="19">
+        <f>'Passenger Vehicle Calculations'!E41</f>
+        <v>1999.3135655618016</v>
+      </c>
+      <c r="E6" s="19">
+        <f>'Passenger Vehicle Calculations'!F41</f>
+        <v>1406.7897393119888</v>
+      </c>
+      <c r="F6" s="19">
+        <f>'Passenger Vehicle Calculations'!G41</f>
+        <v>989.41348130353549</v>
+      </c>
+      <c r="G6" s="19">
+        <f>'Passenger Vehicle Calculations'!H41</f>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="H6" s="19">
+        <f>'Passenger Vehicle Calculations'!I41</f>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="I6" s="19">
+        <f>'Passenger Vehicle Calculations'!J41</f>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="J6" s="19">
+        <f>'Passenger Vehicle Calculations'!K41</f>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="K6" s="19">
+        <f>'Passenger Vehicle Calculations'!L41</f>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="L6" s="19">
+        <f>'Passenger Vehicle Calculations'!M41</f>
+        <v>868.84862836692241</v>
+      </c>
+      <c r="M6" s="19">
+        <f>'Passenger Vehicle Calculations'!N41</f>
+        <v>813.57301620665066</v>
+      </c>
+      <c r="N6" s="19">
+        <f>'Passenger Vehicle Calculations'!O41</f>
+        <v>717.87024500573807</v>
+      </c>
+      <c r="O6" s="19">
+        <f>'Passenger Vehicle Calculations'!P41</f>
+        <v>626.60098876461211</v>
+      </c>
+      <c r="P6" s="19">
+        <f>'Passenger Vehicle Calculations'!Q41</f>
+        <v>579.94875430090838</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>'Passenger Vehicle Calculations'!R41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="R6" s="19">
+        <f>'Passenger Vehicle Calculations'!S41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="S6" s="19">
+        <f>'Passenger Vehicle Calculations'!T41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="T6" s="19">
+        <f>'Passenger Vehicle Calculations'!U41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="U6" s="19">
+        <f>'Passenger Vehicle Calculations'!V41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="V6" s="19">
+        <f>'Passenger Vehicle Calculations'!W41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="W6" s="19">
+        <f>'Passenger Vehicle Calculations'!X41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="X6" s="19">
+        <f>'Passenger Vehicle Calculations'!Y41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Y6" s="19">
+        <f>'Passenger Vehicle Calculations'!Z41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="Z6" s="19">
+        <f>'Passenger Vehicle Calculations'!AA41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AA6" s="19">
+        <f>'Passenger Vehicle Calculations'!AB41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AB6" s="19">
+        <f>'Passenger Vehicle Calculations'!AC41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AC6" s="19">
+        <f>'Passenger Vehicle Calculations'!AD41</f>
+        <v>571.30626662606562</v>
+      </c>
+      <c r="AD6" s="19">
+        <f>'Passenger Vehicle Calculations'!AE41</f>
+        <v>569.44304374425872</v>
+      </c>
+      <c r="AE6" s="19">
+        <f>'Passenger Vehicle Calculations'!AF41</f>
+        <v>568.32511001517457</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="18">
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12622,123 +10693,123 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
         <f>D2</f>
-        <v>5130.1015918271351</v>
-      </c>
-      <c r="E8" s="18">
+        <v>1560.1486150491955</v>
+      </c>
+      <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>3819.9265877142789</v>
-      </c>
-      <c r="F8" s="18">
+        <v>1222.6455220376913</v>
+      </c>
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>3565.6148024975096</v>
-      </c>
-      <c r="G8" s="18">
+        <v>787.57954922979729</v>
+      </c>
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>3312.3286898445285</v>
-      </c>
-      <c r="H8" s="18">
+        <v>597.99709158467795</v>
+      </c>
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>2579.6280722494112</v>
-      </c>
-      <c r="I8" s="18">
+        <v>597.99709158467795</v>
+      </c>
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>2607.4715657030551</v>
-      </c>
-      <c r="J8" s="18">
+        <v>597.99709158467795</v>
+      </c>
+      <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>2637.5199855509622</v>
-      </c>
-      <c r="K8" s="18">
+        <v>597.99709158467795</v>
+      </c>
+      <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>2669.5709726607206</v>
-      </c>
-      <c r="L8" s="18">
+        <v>597.99709158467795</v>
+      </c>
+      <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>2692.8330628056278</v>
-      </c>
-      <c r="M8" s="18">
+        <v>597.99709158467795</v>
+      </c>
+      <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>2715.0603144269971</v>
-      </c>
-      <c r="N8" s="18">
+        <v>597.98804083383322</v>
+      </c>
+      <c r="N8" s="19">
         <f t="shared" si="0"/>
-        <v>157.82432189025366</v>
-      </c>
-      <c r="O8" s="18">
+        <v>597.98261038332635</v>
+      </c>
+      <c r="O8" s="19">
         <f t="shared" si="0"/>
-        <v>153.22749698082879</v>
-      </c>
-      <c r="P8" s="18">
+        <v>597.98261038332635</v>
+      </c>
+      <c r="P8" s="19">
         <f t="shared" si="0"/>
-        <v>148.76456017556194</v>
-      </c>
-      <c r="Q8" s="18">
+        <v>588.37071298617752</v>
+      </c>
+      <c r="Q8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="R8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="S8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="T8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="U8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="V8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="W8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="X8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Y8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="Z8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AA8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AB8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AC8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="18">
+        <v>582.60357454788823</v>
+      </c>
+      <c r="AD8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18">
+        <v>578.72080243548066</v>
+      </c>
+      <c r="AE8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>576.39113916803615</v>
       </c>
     </row>
   </sheetData>
@@ -12755,13 +10826,12 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -12869,45 +10939,45 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!C14*'Commercial Vehicles'!$B16</f>
-        <v>25920.517751770582</v>
-      </c>
-      <c r="E2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!D14*'Commercial Vehicles'!$B16</f>
-        <v>25177.910605727324</v>
-      </c>
-      <c r="F2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!E14*'Commercial Vehicles'!$B16</f>
-        <v>24444.57340361876</v>
-      </c>
-      <c r="G2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!F14*'Commercial Vehicles'!$B16</f>
-        <v>23732.59553749394</v>
-      </c>
-      <c r="H2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!G14*'Commercial Vehicles'!$B16</f>
-        <v>23041.354890770817</v>
-      </c>
-      <c r="I2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!H14*'Commercial Vehicles'!$B16</f>
-        <v>22370.247466767789</v>
-      </c>
-      <c r="J2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!I14*'Commercial Vehicles'!$B16</f>
-        <v>21718.686860939597</v>
-      </c>
-      <c r="K2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!J14*'Commercial Vehicles'!$B16</f>
-        <v>21086.103748485046</v>
-      </c>
-      <c r="L2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!K14*'Commercial Vehicles'!$B16</f>
-        <v>20471.945386878688</v>
-      </c>
-      <c r="M2" s="51">
-        <f>'Commercial Vehicles'!$B4*'Commercial Vehicles'!L14*'Commercial Vehicles'!$B16</f>
-        <v>19875.675132891927</v>
+      <c r="D2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>'Commercial Vehicles'!$B$7</f>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -13261,43 +11331,43 @@
       </c>
       <c r="D6">
         <f>D2</f>
-        <v>25920.517751770582</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:M6" si="0">E2</f>
-        <v>25177.910605727324</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>24444.57340361876</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>23732.59553749394</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>23041.354890770817</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>22370.247466767789</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>21718.686860939597</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>21086.103748485046</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>20471.945386878688</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>19875.675132891927</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -13461,43 +11531,43 @@
       </c>
       <c r="D8">
         <f>D2</f>
-        <v>25920.517751770582</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:M8" si="1">E2</f>
-        <v>25177.910605727324</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>24444.57340361876</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>23732.59553749394</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>23041.354890770817</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>22370.247466767789</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>21718.686860939597</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>21086.103748485046</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>20471.945386878688</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>19875.675132891927</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
